--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
     <sheet name="1964" sheetId="48" r:id="rId2"/>
     <sheet name="1968" sheetId="49" r:id="rId3"/>
+    <sheet name="1972" sheetId="50" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -1840,6 +1841,902 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1964'!A5+1</f>
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1968-06-05"</f>
+        <v>1968-06-05</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G5" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (9, '1968-06-05', 4, 39);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1968-06-05"</f>
+        <v>1968-06-05</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>39</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (10, '1968-06-05', 4, 39);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A6" si="1">A3+1</f>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1968-06-08"</f>
+        <v>1968-06-08</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="2">D3</f>
+        <v>39</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (11, '1968-06-08', 5, 39);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1968-06-08"</f>
+        <v>1968-06-08</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (12, '1968-06-08', 6, 39);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1968-06-10"</f>
+        <v>1968-06-10</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="3">D5</f>
+        <v>39</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="4">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A6 &amp; ", '" &amp; B6 &amp; "', " &amp; C6 &amp; ", " &amp; D6 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (13, '1968-06-10', 7, 39);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>'1964'!A31+1</f>
+        <v>45</v>
+      </c>
+      <c r="B9" s="3">
+        <f>A2</f>
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" ref="G9:G28" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (45, 9, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>A9+1</f>
+        <v>46</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B9</f>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (46, 9, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" ref="A11:A36" si="6">A10+1</f>
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B9</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (47, 9, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B9</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (48, 9, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B10</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (49, 9, 39, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B11</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (50, 9, 39, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="3">
+        <f>B12</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (51, 9, 7097, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B13</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (52, 9, 7097, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B9+1</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (53, 10, 38, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B17</f>
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (54, 10, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B17</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 10, 4420, 0, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B17</f>
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (56, 10, 4420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B17+1</f>
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 11, 4420, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B21</f>
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (58, 11, 4420, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B21</f>
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 11, 7097, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B21</f>
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 11, 7097, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B21+1</f>
+        <v>12</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 12, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B25</f>
+        <v>12</v>
+      </c>
+      <c r="C26" s="4">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (62, 12, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B25</f>
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 12, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B25</f>
+        <v>12</v>
+      </c>
+      <c r="C28" s="4">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 12, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B26</f>
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G36" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 12, 39, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B27</f>
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 12, 39, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B28</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="4">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 12, 38, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B29</f>
+        <v>12</v>
+      </c>
+      <c r="C32" s="4">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 12, 38, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B29+1</f>
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (69, 13, 39, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B33</f>
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (70, 13, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B33</f>
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (71, 13, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B33</f>
+        <v>13</v>
+      </c>
+      <c r="C36" s="3">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (72, 13, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,143 +2770,148 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'1964'!A5+1</f>
-        <v>9</v>
+        <f>'1968'!A6+1</f>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1968-06-05"</f>
-        <v>1968-06-05</v>
+        <f>"1972-06-14"</f>
+        <v>1972-06-14</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G5" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (9, '1968-06-05', 4, 34);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (14, '1972-06-14', 4, 32);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1968-06-05"</f>
-        <v>1968-06-05</v>
+        <f t="shared" ref="B3" si="1">"1972-06-14"</f>
+        <v>1972-06-14</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
         <f>D2</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (10, '1968-06-05', 4, 34);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (15, '1972-06-14', 4, 32);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A6" si="1">A3+1</f>
-        <v>11</v>
+        <f t="shared" ref="A4:A5" si="2">A3+1</f>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1968-06-08"</f>
-        <v>1968-06-08</v>
+        <f>"1972-06-17"</f>
+        <v>1972-06-17</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="2">D3</f>
-        <v>34</v>
+        <f t="shared" ref="D4:D5" si="3">D3</f>
+        <v>32</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (11, '1968-06-08', 5, 34);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (16, '1972-06-17', 5, 32);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1968-06-08"</f>
-        <v>1968-06-08</v>
+        <f>"1972-06-18"</f>
+        <v>1972-06-18</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (12, '1968-06-08', 6, 34);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>"1968-06-10"</f>
-        <v>1968-06-10</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6" si="3">D5</f>
-        <v>34</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6" si="4">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A6 &amp; ", '" &amp; B6 &amp; "', " &amp; C6 &amp; ", " &amp; D6 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (13, '1968-06-10', 7, 34);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (17, '1972-06-18', 6, 32);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A7 &amp; ", " &amp; B7 &amp; ", " &amp; C7 &amp; ", " &amp; D7 &amp; ", " &amp; E7 &amp; ", " &amp; F7 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      <c r="A8" s="3">
+        <f>'1968'!A36+1</f>
+        <v>73</v>
+      </c>
+      <c r="B8" s="3">
+        <f>A2</f>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ref="G8:G23" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (73, 14, 32, 1, 0, 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>'1964'!A31+1</f>
-        <v>45</v>
+        <f>A8+1</f>
+        <v>74</v>
       </c>
       <c r="B9" s="3">
-        <f>A2</f>
-        <v>9</v>
+        <f>B8</f>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -2018,716 +2920,379 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ref="G9:G28" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (45, 9, 39, 0, 0, 2);</v>
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (74, 14, 32, 0, 0, 1);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>A9+1</f>
-        <v>46</v>
+        <f t="shared" ref="A10:A23" si="5">A9+1</f>
+        <v>75</v>
       </c>
       <c r="B10" s="3">
-        <f>B9</f>
-        <v>9</v>
+        <f>B8</f>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (46, 9, 39, 0, 0, 1);</v>
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (75, 14, 49228, 2, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" ref="A11:A36" si="6">A10+1</f>
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
       <c r="B11" s="3">
-        <f>B9</f>
-        <v>9</v>
+        <f>B8</f>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (76, 14, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B8+1</f>
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (77, 15, 36, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (78, 15, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B12</f>
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
         <v>7097</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="str">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (79, 15, 7097, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (47, 9, 7097, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="B12" s="3">
-        <f>B9</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B12</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
         <v>7097</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (48, 9, 7097, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="B13" s="3">
-        <f>B10</f>
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (49, 9, 39, 0, 1, 4);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="B14" s="3">
-        <f>B11</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (50, 9, 39, 0, 0, 3);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="B15" s="3">
-        <f>B12</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7097</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (51, 9, 7097, 0, 1, 4);</v>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (80, 15, 7097, 0, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>81</v>
       </c>
       <c r="B16" s="3">
-        <f>B13</f>
-        <v>9</v>
+        <f>B12+1</f>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>7097</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 16, 36, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (52, 9, 7097, 0, 0, 3);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="B17" s="4">
-        <f>B9+1</f>
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" t="str">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B16</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 16, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (53, 10, 38, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="B18" s="4">
-        <f>B17</f>
-        <v>10</v>
-      </c>
-      <c r="C18" s="4">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" t="str">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B16</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 16, 32, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (54, 10, 38, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="B19" s="4">
-        <f>B17</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4420</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 10, 4420, 0, 2, 2);</v>
+        <v>84</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B16</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 16, 32, 2, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="6"/>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>85</v>
       </c>
       <c r="B20" s="4">
-        <f>B17</f>
-        <v>10</v>
+        <f>B16+1</f>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
-        <v>4420</v>
+        <v>49228</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" t="str">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 17, 49228, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (56, 10, 4420, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B17+1</f>
-        <v>11</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="str">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 17, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 11, 4420, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="B22" s="3">
-        <f>B21</f>
-        <v>11</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="str">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 17, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (58, 11, 4420, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B21</f>
-        <v>11</v>
-      </c>
-      <c r="C23" s="3">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
         <v>7097</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 11, 7097, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="B24" s="3">
-        <f>B21</f>
-        <v>11</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7097</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 11, 7097, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B21+1</f>
-        <v>12</v>
-      </c>
-      <c r="C25" s="4">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 12, 39, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B25</f>
-        <v>12</v>
-      </c>
-      <c r="C26" s="4">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (62, 12, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="B27" s="4">
-        <f>B25</f>
-        <v>12</v>
-      </c>
-      <c r="C27" s="4">
-        <v>38</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 12, 38, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="B28" s="4">
-        <f>B25</f>
-        <v>12</v>
-      </c>
-      <c r="C28" s="4">
-        <v>38</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 12, 38, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="B29" s="4">
-        <f>B26</f>
-        <v>12</v>
-      </c>
-      <c r="C29" s="4">
-        <v>39</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" ref="G29:G36" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 12, 39, 0, 1, 4);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="B30" s="4">
-        <f>B27</f>
-        <v>12</v>
-      </c>
-      <c r="C30" s="4">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>3</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 12, 39, 0, 0, 3);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="B31" s="4">
-        <f>B28</f>
-        <v>12</v>
-      </c>
-      <c r="C31" s="4">
-        <v>38</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>4</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 12, 38, 0, 1, 4);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B29</f>
-        <v>12</v>
-      </c>
-      <c r="C32" s="4">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>3</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 12, 38, 0, 0, 3);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="B33" s="3">
-        <f>B29+1</f>
-        <v>13</v>
-      </c>
-      <c r="C33" s="3">
-        <v>39</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (69, 13, 39, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="B34" s="3">
-        <f>B33</f>
-        <v>13</v>
-      </c>
-      <c r="C34" s="3">
-        <v>39</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (70, 13, 39, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="B35" s="3">
-        <f>B33</f>
-        <v>13</v>
-      </c>
-      <c r="C35" s="3">
-        <v>38</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (71, 13, 38, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="B36" s="3">
-        <f>B33</f>
-        <v>13</v>
-      </c>
-      <c r="C36" s="3">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (72, 13, 38, 0, 0, 1);</v>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 17, 7097, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
     <sheet name="1964" sheetId="48" r:id="rId2"/>
     <sheet name="1968" sheetId="49" r:id="rId3"/>
     <sheet name="1972" sheetId="50" r:id="rId4"/>
+    <sheet name="1976" sheetId="51" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -2737,6 +2738,570 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1968'!A6+1</f>
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1972-06-14"</f>
+        <v>1972-06-14</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G5" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (14, '1972-06-14', 4, 32);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3" si="1">"1972-06-14"</f>
+        <v>1972-06-14</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>32</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (15, '1972-06-14', 4, 32);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="2">A3+1</f>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1972-06-17"</f>
+        <v>1972-06-17</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="3">D3</f>
+        <v>32</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (16, '1972-06-17', 5, 32);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1972-06-18"</f>
+        <v>1972-06-18</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (17, '1972-06-18', 6, 32);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A7 &amp; ", " &amp; B7 &amp; ", " &amp; C7 &amp; ", " &amp; D7 &amp; ", " &amp; E7 &amp; ", " &amp; F7 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>'1968'!A36+1</f>
+        <v>73</v>
+      </c>
+      <c r="B8" s="3">
+        <f>A2</f>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ref="G8:G23" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (73, 14, 32, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>A8+1</f>
+        <v>74</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B8</f>
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (74, 14, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" ref="A10:A23" si="5">A9+1</f>
+        <v>75</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B8</f>
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (75, 14, 49228, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B8</f>
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (76, 14, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B8+1</f>
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (77, 15, 36, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (78, 15, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B12</f>
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (79, 15, 7097, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B12</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (80, 15, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B12+1</f>
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 16, 36, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B16</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 16, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B16</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 16, 32, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B16</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 16, 32, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B16+1</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 17, 49228, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 17, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 17, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 17, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,12 +3335,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'1968'!A6+1</f>
-        <v>14</v>
+        <f>'1972'!A5+1</f>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1972-06-14"</f>
-        <v>1972-06-14</v>
+        <f>"1976-06-16"</f>
+        <v>1976-06-16</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2785,17 +3350,17 @@
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G5" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (14, '1972-06-14', 4, 32);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (18, '1976-06-16', 4, 32);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3" si="1">"1972-06-14"</f>
-        <v>1972-06-14</v>
+        <f>"1976-06-17"</f>
+        <v>1976-06-17</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2806,49 +3371,49 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (15, '1972-06-14', 4, 32);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (19, '1976-06-17', 4, 32);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A5" si="2">A3+1</f>
-        <v>16</v>
+        <f t="shared" ref="A4:A5" si="1">A3+1</f>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1972-06-17"</f>
-        <v>1972-06-17</v>
+        <f>"1976-06-19"</f>
+        <v>1976-06-19</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="3">D3</f>
+        <f t="shared" ref="D4:D5" si="2">D3</f>
         <v>32</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (16, '1972-06-17', 5, 32);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (20, '1976-06-19', 5, 32);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1972-06-18"</f>
-        <v>1972-06-18</v>
+        <f>"1976-06-20"</f>
+        <v>1976-06-20</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (17, '1972-06-18', 6, 32);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (21, '1976-06-20', 6, 32);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2877,15 +3442,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>'1968'!A36+1</f>
-        <v>73</v>
+        <f>'1972'!A23+1</f>
+        <v>89</v>
       </c>
       <c r="B8" s="3">
         <f>A2</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2897,24 +3462,24 @@
         <v>2</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" ref="G8:G23" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (73, 14, 32, 1, 0, 2);</v>
+        <f t="shared" ref="G8:G41" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 18, 42, 1, 0, 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>A8+1</f>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3">
         <f>B8</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2923,372 +3488,838 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (74, 14, 32, 0, 0, 1);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 18, 42, 1, 0, 1);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A23" si="5">A9+1</f>
-        <v>75</v>
+        <f t="shared" ref="A10:A41" si="4">A9+1</f>
+        <v>91</v>
       </c>
       <c r="B10" s="3">
         <f>B8</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
-        <v>49228</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (75, 14, 49228, 2, 2, 2);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 18, 31, 1, 0, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="5"/>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="B11" s="3">
         <f>B8</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 18, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B9</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 18, 42, 3, 2, 4);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B10</f>
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 18, 42, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B11</f>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 18, 31, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B15" s="3">
+        <f>B12</f>
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 18, 31, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B8+1</f>
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 19, 38, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B16</f>
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 19, 38, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B16</f>
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
         <v>49228</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (76, 14, 49228, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="B12" s="4">
-        <f>B8+1</f>
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (77, 15, 36, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B12</f>
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (78, 15, 36, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="B14" s="4">
-        <f>B12</f>
-        <v>15</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (79, 15, 7097, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B12</f>
-        <v>15</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (80, 15, 7097, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="B16" s="3">
-        <f>B12+1</f>
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 16, 36, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 19, 49228, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B19" s="4">
         <f>B16</f>
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 16, 36, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="B18" s="3">
-        <f>B16</f>
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 16, 32, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="B19" s="3">
-        <f>B16</f>
-        <v>16</v>
-      </c>
-      <c r="C19" s="3">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 16, 32, 2, 0, 1);</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 19, 49228, 1, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
       <c r="B20" s="4">
-        <f>B16+1</f>
-        <v>17</v>
+        <f>B17</f>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
-        <v>49228</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 17, 49228, 3, 2, 2);</v>
+        <v>4</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 19, 38, 2, 0, 4);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
       <c r="B21" s="4">
-        <f>B20</f>
-        <v>17</v>
+        <f>B18</f>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
-        <v>49228</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 17, 49228, 1, 0, 1);</v>
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 19, 38, 2, 0, 3);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f t="shared" si="4"/>
+        <v>103</v>
       </c>
       <c r="B22" s="4">
-        <f>B20</f>
-        <v>17</v>
+        <f>B19</f>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
-        <v>7097</v>
+        <v>49228</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 17, 7097, 0, 0, 2);</v>
+        <v>4</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 19, 49228, 4, 2, 4);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="5"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>104</v>
       </c>
       <c r="B23" s="4">
         <f>B20</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>7097</v>
+        <v>49228</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 17, 7097, 0, 0, 1);</v>
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 19, 49228, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B16+1</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 20, 31, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B24</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 20, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B24</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 20, 38, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B24</f>
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 20, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B25</f>
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 20, 31, 3, 2, 4);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B26</f>
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 20, 31, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B27</f>
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 20, 38, 2, 0, 4);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 20, 38, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B24+1</f>
+        <v>21</v>
+      </c>
+      <c r="C32" s="4">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 21, 42, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>21</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 21, 42, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>21</v>
+      </c>
+      <c r="C34" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 21, 49228, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>21</v>
+      </c>
+      <c r="C35" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 21, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B24+1</f>
+        <v>21</v>
+      </c>
+      <c r="C36" s="4">
+        <v>42</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 21, 42, 2, 1, 4);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B36</f>
+        <v>21</v>
+      </c>
+      <c r="C37" s="4">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 21, 42, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B36</f>
+        <v>21</v>
+      </c>
+      <c r="C38" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 21, 49228, 2, 1, 4);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B36</f>
+        <v>21</v>
+      </c>
+      <c r="C39" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 21, 49228, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B40" s="4">
+        <v>21</v>
+      </c>
+      <c r="C40" s="4">
+        <v>42</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>7</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 21, 42, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B41" s="4">
+        <v>21</v>
+      </c>
+      <c r="C41" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 21, 49228, 3, 0, 7);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="1968" sheetId="49" r:id="rId3"/>
     <sheet name="1972" sheetId="50" r:id="rId4"/>
     <sheet name="1976" sheetId="51" r:id="rId5"/>
+    <sheet name="1980" sheetId="53" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +46,18 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>tournament</t>
+  </si>
+  <si>
+    <t>group_code</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -3302,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4326,4 +4339,2046 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>49228</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (1, 1980, 'A', 49228);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1980</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (2, 1980, 'A', 42);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B9" si="2">B3</f>
+        <v>1980</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (3, 1980, 'A', 31);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (4, 1980, 'A', 30);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (5, 1980, 'B', 32);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (6, 1980, 'B', 39);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>4420</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (7, 1980, 'B', 4420);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (8, 1980, 'B', 34);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'1976'!A5+1</f>
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1980-06-11"</f>
+        <v>1980-06-11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G25" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (22, '1980-06-11', 2, 39);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1980-06-11"</f>
+        <v>1980-06-11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>39</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (23, '1980-06-11', 2, 39);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A25" si="4">A13+1</f>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1980-06-14"</f>
+        <v>1980-06-14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D25" si="5">D13</f>
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (24, '1980-06-14', 2, 39);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1980-06-14"</f>
+        <v>1980-06-14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (25, '1980-06-14', 2, 39);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1980-06-17"</f>
+        <v>1980-06-17</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (26, '1980-06-17', 2, 39);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1980-06-17"</f>
+        <v>1980-06-17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (27, '1980-06-17', 2, 39);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1980-06-12"</f>
+        <v>1980-06-12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (28, '1980-06-12', 2, 39);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1980-06-12"</f>
+        <v>1980-06-12</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (29, '1980-06-12', 2, 39);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1980-06-15"</f>
+        <v>1980-06-15</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (30, '1980-06-15', 2, 39);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1980-06-15"</f>
+        <v>1980-06-15</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (31, '1980-06-15', 2, 39);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1980-06-18"</f>
+        <v>1980-06-18</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (32, '1980-06-18', 2, 39);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1980-06-18"</f>
+        <v>1980-06-18</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1980-06-18', 2, 39);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1980-06-21"</f>
+        <v>1980-06-21</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1980-06-21', 5, 39);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1980-06-22"</f>
+        <v>1980-06-22</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1980-06-22', 6, 39);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>'1976'!A41+1</f>
+        <v>123</v>
+      </c>
+      <c r="B28" s="3">
+        <f>A12</f>
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G31" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 22, 42, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>A28+1</f>
+        <v>124</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28</f>
+        <v>22</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 22, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" ref="A30:A85" si="7">A29+1</f>
+        <v>125</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28</f>
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 22, 49228, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 22, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B28+1</f>
+        <v>23</v>
+      </c>
+      <c r="C32" s="4">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" ref="G32:G39" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 23, 31, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>23</v>
+      </c>
+      <c r="C33" s="4">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 23, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>23</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 23, 30, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>23</v>
+      </c>
+      <c r="C35" s="4">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 23, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B32+1</f>
+        <v>24</v>
+      </c>
+      <c r="C36" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" ref="G36:G67" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A36 &amp; ", " &amp; B36 &amp; ", " &amp; C36 &amp; ", " &amp; D36 &amp; ", " &amp; E36 &amp; ", " &amp; F36 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 24, 49228, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>24</v>
+      </c>
+      <c r="C37" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 24, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B36</f>
+        <v>24</v>
+      </c>
+      <c r="C38" s="3">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 24, 31, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B36</f>
+        <v>24</v>
+      </c>
+      <c r="C39" s="3">
+        <v>31</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 24, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B36+1</f>
+        <v>25</v>
+      </c>
+      <c r="C40" s="4">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 25, 30, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B40</f>
+        <v>25</v>
+      </c>
+      <c r="C41" s="4">
+        <v>30</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 25, 30, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B40</f>
+        <v>25</v>
+      </c>
+      <c r="C42" s="4">
+        <v>42</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 25, 42, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B40</f>
+        <v>25</v>
+      </c>
+      <c r="C43" s="4">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 25, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B40+1</f>
+        <v>26</v>
+      </c>
+      <c r="C44" s="3">
+        <v>31</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 26, 31, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B44</f>
+        <v>26</v>
+      </c>
+      <c r="C45" s="3">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 26, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44</f>
+        <v>26</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 26, 42, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B44</f>
+        <v>26</v>
+      </c>
+      <c r="C47" s="3">
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 26, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B44+1</f>
+        <v>27</v>
+      </c>
+      <c r="C48" s="4">
+        <v>30</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 27, 30, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B48</f>
+        <v>27</v>
+      </c>
+      <c r="C49" s="4">
+        <v>30</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 27, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B48</f>
+        <v>27</v>
+      </c>
+      <c r="C50" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 27, 49228, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B48</f>
+        <v>27</v>
+      </c>
+      <c r="C51" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 27, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B48+1</f>
+        <v>28</v>
+      </c>
+      <c r="C52" s="3">
+        <v>32</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 28, 32, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B52</f>
+        <v>28</v>
+      </c>
+      <c r="C53" s="3">
+        <v>32</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 28, 32, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B52</f>
+        <v>28</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 28, 4420, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B52</f>
+        <v>28</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 28, 4420, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B52+1</f>
+        <v>29</v>
+      </c>
+      <c r="C56" s="4">
+        <v>34</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 29, 34, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B56</f>
+        <v>29</v>
+      </c>
+      <c r="C57" s="4">
+        <v>34</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 29, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B56</f>
+        <v>29</v>
+      </c>
+      <c r="C58" s="4">
+        <v>39</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 29, 39, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B56</f>
+        <v>29</v>
+      </c>
+      <c r="C59" s="4">
+        <v>39</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 29, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B56+1</f>
+        <v>30</v>
+      </c>
+      <c r="C60" s="3">
+        <v>32</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 30, 32, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>30</v>
+      </c>
+      <c r="C61" s="3">
+        <v>32</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 30, 32, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>30</v>
+      </c>
+      <c r="C62" s="3">
+        <v>34</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 30, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B60</f>
+        <v>30</v>
+      </c>
+      <c r="C63" s="3">
+        <v>34</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 30, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B60+1</f>
+        <v>31</v>
+      </c>
+      <c r="C64" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 31, 4420, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B64</f>
+        <v>31</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 31, 4420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B64</f>
+        <v>31</v>
+      </c>
+      <c r="C66" s="4">
+        <v>39</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 31, 39, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B64</f>
+        <v>31</v>
+      </c>
+      <c r="C67" s="4">
+        <v>39</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 31, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B64+1</f>
+        <v>32</v>
+      </c>
+      <c r="C68" s="3">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" ref="G68:G79" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A68 &amp; ", " &amp; B68 &amp; ", " &amp; C68 &amp; ", " &amp; D68 &amp; ", " &amp; E68 &amp; ", " &amp; F68 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 32, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B68</f>
+        <v>32</v>
+      </c>
+      <c r="C69" s="3">
+        <v>34</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 32, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="7"/>
+        <v>165</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B68</f>
+        <v>32</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 32, 4420, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B68</f>
+        <v>32</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 32, 4420, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B68+1</f>
+        <v>33</v>
+      </c>
+      <c r="C72" s="4">
+        <v>39</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 33, 39, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B72</f>
+        <v>33</v>
+      </c>
+      <c r="C73" s="4">
+        <v>39</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 33, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B72</f>
+        <v>33</v>
+      </c>
+      <c r="C74" s="4">
+        <v>32</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 33, 32, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B72</f>
+        <v>33</v>
+      </c>
+      <c r="C75" s="4">
+        <v>32</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 33, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B72+1</f>
+        <v>34</v>
+      </c>
+      <c r="C76" s="3">
+        <v>42</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 34, 42, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B76</f>
+        <v>34</v>
+      </c>
+      <c r="C77" s="3">
+        <v>42</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 34, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="7"/>
+        <v>173</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B76</f>
+        <v>34</v>
+      </c>
+      <c r="C78" s="3">
+        <v>39</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 34, 39, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B76</f>
+        <v>34</v>
+      </c>
+      <c r="C79" s="3">
+        <v>39</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 34, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B78</f>
+        <v>34</v>
+      </c>
+      <c r="C80" s="3">
+        <v>42</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>7</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" ref="G80:G85" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A80 &amp; ", " &amp; B80 &amp; ", " &amp; C80 &amp; ", " &amp; D80 &amp; ", " &amp; E80 &amp; ", " &amp; F80 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 34, 42, 9, 0, 7);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>34</v>
+      </c>
+      <c r="C81" s="3">
+        <v>39</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 34, 39, 8, 0, 7);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B78+1</f>
+        <v>35</v>
+      </c>
+      <c r="C82" s="4">
+        <v>32</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 35, 32, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B82</f>
+        <v>35</v>
+      </c>
+      <c r="C83" s="4">
+        <v>32</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 35, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="7"/>
+        <v>179</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B82</f>
+        <v>35</v>
+      </c>
+      <c r="C84" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 35, 49228, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B82</f>
+        <v>35</v>
+      </c>
+      <c r="C85" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 35, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="1972" sheetId="50" r:id="rId4"/>
     <sheet name="1976" sheetId="51" r:id="rId5"/>
     <sheet name="1980" sheetId="53" r:id="rId6"/>
+    <sheet name="1984" sheetId="54" r:id="rId7"/>
+    <sheet name="1988" sheetId="55" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -4345,6 +4347,4444 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G85"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>49228</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (1, 1980, 'A', 49228);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1980</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (2, 1980, 'A', 42);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B9" si="2">B3</f>
+        <v>1980</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (3, 1980, 'A', 31);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (4, 1980, 'A', 30);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (5, 1980, 'B', 32);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (6, 1980, 'B', 39);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>4420</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (7, 1980, 'B', 4420);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (8, 1980, 'B', 34);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'1976'!A5+1</f>
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1980-06-11"</f>
+        <v>1980-06-11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G25" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (22, '1980-06-11', 2, 39);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1980-06-11"</f>
+        <v>1980-06-11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>39</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (23, '1980-06-11', 2, 39);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A25" si="4">A13+1</f>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1980-06-14"</f>
+        <v>1980-06-14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D25" si="5">D13</f>
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (24, '1980-06-14', 2, 39);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1980-06-14"</f>
+        <v>1980-06-14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (25, '1980-06-14', 2, 39);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1980-06-17"</f>
+        <v>1980-06-17</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (26, '1980-06-17', 2, 39);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1980-06-17"</f>
+        <v>1980-06-17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (27, '1980-06-17', 2, 39);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1980-06-12"</f>
+        <v>1980-06-12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (28, '1980-06-12', 2, 39);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1980-06-12"</f>
+        <v>1980-06-12</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (29, '1980-06-12', 2, 39);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1980-06-15"</f>
+        <v>1980-06-15</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (30, '1980-06-15', 2, 39);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1980-06-15"</f>
+        <v>1980-06-15</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (31, '1980-06-15', 2, 39);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1980-06-18"</f>
+        <v>1980-06-18</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (32, '1980-06-18', 2, 39);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1980-06-18"</f>
+        <v>1980-06-18</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1980-06-18', 2, 39);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1980-06-21"</f>
+        <v>1980-06-21</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1980-06-21', 5, 39);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1980-06-22"</f>
+        <v>1980-06-22</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1980-06-22', 6, 39);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>'1976'!A41+1</f>
+        <v>123</v>
+      </c>
+      <c r="B28" s="3">
+        <f>A12</f>
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G31" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 22, 42, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>A28+1</f>
+        <v>124</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28</f>
+        <v>22</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 22, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" ref="A30:A85" si="7">A29+1</f>
+        <v>125</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28</f>
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 22, 49228, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 22, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B28+1</f>
+        <v>23</v>
+      </c>
+      <c r="C32" s="4">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" ref="G32:G35" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 23, 31, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>23</v>
+      </c>
+      <c r="C33" s="4">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 23, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>23</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 23, 30, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>23</v>
+      </c>
+      <c r="C35" s="4">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 23, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B32+1</f>
+        <v>24</v>
+      </c>
+      <c r="C36" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" ref="G36:G67" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A36 &amp; ", " &amp; B36 &amp; ", " &amp; C36 &amp; ", " &amp; D36 &amp; ", " &amp; E36 &amp; ", " &amp; F36 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 24, 49228, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>24</v>
+      </c>
+      <c r="C37" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 24, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B36</f>
+        <v>24</v>
+      </c>
+      <c r="C38" s="3">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 24, 31, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B36</f>
+        <v>24</v>
+      </c>
+      <c r="C39" s="3">
+        <v>31</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 24, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B36+1</f>
+        <v>25</v>
+      </c>
+      <c r="C40" s="4">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 25, 30, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B40</f>
+        <v>25</v>
+      </c>
+      <c r="C41" s="4">
+        <v>30</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 25, 30, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B40</f>
+        <v>25</v>
+      </c>
+      <c r="C42" s="4">
+        <v>42</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 25, 42, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B40</f>
+        <v>25</v>
+      </c>
+      <c r="C43" s="4">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 25, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B40+1</f>
+        <v>26</v>
+      </c>
+      <c r="C44" s="3">
+        <v>31</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 26, 31, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B44</f>
+        <v>26</v>
+      </c>
+      <c r="C45" s="3">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 26, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44</f>
+        <v>26</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 26, 42, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B44</f>
+        <v>26</v>
+      </c>
+      <c r="C47" s="3">
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 26, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B44+1</f>
+        <v>27</v>
+      </c>
+      <c r="C48" s="4">
+        <v>30</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 27, 30, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B48</f>
+        <v>27</v>
+      </c>
+      <c r="C49" s="4">
+        <v>30</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 27, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B48</f>
+        <v>27</v>
+      </c>
+      <c r="C50" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 27, 49228, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B48</f>
+        <v>27</v>
+      </c>
+      <c r="C51" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 27, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B48+1</f>
+        <v>28</v>
+      </c>
+      <c r="C52" s="3">
+        <v>32</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 28, 32, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B52</f>
+        <v>28</v>
+      </c>
+      <c r="C53" s="3">
+        <v>32</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 28, 32, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B52</f>
+        <v>28</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 28, 4420, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B52</f>
+        <v>28</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 28, 4420, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B52+1</f>
+        <v>29</v>
+      </c>
+      <c r="C56" s="4">
+        <v>34</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 29, 34, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B56</f>
+        <v>29</v>
+      </c>
+      <c r="C57" s="4">
+        <v>34</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 29, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B56</f>
+        <v>29</v>
+      </c>
+      <c r="C58" s="4">
+        <v>39</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 29, 39, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B56</f>
+        <v>29</v>
+      </c>
+      <c r="C59" s="4">
+        <v>39</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 29, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B56+1</f>
+        <v>30</v>
+      </c>
+      <c r="C60" s="3">
+        <v>32</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 30, 32, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>30</v>
+      </c>
+      <c r="C61" s="3">
+        <v>32</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 30, 32, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>30</v>
+      </c>
+      <c r="C62" s="3">
+        <v>34</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 30, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B60</f>
+        <v>30</v>
+      </c>
+      <c r="C63" s="3">
+        <v>34</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 30, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B60+1</f>
+        <v>31</v>
+      </c>
+      <c r="C64" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 31, 4420, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B64</f>
+        <v>31</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 31, 4420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B64</f>
+        <v>31</v>
+      </c>
+      <c r="C66" s="4">
+        <v>39</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 31, 39, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B64</f>
+        <v>31</v>
+      </c>
+      <c r="C67" s="4">
+        <v>39</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 31, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B64+1</f>
+        <v>32</v>
+      </c>
+      <c r="C68" s="3">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" ref="G68:G79" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A68 &amp; ", " &amp; B68 &amp; ", " &amp; C68 &amp; ", " &amp; D68 &amp; ", " &amp; E68 &amp; ", " &amp; F68 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 32, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B68</f>
+        <v>32</v>
+      </c>
+      <c r="C69" s="3">
+        <v>34</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 32, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="7"/>
+        <v>165</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B68</f>
+        <v>32</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 32, 4420, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B68</f>
+        <v>32</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 32, 4420, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B68+1</f>
+        <v>33</v>
+      </c>
+      <c r="C72" s="4">
+        <v>39</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 33, 39, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B72</f>
+        <v>33</v>
+      </c>
+      <c r="C73" s="4">
+        <v>39</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 33, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B72</f>
+        <v>33</v>
+      </c>
+      <c r="C74" s="4">
+        <v>32</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 33, 32, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B72</f>
+        <v>33</v>
+      </c>
+      <c r="C75" s="4">
+        <v>32</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 33, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B72+1</f>
+        <v>34</v>
+      </c>
+      <c r="C76" s="3">
+        <v>42</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 34, 42, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B76</f>
+        <v>34</v>
+      </c>
+      <c r="C77" s="3">
+        <v>42</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 34, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="7"/>
+        <v>173</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B76</f>
+        <v>34</v>
+      </c>
+      <c r="C78" s="3">
+        <v>39</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 34, 39, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B76</f>
+        <v>34</v>
+      </c>
+      <c r="C79" s="3">
+        <v>39</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 34, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B78</f>
+        <v>34</v>
+      </c>
+      <c r="C80" s="3">
+        <v>42</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>7</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" ref="G80:G85" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A80 &amp; ", " &amp; B80 &amp; ", " &amp; C80 &amp; ", " &amp; D80 &amp; ", " &amp; E80 &amp; ", " &amp; F80 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 34, 42, 9, 0, 7);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>34</v>
+      </c>
+      <c r="C81" s="3">
+        <v>39</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 34, 39, 8, 0, 7);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B78+1</f>
+        <v>35</v>
+      </c>
+      <c r="C82" s="4">
+        <v>32</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 35, 32, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B82</f>
+        <v>35</v>
+      </c>
+      <c r="C83" s="4">
+        <v>32</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 35, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="7"/>
+        <v>179</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B82</f>
+        <v>35</v>
+      </c>
+      <c r="C84" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 35, 49228, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B82</f>
+        <v>35</v>
+      </c>
+      <c r="C85" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 35, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1980'!A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1984</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (9, 1984, 'A', 33);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1984</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (10, 1984, 'A', 45);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B9" si="2">B3</f>
+        <v>1984</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (11, 1984, 'A', 32);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (12, 1984, 'A', 38);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (13, 1984, 'B', 34);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>351</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (14, 1984, 'B', 351);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>49228</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (15, 1984, 'B', 49228);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (16, 1984, 'B', 40);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'1980'!A25+1</f>
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1984-06-12"</f>
+        <v>1984-06-12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G25" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (36, '1984-06-12', 2, 33);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1984-06-13"</f>
+        <v>1984-06-13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>33</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (37, '1984-06-13', 2, 33);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A26" si="4">A13+1</f>
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1984-06-16"</f>
+        <v>1984-06-16</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D26" si="5">D13</f>
+        <v>33</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (38, '1984-06-16', 2, 33);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1984-06-16"</f>
+        <v>1984-06-16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (39, '1984-06-16', 2, 33);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1984-06-19"</f>
+        <v>1984-06-19</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (40, '1984-06-19', 2, 33);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1984-06-19"</f>
+        <v>1984-06-19</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (41, '1984-06-19', 2, 33);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1984-06-14"</f>
+        <v>1984-06-14</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (42, '1984-06-14', 2, 33);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1984-06-14"</f>
+        <v>1984-06-14</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (43, '1984-06-14', 2, 33);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1984-06-17"</f>
+        <v>1984-06-17</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (44, '1984-06-17', 2, 33);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1984-06-17"</f>
+        <v>1984-06-17</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (45, '1984-06-17', 2, 33);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1984-06-20"</f>
+        <v>1984-06-20</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (46, '1984-06-20', 2, 33);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1984-06-20"</f>
+        <v>1984-06-20</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (47, '1984-06-20', 2, 33);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1984-06-23"</f>
+        <v>1984-06-23</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (48, '1984-06-23', 4, 33);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1984-06-24"</f>
+        <v>1984-06-24</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (49, '1984-06-24', 4, 33);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1984-06-27"</f>
+        <v>1984-06-27</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ref="G26" si="6">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A26 &amp; ", '" &amp; B26 &amp; "', " &amp; C26 &amp; ", " &amp; D26 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (50, '1984-06-27', 6, 33);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>'1980'!A85+1</f>
+        <v>181</v>
+      </c>
+      <c r="B29" s="3">
+        <f>A12</f>
+        <v>36</v>
+      </c>
+      <c r="C29" s="3">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" ref="G29:G92" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 36, 33, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>182</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B29</f>
+        <v>36</v>
+      </c>
+      <c r="C30" s="3">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 36, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" ref="A31:A98" si="8">A30+1</f>
+        <v>183</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B29</f>
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 36, 45, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B29</f>
+        <v>36</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 36, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B29+1</f>
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 37, 32, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B33</f>
+        <v>37</v>
+      </c>
+      <c r="C34" s="4">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 37, 32, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B33</f>
+        <v>37</v>
+      </c>
+      <c r="C35" s="4">
+        <v>38</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 37, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B33</f>
+        <v>37</v>
+      </c>
+      <c r="C36" s="4">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 37, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="8"/>
+        <v>189</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B33+1</f>
+        <v>38</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 38, 33, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B37</f>
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 38, 33, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B37</f>
+        <v>38</v>
+      </c>
+      <c r="C39" s="3">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 38, 32, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B37</f>
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>32</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 38, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B37+1</f>
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 39, 45, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B41</f>
+        <v>39</v>
+      </c>
+      <c r="C42" s="4">
+        <v>45</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 39, 45, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B41</f>
+        <v>39</v>
+      </c>
+      <c r="C43" s="4">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 39, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41</f>
+        <v>39</v>
+      </c>
+      <c r="C44" s="4">
+        <v>38</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 39, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B41+1</f>
+        <v>40</v>
+      </c>
+      <c r="C45" s="3">
+        <v>33</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (197, 40, 33, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="8"/>
+        <v>198</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B45</f>
+        <v>40</v>
+      </c>
+      <c r="C46" s="3">
+        <v>33</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (198, 40, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B45</f>
+        <v>40</v>
+      </c>
+      <c r="C47" s="3">
+        <v>38</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (199, 40, 38, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B45</f>
+        <v>40</v>
+      </c>
+      <c r="C48" s="3">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (200, 40, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B45+1</f>
+        <v>41</v>
+      </c>
+      <c r="C49" s="4">
+        <v>45</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (201, 41, 45, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B49</f>
+        <v>41</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (202, 41, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B49</f>
+        <v>41</v>
+      </c>
+      <c r="C51" s="4">
+        <v>32</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 41, 32, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B49</f>
+        <v>41</v>
+      </c>
+      <c r="C52" s="4">
+        <v>32</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 41, 32, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+1</f>
+        <v>42</v>
+      </c>
+      <c r="C53" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 42, 49228, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>42</v>
+      </c>
+      <c r="C54" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 42, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>42</v>
+      </c>
+      <c r="C55" s="3">
+        <v>351</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 42, 351, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>42</v>
+      </c>
+      <c r="C56" s="3">
+        <v>351</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 42, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="8"/>
+        <v>209</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>43</v>
+      </c>
+      <c r="C57" s="4">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 43, 40, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>43</v>
+      </c>
+      <c r="C58" s="4">
+        <v>40</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 43, 40, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>43</v>
+      </c>
+      <c r="C59" s="4">
+        <v>34</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 43, 34, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>43</v>
+      </c>
+      <c r="C60" s="4">
+        <v>34</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 43, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>44</v>
+      </c>
+      <c r="C61" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 44, 49228, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="8"/>
+        <v>214</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>44</v>
+      </c>
+      <c r="C62" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 44, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="8"/>
+        <v>215</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>44</v>
+      </c>
+      <c r="C63" s="3">
+        <v>40</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 44, 40, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>44</v>
+      </c>
+      <c r="C64" s="3">
+        <v>40</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 44, 40, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>45</v>
+      </c>
+      <c r="C65" s="4">
+        <v>351</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 45, 351, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>45</v>
+      </c>
+      <c r="C66" s="4">
+        <v>351</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 45, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>45</v>
+      </c>
+      <c r="C67" s="4">
+        <v>34</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 45, 34, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>45</v>
+      </c>
+      <c r="C68" s="4">
+        <v>34</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 45, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="8"/>
+        <v>221</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>46</v>
+      </c>
+      <c r="C69" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 46, 49228, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>46</v>
+      </c>
+      <c r="C70" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 46, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="8"/>
+        <v>223</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>46</v>
+      </c>
+      <c r="C71" s="3">
+        <v>34</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 46, 34, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>46</v>
+      </c>
+      <c r="C72" s="3">
+        <v>34</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 46, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>47</v>
+      </c>
+      <c r="C73" s="4">
+        <v>351</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>2</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 47, 351, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>47</v>
+      </c>
+      <c r="C74" s="4">
+        <v>351</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 47, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>47</v>
+      </c>
+      <c r="C75" s="4">
+        <v>40</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (227, 47, 40, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="8"/>
+        <v>228</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>47</v>
+      </c>
+      <c r="C76" s="4">
+        <v>40</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (228, 47, 40, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B73+1</f>
+        <v>48</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (229, 48, 33, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>48</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (230, 48, 33, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>48</v>
+      </c>
+      <c r="C79" s="3">
+        <v>351</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (231, 48, 351, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>48</v>
+      </c>
+      <c r="C80" s="3">
+        <v>351</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (232, 48, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>48</v>
+      </c>
+      <c r="C81" s="3">
+        <v>33</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (233, 48, 33, 3, 2, 4);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="8"/>
+        <v>234</v>
+      </c>
+      <c r="B82" s="3">
+        <f>B79</f>
+        <v>48</v>
+      </c>
+      <c r="C82" s="3">
+        <v>33</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 48, 33, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B80</f>
+        <v>48</v>
+      </c>
+      <c r="C83" s="3">
+        <v>351</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 48, 351, 2, 0, 4);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B81</f>
+        <v>48</v>
+      </c>
+      <c r="C84" s="3">
+        <v>351</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 48, 351, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B77+1</f>
+        <v>49</v>
+      </c>
+      <c r="C85" s="4">
+        <v>34</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 49, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B85</f>
+        <v>49</v>
+      </c>
+      <c r="C86" s="4">
+        <v>34</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 49, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="8"/>
+        <v>239</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" ref="B87:B94" si="9">B86</f>
+        <v>49</v>
+      </c>
+      <c r="C87" s="4">
+        <v>45</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 49, 45, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="B88" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C88" s="4">
+        <v>45</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 49, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="B89" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C89" s="4">
+        <v>34</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>4</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 49, 34, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="8"/>
+        <v>242</v>
+      </c>
+      <c r="B90" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C90" s="4">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>3</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 49, 34, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="B91" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C91" s="4">
+        <v>45</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>4</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 49, 45, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="B92" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C92" s="4">
+        <v>45</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 49, 45, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="B93" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C93" s="4">
+        <v>34</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>7</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" ref="G93:G98" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A93 &amp; ", " &amp; B93 &amp; ", " &amp; C93 &amp; ", " &amp; D93 &amp; ", " &amp; E93 &amp; ", " &amp; F93 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 49, 34, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="8"/>
+        <v>246</v>
+      </c>
+      <c r="B94" s="4">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C94" s="4">
+        <v>45</v>
+      </c>
+      <c r="D94" s="4">
+        <v>4</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>7</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 49, 45, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="8"/>
+        <v>247</v>
+      </c>
+      <c r="B95" s="3">
+        <f>B85+1</f>
+        <v>50</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 50, 33, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="8"/>
+        <v>248</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B95</f>
+        <v>50</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 50, 33, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="B97" s="3">
+        <f>B95</f>
+        <v>50</v>
+      </c>
+      <c r="C97" s="3">
+        <v>34</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 50, 34, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B95</f>
+        <v>50</v>
+      </c>
+      <c r="C98" s="3">
+        <v>34</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 50, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,10 +8818,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <f>'1984'!A9+1</f>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -4391,147 +8832,147 @@
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (1, 1980, 'A', 49228);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1988, 'A', 49228);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <f>B2</f>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (2, 1980, 'A', 42);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1988, 'A', 39);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="1">A3+1</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B9" si="2">B3</f>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (3, 1980, 'A', 31);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 1988, 'A', 34);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (4, 1980, 'A', 30);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 1988, 'A', 45);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>7097</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (5, 1980, 'B', 32);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 1988, 'B', 7097);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (6, 1980, 'B', 39);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 1988, 'B', 31);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>4420</v>
+        <v>353</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (7, 1980, 'B', 4420);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 1988, 'B', 353);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>4420</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (8, 1980, 'B', 34);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 1988, 'B', 4420);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4554,1762 +8995,1901 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>'1976'!A5+1</f>
-        <v>22</v>
+        <f>'1984'!A26+1</f>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1980-06-11"</f>
-        <v>1980-06-11</v>
+        <f>"1988-06-10"</f>
+        <v>1988-06-10</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ref="G12:G25" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (22, '1980-06-11', 2, 39);</v>
+        <f t="shared" ref="G12:G26" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1988-06-10', 2, 49228);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12+1</f>
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1980-06-11"</f>
-        <v>1980-06-11</v>
+        <f>"1988-06-11"</f>
+        <v>1988-06-11</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
         <f>D12</f>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (23, '1980-06-11', 2, 39);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1988-06-11', 2, 49228);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ref="A14:A25" si="4">A13+1</f>
-        <v>24</v>
+        <f t="shared" ref="A14:A26" si="4">A13+1</f>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1980-06-14"</f>
-        <v>1980-06-14</v>
+        <f>"1988-06-14"</f>
+        <v>1988-06-14</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D25" si="5">D13</f>
-        <v>39</v>
+        <f t="shared" ref="D14:D26" si="5">D13</f>
+        <v>49228</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (24, '1980-06-14', 2, 39);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1988-06-14', 2, 49228);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1980-06-14"</f>
-        <v>1980-06-14</v>
+        <f>"1988-06-14"</f>
+        <v>1988-06-14</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (25, '1980-06-14', 2, 39);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1988-06-14', 2, 49228);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1980-06-17"</f>
-        <v>1980-06-17</v>
+        <f>"1988-06-17"</f>
+        <v>1988-06-17</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (26, '1980-06-17', 2, 39);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1988-06-17', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>"1980-06-17"</f>
-        <v>1980-06-17</v>
+        <f>"1988-06-17"</f>
+        <v>1988-06-17</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (27, '1980-06-17', 2, 39);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1988-06-17', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>"1980-06-12"</f>
-        <v>1980-06-12</v>
+        <f>"1988-06-12"</f>
+        <v>1988-06-12</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (28, '1980-06-12', 2, 39);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1988-06-12', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>"1980-06-12"</f>
-        <v>1980-06-12</v>
+        <f>"1988-06-12"</f>
+        <v>1988-06-12</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (29, '1980-06-12', 2, 39);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1988-06-12', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>"1980-06-15"</f>
-        <v>1980-06-15</v>
+        <f>"1988-06-15"</f>
+        <v>1988-06-15</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (30, '1980-06-15', 2, 39);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '1988-06-15', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>"1980-06-15"</f>
-        <v>1980-06-15</v>
+        <f>"1988-06-15"</f>
+        <v>1988-06-15</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (31, '1980-06-15', 2, 39);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '1988-06-15', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>"1980-06-18"</f>
-        <v>1980-06-18</v>
+        <f>"1988-06-18"</f>
+        <v>1988-06-18</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (32, '1980-06-18', 2, 39);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '1988-06-18', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>"1980-06-18"</f>
-        <v>1980-06-18</v>
+        <f>"1988-06-18"</f>
+        <v>1988-06-18</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1980-06-18', 2, 39);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '1988-06-18', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>"1980-06-21"</f>
-        <v>1980-06-21</v>
+        <f>"1988-06-21"</f>
+        <v>1988-06-21</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>49228</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1980-06-21', 5, 39);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '1988-06-21', 4, 49228);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>"1980-06-22"</f>
-        <v>1980-06-22</v>
+        <f>"1988-06-22"</f>
+        <v>1988-06-22</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '1988-06-22', 4, 49228);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1988-06-25"</f>
+        <v>1988-06-25</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '1988-06-25', 6, 49228);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>'1984'!A98+1</f>
+        <v>251</v>
+      </c>
+      <c r="B29" s="4">
+        <f>A12</f>
+        <v>51</v>
+      </c>
+      <c r="C29" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G88" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 51, 49228, 1, 1, 2);</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f>A29+1</f>
+        <v>252</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C30" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 51, 49228, 0, 0, 1);</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" ref="A31:A88" si="7">A30+1</f>
+        <v>253</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C31" s="4">
         <v>39</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1980-06-22', 6, 39);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 51, 39, 1, 1, 2);</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C32" s="4">
+        <v>39</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 51, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B29+1</f>
+        <v>52</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 52, 45, 2, 0, 2);</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 52, 45, 1, 0, 1);</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <f>'1976'!A41+1</f>
-        <v>123</v>
-      </c>
-      <c r="B28" s="3">
-        <f>A12</f>
-        <v>22</v>
-      </c>
-      <c r="C28" s="3">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3" t="str">
-        <f t="shared" ref="G28:G31" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 22, 42, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <f>A28+1</f>
-        <v>124</v>
-      </c>
-      <c r="B29" s="3">
-        <f>B28</f>
-        <v>22</v>
-      </c>
-      <c r="C29" s="3">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="str">
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 22, 42, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <f t="shared" ref="A30:A85" si="7">A29+1</f>
-        <v>125</v>
-      </c>
-      <c r="B30" s="3">
-        <f>B28</f>
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 52, 34, 3, 2, 2);</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C36" s="4">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 52, 34, 1, 0, 1);</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="7"/>
+        <v>259</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B33+1</f>
+        <v>53</v>
+      </c>
+      <c r="C37" s="4">
         <v>49228</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="str">
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 22, 49228, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <f t="shared" si="7"/>
-        <v>126</v>
-      </c>
-      <c r="B31" s="3">
-        <f>B28</f>
-        <v>22</v>
-      </c>
-      <c r="C31" s="3">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 53, 49228, 2, 2, 2);</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C38" s="4">
         <v>49228</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="str">
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 22, 49228, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <f t="shared" si="7"/>
-        <v>127</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B28+1</f>
-        <v>23</v>
-      </c>
-      <c r="C32" s="4">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 53, 49228, 1, 0, 1);</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="7"/>
+        <v>261</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C39" s="4">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 53, 45, 0, 0, 2);</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 53, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B37+1</f>
+        <v>54</v>
+      </c>
+      <c r="C41" s="4">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 54, 39, 1, 2, 2);</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C42" s="4">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 54, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C43" s="4">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 54, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C44" s="4">
+        <v>34</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 54, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="7"/>
+        <v>267</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B41+1</f>
+        <v>55</v>
+      </c>
+      <c r="C45" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 55, 49228, 2, 2, 2);</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C46" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 55, 49228, 1, 0, 1);</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="7"/>
+        <v>269</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C47" s="4">
+        <v>34</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 55, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C48" s="4">
+        <v>34</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 55, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="7"/>
+        <v>271</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B45+1</f>
+        <v>56</v>
+      </c>
+      <c r="C49" s="4">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 56, 39, 2, 2, 2);</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="7"/>
+        <v>272</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C50" s="4">
+        <v>39</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 56, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="7"/>
+        <v>273</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 56, 45, 0, 0, 2);</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="7"/>
+        <v>274</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 56, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="7"/>
+        <v>275</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B49+1</f>
+        <v>57</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 57, 4420, 0, 0, 2);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="7"/>
+        <v>276</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 57, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C55" s="4">
+        <v>353</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 57, 353, 1, 2, 2);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C56" s="4">
+        <v>353</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 57, 353, 1, 0, 1);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>58</v>
+      </c>
+      <c r="C57" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" ref="G32:G39" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 23, 31, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <f t="shared" si="7"/>
-        <v>128</v>
-      </c>
-      <c r="B33" s="4">
-        <f>B32</f>
-        <v>23</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 58, 31, 0, 0, 2);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C58" s="4">
         <v>31</v>
       </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 23, 31, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <f t="shared" si="7"/>
-        <v>129</v>
-      </c>
-      <c r="B34" s="4">
-        <f>B32</f>
-        <v>23</v>
-      </c>
-      <c r="C34" s="4">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 23, 30, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <f t="shared" si="7"/>
-        <v>130</v>
-      </c>
-      <c r="B35" s="4">
-        <f>B32</f>
-        <v>23</v>
-      </c>
-      <c r="C35" s="4">
-        <v>30</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 23, 30, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="7"/>
-        <v>131</v>
-      </c>
-      <c r="B36" s="3">
-        <f>B32+1</f>
-        <v>24</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 58, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 58, 7097, 1, 2, 2);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C60" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 58, 7097, 0, 0, 1);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B57+1</f>
+        <v>59</v>
+      </c>
+      <c r="C61" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 59, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C62" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 59, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C63" s="4">
+        <v>31</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 59, 31, 3, 2, 2);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C64" s="4">
+        <v>31</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 59, 31, 1, 0, 1);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>60</v>
+      </c>
+      <c r="C65" s="4">
+        <v>353</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 60, 353, 1, 1, 2);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C66" s="4">
+        <v>353</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 60, 353, 1, 0, 1);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="7"/>
+        <v>289</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C67" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 60, 7097, 1, 1, 2);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 60, 7097, 0, 0, 1);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="7"/>
+        <v>291</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B65+1</f>
+        <v>61</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 61, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="7"/>
+        <v>292</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 61, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="7"/>
+        <v>293</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C71" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4">
+        <v>2</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 61, 7097, 3, 2, 2);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C72" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 61, 7097, 2, 0, 1);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="7"/>
+        <v>295</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>62</v>
+      </c>
+      <c r="C73" s="4">
+        <v>353</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 62, 353, 0, 0, 2);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="7"/>
+        <v>296</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C74" s="4">
+        <v>353</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 62, 353, 0, 0, 1);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="7"/>
+        <v>297</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C75" s="4">
+        <v>31</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 62, 31, 1, 2, 2);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C76" s="4">
+        <v>31</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 62, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B73+1</f>
+        <v>63</v>
+      </c>
+      <c r="C77" s="4">
         <v>49228</v>
       </c>
-      <c r="D36" s="3">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" ref="G36:G67" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A36 &amp; ", " &amp; B36 &amp; ", " &amp; C36 &amp; ", " &amp; D36 &amp; ", " &amp; E36 &amp; ", " &amp; F36 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 24, 49228, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <f t="shared" si="7"/>
-        <v>132</v>
-      </c>
-      <c r="B37" s="3">
-        <f>B36</f>
-        <v>24</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 63, 49228, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C78" s="4">
         <v>49228</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 24, 49228, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f t="shared" si="7"/>
-        <v>133</v>
-      </c>
-      <c r="B38" s="3">
-        <f>B36</f>
-        <v>24</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 63, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="7"/>
+        <v>301</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C79" s="4">
         <v>31</v>
       </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 24, 31, 2, 0, 2);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f t="shared" si="7"/>
-        <v>134</v>
-      </c>
-      <c r="B39" s="3">
-        <f>B36</f>
-        <v>24</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="D79" s="4">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 63, 31, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C80" s="4">
         <v>31</v>
       </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 24, 31, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <f t="shared" si="7"/>
-        <v>135</v>
-      </c>
-      <c r="B40" s="4">
-        <f>B36+1</f>
-        <v>25</v>
-      </c>
-      <c r="C40" s="4">
-        <v>30</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 25, 30, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <f t="shared" si="7"/>
-        <v>136</v>
-      </c>
-      <c r="B41" s="4">
-        <f>B40</f>
-        <v>25</v>
-      </c>
-      <c r="C41" s="4">
-        <v>30</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 25, 30, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <f t="shared" si="7"/>
-        <v>137</v>
-      </c>
-      <c r="B42" s="4">
-        <f>B40</f>
-        <v>25</v>
-      </c>
-      <c r="C42" s="4">
-        <v>42</v>
-      </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 25, 42, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-      <c r="B43" s="4">
-        <f>B40</f>
-        <v>25</v>
-      </c>
-      <c r="C43" s="4">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 25, 42, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <f t="shared" si="7"/>
-        <v>139</v>
-      </c>
-      <c r="B44" s="3">
-        <f>B40+1</f>
-        <v>26</v>
-      </c>
-      <c r="C44" s="3">
-        <v>31</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 26, 31, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="B45" s="3">
-        <f>B44</f>
-        <v>26</v>
-      </c>
-      <c r="C45" s="3">
-        <v>31</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 26, 31, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="7"/>
-        <v>141</v>
-      </c>
-      <c r="B46" s="3">
-        <f>B44</f>
-        <v>26</v>
-      </c>
-      <c r="C46" s="3">
-        <v>42</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 26, 42, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f t="shared" si="7"/>
-        <v>142</v>
-      </c>
-      <c r="B47" s="3">
-        <f>B44</f>
-        <v>26</v>
-      </c>
-      <c r="C47" s="3">
-        <v>42</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 26, 42, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <f t="shared" si="7"/>
-        <v>143</v>
-      </c>
-      <c r="B48" s="4">
-        <f>B44+1</f>
-        <v>27</v>
-      </c>
-      <c r="C48" s="4">
-        <v>30</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 27, 30, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="B49" s="4">
-        <f>B48</f>
-        <v>27</v>
-      </c>
-      <c r="C49" s="4">
-        <v>30</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 27, 30, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <f t="shared" si="7"/>
-        <v>145</v>
-      </c>
-      <c r="B50" s="4">
-        <f>B48</f>
-        <v>27</v>
-      </c>
-      <c r="C50" s="4">
-        <v>49228</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 27, 49228, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <f t="shared" si="7"/>
-        <v>146</v>
-      </c>
-      <c r="B51" s="4">
-        <f>B48</f>
-        <v>27</v>
-      </c>
-      <c r="C51" s="4">
-        <v>49228</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 27, 49228, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <f t="shared" si="7"/>
-        <v>147</v>
-      </c>
-      <c r="B52" s="3">
-        <f>B48+1</f>
-        <v>28</v>
-      </c>
-      <c r="C52" s="3">
-        <v>32</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 28, 32, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <f t="shared" si="7"/>
-        <v>148</v>
-      </c>
-      <c r="B53" s="3">
-        <f>B52</f>
-        <v>28</v>
-      </c>
-      <c r="C53" s="3">
-        <v>32</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 28, 32, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <f t="shared" si="7"/>
-        <v>149</v>
-      </c>
-      <c r="B54" s="3">
-        <f>B52</f>
-        <v>28</v>
-      </c>
-      <c r="C54" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2</v>
-      </c>
-      <c r="G54" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 28, 4420, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="B55" s="3">
-        <f>B52</f>
-        <v>28</v>
-      </c>
-      <c r="C55" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 28, 4420, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <f t="shared" si="7"/>
-        <v>151</v>
-      </c>
-      <c r="B56" s="4">
-        <f>B52+1</f>
-        <v>29</v>
-      </c>
-      <c r="C56" s="4">
-        <v>34</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 29, 34, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <f t="shared" si="7"/>
-        <v>152</v>
-      </c>
-      <c r="B57" s="4">
-        <f>B56</f>
-        <v>29</v>
-      </c>
-      <c r="C57" s="4">
-        <v>34</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 29, 34, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <f t="shared" si="7"/>
-        <v>153</v>
-      </c>
-      <c r="B58" s="4">
-        <f>B56</f>
-        <v>29</v>
-      </c>
-      <c r="C58" s="4">
-        <v>39</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 29, 39, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <f t="shared" si="7"/>
-        <v>154</v>
-      </c>
-      <c r="B59" s="4">
-        <f>B56</f>
-        <v>29</v>
-      </c>
-      <c r="C59" s="4">
-        <v>39</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 29, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <f t="shared" si="7"/>
-        <v>155</v>
-      </c>
-      <c r="B60" s="3">
-        <f>B56+1</f>
-        <v>30</v>
-      </c>
-      <c r="C60" s="3">
-        <v>32</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2</v>
-      </c>
-      <c r="G60" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 30, 32, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <f t="shared" si="7"/>
-        <v>156</v>
-      </c>
-      <c r="B61" s="3">
-        <f>B60</f>
-        <v>30</v>
-      </c>
-      <c r="C61" s="3">
-        <v>32</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 30, 32, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <f t="shared" si="7"/>
-        <v>157</v>
-      </c>
-      <c r="B62" s="3">
-        <f>B60</f>
-        <v>30</v>
-      </c>
-      <c r="C62" s="3">
-        <v>34</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-      <c r="G62" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 30, 34, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <f t="shared" si="7"/>
-        <v>158</v>
-      </c>
-      <c r="B63" s="3">
-        <f>B60</f>
-        <v>30</v>
-      </c>
-      <c r="C63" s="3">
-        <v>34</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 30, 34, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <f t="shared" si="7"/>
-        <v>159</v>
-      </c>
-      <c r="B64" s="4">
-        <f>B60+1</f>
-        <v>31</v>
-      </c>
-      <c r="C64" s="4">
-        <v>4420</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 31, 4420, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="B65" s="4">
-        <f>B64</f>
-        <v>31</v>
-      </c>
-      <c r="C65" s="4">
-        <v>4420</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 31, 4420, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-      <c r="B66" s="4">
-        <f>B64</f>
-        <v>31</v>
-      </c>
-      <c r="C66" s="4">
-        <v>39</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>2</v>
-      </c>
-      <c r="F66" s="4">
-        <v>2</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 31, 39, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <f t="shared" si="7"/>
-        <v>162</v>
-      </c>
-      <c r="B67" s="4">
-        <f>B64</f>
-        <v>31</v>
-      </c>
-      <c r="C67" s="4">
-        <v>39</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 31, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <f t="shared" si="7"/>
-        <v>163</v>
-      </c>
-      <c r="B68" s="3">
-        <f>B64+1</f>
-        <v>32</v>
-      </c>
-      <c r="C68" s="3">
-        <v>34</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G79" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A68 &amp; ", " &amp; B68 &amp; ", " &amp; C68 &amp; ", " &amp; D68 &amp; ", " &amp; E68 &amp; ", " &amp; F68 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 32, 34, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <f t="shared" si="7"/>
-        <v>164</v>
-      </c>
-      <c r="B69" s="3">
-        <f>B68</f>
-        <v>32</v>
-      </c>
-      <c r="C69" s="3">
-        <v>34</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 32, 34, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <f t="shared" si="7"/>
-        <v>165</v>
-      </c>
-      <c r="B70" s="3">
-        <f>B68</f>
-        <v>32</v>
-      </c>
-      <c r="C70" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2</v>
-      </c>
-      <c r="G70" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 32, 4420, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-      <c r="B71" s="3">
-        <f>B68</f>
-        <v>32</v>
-      </c>
-      <c r="C71" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 32, 4420, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <f t="shared" si="7"/>
-        <v>167</v>
-      </c>
-      <c r="B72" s="4">
-        <f>B68+1</f>
-        <v>33</v>
-      </c>
-      <c r="C72" s="4">
-        <v>39</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 33, 39, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-      <c r="B73" s="4">
-        <f>B72</f>
-        <v>33</v>
-      </c>
-      <c r="C73" s="4">
-        <v>39</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>1</v>
-      </c>
-      <c r="G73" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 33, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <f t="shared" si="7"/>
-        <v>169</v>
-      </c>
-      <c r="B74" s="4">
-        <f>B72</f>
-        <v>33</v>
-      </c>
-      <c r="C74" s="4">
-        <v>32</v>
-      </c>
-      <c r="D74" s="4">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4">
-        <v>2</v>
-      </c>
-      <c r="G74" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 33, 32, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="B75" s="4">
-        <f>B72</f>
-        <v>33</v>
-      </c>
-      <c r="C75" s="4">
-        <v>32</v>
-      </c>
-      <c r="D75" s="4">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-      <c r="G75" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 33, 32, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
-      <c r="B76" s="3">
-        <f>B72+1</f>
-        <v>34</v>
-      </c>
-      <c r="C76" s="3">
-        <v>42</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2</v>
-      </c>
-      <c r="G76" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 34, 42, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <f t="shared" si="7"/>
-        <v>172</v>
-      </c>
-      <c r="B77" s="3">
-        <f>B76</f>
-        <v>34</v>
-      </c>
-      <c r="C77" s="3">
-        <v>42</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 34, 42, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <f t="shared" si="7"/>
-        <v>173</v>
-      </c>
-      <c r="B78" s="3">
-        <f>B76</f>
-        <v>34</v>
-      </c>
-      <c r="C78" s="3">
-        <v>39</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>2</v>
-      </c>
-      <c r="G78" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 34, 39, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <f t="shared" si="7"/>
-        <v>174</v>
-      </c>
-      <c r="B79" s="3">
-        <f>B76</f>
-        <v>34</v>
-      </c>
-      <c r="C79" s="3">
-        <v>39</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 34, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <f t="shared" si="7"/>
-        <v>175</v>
-      </c>
-      <c r="B80" s="3">
-        <f>B78</f>
-        <v>34</v>
-      </c>
-      <c r="C80" s="3">
-        <v>42</v>
-      </c>
-      <c r="D80" s="3">
-        <v>9</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>7</v>
-      </c>
-      <c r="G80" s="3" t="str">
-        <f t="shared" ref="G80:G85" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A80 &amp; ", " &amp; B80 &amp; ", " &amp; C80 &amp; ", " &amp; D80 &amp; ", " &amp; E80 &amp; ", " &amp; F80 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 34, 42, 9, 0, 7);</v>
+      <c r="D80" s="4">
+        <v>2</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 63, 31, 2, 0, 1);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <f t="shared" si="7"/>
-        <v>176</v>
-      </c>
-      <c r="B81" s="3">
-        <f>B78</f>
-        <v>34</v>
-      </c>
-      <c r="C81" s="3">
-        <v>39</v>
-      </c>
-      <c r="D81" s="3">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>7</v>
-      </c>
-      <c r="G81" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 34, 39, 8, 0, 7);</v>
+      <c r="A81" s="4">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B77+1</f>
+        <v>64</v>
+      </c>
+      <c r="C81" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 64, 7097, 2, 2, 2);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" si="7"/>
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="B82" s="4">
-        <f>B78+1</f>
-        <v>35</v>
+        <f>B81</f>
+        <v>64</v>
       </c>
       <c r="C82" s="4">
-        <v>32</v>
+        <v>7097</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
       </c>
       <c r="F82" s="4">
-        <v>2</v>
-      </c>
-      <c r="G82" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 35, 32, 1, 0, 2);</v>
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 64, 7097, 0, 0, 1);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="7"/>
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="B83" s="4">
-        <f>B82</f>
-        <v>35</v>
+        <f>B81</f>
+        <v>64</v>
       </c>
       <c r="C83" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
@@ -6318,63 +10898,141 @@
         <v>0</v>
       </c>
       <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 35, 32, 0, 0, 1);</v>
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 64, 39, 0, 0, 2);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="B84" s="4">
-        <f>B82</f>
-        <v>35</v>
+        <f>B81</f>
+        <v>64</v>
       </c>
       <c r="C84" s="4">
-        <v>49228</v>
+        <v>39</v>
       </c>
       <c r="D84" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
-        <v>2</v>
-      </c>
-      <c r="G84" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 35, 49228, 2, 2, 2);</v>
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 64, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="B85" s="4">
-        <f>B82</f>
-        <v>35</v>
+        <f>B81+1</f>
+        <v>65</v>
       </c>
       <c r="C85" s="4">
-        <v>49228</v>
+        <v>7097</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
       </c>
       <c r="F85" s="4">
-        <v>1</v>
-      </c>
-      <c r="G85" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 35, 49228, 1, 0, 1);</v>
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 65, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C86" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 65, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="7"/>
+        <v>309</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C87" s="4">
+        <v>31</v>
+      </c>
+      <c r="D87" s="4">
+        <v>3</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 65, 31, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C88" s="4">
+        <v>31</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 65, 31, 1, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="1980" sheetId="53" r:id="rId6"/>
     <sheet name="1984" sheetId="54" r:id="rId7"/>
     <sheet name="1988" sheetId="55" r:id="rId8"/>
+    <sheet name="1992" sheetId="56" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -8785,6 +8786,2266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1984'!A9+1</f>
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1988</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>49228</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1988, 'A', 49228);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1988</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1988, 'A', 39);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B9" si="2">B3</f>
+        <v>1988</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 1988, 'A', 34);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 1988, 'A', 45);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>7097</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 1988, 'B', 7097);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 1988, 'B', 31);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 1988, 'B', 353);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>4420</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 1988, 'B', 4420);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'1984'!A26+1</f>
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1988-06-10"</f>
+        <v>1988-06-10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>49228</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G26" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1988-06-10', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1988-06-11"</f>
+        <v>1988-06-11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>49228</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1988-06-11', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A26" si="4">A13+1</f>
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1988-06-14"</f>
+        <v>1988-06-14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D26" si="5">D13</f>
+        <v>49228</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1988-06-14', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1988-06-14"</f>
+        <v>1988-06-14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1988-06-14', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1988-06-17"</f>
+        <v>1988-06-17</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1988-06-17', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1988-06-17"</f>
+        <v>1988-06-17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1988-06-17', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1988-06-12"</f>
+        <v>1988-06-12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1988-06-12', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1988-06-12"</f>
+        <v>1988-06-12</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1988-06-12', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1988-06-15"</f>
+        <v>1988-06-15</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '1988-06-15', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1988-06-15"</f>
+        <v>1988-06-15</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '1988-06-15', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1988-06-18"</f>
+        <v>1988-06-18</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '1988-06-18', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1988-06-18"</f>
+        <v>1988-06-18</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '1988-06-18', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1988-06-21"</f>
+        <v>1988-06-21</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '1988-06-21', 4, 49228);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1988-06-22"</f>
+        <v>1988-06-22</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '1988-06-22', 4, 49228);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1988-06-25"</f>
+        <v>1988-06-25</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '1988-06-25', 6, 49228);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>'1984'!A98+1</f>
+        <v>251</v>
+      </c>
+      <c r="B29" s="3">
+        <f>A12</f>
+        <v>51</v>
+      </c>
+      <c r="C29" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" ref="G29:G88" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 51, 49228, 1, 1, 2);</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>252</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C30" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 51, 49228, 0, 0, 1);</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" ref="A31:A88" si="7">A30+1</f>
+        <v>253</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C31" s="3">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 51, 39, 1, 1, 2);</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C32" s="3">
+        <v>39</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 51, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B29+1</f>
+        <v>52</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 52, 45, 2, 0, 2);</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 52, 45, 1, 0, 1);</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 52, 34, 3, 2, 2);</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C36" s="4">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 52, 34, 1, 0, 1);</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="7"/>
+        <v>259</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B33+1</f>
+        <v>53</v>
+      </c>
+      <c r="C37" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 53, 49228, 2, 2, 2);</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C38" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 53, 49228, 1, 0, 1);</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="7"/>
+        <v>261</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 53, 45, 0, 0, 2);</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 53, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B37+1</f>
+        <v>54</v>
+      </c>
+      <c r="C41" s="4">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 54, 39, 1, 2, 2);</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C42" s="4">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 54, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C43" s="4">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 54, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C44" s="4">
+        <v>34</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 54, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="7"/>
+        <v>267</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B41+1</f>
+        <v>55</v>
+      </c>
+      <c r="C45" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 55, 49228, 2, 2, 2);</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C46" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 55, 49228, 1, 0, 1);</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="7"/>
+        <v>269</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C47" s="3">
+        <v>34</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 55, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C48" s="3">
+        <v>34</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 55, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="7"/>
+        <v>271</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B45+1</f>
+        <v>56</v>
+      </c>
+      <c r="C49" s="4">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 56, 39, 2, 2, 2);</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="7"/>
+        <v>272</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C50" s="4">
+        <v>39</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 56, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="7"/>
+        <v>273</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 56, 45, 0, 0, 2);</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="7"/>
+        <v>274</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 56, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="7"/>
+        <v>275</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+1</f>
+        <v>57</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 57, 4420, 0, 0, 2);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="7"/>
+        <v>276</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 57, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C55" s="3">
+        <v>353</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 57, 353, 1, 2, 2);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C56" s="3">
+        <v>353</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 57, 353, 1, 0, 1);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>58</v>
+      </c>
+      <c r="C57" s="4">
+        <v>31</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 58, 31, 0, 0, 2);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C58" s="4">
+        <v>31</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 58, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 58, 7097, 1, 2, 2);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C60" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 58, 7097, 0, 0, 1);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>59</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 59, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 59, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C63" s="3">
+        <v>31</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 59, 31, 3, 2, 2);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C64" s="3">
+        <v>31</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 59, 31, 1, 0, 1);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>60</v>
+      </c>
+      <c r="C65" s="4">
+        <v>353</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 60, 353, 1, 1, 2);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C66" s="4">
+        <v>353</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 60, 353, 1, 0, 1);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="7"/>
+        <v>289</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C67" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 60, 7097, 1, 1, 2);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 60, 7097, 0, 0, 1);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="7"/>
+        <v>291</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>61</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 61, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="7"/>
+        <v>292</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 61, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="7"/>
+        <v>293</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 61, 7097, 3, 2, 2);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C72" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 61, 7097, 2, 0, 1);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="7"/>
+        <v>295</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>62</v>
+      </c>
+      <c r="C73" s="4">
+        <v>353</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 62, 353, 0, 0, 2);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="7"/>
+        <v>296</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C74" s="4">
+        <v>353</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 62, 353, 0, 0, 1);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="7"/>
+        <v>297</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C75" s="4">
+        <v>31</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 62, 31, 1, 2, 2);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C76" s="4">
+        <v>31</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 62, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B73+1</f>
+        <v>63</v>
+      </c>
+      <c r="C77" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 63, 49228, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C78" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 63, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="7"/>
+        <v>301</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C79" s="3">
+        <v>31</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 63, 31, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C80" s="3">
+        <v>31</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 63, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B77+1</f>
+        <v>64</v>
+      </c>
+      <c r="C81" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 64, 7097, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="7"/>
+        <v>304</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B81</f>
+        <v>64</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 64, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="7"/>
+        <v>305</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B81</f>
+        <v>64</v>
+      </c>
+      <c r="C83" s="4">
+        <v>39</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 64, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="7"/>
+        <v>306</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B81</f>
+        <v>64</v>
+      </c>
+      <c r="C84" s="4">
+        <v>39</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 64, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B81+1</f>
+        <v>65</v>
+      </c>
+      <c r="C85" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 65, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C86" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 65, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="7"/>
+        <v>309</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C87" s="3">
+        <v>31</v>
+      </c>
+      <c r="D87" s="3">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 65, 31, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C88" s="3">
+        <v>31</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 65, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J90"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,161 +11079,161 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'1984'!A9+1</f>
-        <v>17</v>
+        <f>'1988'!A9+1</f>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1988, 'A', 49228);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (25, 1992, 'A', 46);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <f>B2</f>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1988, 'A', 39);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (26, 1992, 'A', 45);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="1">A3+1</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B9" si="2">B3</f>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 1988, 'A', 34);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (27, 1992, 'A', 33);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>4420</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 1988, 'A', 45);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (28, 1992, 'A', 4420);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>7097</v>
+        <v>31</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 1988, 'B', 7097);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (29, 1992, 'B', 31);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>49228</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 1988, 'B', 31);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (30, 1992, 'B', 49228);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>353</v>
+        <v>44141</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 1988, 'B', 353);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (31, 1992, 'B', 44141);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>4420</v>
+        <v>37517</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 1988, 'B', 4420);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (32, 1992, 'B', 37517);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8995,316 +11256,316 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>'1984'!A26+1</f>
-        <v>51</v>
+        <f>'1988'!A26+1</f>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1988-06-10"</f>
-        <v>1988-06-10</v>
+        <f>"1992-06-10"</f>
+        <v>1992-06-10</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ref="G12:G26" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1988-06-10', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (66, '1992-06-10', 2, 46);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12+1</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1988-06-11"</f>
-        <v>1988-06-11</v>
+        <f>"1992-06-11"</f>
+        <v>1992-06-11</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
         <f>D12</f>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1988-06-11', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (67, '1992-06-11', 2, 46);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:A26" si="4">A13+1</f>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1988-06-14"</f>
-        <v>1988-06-14</v>
+        <f>"1992-06-14"</f>
+        <v>1992-06-14</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D26" si="5">D13</f>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1988-06-14', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (68, '1992-06-14', 2, 46);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1988-06-14"</f>
-        <v>1988-06-14</v>
+        <f>"1992-06-14"</f>
+        <v>1992-06-14</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1988-06-14', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (69, '1992-06-14', 2, 46);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1988-06-17"</f>
-        <v>1988-06-17</v>
+        <f>"1992-06-17"</f>
+        <v>1992-06-17</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1988-06-17', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (70, '1992-06-17', 2, 46);</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>"1988-06-17"</f>
-        <v>1988-06-17</v>
+        <f>"1992-06-17"</f>
+        <v>1992-06-17</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1988-06-17', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (71, '1992-06-17', 2, 46);</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>"1988-06-12"</f>
-        <v>1988-06-12</v>
+        <f>"1992-06-12"</f>
+        <v>1992-06-12</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1988-06-12', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (72, '1992-06-12', 2, 46);</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>"1988-06-12"</f>
-        <v>1988-06-12</v>
+        <f>"1992-06-12"</f>
+        <v>1992-06-12</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1988-06-12', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (73, '1992-06-12', 2, 46);</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>"1988-06-15"</f>
-        <v>1988-06-15</v>
+        <f>"1992-06-15"</f>
+        <v>1992-06-15</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (59, '1988-06-15', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (74, '1992-06-15', 2, 46);</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>"1988-06-15"</f>
-        <v>1988-06-15</v>
+        <f>"1992-06-15"</f>
+        <v>1992-06-15</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (60, '1988-06-15', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (75, '1992-06-15', 2, 46);</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>"1988-06-18"</f>
-        <v>1988-06-18</v>
+        <f>"1992-06-18"</f>
+        <v>1992-06-18</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (61, '1988-06-18', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (76, '1992-06-18', 2, 46);</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>"1988-06-18"</f>
-        <v>1988-06-18</v>
+        <f>"1992-06-18"</f>
+        <v>1992-06-18</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (62, '1988-06-18', 2, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (77, '1992-06-18', 2, 46);</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>"1988-06-21"</f>
-        <v>1988-06-21</v>
+        <f>"1992-06-21"</f>
+        <v>1992-06-21</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (63, '1988-06-21', 4, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (78, '1992-06-21', 4, 46);</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>"1988-06-22"</f>
-        <v>1988-06-22</v>
+        <f>"1992-06-22"</f>
+        <v>1992-06-22</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (64, '1988-06-22', 4, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (79, '1992-06-22', 4, 46);</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>"1988-06-25"</f>
-        <v>1988-06-25</v>
+        <f>"1992-06-25"</f>
+        <v>1992-06-25</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (65, '1988-06-25', 6, 49228);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (80, '1992-06-25', 6, 46);</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -9333,15 +11594,15 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>'1984'!A98+1</f>
-        <v>251</v>
+        <f>'1988'!A88+1</f>
+        <v>311</v>
       </c>
       <c r="B29" s="4">
         <f>A12</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -9353,8 +11614,8 @@
         <v>2</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:G88" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 51, 49228, 1, 1, 2);</v>
+        <f t="shared" ref="G29:G90" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 66, 46, 1, 1, 2);</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -9363,17 +11624,17 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>A29+1</f>
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="B30" s="4">
         <f>B29</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -9383,7 +11644,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 51, 49228, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 66, 46, 1, 0, 1);</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -9391,15 +11652,15 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" ref="A31:A88" si="7">A30+1</f>
-        <v>253</v>
+        <f t="shared" ref="A31:A90" si="7">A30+1</f>
+        <v>313</v>
       </c>
       <c r="B31" s="4">
         <f>B29</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -9412,7 +11673,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 51, 39, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 66, 33, 1, 1, 2);</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -9421,14 +11682,14 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="7"/>
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="B32" s="4">
         <f>B29</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -9441,7 +11702,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 51, 39, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 66, 33, 0, 0, 1);</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -9450,27 +11711,27 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="B33" s="4">
         <f>B29+1</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4">
         <v>45</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 52, 45, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 67, 45, 0, 1, 2);</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -9479,17 +11740,17 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="B34" s="4">
         <f>B33</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C34" s="4">
         <v>45</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -9499,7 +11760,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 52, 45, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 67, 45, 0, 0, 1);</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -9508,27 +11769,27 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="B35" s="4">
         <f>B33</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4">
-        <v>34</v>
+        <v>4420</v>
       </c>
       <c r="D35" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
         <v>2</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 52, 34, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 67, 4420, 0, 1, 2);</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -9537,17 +11798,17 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="B36" s="4">
         <f>B33</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4">
-        <v>34</v>
+        <v>4430</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -9557,7 +11818,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 52, 34, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 67, 4430, 0, 0, 1);</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -9566,27 +11827,27 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="B37" s="4">
         <f>B33+1</f>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C37" s="4">
-        <v>49228</v>
+        <v>33</v>
       </c>
       <c r="D37" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
         <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 53, 49228, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 68, 33, 0, 1, 2);</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -9595,17 +11856,17 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="B38" s="4">
         <f>B37</f>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4">
-        <v>49228</v>
+        <v>33</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -9615,7 +11876,7 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 53, 49228, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 68, 33, 0, 0, 1);</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -9624,27 +11885,27 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="7"/>
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="B39" s="4">
         <f>B37</f>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4">
-        <v>45</v>
+        <v>4420</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4">
         <v>2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 53, 45, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 68, 4420, 0, 1, 2);</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -9653,14 +11914,14 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="7"/>
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B40" s="4">
         <f>B37</f>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C40" s="4">
-        <v>45</v>
+        <v>4420</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -9673,7 +11934,7 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 53, 45, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 68, 4420, 0, 0, 1);</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -9682,14 +11943,14 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="B41" s="4">
         <f>B37+1</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C41" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -9702,7 +11963,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 54, 39, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 69, 46, 1, 2, 2);</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -9711,14 +11972,14 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="7"/>
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="B42" s="4">
         <f>B41</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C42" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -9731,7 +11992,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 54, 39, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 69, 46, 0, 0, 1);</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -9740,14 +12001,14 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="7"/>
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="B43" s="4">
         <f>B41</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -9760,7 +12021,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 54, 34, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 69, 45, 0, 0, 2);</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -9769,14 +12030,14 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="7"/>
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="B44" s="4">
         <f>B41</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -9789,7 +12050,7 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 54, 34, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 69, 45, 0, 0, 1);</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -9798,14 +12059,14 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="7"/>
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B45" s="4">
         <f>B41+1</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -9818,7 +12079,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 55, 49228, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 70, 46, 2, 2, 2);</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -9827,17 +12088,17 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="7"/>
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="B46" s="4">
         <f>B45</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C46" s="4">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -9847,7 +12108,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 55, 49228, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 70, 46, 0, 0, 1);</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -9856,17 +12117,17 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="7"/>
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="B47" s="4">
         <f>B45</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4">
-        <v>34</v>
+        <v>4420</v>
       </c>
       <c r="D47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -9876,7 +12137,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 55, 34, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 70, 4420, 1, 0, 2);</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -9885,14 +12146,14 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="7"/>
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="B48" s="4">
         <f>B45</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4">
-        <v>34</v>
+        <v>4420</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -9905,7 +12166,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 55, 34, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 70, 4420, 0, 0, 1);</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -9914,27 +12175,27 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="7"/>
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="B49" s="4">
         <f>B45+1</f>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D49" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 56, 39, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 71, 33, 1, 0, 2);</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -9943,14 +12204,14 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="B50" s="4">
         <f>B49</f>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C50" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -9963,7 +12224,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 56, 39, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 71, 33, 0, 0, 1);</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -9972,27 +12233,27 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="7"/>
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="B51" s="4">
         <f>B49</f>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4">
         <v>45</v>
       </c>
       <c r="D51" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
         <v>2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 56, 45, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 71, 45, 2, 2, 2);</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -10001,17 +12262,17 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="7"/>
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="B52" s="4">
         <f>B49</f>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C52" s="4">
         <v>45</v>
       </c>
       <c r="D52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -10021,7 +12282,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 56, 45, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 71, 45, 1, 0, 1);</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -10030,27 +12291,27 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="B53" s="4">
         <f>B49+1</f>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C53" s="4">
-        <v>4420</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 57, 4420, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 72, 31, 1, 2, 2);</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -10059,14 +12320,14 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="7"/>
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="B54" s="4">
         <f>B53</f>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C54" s="4">
-        <v>4420</v>
+        <v>31</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -10079,7 +12340,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 57, 4420, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 72, 31, 0, 0, 1);</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -10088,27 +12349,27 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="B55" s="4">
         <f>B53</f>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4">
-        <v>353</v>
+        <v>44141</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 57, 353, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 72, 44141, 0, 0, 2);</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -10117,17 +12378,17 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="7"/>
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="B56" s="4">
         <f>B53</f>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4">
-        <v>353</v>
+        <v>44141</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -10137,7 +12398,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 57, 353, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 72, 44141, 0, 0, 1);</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -10146,27 +12407,27 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="7"/>
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="B57" s="4">
         <f>B53+1</f>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4">
-        <v>31</v>
+        <v>37517</v>
       </c>
       <c r="D57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4">
         <v>2</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 58, 31, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 73, 37517, 1, 1, 2);</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -10175,14 +12436,14 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" si="7"/>
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="B58" s="4">
         <f>B57</f>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C58" s="4">
-        <v>31</v>
+        <v>37517</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -10195,7 +12456,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 58, 31, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 73, 37517, 0, 0, 1);</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -10204,27 +12465,27 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="7"/>
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="B59" s="4">
         <f>B57</f>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4">
-        <v>7097</v>
+        <v>49228</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
         <v>2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 58, 7097, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 73, 49228, 1, 1, 2);</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -10233,14 +12494,14 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="7"/>
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="B60" s="4">
         <f>B57</f>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C60" s="4">
-        <v>7097</v>
+        <v>49228</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -10253,7 +12514,7 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 58, 7097, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 73, 49228, 0, 0, 1);</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -10262,17 +12523,17 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="7"/>
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="B61" s="4">
         <f>B57+1</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>4420</v>
+        <v>44141</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -10282,7 +12543,7 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 59, 4420, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 74, 44141, 0, 0, 2);</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -10291,14 +12552,14 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="7"/>
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="B62" s="4">
         <f>B61</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C62" s="4">
-        <v>4420</v>
+        <v>44141</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -10311,7 +12572,7 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 59, 4420, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 74, 44141, 0, 0, 1);</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -10320,17 +12581,17 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="B63" s="4">
         <f>B61</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4">
-        <v>31</v>
+        <v>49228</v>
       </c>
       <c r="D63" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="4">
         <v>2</v>
@@ -10340,7 +12601,7 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 59, 31, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 74, 49228, 2, 2, 2);</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -10349,14 +12610,14 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="7"/>
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="B64" s="4">
         <f>B61</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>31</v>
+        <v>49228</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -10369,7 +12630,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 59, 31, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 74, 49228, 1, 0, 1);</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -10378,17 +12639,17 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="B65" s="4">
         <f>B61+1</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>353</v>
+        <v>31</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -10398,7 +12659,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 60, 353, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 75, 31, 0, 1, 2);</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -10407,17 +12668,17 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" si="7"/>
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="B66" s="4">
         <f>B65</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C66" s="4">
-        <v>353</v>
+        <v>31</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -10427,7 +12688,7 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 60, 353, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 75, 31, 0, 0, 1);</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -10436,17 +12697,17 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" si="7"/>
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="B67" s="4">
         <f>B65</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4">
-        <v>7097</v>
+        <v>37517</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -10456,7 +12717,7 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 60, 7097, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 75, 37517, 0, 1, 2);</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -10465,14 +12726,14 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="B68" s="4">
         <f>B65</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4">
-        <v>7097</v>
+        <v>37517</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -10485,7 +12746,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 60, 7097, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 75, 37517, 0, 0, 1);</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -10494,27 +12755,27 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" si="7"/>
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="B69" s="4">
         <f>B65+1</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4">
-        <v>4420</v>
+        <v>31</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" s="4">
         <v>2</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 61, 4420, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 76, 31, 3, 2, 2);</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -10523,17 +12784,17 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" si="7"/>
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="B70" s="4">
         <f>B69</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4">
-        <v>4420</v>
+        <v>31</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -10543,7 +12804,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 61, 4420, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 76, 31, 2, 0, 1);</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -10552,27 +12813,27 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="7"/>
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="B71" s="4">
         <f>B69</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4">
-        <v>7097</v>
+        <v>49228</v>
       </c>
       <c r="D71" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4">
         <v>2</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 61, 7097, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 76, 49228, 1, 0, 2);</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -10581,17 +12842,17 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="7"/>
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="B72" s="4">
         <f>B69</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4">
-        <v>7097</v>
+        <v>49228</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -10601,7 +12862,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 61, 7097, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 76, 49228, 0, 0, 1);</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -10610,27 +12871,27 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="7"/>
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="B73" s="4">
         <f>B69+1</f>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
-        <v>353</v>
+        <v>44141</v>
       </c>
       <c r="D73" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 62, 353, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 77, 44141, 3, 2, 2);</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -10639,17 +12900,17 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" si="7"/>
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="B74" s="4">
         <f>B73</f>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C74" s="4">
-        <v>353</v>
+        <v>44141</v>
       </c>
       <c r="D74" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -10659,7 +12920,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 62, 353, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 77, 44141, 2, 0, 1);</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -10668,27 +12929,27 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="7"/>
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="B75" s="4">
         <f>B73</f>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C75" s="4">
-        <v>31</v>
+        <v>37517</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 62, 31, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 77, 37517, 0, 0, 2);</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -10697,14 +12958,14 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" si="7"/>
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="B76" s="4">
         <f>B73</f>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C76" s="4">
-        <v>31</v>
+        <v>37517</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -10717,7 +12978,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 62, 31, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 77, 37517, 0, 0, 1);</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -10726,17 +12987,17 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="7"/>
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="B77" s="4">
         <f>B73+1</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C77" s="4">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -10746,23 +13007,23 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 63, 49228, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 78, 46, 2, 0, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B78" s="4">
         <f>B77</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C78" s="4">
-        <v>49228</v>
+        <v>46</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -10772,23 +13033,23 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 63, 49228, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 78, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" si="7"/>
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="B79" s="4">
         <f>B77</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C79" s="4">
-        <v>31</v>
+        <v>49228</v>
       </c>
       <c r="D79" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="4">
         <v>2</v>
@@ -10798,23 +13059,23 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 63, 31, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 78, 49228, 3, 2, 2);</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="7"/>
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="B80" s="4">
         <f>B77</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4">
-        <v>31</v>
+        <v>49228</v>
       </c>
       <c r="D80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -10824,49 +13085,49 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 63, 31, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 78, 49228, 1, 0, 1);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="7"/>
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="B81" s="4">
         <f>B77+1</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C81" s="4">
-        <v>7097</v>
+        <v>31</v>
       </c>
       <c r="D81" s="4">
         <v>2</v>
       </c>
       <c r="E81" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="4">
         <v>2</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 64, 7097, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 79, 31, 2, 1, 2);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="B82" s="4">
         <f>B81</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4">
-        <v>7097</v>
+        <v>31</v>
       </c>
       <c r="D82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -10876,49 +13137,49 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 64, 7097, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 79, 31, 1, 0, 1);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="7"/>
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="B83" s="4">
         <f>B81</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D83" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="4">
         <v>2</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 64, 39, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 79, 45, 2, 1, 2);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="7"/>
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="B84" s="4">
         <f>B81</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D84" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -10928,75 +13189,75 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 64, 39, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 79, 45, 2, 0, 1);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="7"/>
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="B85" s="4">
-        <f>B81+1</f>
-        <v>65</v>
+        <f>B82</f>
+        <v>79</v>
       </c>
       <c r="C85" s="4">
-        <v>7097</v>
+        <v>31</v>
       </c>
       <c r="D85" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
       </c>
       <c r="F85" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 65, 7097, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 79, 31, 4, 0, 7);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" si="7"/>
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="B86" s="4">
-        <f>B85</f>
-        <v>65</v>
+        <f>B83</f>
+        <v>79</v>
       </c>
       <c r="C86" s="4">
-        <v>7097</v>
+        <v>45</v>
       </c>
       <c r="D86" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
       </c>
       <c r="F86" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 65, 7097, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 79, 45, 5, 0, 7);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="7"/>
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="B87" s="4">
-        <f>B85</f>
-        <v>65</v>
+        <f>B81+1</f>
+        <v>80</v>
       </c>
       <c r="C87" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="4">
         <v>2</v>
@@ -11006,20 +13267,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 65, 31, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 80, 45, 2, 2, 2);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="7"/>
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="B88" s="4">
-        <f>B85</f>
-        <v>65</v>
+        <f>B87</f>
+        <v>80</v>
       </c>
       <c r="C88" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -11032,7 +13293,59 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 65, 31, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 80, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="7"/>
+        <v>371</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B87</f>
+        <v>80</v>
+      </c>
+      <c r="C89" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 80, 49228, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="7"/>
+        <v>372</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B87</f>
+        <v>80</v>
+      </c>
+      <c r="C90" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 80, 49228, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="1984" sheetId="54" r:id="rId7"/>
     <sheet name="1988" sheetId="55" r:id="rId8"/>
     <sheet name="1992" sheetId="56" r:id="rId9"/>
+    <sheet name="1996" sheetId="57" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -102,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +117,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,6 +1091,5112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1992'!A9+1</f>
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1996</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>4420</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G5" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (33, 1996, 'A', 4420);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1996</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (34, 1996, 'A', 31);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="1">A3+1</f>
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="2">B3</f>
+        <v>1996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>44141</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (35, 1996, 'A', 44141);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1996</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (36, 1996, 'A', 41);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>1996</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A6 &amp; ", " &amp; B6 &amp; ", '" &amp; C6 &amp; "', " &amp; D6 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (37, 1996, 'B', 33);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>1996</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A7 &amp; ", " &amp; B7 &amp; ", '" &amp; C7 &amp; "', " &amp; D7 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (38, 1996, 'B', 34);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>1996</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>359</v>
+      </c>
+      <c r="G8" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A8 &amp; ", " &amp; B8 &amp; ", '" &amp; C8 &amp; "', " &amp; D8 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (39, 1996, 'B', 359);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>1996</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", '" &amp; C9 &amp; "', " &amp; D9 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (40, 1996, 'B', 40);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A17" si="3">A9+1</f>
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B17" si="4">B9</f>
+        <v>1996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", '" &amp; C10 &amp; "', " &amp; D10 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (41, 1996, 'C', 49);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>420</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A11 &amp; ", " &amp; B11 &amp; ", '" &amp; C11 &amp; "', " &amp; D11 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (42, 1996, 'C', 420);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="G12" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A12 &amp; ", " &amp; B12 &amp; ", '" &amp; C12 &amp; "', " &amp; D12 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (43, 1996, 'C', 39);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", '" &amp; C13 &amp; "', " &amp; D13 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (44, 1996, 'C', 7);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>351</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", '" &amp; C14 &amp; "', " &amp; D14 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (45, 1996, 'D', 351);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>385</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", '" &amp; C15 &amp; "', " &amp; D15 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (46, 1996, 'D', 385);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="G16" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A16 &amp; ", " &amp; B16 &amp; ", '" &amp; C16 &amp; "', " &amp; D16 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (47, 1996, 'D', 45);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="G17" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A17 &amp; ", " &amp; B17 &amp; ", '" &amp; C17 &amp; "', " &amp; D17 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (48, 1996, 'D', 90);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f>'1992'!A26+1</f>
+        <v>81</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>"1996-06-08"</f>
+        <v>1996-06-08</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4420</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="str">
+        <f t="shared" ref="G20:G34" si="5">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (81, '1996-06-08', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f>A20+1</f>
+        <v>82</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>"1996-06-10"</f>
+        <v>1996-06-10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <f>D20</f>
+        <v>4420</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (82, '1996-06-10', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" ref="A22:A50" si="6">A21+1</f>
+        <v>83</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>"1996-06-13"</f>
+        <v>1996-06-13</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D50" si="7">D21</f>
+        <v>4420</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (83, '1996-06-13', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>"1996-06-15"</f>
+        <v>1996-06-15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (84, '1996-06-15', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1996-06-18"</f>
+        <v>1996-06-18</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (85, '1996-06-18', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1996-06-18"</f>
+        <v>1996-06-18</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (86, '1996-06-18', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1996-06-09"</f>
+        <v>1996-06-09</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (87, '1996-06-09', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"1996-06-10"</f>
+        <v>1996-06-10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (88, '1996-06-10', 2, 4420);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>"1996-06-13"</f>
+        <v>1996-06-13</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (89, '1996-06-13', 2, 4420);</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>"1996-06-15"</f>
+        <v>1996-06-15</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (90, '1996-06-15', 2, 4420);</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>"1996-06-18"</f>
+        <v>1996-06-18</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (91, '1996-06-18', 2, 4420);</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>"1996-06-18"</f>
+        <v>1996-06-18</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (92, '1996-06-18', 2, 4420);</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>"1996-06-09"</f>
+        <v>1996-06-09</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (93, '1996-06-09', 2, 4420);</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>"1996-06-11"</f>
+        <v>1996-06-11</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (94, '1996-06-11', 2, 4420);</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>"1996-06-14"</f>
+        <v>1996-06-14</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (95, '1996-06-14', 2, 4420);</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>"1996-06-16"</f>
+        <v>1996-06-16</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ref="G35:G50" si="8">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A35 &amp; ", '" &amp; B35 &amp; "', " &amp; C35 &amp; ", " &amp; D35 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (96, '1996-06-16', 2, 4420);</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>"1996-06-19"</f>
+        <v>1996-06-19</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (97, '1996-06-19', 2, 4420);</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>"1996-06-19"</f>
+        <v>1996-06-19</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (98, '1996-06-19', 2, 4420);</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>"1996-06-09"</f>
+        <v>1996-06-09</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (99, '1996-06-09', 2, 4420);</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>"1996-06-11"</f>
+        <v>1996-06-11</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (100, '1996-06-11', 2, 4420);</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>"1996-06-14"</f>
+        <v>1996-06-14</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (101, '1996-06-14', 2, 4420);</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>"1996-06-16"</f>
+        <v>1996-06-16</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (102, '1996-06-16', 2, 4420);</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>"1996-06-19"</f>
+        <v>1996-06-19</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (103, '1996-06-19', 2, 4420);</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>"1996-06-19"</f>
+        <v>1996-06-19</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (104, '1996-06-19', 2, 4420);</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>"1996-06-22"</f>
+        <v>1996-06-22</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (105, '1996-06-22', 3, 4420);</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>"1996-06-22"</f>
+        <v>1996-06-22</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (106, '1996-06-22', 3, 4420);</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>"1996-06-23"</f>
+        <v>1996-06-23</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (107, '1996-06-23', 3, 4420);</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>"1996-06-23"</f>
+        <v>1996-06-23</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (108, '1996-06-23', 3, 4420);</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f>"1996-06-26"</f>
+        <v>1996-06-26</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (109, '1996-06-26', 4, 4420);</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>"1996-06-26"</f>
+        <v>1996-06-26</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (110, '1996-06-26', 4, 4420);</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>"1996-06-30"</f>
+        <v>1996-06-30</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (111, '1996-06-30', 6, 4420);</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A52 &amp; ", " &amp; B52 &amp; ", " &amp; C52 &amp; ", " &amp; D52 &amp; ", " &amp; E52 &amp; ", " &amp; F52 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f>'1992'!A90+1</f>
+        <v>373</v>
+      </c>
+      <c r="B53" s="3">
+        <f>A20</f>
+        <v>81</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" ref="G53:G116" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A53 &amp; ", " &amp; B53 &amp; ", " &amp; C53 &amp; ", " &amp; D53 &amp; ", " &amp; E53 &amp; ", " &amp; F53 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 81, 4420, 1, 1, 2);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f>A53+1</f>
+        <v>374</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>81</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 81, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" ref="A55:A118" si="10">A54+1</f>
+        <v>375</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>81</v>
+      </c>
+      <c r="C55" s="3">
+        <v>41</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 81, 41, 1, 1, 2);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="10"/>
+        <v>376</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>81</v>
+      </c>
+      <c r="C56" s="3">
+        <v>41</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 81, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="10"/>
+        <v>377</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>82</v>
+      </c>
+      <c r="C57" s="4">
+        <v>31</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 82, 31, 0, 1, 2);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="10"/>
+        <v>378</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>82</v>
+      </c>
+      <c r="C58" s="4">
+        <v>31</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 82, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="10"/>
+        <v>379</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>82</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44141</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 82, 44141, 0, 1, 2);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="10"/>
+        <v>380</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>82</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44141</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 82, 44141, 0, 0, 1);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="10"/>
+        <v>381</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>83</v>
+      </c>
+      <c r="C61" s="3">
+        <v>41</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 83, 41, 0, 0, 2);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="10"/>
+        <v>382</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>83</v>
+      </c>
+      <c r="C62" s="3">
+        <v>41</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 83, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="10"/>
+        <v>383</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>83</v>
+      </c>
+      <c r="C63" s="3">
+        <v>31</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 83, 31, 2, 3, 2);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="10"/>
+        <v>384</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>83</v>
+      </c>
+      <c r="C64" s="3">
+        <v>31</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 83, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="10"/>
+        <v>385</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>84</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 84, 4420, 2, 3, 2);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="10"/>
+        <v>386</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>84</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 84, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="10"/>
+        <v>387</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>84</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44141</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 84, 44141, 0, 0, 2);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="10"/>
+        <v>388</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>84</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44141</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 84, 44141, 0, 0, 1);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="10"/>
+        <v>389</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>85</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44141</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 85, 44141, 1, 3, 2);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>85</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44414</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 85, 44414, 1, 0, 1);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="10"/>
+        <v>391</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>85</v>
+      </c>
+      <c r="C71" s="3">
+        <v>41</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 85, 41, 0, 0, 2);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="10"/>
+        <v>392</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>85</v>
+      </c>
+      <c r="C72" s="3">
+        <v>41</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 85, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="10"/>
+        <v>393</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>86</v>
+      </c>
+      <c r="C73" s="4">
+        <v>31</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 86, 31, 1, 0, 2);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="10"/>
+        <v>394</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>86</v>
+      </c>
+      <c r="C74" s="4">
+        <v>31</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 86, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="10"/>
+        <v>395</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>86</v>
+      </c>
+      <c r="C75" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 86, 4420, 4, 3, 2);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>86</v>
+      </c>
+      <c r="C76" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 86, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="10"/>
+        <v>397</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B73+1</f>
+        <v>87</v>
+      </c>
+      <c r="C77" s="3">
+        <v>34</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 87, 34, 1, 1, 2);</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="10"/>
+        <v>398</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>87</v>
+      </c>
+      <c r="C78" s="3">
+        <v>34</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 87, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="10"/>
+        <v>399</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>87</v>
+      </c>
+      <c r="C79" s="3">
+        <v>359</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 87, 359, 1, 1, 2);</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>87</v>
+      </c>
+      <c r="C80" s="3">
+        <v>359</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 87, 359, 0, 0, 1);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="10"/>
+        <v>401</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B77+1</f>
+        <v>88</v>
+      </c>
+      <c r="C81" s="4">
+        <v>40</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 88, 40, 0, 0, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="10"/>
+        <v>402</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B81</f>
+        <v>88</v>
+      </c>
+      <c r="C82" s="4">
+        <v>40</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 88, 40, 0, 0, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="10"/>
+        <v>403</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B81</f>
+        <v>88</v>
+      </c>
+      <c r="C83" s="4">
+        <v>33</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 88, 33, 1, 3, 2);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="10"/>
+        <v>404</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B81</f>
+        <v>88</v>
+      </c>
+      <c r="C84" s="4">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 88, 33, 1, 0, 1);</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B81+1</f>
+        <v>89</v>
+      </c>
+      <c r="C85" s="3">
+        <v>359</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 89, 359, 1, 3, 2);</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="10"/>
+        <v>406</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B85</f>
+        <v>89</v>
+      </c>
+      <c r="C86" s="3">
+        <v>359</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 89, 359, 1, 0, 1);</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="10"/>
+        <v>407</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B85</f>
+        <v>89</v>
+      </c>
+      <c r="C87" s="3">
+        <v>40</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 89, 40, 0, 0, 2);</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="10"/>
+        <v>408</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>89</v>
+      </c>
+      <c r="C88" s="3">
+        <v>40</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 89, 40, 0, 0, 1);</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="10"/>
+        <v>409</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B85+1</f>
+        <v>90</v>
+      </c>
+      <c r="C89" s="4">
+        <v>33</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 90, 33, 1, 1, 2);</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="10"/>
+        <v>410</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B89</f>
+        <v>90</v>
+      </c>
+      <c r="C90" s="4">
+        <v>33</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 90, 33, 0, 0, 1);</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="10"/>
+        <v>411</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B89</f>
+        <v>90</v>
+      </c>
+      <c r="C91" s="4">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 90, 34, 1, 1, 2);</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="10"/>
+        <v>412</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B89</f>
+        <v>90</v>
+      </c>
+      <c r="C92" s="4">
+        <v>34</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 90, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="10"/>
+        <v>413</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B89+1</f>
+        <v>91</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33</v>
+      </c>
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 91, 33, 3, 3, 2);</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="10"/>
+        <v>414</v>
+      </c>
+      <c r="B94" s="3">
+        <f>B93</f>
+        <v>91</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 91, 33, 1, 0, 1);</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="10"/>
+        <v>415</v>
+      </c>
+      <c r="B95" s="3">
+        <f>B93</f>
+        <v>91</v>
+      </c>
+      <c r="C95" s="3">
+        <v>359</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 91, 359, 1, 0, 2);</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B93</f>
+        <v>91</v>
+      </c>
+      <c r="C96" s="3">
+        <v>359</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 91, 359, 0, 0, 1);</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="10"/>
+        <v>417</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B93+1</f>
+        <v>92</v>
+      </c>
+      <c r="C97" s="4">
+        <v>40</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 92, 40, 1, 0, 2);</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f t="shared" si="10"/>
+        <v>418</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B97</f>
+        <v>92</v>
+      </c>
+      <c r="C98" s="4">
+        <v>40</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 92, 40, 1, 0, 1);</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f t="shared" si="10"/>
+        <v>419</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B97</f>
+        <v>92</v>
+      </c>
+      <c r="C99" s="4">
+        <v>34</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 92, 34, 2, 3, 2);</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B97</f>
+        <v>92</v>
+      </c>
+      <c r="C100" s="4">
+        <v>34</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 92, 34, 1, 0, 1);</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f t="shared" si="10"/>
+        <v>421</v>
+      </c>
+      <c r="B101" s="3">
+        <f>B97+1</f>
+        <v>93</v>
+      </c>
+      <c r="C101" s="3">
+        <v>49</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 93, 49, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f t="shared" si="10"/>
+        <v>422</v>
+      </c>
+      <c r="B102" s="3">
+        <f>B101</f>
+        <v>93</v>
+      </c>
+      <c r="C102" s="3">
+        <v>49</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 93, 49, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f t="shared" si="10"/>
+        <v>423</v>
+      </c>
+      <c r="B103" s="3">
+        <f>B101</f>
+        <v>93</v>
+      </c>
+      <c r="C103" s="3">
+        <v>420</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 93, 420, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="10"/>
+        <v>424</v>
+      </c>
+      <c r="B104" s="3">
+        <f>B101</f>
+        <v>93</v>
+      </c>
+      <c r="C104" s="3">
+        <v>420</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 93, 420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f t="shared" si="10"/>
+        <v>425</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B101+1</f>
+        <v>94</v>
+      </c>
+      <c r="C105" s="4">
+        <v>39</v>
+      </c>
+      <c r="D105" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 94, 39, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="B106" s="4">
+        <f>B105</f>
+        <v>94</v>
+      </c>
+      <c r="C106" s="4">
+        <v>39</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 94, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <f t="shared" si="10"/>
+        <v>427</v>
+      </c>
+      <c r="B107" s="4">
+        <f>B105</f>
+        <v>94</v>
+      </c>
+      <c r="C107" s="4">
+        <v>7</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 94, 7, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <f t="shared" si="10"/>
+        <v>428</v>
+      </c>
+      <c r="B108" s="4">
+        <f>B105</f>
+        <v>94</v>
+      </c>
+      <c r="C108" s="4">
+        <v>7</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 94, 7, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="10"/>
+        <v>429</v>
+      </c>
+      <c r="B109" s="3">
+        <f>B105+1</f>
+        <v>95</v>
+      </c>
+      <c r="C109" s="3">
+        <v>420</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2</v>
+      </c>
+      <c r="G109" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 95, 420, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f t="shared" si="10"/>
+        <v>430</v>
+      </c>
+      <c r="B110" s="3">
+        <f>B109</f>
+        <v>95</v>
+      </c>
+      <c r="C110" s="3">
+        <v>420</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 95, 420, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f t="shared" si="10"/>
+        <v>431</v>
+      </c>
+      <c r="B111" s="3">
+        <f>B109</f>
+        <v>95</v>
+      </c>
+      <c r="C111" s="3">
+        <v>39</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 95, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f t="shared" si="10"/>
+        <v>432</v>
+      </c>
+      <c r="B112" s="3">
+        <f>B109</f>
+        <v>95</v>
+      </c>
+      <c r="C112" s="3">
+        <v>39</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 95, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="10"/>
+        <v>433</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B109+1</f>
+        <v>96</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>2</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 96, 7, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <f t="shared" si="10"/>
+        <v>434</v>
+      </c>
+      <c r="B114" s="4">
+        <f>B113</f>
+        <v>96</v>
+      </c>
+      <c r="C114" s="4">
+        <v>7</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 96, 7, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="B115" s="4">
+        <f>B113</f>
+        <v>96</v>
+      </c>
+      <c r="C115" s="4">
+        <v>49</v>
+      </c>
+      <c r="D115" s="4">
+        <v>3</v>
+      </c>
+      <c r="E115" s="4">
+        <v>3</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 96, 49, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <f t="shared" si="10"/>
+        <v>436</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B113</f>
+        <v>96</v>
+      </c>
+      <c r="C116" s="4">
+        <v>49</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 96, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="10"/>
+        <v>437</v>
+      </c>
+      <c r="B117" s="3">
+        <f>B113+1</f>
+        <v>97</v>
+      </c>
+      <c r="C117" s="3">
+        <v>7</v>
+      </c>
+      <c r="D117" s="3">
+        <v>3</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G117" s="3" t="str">
+        <f t="shared" ref="G117:G180" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 97, 7, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f t="shared" si="10"/>
+        <v>438</v>
+      </c>
+      <c r="B118" s="3">
+        <f>B117</f>
+        <v>97</v>
+      </c>
+      <c r="C118" s="3">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 97, 7, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f t="shared" ref="A119:A183" si="12">A118+1</f>
+        <v>439</v>
+      </c>
+      <c r="B119" s="3">
+        <f>B117</f>
+        <v>97</v>
+      </c>
+      <c r="C119" s="3">
+        <v>420</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>2</v>
+      </c>
+      <c r="G119" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 97, 420, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="B120" s="3">
+        <f>B117</f>
+        <v>97</v>
+      </c>
+      <c r="C120" s="3">
+        <v>420</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 97, 420, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" si="12"/>
+        <v>441</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B117+1</f>
+        <v>98</v>
+      </c>
+      <c r="C121" s="4">
+        <v>39</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 98, 39, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <f t="shared" si="12"/>
+        <v>442</v>
+      </c>
+      <c r="B122" s="4">
+        <f>B121</f>
+        <v>98</v>
+      </c>
+      <c r="C122" s="4">
+        <v>39</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 98, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <f t="shared" si="12"/>
+        <v>443</v>
+      </c>
+      <c r="B123" s="4">
+        <f>B121</f>
+        <v>98</v>
+      </c>
+      <c r="C123" s="4">
+        <v>49</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 98, 49, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="12"/>
+        <v>444</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B121</f>
+        <v>98</v>
+      </c>
+      <c r="C124" s="4">
+        <v>49</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 98, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f t="shared" si="12"/>
+        <v>445</v>
+      </c>
+      <c r="B125" s="3">
+        <f>B121+1</f>
+        <v>99</v>
+      </c>
+      <c r="C125" s="3">
+        <v>45</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 99, 45, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f t="shared" si="12"/>
+        <v>446</v>
+      </c>
+      <c r="B126" s="3">
+        <f>B125</f>
+        <v>99</v>
+      </c>
+      <c r="C126" s="3">
+        <v>45</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 99, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f t="shared" si="12"/>
+        <v>447</v>
+      </c>
+      <c r="B127" s="3">
+        <f>B125</f>
+        <v>99</v>
+      </c>
+      <c r="C127" s="3">
+        <v>351</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>2</v>
+      </c>
+      <c r="G127" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 99, 351, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="12"/>
+        <v>448</v>
+      </c>
+      <c r="B128" s="3">
+        <f>B125</f>
+        <v>99</v>
+      </c>
+      <c r="C128" s="3">
+        <v>351</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 99, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <f t="shared" si="12"/>
+        <v>449</v>
+      </c>
+      <c r="B129" s="4">
+        <f>B125+1</f>
+        <v>100</v>
+      </c>
+      <c r="C129" s="4">
+        <v>90</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 100, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <f t="shared" si="12"/>
+        <v>450</v>
+      </c>
+      <c r="B130" s="4">
+        <f>B129</f>
+        <v>100</v>
+      </c>
+      <c r="C130" s="4">
+        <v>90</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 100, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <f t="shared" si="12"/>
+        <v>451</v>
+      </c>
+      <c r="B131" s="4">
+        <f>B129</f>
+        <v>100</v>
+      </c>
+      <c r="C131" s="4">
+        <v>385</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4">
+        <v>3</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 100, 385, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <f t="shared" si="12"/>
+        <v>452</v>
+      </c>
+      <c r="B132" s="4">
+        <f>B129</f>
+        <v>100</v>
+      </c>
+      <c r="C132" s="4">
+        <v>385</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 100, 385, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f t="shared" si="12"/>
+        <v>453</v>
+      </c>
+      <c r="B133" s="3">
+        <f>B129+1</f>
+        <v>101</v>
+      </c>
+      <c r="C133" s="3">
+        <v>351</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="3">
+        <v>3</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 101, 351, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f t="shared" si="12"/>
+        <v>454</v>
+      </c>
+      <c r="B134" s="3">
+        <f>B133</f>
+        <v>101</v>
+      </c>
+      <c r="C134" s="3">
+        <v>351</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 101, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f t="shared" si="12"/>
+        <v>455</v>
+      </c>
+      <c r="B135" s="3">
+        <f>B133</f>
+        <v>101</v>
+      </c>
+      <c r="C135" s="3">
+        <v>90</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 101, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f t="shared" si="12"/>
+        <v>456</v>
+      </c>
+      <c r="B136" s="3">
+        <f>B133</f>
+        <v>101</v>
+      </c>
+      <c r="C136" s="3">
+        <v>90</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 101, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <f t="shared" si="12"/>
+        <v>457</v>
+      </c>
+      <c r="B137" s="4">
+        <f>B133+1</f>
+        <v>102</v>
+      </c>
+      <c r="C137" s="4">
+        <v>385</v>
+      </c>
+      <c r="D137" s="4">
+        <v>3</v>
+      </c>
+      <c r="E137" s="4">
+        <v>3</v>
+      </c>
+      <c r="F137" s="4">
+        <v>2</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 102, 385, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <f t="shared" si="12"/>
+        <v>458</v>
+      </c>
+      <c r="B138" s="4">
+        <f>B137</f>
+        <v>102</v>
+      </c>
+      <c r="C138" s="4">
+        <v>385</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 102, 385, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <f t="shared" si="12"/>
+        <v>459</v>
+      </c>
+      <c r="B139" s="4">
+        <f>B137</f>
+        <v>102</v>
+      </c>
+      <c r="C139" s="4">
+        <v>45</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 102, 45, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <f t="shared" si="12"/>
+        <v>460</v>
+      </c>
+      <c r="B140" s="4">
+        <f>B137</f>
+        <v>102</v>
+      </c>
+      <c r="C140" s="4">
+        <v>45</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 102, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <f t="shared" si="12"/>
+        <v>461</v>
+      </c>
+      <c r="B141" s="3">
+        <f>B137+1</f>
+        <v>103</v>
+      </c>
+      <c r="C141" s="3">
+        <v>385</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 103, 385, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <f t="shared" si="12"/>
+        <v>462</v>
+      </c>
+      <c r="B142" s="3">
+        <f>B141</f>
+        <v>103</v>
+      </c>
+      <c r="C142" s="3">
+        <v>385</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 103, 385, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <f t="shared" si="12"/>
+        <v>463</v>
+      </c>
+      <c r="B143" s="3">
+        <f>B141</f>
+        <v>103</v>
+      </c>
+      <c r="C143" s="3">
+        <v>351</v>
+      </c>
+      <c r="D143" s="3">
+        <v>3</v>
+      </c>
+      <c r="E143" s="3">
+        <v>3</v>
+      </c>
+      <c r="F143" s="3">
+        <v>2</v>
+      </c>
+      <c r="G143" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 103, 351, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <f t="shared" si="12"/>
+        <v>464</v>
+      </c>
+      <c r="B144" s="3">
+        <f>B141</f>
+        <v>103</v>
+      </c>
+      <c r="C144" s="3">
+        <v>351</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 103, 351, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <f t="shared" si="12"/>
+        <v>465</v>
+      </c>
+      <c r="B145" s="4">
+        <f>B141+1</f>
+        <v>104</v>
+      </c>
+      <c r="C145" s="4">
+        <v>90</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 104, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <f t="shared" si="12"/>
+        <v>466</v>
+      </c>
+      <c r="B146" s="4">
+        <f>B145</f>
+        <v>104</v>
+      </c>
+      <c r="C146" s="4">
+        <v>90</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 104, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <f t="shared" si="12"/>
+        <v>467</v>
+      </c>
+      <c r="B147" s="4">
+        <f>B145</f>
+        <v>104</v>
+      </c>
+      <c r="C147" s="4">
+        <v>45</v>
+      </c>
+      <c r="D147" s="4">
+        <v>3</v>
+      </c>
+      <c r="E147" s="4">
+        <v>3</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 104, 45, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <f t="shared" si="12"/>
+        <v>468</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B146</f>
+        <v>104</v>
+      </c>
+      <c r="C148" s="4">
+        <v>45</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 104, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <f t="shared" si="12"/>
+        <v>469</v>
+      </c>
+      <c r="B149" s="3">
+        <f>B145+1</f>
+        <v>105</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 105, 4420, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <f t="shared" si="12"/>
+        <v>470</v>
+      </c>
+      <c r="B150" s="3">
+        <f>B149</f>
+        <v>105</v>
+      </c>
+      <c r="C150" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 105, 4420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <f t="shared" si="12"/>
+        <v>471</v>
+      </c>
+      <c r="B151" s="3">
+        <f>B149</f>
+        <v>105</v>
+      </c>
+      <c r="C151" s="3">
+        <v>34</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>2</v>
+      </c>
+      <c r="G151" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 105, 34, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <f t="shared" si="12"/>
+        <v>472</v>
+      </c>
+      <c r="B152" s="3">
+        <f>B150</f>
+        <v>105</v>
+      </c>
+      <c r="C152" s="3">
+        <v>34</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 105, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <f t="shared" si="12"/>
+        <v>473</v>
+      </c>
+      <c r="B153" s="3">
+        <f>B151</f>
+        <v>105</v>
+      </c>
+      <c r="C153" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <v>4</v>
+      </c>
+      <c r="G153" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 105, 4420, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <f t="shared" si="12"/>
+        <v>474</v>
+      </c>
+      <c r="B154" s="3">
+        <f>B152</f>
+        <v>105</v>
+      </c>
+      <c r="C154" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+      <c r="F154" s="3">
+        <v>3</v>
+      </c>
+      <c r="G154" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 105, 4420, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <f t="shared" si="12"/>
+        <v>475</v>
+      </c>
+      <c r="B155" s="3">
+        <f>B153</f>
+        <v>105</v>
+      </c>
+      <c r="C155" s="3">
+        <v>34</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>4</v>
+      </c>
+      <c r="G155" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 105, 34, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <f t="shared" si="12"/>
+        <v>476</v>
+      </c>
+      <c r="B156" s="3">
+        <f>B154</f>
+        <v>105</v>
+      </c>
+      <c r="C156" s="3">
+        <v>34</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>3</v>
+      </c>
+      <c r="G156" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 105, 34, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <f t="shared" si="12"/>
+        <v>477</v>
+      </c>
+      <c r="B157" s="3">
+        <f>B155</f>
+        <v>105</v>
+      </c>
+      <c r="C157" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3">
+        <v>7</v>
+      </c>
+      <c r="G157" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 105, 4420, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <f t="shared" si="12"/>
+        <v>478</v>
+      </c>
+      <c r="B158" s="3">
+        <f>B156</f>
+        <v>105</v>
+      </c>
+      <c r="C158" s="3">
+        <v>34</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>7</v>
+      </c>
+      <c r="G158" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 105, 34, 2, 0, 7);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <f t="shared" si="12"/>
+        <v>479</v>
+      </c>
+      <c r="B159" s="4">
+        <f>B155+1</f>
+        <v>106</v>
+      </c>
+      <c r="C159" s="4">
+        <v>31</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>2</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 106, 31, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="B160" s="4">
+        <f>B159</f>
+        <v>106</v>
+      </c>
+      <c r="C160" s="4">
+        <v>31</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 106, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <f t="shared" si="12"/>
+        <v>481</v>
+      </c>
+      <c r="B161" s="4">
+        <f>B159</f>
+        <v>106</v>
+      </c>
+      <c r="C161" s="4">
+        <v>33</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>2</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 106, 33, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <f t="shared" si="12"/>
+        <v>482</v>
+      </c>
+      <c r="B162" s="4">
+        <f>B160</f>
+        <v>106</v>
+      </c>
+      <c r="C162" s="4">
+        <v>33</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 106, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <f t="shared" si="12"/>
+        <v>483</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B161</f>
+        <v>106</v>
+      </c>
+      <c r="C163" s="4">
+        <v>31</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="4">
+        <v>4</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 106, 31, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <f t="shared" si="12"/>
+        <v>484</v>
+      </c>
+      <c r="B164" s="4">
+        <f>B162</f>
+        <v>106</v>
+      </c>
+      <c r="C164" s="4">
+        <v>31</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>3</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 106, 31, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <f t="shared" si="12"/>
+        <v>485</v>
+      </c>
+      <c r="B165" s="4">
+        <f>B163</f>
+        <v>106</v>
+      </c>
+      <c r="C165" s="4">
+        <v>33</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="4">
+        <v>4</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 106, 33, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <f t="shared" si="12"/>
+        <v>486</v>
+      </c>
+      <c r="B166" s="4">
+        <f>B164</f>
+        <v>106</v>
+      </c>
+      <c r="C166" s="4">
+        <v>33</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>3</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 106, 33, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <f t="shared" si="12"/>
+        <v>487</v>
+      </c>
+      <c r="B167" s="4">
+        <f>B165</f>
+        <v>106</v>
+      </c>
+      <c r="C167" s="4">
+        <v>31</v>
+      </c>
+      <c r="D167" s="4">
+        <v>4</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>7</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 106, 31, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <f t="shared" si="12"/>
+        <v>488</v>
+      </c>
+      <c r="B168" s="4">
+        <f>B166</f>
+        <v>106</v>
+      </c>
+      <c r="C168" s="4">
+        <v>33</v>
+      </c>
+      <c r="D168" s="4">
+        <v>5</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>7</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 106, 33, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <f t="shared" si="12"/>
+        <v>489</v>
+      </c>
+      <c r="B169" s="3">
+        <f>B165+1</f>
+        <v>107</v>
+      </c>
+      <c r="C169" s="3">
+        <v>49</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2</v>
+      </c>
+      <c r="E169" s="3">
+        <v>3</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2</v>
+      </c>
+      <c r="G169" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 107, 49, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <f t="shared" si="12"/>
+        <v>490</v>
+      </c>
+      <c r="B170" s="3">
+        <f>B169</f>
+        <v>107</v>
+      </c>
+      <c r="C170" s="3">
+        <v>49</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 107, 49, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <f t="shared" si="12"/>
+        <v>491</v>
+      </c>
+      <c r="B171" s="3">
+        <f>B169</f>
+        <v>107</v>
+      </c>
+      <c r="C171" s="3">
+        <v>385</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3">
+        <v>2</v>
+      </c>
+      <c r="G171" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 107, 385, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <f t="shared" si="12"/>
+        <v>492</v>
+      </c>
+      <c r="B172" s="3">
+        <f>B169</f>
+        <v>107</v>
+      </c>
+      <c r="C172" s="3">
+        <v>385</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 107, 385, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <f t="shared" si="12"/>
+        <v>493</v>
+      </c>
+      <c r="B173" s="4">
+        <f>B169+1</f>
+        <v>108</v>
+      </c>
+      <c r="C173" s="4">
+        <v>420</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1</v>
+      </c>
+      <c r="E173" s="4">
+        <v>3</v>
+      </c>
+      <c r="F173" s="4">
+        <v>2</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 108, 420, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <f t="shared" si="12"/>
+        <v>494</v>
+      </c>
+      <c r="B174" s="4">
+        <f>B173</f>
+        <v>108</v>
+      </c>
+      <c r="C174" s="4">
+        <v>420</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 108, 420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <f t="shared" si="12"/>
+        <v>495</v>
+      </c>
+      <c r="B175" s="4">
+        <f>B173</f>
+        <v>108</v>
+      </c>
+      <c r="C175" s="4">
+        <v>351</v>
+      </c>
+      <c r="D175" s="4">
+        <v>0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="4">
+        <v>2</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 108, 351, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <f t="shared" si="12"/>
+        <v>496</v>
+      </c>
+      <c r="B176" s="4">
+        <f>B174</f>
+        <v>108</v>
+      </c>
+      <c r="C176" s="4">
+        <v>351</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>1</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 108, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <f t="shared" si="12"/>
+        <v>497</v>
+      </c>
+      <c r="B177" s="3">
+        <f>B173+1</f>
+        <v>109</v>
+      </c>
+      <c r="C177" s="3">
+        <v>33</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>2</v>
+      </c>
+      <c r="G177" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 109, 33, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <f t="shared" si="12"/>
+        <v>498</v>
+      </c>
+      <c r="B178" s="3">
+        <f>B177</f>
+        <v>109</v>
+      </c>
+      <c r="C178" s="3">
+        <v>33</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 109, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <f t="shared" si="12"/>
+        <v>499</v>
+      </c>
+      <c r="B179" s="3">
+        <f>B177</f>
+        <v>109</v>
+      </c>
+      <c r="C179" s="3">
+        <v>420</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2</v>
+      </c>
+      <c r="G179" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 109, 420, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="B180" s="3">
+        <f>B178</f>
+        <v>109</v>
+      </c>
+      <c r="C180" s="3">
+        <v>420</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 109, 420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <f t="shared" si="12"/>
+        <v>501</v>
+      </c>
+      <c r="B181" s="3">
+        <f>B179</f>
+        <v>109</v>
+      </c>
+      <c r="C181" s="3">
+        <v>33</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F181" s="3">
+        <v>4</v>
+      </c>
+      <c r="G181" s="3" t="str">
+        <f t="shared" ref="G181:G202" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A181 &amp; ", " &amp; B181 &amp; ", " &amp; C181 &amp; ", " &amp; D181 &amp; ", " &amp; E181 &amp; ", " &amp; F181 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 109, 33, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <f t="shared" si="12"/>
+        <v>502</v>
+      </c>
+      <c r="B182" s="3">
+        <f>B180</f>
+        <v>109</v>
+      </c>
+      <c r="C182" s="3">
+        <v>33</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>3</v>
+      </c>
+      <c r="G182" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 109, 33, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <f t="shared" si="12"/>
+        <v>503</v>
+      </c>
+      <c r="B183" s="3">
+        <f>B181</f>
+        <v>109</v>
+      </c>
+      <c r="C183" s="3">
+        <v>420</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <v>4</v>
+      </c>
+      <c r="G183" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 109, 420, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <f t="shared" ref="A184:A202" si="14">A183+1</f>
+        <v>504</v>
+      </c>
+      <c r="B184" s="3">
+        <f>B182</f>
+        <v>109</v>
+      </c>
+      <c r="C184" s="3">
+        <v>420</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>3</v>
+      </c>
+      <c r="G184" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 109, 420, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <f t="shared" si="14"/>
+        <v>505</v>
+      </c>
+      <c r="B185" s="3">
+        <f>B183</f>
+        <v>109</v>
+      </c>
+      <c r="C185" s="3">
+        <v>33</v>
+      </c>
+      <c r="D185" s="3">
+        <v>5</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>7</v>
+      </c>
+      <c r="G185" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 109, 33, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <f t="shared" si="14"/>
+        <v>506</v>
+      </c>
+      <c r="B186" s="3">
+        <f>B184</f>
+        <v>109</v>
+      </c>
+      <c r="C186" s="3">
+        <v>420</v>
+      </c>
+      <c r="D186" s="3">
+        <v>6</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>7</v>
+      </c>
+      <c r="G186" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 109, 420, 6, 0, 7);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <f t="shared" si="14"/>
+        <v>507</v>
+      </c>
+      <c r="B187" s="4">
+        <f>B183+1</f>
+        <v>110</v>
+      </c>
+      <c r="C187" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D187" s="4">
+        <v>1</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0</v>
+      </c>
+      <c r="F187" s="4">
+        <v>2</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 110, 4420, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <f t="shared" si="14"/>
+        <v>508</v>
+      </c>
+      <c r="B188" s="4">
+        <f>B187</f>
+        <v>110</v>
+      </c>
+      <c r="C188" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D188" s="4">
+        <v>0</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0</v>
+      </c>
+      <c r="F188" s="4">
+        <v>1</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 110, 4420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <f t="shared" si="14"/>
+        <v>509</v>
+      </c>
+      <c r="B189" s="4">
+        <f>B187</f>
+        <v>110</v>
+      </c>
+      <c r="C189" s="4">
+        <v>49</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+      <c r="F189" s="4">
+        <v>2</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 110, 49, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <f t="shared" si="14"/>
+        <v>510</v>
+      </c>
+      <c r="B190" s="4">
+        <f>B188</f>
+        <v>110</v>
+      </c>
+      <c r="C190" s="4">
+        <v>49</v>
+      </c>
+      <c r="D190" s="4">
+        <v>0</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0</v>
+      </c>
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 110, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <f t="shared" si="14"/>
+        <v>511</v>
+      </c>
+      <c r="B191" s="4">
+        <f>B189</f>
+        <v>110</v>
+      </c>
+      <c r="C191" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1</v>
+      </c>
+      <c r="F191" s="4">
+        <v>4</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 110, 4420, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <f t="shared" si="14"/>
+        <v>512</v>
+      </c>
+      <c r="B192" s="4">
+        <f>B190</f>
+        <v>110</v>
+      </c>
+      <c r="C192" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+      <c r="F192" s="4">
+        <v>3</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 110, 4420, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <f t="shared" si="14"/>
+        <v>513</v>
+      </c>
+      <c r="B193" s="4">
+        <f>B191</f>
+        <v>110</v>
+      </c>
+      <c r="C193" s="4">
+        <v>49</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1</v>
+      </c>
+      <c r="E193" s="4">
+        <v>1</v>
+      </c>
+      <c r="F193" s="4">
+        <v>4</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 110, 49, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <f t="shared" si="14"/>
+        <v>514</v>
+      </c>
+      <c r="B194" s="4">
+        <f>B192</f>
+        <v>110</v>
+      </c>
+      <c r="C194" s="4">
+        <v>49</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0</v>
+      </c>
+      <c r="F194" s="4">
+        <v>3</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 110, 49, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <f t="shared" si="14"/>
+        <v>515</v>
+      </c>
+      <c r="B195" s="4">
+        <f>B193</f>
+        <v>110</v>
+      </c>
+      <c r="C195" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D195" s="4">
+        <v>5</v>
+      </c>
+      <c r="E195" s="4">
+        <v>0</v>
+      </c>
+      <c r="F195" s="4">
+        <v>7</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 110, 4420, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <f t="shared" si="14"/>
+        <v>516</v>
+      </c>
+      <c r="B196" s="4">
+        <f>B194</f>
+        <v>110</v>
+      </c>
+      <c r="C196" s="4">
+        <v>49</v>
+      </c>
+      <c r="D196" s="4">
+        <v>6</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0</v>
+      </c>
+      <c r="F196" s="4">
+        <v>7</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 110, 49, 6, 0, 7);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <f t="shared" si="14"/>
+        <v>517</v>
+      </c>
+      <c r="B197" s="3">
+        <f>B193+1</f>
+        <v>111</v>
+      </c>
+      <c r="C197" s="3">
+        <v>49</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>2</v>
+      </c>
+      <c r="G197" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 111, 49, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <f t="shared" si="14"/>
+        <v>518</v>
+      </c>
+      <c r="B198" s="3">
+        <f>B197</f>
+        <v>111</v>
+      </c>
+      <c r="C198" s="3">
+        <v>49</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 111, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <f t="shared" si="14"/>
+        <v>519</v>
+      </c>
+      <c r="B199" s="3">
+        <f>B197</f>
+        <v>111</v>
+      </c>
+      <c r="C199" s="3">
+        <v>420</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>2</v>
+      </c>
+      <c r="G199" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 111, 420, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <f t="shared" si="14"/>
+        <v>520</v>
+      </c>
+      <c r="B200" s="3">
+        <f>B198</f>
+        <v>111</v>
+      </c>
+      <c r="C200" s="3">
+        <v>420</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 111, 420, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <f t="shared" si="14"/>
+        <v>521</v>
+      </c>
+      <c r="B201" s="3">
+        <f>B199</f>
+        <v>111</v>
+      </c>
+      <c r="C201" s="3">
+        <v>49</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2</v>
+      </c>
+      <c r="E201" s="3">
+        <v>3</v>
+      </c>
+      <c r="F201" s="3">
+        <v>3</v>
+      </c>
+      <c r="G201" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 111, 49, 2, 3, 3);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <f t="shared" si="14"/>
+        <v>522</v>
+      </c>
+      <c r="B202" s="3">
+        <f>B200</f>
+        <v>111</v>
+      </c>
+      <c r="C202" s="3">
+        <v>420</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>3</v>
+      </c>
+      <c r="G202" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 111, 420, 1, 0, 3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
@@ -11046,7 +16160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11593,27 +16707,27 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <f>'1988'!A88+1</f>
         <v>311</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <f>A12</f>
         <v>66</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>46</v>
       </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" t="str">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
         <f t="shared" ref="G29:G90" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 66, 46, 1, 1, 2);</v>
       </c>
@@ -11622,27 +16736,27 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <f>A29+1</f>
         <v>312</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f>B29</f>
         <v>66</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>46</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" t="str">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 66, 46, 1, 0, 1);</v>
       </c>
@@ -11651,27 +16765,27 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <f t="shared" ref="A31:A90" si="7">A30+1</f>
         <v>313</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <f>B29</f>
         <v>66</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>33</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" t="str">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 66, 33, 1, 1, 2);</v>
       </c>
@@ -11680,27 +16794,27 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <f t="shared" si="7"/>
         <v>314</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f>B29</f>
         <v>66</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>33</v>
       </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 66, 33, 0, 0, 1);</v>
       </c>
@@ -11825,27 +16939,27 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <f t="shared" si="7"/>
         <v>319</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <f>B33+1</f>
         <v>68</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>33</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 68, 33, 0, 1, 2);</v>
       </c>
@@ -11854,27 +16968,27 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f>B37</f>
         <v>68</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>33</v>
       </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" t="str">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 68, 33, 0, 0, 1);</v>
       </c>
@@ -11883,27 +16997,27 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <f t="shared" si="7"/>
         <v>321</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f>B37</f>
         <v>68</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>4420</v>
       </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" t="str">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 68, 4420, 0, 1, 2);</v>
       </c>
@@ -11912,27 +17026,27 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <f t="shared" si="7"/>
         <v>322</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f>B37</f>
         <v>68</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>4420</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" t="str">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 68, 4420, 0, 0, 1);</v>
       </c>
@@ -12057,27 +17171,27 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <f t="shared" si="7"/>
         <v>327</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <f>B41+1</f>
         <v>70</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>46</v>
       </c>
-      <c r="D45" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="F45" s="4">
-        <v>2</v>
-      </c>
-      <c r="G45" t="str">
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 70, 46, 2, 2, 2);</v>
       </c>
@@ -12086,27 +17200,27 @@
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <f t="shared" si="7"/>
         <v>328</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <f>B45</f>
         <v>70</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>46</v>
       </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" t="str">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 70, 46, 0, 0, 1);</v>
       </c>
@@ -12115,27 +17229,27 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <f t="shared" si="7"/>
         <v>329</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <f>B45</f>
         <v>70</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>4420</v>
       </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" t="str">
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 70, 4420, 1, 0, 2);</v>
       </c>
@@ -12144,27 +17258,27 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <f>B45</f>
         <v>70</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>4420</v>
       </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" t="str">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 70, 4420, 0, 0, 1);</v>
       </c>
@@ -12289,27 +17403,27 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <f t="shared" si="7"/>
         <v>335</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <f>B49+1</f>
         <v>72</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>31</v>
       </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" t="str">
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 72, 31, 1, 2, 2);</v>
       </c>
@@ -12318,27 +17432,27 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <f t="shared" si="7"/>
         <v>336</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <f>B53</f>
         <v>72</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>31</v>
       </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" t="str">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 72, 31, 0, 0, 1);</v>
       </c>
@@ -12347,27 +17461,27 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <f t="shared" si="7"/>
         <v>337</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <f>B53</f>
         <v>72</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>44141</v>
       </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" t="str">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 72, 44141, 0, 0, 2);</v>
       </c>
@@ -12376,27 +17490,27 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <f t="shared" si="7"/>
         <v>338</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <f>B53</f>
         <v>72</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>44141</v>
       </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" t="str">
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 72, 44141, 0, 0, 1);</v>
       </c>
@@ -12521,27 +17635,27 @@
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <f t="shared" si="7"/>
         <v>343</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <f>B57+1</f>
         <v>74</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>44141</v>
       </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="G61" t="str">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 74, 44141, 0, 0, 2);</v>
       </c>
@@ -12550,27 +17664,27 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <f t="shared" si="7"/>
         <v>344</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <f>B61</f>
         <v>74</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>44141</v>
       </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" t="str">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 74, 44141, 0, 0, 1);</v>
       </c>
@@ -12579,27 +17693,27 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <f t="shared" si="7"/>
         <v>345</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <f>B61</f>
         <v>74</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>49228</v>
       </c>
-      <c r="D63" s="4">
-        <v>2</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" t="str">
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 74, 49228, 2, 2, 2);</v>
       </c>
@@ -12608,27 +17722,27 @@
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <f t="shared" si="7"/>
         <v>346</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <f>B61</f>
         <v>74</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>49228</v>
       </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" t="str">
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 74, 49228, 1, 0, 1);</v>
       </c>
@@ -12753,27 +17867,27 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <f t="shared" si="7"/>
         <v>351</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <f>B65+1</f>
         <v>76</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>31</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-      <c r="F69" s="4">
-        <v>2</v>
-      </c>
-      <c r="G69" t="str">
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 76, 31, 3, 2, 2);</v>
       </c>
@@ -12782,27 +17896,27 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <f t="shared" si="7"/>
         <v>352</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <f>B69</f>
         <v>76</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>31</v>
       </c>
-      <c r="D70" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" t="str">
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 76, 31, 2, 0, 1);</v>
       </c>
@@ -12811,27 +17925,27 @@
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <f t="shared" si="7"/>
         <v>353</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <f>B69</f>
         <v>76</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>49228</v>
       </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-      <c r="G71" t="str">
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 76, 49228, 1, 0, 2);</v>
       </c>
@@ -12840,27 +17954,27 @@
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <f t="shared" si="7"/>
         <v>354</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <f>B69</f>
         <v>76</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>49228</v>
       </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <v>1</v>
-      </c>
-      <c r="G72" t="str">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 76, 49228, 0, 0, 1);</v>
       </c>
@@ -12985,105 +18099,105 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <f t="shared" si="7"/>
         <v>359</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <f>B73+1</f>
         <v>78</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>46</v>
       </c>
-      <c r="D77" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
-        <v>2</v>
-      </c>
-      <c r="G77" t="str">
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 78, 46, 2, 0, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <f>B77</f>
         <v>78</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>46</v>
       </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" t="str">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 78, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <f t="shared" si="7"/>
         <v>361</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <f>B77</f>
         <v>78</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>49228</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>3</v>
       </c>
-      <c r="E79" s="4">
-        <v>2</v>
-      </c>
-      <c r="F79" s="4">
-        <v>2</v>
-      </c>
-      <c r="G79" t="str">
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 78, 49228, 3, 2, 2);</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <f t="shared" si="7"/>
         <v>362</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <f>B77</f>
         <v>78</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>49228</v>
       </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" t="str">
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 78, 49228, 1, 0, 1);</v>
       </c>
@@ -13245,105 +18359,105 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <f>B81+1</f>
         <v>80</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>45</v>
       </c>
-      <c r="D87" s="4">
-        <v>2</v>
-      </c>
-      <c r="E87" s="4">
-        <v>2</v>
-      </c>
-      <c r="F87" s="4">
-        <v>2</v>
-      </c>
-      <c r="G87" t="str">
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 80, 45, 2, 2, 2);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <f>B87</f>
         <v>80</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>45</v>
       </c>
-      <c r="D88" s="4">
-        <v>1</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>1</v>
-      </c>
-      <c r="G88" t="str">
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 80, 45, 1, 0, 1);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <f t="shared" si="7"/>
         <v>371</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <f>B87</f>
         <v>80</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>49228</v>
       </c>
-      <c r="D89" s="4">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0</v>
-      </c>
-      <c r="F89" s="4">
-        <v>2</v>
-      </c>
-      <c r="G89" t="str">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2</v>
+      </c>
+      <c r="G89" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 80, 49228, 0, 0, 2);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <f t="shared" si="7"/>
         <v>372</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <f>B87</f>
         <v>80</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>49228</v>
       </c>
-      <c r="D90" s="4">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4">
-        <v>1</v>
-      </c>
-      <c r="G90" t="str">
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="str">
         <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 80, 49228, 0, 0, 1);</v>
       </c>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="1988" sheetId="55" r:id="rId9"/>
     <sheet name="1996" sheetId="57" r:id="rId10"/>
     <sheet name="2000" sheetId="58" r:id="rId11"/>
+    <sheet name="2004" sheetId="59" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -6202,7 +6203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7275,27 +7276,27 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <f>'1996'!A202+1</f>
         <v>523</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <f>A20</f>
         <v>112</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>49</v>
       </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4" t="str">
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
         <f t="shared" ref="G53:G116" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A53 &amp; ", " &amp; B53 &amp; ", " &amp; C53 &amp; ", " &amp; D53 &amp; ", " &amp; E53 &amp; ", " &amp; F53 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 112, 49, 1, 1, 2);</v>
       </c>
@@ -7304,27 +7305,27 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <f>A53+1</f>
         <v>524</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <f>B53</f>
         <v>112</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>49</v>
       </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4" t="str">
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 112, 49, 1, 0, 1);</v>
       </c>
@@ -7333,27 +7334,27 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <f t="shared" ref="A55:A118" si="8">A54+1</f>
         <v>525</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <f>B53</f>
         <v>112</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>40</v>
       </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="4" t="str">
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 112, 40, 1, 1, 2);</v>
       </c>
@@ -7362,27 +7363,27 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <f t="shared" si="8"/>
         <v>526</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <f>B53</f>
         <v>112</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>40</v>
       </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4" t="str">
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 112, 40, 1, 0, 1);</v>
       </c>
@@ -7507,27 +7508,27 @@
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <f t="shared" si="8"/>
         <v>531</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <f>B57+1</f>
         <v>114</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>40</v>
       </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4" t="str">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 114, 40, 0, 0, 2);</v>
       </c>
@@ -7536,27 +7537,27 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <f t="shared" si="8"/>
         <v>532</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <f>B61</f>
         <v>114</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>40</v>
       </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="str">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 114, 40, 0, 0, 1);</v>
       </c>
@@ -7565,27 +7566,27 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <f t="shared" si="8"/>
         <v>533</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <f>B61</f>
         <v>114</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>351</v>
       </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4" t="str">
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 114, 351, 1, 3, 2);</v>
       </c>
@@ -7594,27 +7595,27 @@
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <f t="shared" si="8"/>
         <v>534</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <f>B61</f>
         <v>114</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>351</v>
       </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="str">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 114, 351, 0, 0, 1);</v>
       </c>
@@ -7739,27 +7740,27 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <f t="shared" si="8"/>
         <v>539</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <f>B65+1</f>
         <v>116</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>351</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>3</v>
       </c>
-      <c r="F69" s="4">
-        <v>2</v>
-      </c>
-      <c r="G69" s="4" t="str">
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 116, 351, 3, 3, 2);</v>
       </c>
@@ -7768,27 +7769,27 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <f>B69</f>
         <v>116</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>351</v>
       </c>
-      <c r="D70" s="4">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="4" t="str">
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 116, 351, 1, 0, 1);</v>
       </c>
@@ -7797,27 +7798,27 @@
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <f t="shared" si="8"/>
         <v>541</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <f>B69</f>
         <v>116</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>49</v>
       </c>
-      <c r="D71" s="4">
-        <v>0</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-      <c r="G71" s="4" t="str">
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 116, 49, 0, 0, 2);</v>
       </c>
@@ -7826,27 +7827,27 @@
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <f t="shared" si="8"/>
         <v>542</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <f>B69</f>
         <v>116</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>49</v>
       </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <v>1</v>
-      </c>
-      <c r="G72" s="4" t="str">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 116, 49, 0, 0, 1);</v>
       </c>
@@ -7969,108 +7970,108 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <f t="shared" si="8"/>
         <v>547</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <f>B73+1</f>
         <v>118</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>32</v>
       </c>
-      <c r="D77" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" s="4">
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
         <v>3</v>
       </c>
-      <c r="F77" s="4">
-        <v>2</v>
-      </c>
-      <c r="G77" s="4" t="str">
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 118, 32, 2, 3, 2);</v>
       </c>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <f t="shared" si="8"/>
         <v>548</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <f>B77</f>
         <v>118</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>32</v>
       </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="4" t="str">
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 118, 32, 1, 0, 1);</v>
       </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <f t="shared" si="8"/>
         <v>549</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <f>B77</f>
         <v>118</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>46</v>
       </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
-        <v>2</v>
-      </c>
-      <c r="G79" s="4" t="str">
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 118, 46, 1, 0, 2);</v>
       </c>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <f t="shared" si="8"/>
         <v>550</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <f>B77</f>
         <v>118</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>46</v>
       </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4" t="str">
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 118, 46, 0, 0, 1);</v>
       </c>
@@ -8185,108 +8186,108 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <f t="shared" si="8"/>
         <v>555</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <f>B81+1</f>
         <v>120</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>39</v>
       </c>
-      <c r="D85" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
         <v>3</v>
       </c>
-      <c r="F85" s="4">
-        <v>2</v>
-      </c>
-      <c r="G85" s="4" t="str">
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 120, 39, 2, 3, 2);</v>
       </c>
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <f t="shared" si="8"/>
         <v>556</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <f>B85</f>
         <v>120</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>39</v>
       </c>
-      <c r="D86" s="4">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1</v>
-      </c>
-      <c r="G86" s="4" t="str">
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 120, 39, 1, 0, 1);</v>
       </c>
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <f t="shared" si="8"/>
         <v>557</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <f>B85</f>
         <v>120</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>32</v>
       </c>
-      <c r="D87" s="4">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4">
-        <v>2</v>
-      </c>
-      <c r="G87" s="4" t="str">
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 120, 32, 0, 0, 2);</v>
       </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <f t="shared" si="8"/>
         <v>558</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <f>B85</f>
         <v>120</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>32</v>
       </c>
-      <c r="D88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>1</v>
-      </c>
-      <c r="G88" s="4" t="str">
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 120, 32, 0, 0, 1);</v>
       </c>
@@ -8401,108 +8402,108 @@
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <f t="shared" si="8"/>
         <v>563</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <f>B89+1</f>
         <v>122</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>90</v>
       </c>
-      <c r="D93" s="4">
-        <v>2</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
         <v>3</v>
       </c>
-      <c r="F93" s="4">
-        <v>2</v>
-      </c>
-      <c r="G93" s="4" t="str">
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 122, 90, 2, 3, 2);</v>
       </c>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <f t="shared" si="8"/>
         <v>564</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <f>B93</f>
         <v>122</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>90</v>
       </c>
-      <c r="D94" s="4">
-        <v>1</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1</v>
-      </c>
-      <c r="G94" s="4" t="str">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 122, 90, 1, 0, 1);</v>
       </c>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <f t="shared" si="8"/>
         <v>565</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <f>B93</f>
         <v>122</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>32</v>
       </c>
-      <c r="D95" s="4">
-        <v>0</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0</v>
-      </c>
-      <c r="F95" s="4">
-        <v>2</v>
-      </c>
-      <c r="G95" s="4" t="str">
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 122, 32, 0, 0, 2);</v>
       </c>
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <f t="shared" si="8"/>
         <v>566</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <f>B93</f>
         <v>122</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>32</v>
       </c>
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
-      <c r="E96" s="4">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1</v>
-      </c>
-      <c r="G96" s="4" t="str">
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 122, 32, 0, 0, 1);</v>
       </c>
@@ -8617,108 +8618,108 @@
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <f t="shared" si="8"/>
         <v>571</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <f>B97+1</f>
         <v>124</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>34</v>
       </c>
-      <c r="D101" s="4">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <v>2</v>
-      </c>
-      <c r="G101" s="4" t="str">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 124, 34, 0, 0, 2);</v>
       </c>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <f t="shared" si="8"/>
         <v>572</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <f>B101</f>
         <v>124</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>34</v>
       </c>
-      <c r="D102" s="4">
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4">
-        <v>1</v>
-      </c>
-      <c r="G102" s="4" t="str">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 124, 34, 0, 0, 1);</v>
       </c>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <f t="shared" si="8"/>
         <v>573</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <f>B101</f>
         <v>124</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>47</v>
       </c>
-      <c r="D103" s="4">
-        <v>1</v>
-      </c>
-      <c r="E103" s="4">
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
         <v>3</v>
       </c>
-      <c r="F103" s="4">
-        <v>2</v>
-      </c>
-      <c r="G103" s="4" t="str">
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 124, 47, 1, 3, 2);</v>
       </c>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <f t="shared" si="8"/>
         <v>574</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <f>B101</f>
         <v>124</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>47</v>
       </c>
-      <c r="D104" s="4">
-        <v>0</v>
-      </c>
-      <c r="E104" s="4">
-        <v>0</v>
-      </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104" s="4" t="str">
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 124, 47, 0, 0, 1);</v>
       </c>
@@ -8833,108 +8834,108 @@
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <f t="shared" si="8"/>
         <v>579</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <f>B105+1</f>
         <v>126</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>386</v>
       </c>
-      <c r="D109" s="4">
-        <v>1</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>2</v>
-      </c>
-      <c r="G109" s="4" t="str">
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2</v>
+      </c>
+      <c r="G109" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 126, 386, 1, 0, 2);</v>
       </c>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <f t="shared" si="8"/>
         <v>580</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <f>B109</f>
         <v>126</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>386</v>
       </c>
-      <c r="D110" s="4">
-        <v>0</v>
-      </c>
-      <c r="E110" s="4">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
-      <c r="G110" s="4" t="str">
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 126, 386, 0, 0, 1);</v>
       </c>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <f t="shared" si="8"/>
         <v>581</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <f>B109</f>
         <v>126</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>34</v>
       </c>
-      <c r="D111" s="4">
-        <v>2</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="D111" s="3">
+        <v>2</v>
+      </c>
+      <c r="E111" s="3">
         <v>3</v>
       </c>
-      <c r="F111" s="4">
-        <v>2</v>
-      </c>
-      <c r="G111" s="4" t="str">
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 126, 34, 2, 3, 2);</v>
       </c>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <f t="shared" si="8"/>
         <v>582</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <f>B109</f>
         <v>126</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>34</v>
       </c>
-      <c r="D112" s="4">
-        <v>1</v>
-      </c>
-      <c r="E112" s="4">
-        <v>0</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="str">
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="str">
         <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 126, 34, 1, 0, 1);</v>
       </c>
@@ -9049,108 +9050,108 @@
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <f t="shared" si="8"/>
         <v>587</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <f>B113+1</f>
         <v>128</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>38111</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>3</v>
       </c>
-      <c r="E117" s="4">
-        <v>0</v>
-      </c>
-      <c r="F117" s="4">
-        <v>2</v>
-      </c>
-      <c r="G117" s="4" t="str">
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G117" s="3" t="str">
         <f t="shared" ref="G117:G148" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 128, 38111, 3, 0, 2);</v>
       </c>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <f t="shared" si="8"/>
         <v>588</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <f>B117</f>
         <v>128</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>38111</v>
       </c>
-      <c r="D118" s="4">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4">
-        <v>0</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1</v>
-      </c>
-      <c r="G118" s="4" t="str">
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 128, 38111, 1, 0, 1);</v>
       </c>
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <f t="shared" ref="A119:A183" si="10">A118+1</f>
         <v>589</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <f>B117</f>
         <v>128</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>34</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>4</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>3</v>
       </c>
-      <c r="F119" s="4">
-        <v>2</v>
-      </c>
-      <c r="G119" s="4" t="str">
+      <c r="F119" s="3">
+        <v>2</v>
+      </c>
+      <c r="G119" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 128, 34, 4, 3, 2);</v>
       </c>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <f t="shared" si="10"/>
         <v>590</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <f>B117</f>
         <v>128</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>34</v>
       </c>
-      <c r="D120" s="4">
-        <v>1</v>
-      </c>
-      <c r="E120" s="4">
-        <v>0</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1</v>
-      </c>
-      <c r="G120" s="4" t="str">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 128, 34, 1, 0, 1);</v>
       </c>
@@ -9265,108 +9266,108 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <f t="shared" si="10"/>
         <v>595</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <f>B121+1</f>
         <v>130</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>33</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>3</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>3</v>
       </c>
-      <c r="F125" s="4">
-        <v>2</v>
-      </c>
-      <c r="G125" s="4" t="str">
+      <c r="F125" s="3">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (595, 130, 33, 3, 3, 2);</v>
       </c>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <f t="shared" si="10"/>
         <v>596</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <f>B125</f>
         <v>130</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>33</v>
       </c>
-      <c r="D126" s="4">
-        <v>1</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4">
-        <v>1</v>
-      </c>
-      <c r="G126" s="4" t="str">
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (596, 130, 33, 1, 0, 1);</v>
       </c>
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <f t="shared" si="10"/>
         <v>597</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <f>B125</f>
         <v>130</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>45</v>
       </c>
-      <c r="D127" s="4">
-        <v>0</v>
-      </c>
-      <c r="E127" s="4">
-        <v>0</v>
-      </c>
-      <c r="F127" s="4">
-        <v>2</v>
-      </c>
-      <c r="G127" s="4" t="str">
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>2</v>
+      </c>
+      <c r="G127" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (597, 130, 45, 0, 0, 2);</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <f t="shared" si="10"/>
         <v>598</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <f>B125</f>
         <v>130</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>45</v>
       </c>
-      <c r="D128" s="4">
-        <v>0</v>
-      </c>
-      <c r="E128" s="4">
-        <v>0</v>
-      </c>
-      <c r="F128" s="4">
-        <v>1</v>
-      </c>
-      <c r="G128" s="4" t="str">
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (598, 130, 45, 0, 0, 1);</v>
       </c>
@@ -9481,108 +9482,108 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <f t="shared" si="10"/>
         <v>603</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <f>B129+1</f>
         <v>132</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>420</v>
       </c>
-      <c r="D133" s="4">
-        <v>1</v>
-      </c>
-      <c r="E133" s="4">
-        <v>0</v>
-      </c>
-      <c r="F133" s="4">
-        <v>2</v>
-      </c>
-      <c r="G133" s="4" t="str">
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 132, 420, 1, 0, 2);</v>
       </c>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <f t="shared" si="10"/>
         <v>604</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <f>B133</f>
         <v>132</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>420</v>
       </c>
-      <c r="D134" s="4">
-        <v>1</v>
-      </c>
-      <c r="E134" s="4">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4">
-        <v>1</v>
-      </c>
-      <c r="G134" s="4" t="str">
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 132, 420, 1, 0, 1);</v>
       </c>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <f t="shared" si="10"/>
         <v>605</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <f>B133</f>
         <v>132</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>33</v>
       </c>
-      <c r="D135" s="4">
-        <v>2</v>
-      </c>
-      <c r="E135" s="4">
+      <c r="D135" s="3">
+        <v>2</v>
+      </c>
+      <c r="E135" s="3">
         <v>3</v>
       </c>
-      <c r="F135" s="4">
-        <v>2</v>
-      </c>
-      <c r="G135" s="4" t="str">
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 132, 33, 2, 3, 2);</v>
       </c>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <f t="shared" si="10"/>
         <v>606</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <f>B133</f>
         <v>132</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>33</v>
       </c>
-      <c r="D136" s="4">
-        <v>1</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0</v>
-      </c>
-      <c r="F136" s="4">
-        <v>1</v>
-      </c>
-      <c r="G136" s="4" t="str">
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 132, 33, 1, 0, 1);</v>
       </c>
@@ -9697,108 +9698,108 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <f t="shared" si="10"/>
         <v>611</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <f>B137+1</f>
         <v>134</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>45</v>
       </c>
-      <c r="D141" s="4">
-        <v>0</v>
-      </c>
-      <c r="E141" s="4">
-        <v>0</v>
-      </c>
-      <c r="F141" s="4">
-        <v>2</v>
-      </c>
-      <c r="G141" s="4" t="str">
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (611, 134, 45, 0, 0, 2);</v>
       </c>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <f t="shared" si="10"/>
         <v>612</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <f>B141</f>
         <v>134</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>45</v>
       </c>
-      <c r="D142" s="4">
-        <v>0</v>
-      </c>
-      <c r="E142" s="4">
-        <v>0</v>
-      </c>
-      <c r="F142" s="4">
-        <v>1</v>
-      </c>
-      <c r="G142" s="4" t="str">
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (612, 134, 45, 0, 0, 1);</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <f t="shared" si="10"/>
         <v>613</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <f>B141</f>
         <v>134</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>420</v>
       </c>
-      <c r="D143" s="4">
-        <v>2</v>
-      </c>
-      <c r="E143" s="4">
+      <c r="D143" s="3">
+        <v>2</v>
+      </c>
+      <c r="E143" s="3">
         <v>3</v>
       </c>
-      <c r="F143" s="4">
-        <v>2</v>
-      </c>
-      <c r="G143" s="4" t="str">
+      <c r="F143" s="3">
+        <v>2</v>
+      </c>
+      <c r="G143" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (613, 134, 420, 2, 3, 2);</v>
       </c>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <f t="shared" si="10"/>
         <v>614</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <f>B141</f>
         <v>134</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>420</v>
       </c>
-      <c r="D144" s="4">
-        <v>0</v>
-      </c>
-      <c r="E144" s="4">
-        <v>0</v>
-      </c>
-      <c r="F144" s="4">
-        <v>1</v>
-      </c>
-      <c r="G144" s="4" t="str">
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="str">
         <f t="shared" si="9"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (614, 134, 420, 0, 0, 1);</v>
       </c>
@@ -9913,105 +9914,105 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <f t="shared" si="10"/>
         <v>619</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <f>B145+1</f>
         <v>136</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <v>351</v>
       </c>
-      <c r="D149" s="4">
-        <v>2</v>
-      </c>
-      <c r="E149" s="4">
+      <c r="D149" s="3">
+        <v>2</v>
+      </c>
+      <c r="E149" s="3">
         <v>3</v>
       </c>
-      <c r="F149" s="4">
-        <v>2</v>
-      </c>
-      <c r="G149" s="4" t="str">
+      <c r="F149" s="3">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3" t="str">
         <f t="shared" ref="G149:G168" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A149 &amp; ", " &amp; B149 &amp; ", " &amp; C149 &amp; ", " &amp; D149 &amp; ", " &amp; E149 &amp; ", " &amp; F149 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (619, 136, 351, 2, 3, 2);</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <f t="shared" si="10"/>
         <v>620</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="3">
         <f>B149</f>
         <v>136</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>351</v>
       </c>
-      <c r="D150" s="4">
-        <v>1</v>
-      </c>
-      <c r="E150" s="4">
-        <v>0</v>
-      </c>
-      <c r="F150" s="4">
-        <v>1</v>
-      </c>
-      <c r="G150" s="4" t="str">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (620, 136, 351, 1, 0, 1);</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <f t="shared" si="10"/>
         <v>621</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="3">
         <f>B149</f>
         <v>136</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>90</v>
       </c>
-      <c r="D151" s="4">
-        <v>0</v>
-      </c>
-      <c r="E151" s="4">
-        <v>0</v>
-      </c>
-      <c r="F151" s="4">
-        <v>2</v>
-      </c>
-      <c r="G151" s="4" t="str">
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>2</v>
+      </c>
+      <c r="G151" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (621, 136, 90, 0, 0, 2);</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <f t="shared" si="10"/>
         <v>622</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <f>B150</f>
         <v>136</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <v>90</v>
       </c>
-      <c r="D152" s="4">
-        <v>0</v>
-      </c>
-      <c r="E152" s="4">
-        <v>0</v>
-      </c>
-      <c r="F152" s="4">
-        <v>1</v>
-      </c>
-      <c r="G152" s="4" t="str">
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (622, 136, 90, 0, 0, 1);</v>
       </c>
@@ -10121,105 +10122,105 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <f t="shared" si="10"/>
         <v>627</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <f>B153+1</f>
         <v>138</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <v>31</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>6</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <v>3</v>
       </c>
-      <c r="F157" s="4">
-        <v>2</v>
-      </c>
-      <c r="G157" s="4" t="str">
+      <c r="F157" s="3">
+        <v>2</v>
+      </c>
+      <c r="G157" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (627, 138, 31, 6, 3, 2);</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <f t="shared" si="10"/>
         <v>628</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <f>B157</f>
         <v>138</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="3">
         <v>31</v>
       </c>
-      <c r="D158" s="4">
-        <v>2</v>
-      </c>
-      <c r="E158" s="4">
-        <v>0</v>
-      </c>
-      <c r="F158" s="4">
-        <v>1</v>
-      </c>
-      <c r="G158" s="4" t="str">
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (628, 138, 31, 2, 0, 1);</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <f t="shared" si="10"/>
         <v>629</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <f>B157</f>
         <v>138</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="3">
         <v>38111</v>
       </c>
-      <c r="D159" s="4">
-        <v>1</v>
-      </c>
-      <c r="E159" s="4">
-        <v>0</v>
-      </c>
-      <c r="F159" s="4">
-        <v>2</v>
-      </c>
-      <c r="G159" s="4" t="str">
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>2</v>
+      </c>
+      <c r="G159" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (629, 138, 38111, 1, 0, 2);</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <f>B158</f>
         <v>138</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="3">
         <v>38111</v>
       </c>
-      <c r="D160" s="4">
-        <v>0</v>
-      </c>
-      <c r="E160" s="4">
-        <v>0</v>
-      </c>
-      <c r="F160" s="4">
-        <v>1</v>
-      </c>
-      <c r="G160" s="4" t="str">
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (630, 138, 38111, 0, 0, 1);</v>
       </c>
@@ -10329,210 +10330,210 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <f t="shared" si="10"/>
         <v>635</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <f>B161+1</f>
         <v>140</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>33</v>
       </c>
-      <c r="D165" s="4">
-        <v>1</v>
-      </c>
-      <c r="E165" s="4">
-        <v>0</v>
-      </c>
-      <c r="F165" s="4">
-        <v>2</v>
-      </c>
-      <c r="G165" s="4" t="str">
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>2</v>
+      </c>
+      <c r="G165" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (635, 140, 33, 1, 0, 2);</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <f t="shared" si="10"/>
         <v>636</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <f>B165</f>
         <v>140</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>33</v>
       </c>
-      <c r="D166" s="4">
-        <v>1</v>
-      </c>
-      <c r="E166" s="4">
-        <v>0</v>
-      </c>
-      <c r="F166" s="4">
-        <v>1</v>
-      </c>
-      <c r="G166" s="4" t="str">
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (636, 140, 33, 1, 0, 1);</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <f t="shared" si="10"/>
         <v>637</v>
       </c>
-      <c r="B167" s="4">
-        <f>B165</f>
+      <c r="B167" s="3">
+        <f t="shared" ref="B167:B172" si="12">B165</f>
         <v>140</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>351</v>
       </c>
-      <c r="D167" s="4">
-        <v>1</v>
-      </c>
-      <c r="E167" s="4">
-        <v>0</v>
-      </c>
-      <c r="F167" s="4">
-        <v>2</v>
-      </c>
-      <c r="G167" s="4" t="str">
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2</v>
+      </c>
+      <c r="G167" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (637, 140, 351, 1, 0, 2);</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <f t="shared" si="10"/>
         <v>638</v>
       </c>
-      <c r="B168" s="4">
-        <f>B166</f>
+      <c r="B168" s="3">
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>351</v>
       </c>
-      <c r="D168" s="4">
-        <v>0</v>
-      </c>
-      <c r="E168" s="4">
-        <v>0</v>
-      </c>
-      <c r="F168" s="4">
-        <v>1</v>
-      </c>
-      <c r="G168" s="4" t="str">
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3" t="str">
         <f t="shared" si="11"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (638, 140, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <f t="shared" si="10"/>
         <v>639</v>
       </c>
-      <c r="B169" s="4">
-        <f>B167</f>
+      <c r="B169" s="3">
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>33</v>
       </c>
-      <c r="D169" s="4">
-        <v>2</v>
-      </c>
-      <c r="E169" s="4">
+      <c r="D169" s="3">
+        <v>2</v>
+      </c>
+      <c r="E169" s="3">
         <v>3</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="3">
         <v>4</v>
       </c>
-      <c r="G169" s="4" t="str">
-        <f t="shared" ref="G169:G176" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A169 &amp; ", " &amp; B169 &amp; ", " &amp; C169 &amp; ", " &amp; D169 &amp; ", " &amp; E169 &amp; ", " &amp; F169 &amp; ");"</f>
+      <c r="G169" s="3" t="str">
+        <f t="shared" ref="G169:G176" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A169 &amp; ", " &amp; B169 &amp; ", " &amp; C169 &amp; ", " &amp; D169 &amp; ", " &amp; E169 &amp; ", " &amp; F169 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (639, 140, 33, 2, 3, 4);</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <f t="shared" si="10"/>
         <v>640</v>
       </c>
-      <c r="B170" s="4">
-        <f>B168</f>
+      <c r="B170" s="3">
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>33</v>
       </c>
-      <c r="D170" s="4">
-        <v>1</v>
-      </c>
-      <c r="E170" s="4">
-        <v>0</v>
-      </c>
-      <c r="F170" s="4">
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
         <v>3</v>
       </c>
-      <c r="G170" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="G170" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (640, 140, 33, 1, 0, 3);</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <f t="shared" si="10"/>
         <v>641</v>
       </c>
-      <c r="B171" s="4">
-        <f>B169</f>
+      <c r="B171" s="3">
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>351</v>
       </c>
-      <c r="D171" s="4">
-        <v>1</v>
-      </c>
-      <c r="E171" s="4">
-        <v>0</v>
-      </c>
-      <c r="F171" s="4">
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3">
         <v>4</v>
       </c>
-      <c r="G171" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="G171" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (641, 140, 351, 1, 0, 4);</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <f t="shared" si="10"/>
         <v>642</v>
       </c>
-      <c r="B172" s="4">
-        <f>B170</f>
+      <c r="B172" s="3">
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>351</v>
       </c>
-      <c r="D172" s="4">
-        <v>1</v>
-      </c>
-      <c r="E172" s="4">
-        <v>0</v>
-      </c>
-      <c r="F172" s="4">
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3">
         <v>3</v>
       </c>
-      <c r="G172" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="G172" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (642, 140, 351, 1, 0, 3);</v>
       </c>
     </row>
@@ -10558,7 +10559,7 @@
         <v>2</v>
       </c>
       <c r="G173" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (643, 141, 39, 0, 0, 2);</v>
       </c>
     </row>
@@ -10584,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (644, 141, 39, 0, 0, 1);</v>
       </c>
     </row>
@@ -10594,7 +10595,7 @@
         <v>645</v>
       </c>
       <c r="B175" s="4">
-        <f>B173</f>
+        <f t="shared" ref="B175:B182" si="14">B173</f>
         <v>141</v>
       </c>
       <c r="C175" s="4">
@@ -10610,7 +10611,7 @@
         <v>2</v>
       </c>
       <c r="G175" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (645, 141, 31, 0, 0, 2);</v>
       </c>
     </row>
@@ -10620,7 +10621,7 @@
         <v>646</v>
       </c>
       <c r="B176" s="4">
-        <f>B174</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C176" s="4">
@@ -10636,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (646, 141, 31, 0, 0, 1);</v>
       </c>
     </row>
@@ -10646,7 +10647,7 @@
         <v>647</v>
       </c>
       <c r="B177" s="4">
-        <f>B175</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C177" s="4">
@@ -10662,7 +10663,7 @@
         <v>4</v>
       </c>
       <c r="G177" s="4" t="str">
-        <f t="shared" ref="G177:G180" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A177 &amp; ", " &amp; B177 &amp; ", " &amp; C177 &amp; ", " &amp; D177 &amp; ", " &amp; E177 &amp; ", " &amp; F177 &amp; ");"</f>
+        <f t="shared" ref="G177:G180" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A177 &amp; ", " &amp; B177 &amp; ", " &amp; C177 &amp; ", " &amp; D177 &amp; ", " &amp; E177 &amp; ", " &amp; F177 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (647, 141, 39, 0, 1, 4);</v>
       </c>
     </row>
@@ -10672,7 +10673,7 @@
         <v>648</v>
       </c>
       <c r="B178" s="4">
-        <f>B176</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C178" s="4">
@@ -10688,7 +10689,7 @@
         <v>3</v>
       </c>
       <c r="G178" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (648, 141, 39, 0, 0, 3);</v>
       </c>
     </row>
@@ -10698,7 +10699,7 @@
         <v>649</v>
       </c>
       <c r="B179" s="4">
-        <f>B177</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C179" s="4">
@@ -10714,7 +10715,7 @@
         <v>4</v>
       </c>
       <c r="G179" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (649, 141, 31, 0, 1, 4);</v>
       </c>
     </row>
@@ -10724,7 +10725,7 @@
         <v>650</v>
       </c>
       <c r="B180" s="4">
-        <f>B178</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C180" s="4">
@@ -10740,7 +10741,7 @@
         <v>3</v>
       </c>
       <c r="G180" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (650, 141, 31, 0, 0, 3);</v>
       </c>
     </row>
@@ -10750,7 +10751,7 @@
         <v>651</v>
       </c>
       <c r="B181" s="4">
-        <f>B179</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C181" s="4">
@@ -10766,7 +10767,7 @@
         <v>7</v>
       </c>
       <c r="G181" s="4" t="str">
-        <f t="shared" ref="G181:G189" si="14">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A181 &amp; ", " &amp; B181 &amp; ", " &amp; C181 &amp; ", " &amp; D181 &amp; ", " &amp; E181 &amp; ", " &amp; F181 &amp; ");"</f>
+        <f t="shared" ref="G181:G189" si="16">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A181 &amp; ", " &amp; B181 &amp; ", " &amp; C181 &amp; ", " &amp; D181 &amp; ", " &amp; E181 &amp; ", " &amp; F181 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (651, 141, 39, 3, 0, 7);</v>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
         <v>652</v>
       </c>
       <c r="B182" s="4">
-        <f>B180</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="C182" s="4">
@@ -10792,24 +10793,4868 @@
         <v>7</v>
       </c>
       <c r="G182" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 141, 31, 1, 0, 7);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <f t="shared" si="10"/>
+        <v>653</v>
+      </c>
+      <c r="B183" s="3">
+        <f>B179+1</f>
+        <v>142</v>
+      </c>
+      <c r="C183" s="3">
+        <v>33</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>2</v>
+      </c>
+      <c r="G183" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 142, 33, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <f t="shared" ref="A184:A190" si="17">A183+1</f>
+        <v>654</v>
+      </c>
+      <c r="B184" s="3">
+        <f>B183</f>
+        <v>142</v>
+      </c>
+      <c r="C184" s="3">
+        <v>33</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 142, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <f t="shared" si="17"/>
+        <v>655</v>
+      </c>
+      <c r="B185" s="3">
+        <f t="shared" ref="B185:B190" si="18">B183</f>
+        <v>142</v>
+      </c>
+      <c r="C185" s="3">
+        <v>39</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>2</v>
+      </c>
+      <c r="G185" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 142, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <f t="shared" si="17"/>
+        <v>656</v>
+      </c>
+      <c r="B186" s="3">
+        <f t="shared" si="18"/>
+        <v>142</v>
+      </c>
+      <c r="C186" s="3">
+        <v>39</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 142, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <f t="shared" si="17"/>
+        <v>657</v>
+      </c>
+      <c r="B187" s="3">
+        <f t="shared" si="18"/>
+        <v>142</v>
+      </c>
+      <c r="C187" s="3">
+        <v>33</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2</v>
+      </c>
+      <c r="E187" s="3">
+        <v>3</v>
+      </c>
+      <c r="F187" s="3">
+        <v>4</v>
+      </c>
+      <c r="G187" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 142, 33, 2, 3, 4);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <f t="shared" si="17"/>
+        <v>658</v>
+      </c>
+      <c r="B188" s="3">
+        <f t="shared" si="18"/>
+        <v>142</v>
+      </c>
+      <c r="C188" s="3">
+        <v>33</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>3</v>
+      </c>
+      <c r="G188" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 142, 33, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f t="shared" si="17"/>
+        <v>659</v>
+      </c>
+      <c r="B189" s="3">
+        <f t="shared" si="18"/>
+        <v>142</v>
+      </c>
+      <c r="C189" s="3">
+        <v>39</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>4</v>
+      </c>
+      <c r="G189" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 142, 39, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <f t="shared" si="17"/>
+        <v>660</v>
+      </c>
+      <c r="B190" s="3">
+        <f t="shared" si="18"/>
+        <v>142</v>
+      </c>
+      <c r="C190" s="3">
+        <v>39</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>3</v>
+      </c>
+      <c r="G190" s="3" t="str">
+        <f t="shared" ref="G190" si="19">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A190 &amp; ", " &amp; B190 &amp; ", " &amp; C190 &amp; ", " &amp; D190 &amp; ", " &amp; E190 &amp; ", " &amp; F190 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 142, 39, 1, 0, 3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2000'!A17+1</f>
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>2004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>351</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G17" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (65, 2004, 'A', 351);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>2004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (66, 2004, 'A', 30);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="1">A3+1</f>
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="2">B3</f>
+        <v>2004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (67, 2004, 'A', 34);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (68, 2004, 'A', 7);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>2004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (69, 2004, 'B', 33);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>2004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>4420</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (70, 2004, 'B', 4420);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>2004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>385</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (71, 2004, 'B', 385);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>2004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (72, 2004, 'B', 41);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A17" si="3">A9+1</f>
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B17" si="4">B9</f>
+        <v>2004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (73, 2004, 'C', 46);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (74, 2004, 'C', 45);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (75, 2004, 'C', 39);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>359</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (76, 2004, 'C', 359);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>420</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (77, 2004, 'D', 420);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (78, 2004, 'D', 31);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>49</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (79, 2004, 'D', 49);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>371</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (80, 2004, 'D', 371);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f>'2000'!A50+1</f>
+        <v>143</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>"2004-06-12"</f>
+        <v>2004-06-12</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>351</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="str">
+        <f t="shared" ref="G20:G50" si="5">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (143, '2004-06-12', 2, 351);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f>A20+1</f>
+        <v>144</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>"2004-06-12"</f>
+        <v>2004-06-12</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <f>D20</f>
+        <v>351</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (144, '2004-06-12', 2, 351);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" ref="A22:A50" si="6">A21+1</f>
+        <v>145</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>"2004-06-16"</f>
+        <v>2004-06-16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D50" si="7">D21</f>
+        <v>351</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (145, '2004-06-16', 2, 351);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>"2004-06-16"</f>
+        <v>2004-06-16</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (146, '2004-06-16', 2, 351);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>"2004-06-20"</f>
+        <v>2004-06-20</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (147, '2004-06-20', 2, 351);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>"2004-06-20"</f>
+        <v>2004-06-20</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (148, '2004-06-20', 2, 351);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>"2004-06-13"</f>
+        <v>2004-06-13</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (149, '2004-06-13', 2, 351);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>"2004-06-13"</f>
+        <v>2004-06-13</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (150, '2004-06-13', 2, 351);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f>"2004-06-17"</f>
+        <v>2004-06-17</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (151, '2004-06-17', 2, 351);</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f>"2004-06-17"</f>
+        <v>2004-06-17</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (152, '2004-06-17', 2, 351);</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>"2004-06-21"</f>
+        <v>2004-06-21</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (153, '2004-06-21', 2, 351);</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>"2004-06-21"</f>
+        <v>2004-06-21</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (154, '2004-06-21', 2, 351);</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>"2004-06-14"</f>
+        <v>2004-06-14</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (155, '2004-06-14', 2, 351);</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>"2004-06-14"</f>
+        <v>2004-06-14</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (156, '2004-06-14', 2, 351);</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="6"/>
+        <v>157</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f>"2004-06-18"</f>
+        <v>2004-06-18</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (157, '2004-06-18', 2, 351);</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f>"2004-06-18"</f>
+        <v>2004-06-18</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (158, '2004-06-18', 2, 351);</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f>"2004-06-22"</f>
+        <v>2004-06-22</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (159, '2004-06-22', 2, 351);</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f>"2004-06-22"</f>
+        <v>2004-06-22</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (160, '2004-06-22', 2, 351);</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f>"2004-06-15"</f>
+        <v>2004-06-15</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (161, '2004-06-15', 2, 351);</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f>"2004-06-15"</f>
+        <v>2004-06-15</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (162, '2004-06-15', 2, 351);</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f>"2004-06-19"</f>
+        <v>2004-06-19</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (163, '2004-06-19', 2, 351);</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f>"2004-06-19"</f>
+        <v>2004-06-19</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (164, '2004-06-19', 2, 351);</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f>"2004-06-23"</f>
+        <v>2004-06-23</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (165, '2004-06-23', 2, 351);</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <f>"2004-06-23"</f>
+        <v>2004-06-23</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (166, '2004-06-23', 2, 351);</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>167</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f>"2004-06-24"</f>
+        <v>2004-06-24</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (167, '2004-06-24', 3, 351);</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f>"2004-06-25"</f>
+        <v>2004-06-25</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (168, '2004-06-25', 3, 351);</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f>"2004-06-26"</f>
+        <v>2004-06-26</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (169, '2004-06-26', 3, 351);</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f>"2004-06-27"</f>
+        <v>2004-06-27</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (170, '2004-06-27', 3, 351);</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f>"2004-06-30"</f>
+        <v>2004-06-30</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (171, '2004-06-30', 4, 351);</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f>"2004-07-01"</f>
+        <v>2004-07-01</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (172, '2004-07-01', 4, 351);</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f>"2004-07-04"</f>
+        <v>2004-07-04</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (173, '2004-07-04', 6, 351);</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A52 &amp; ", " &amp; B52 &amp; ", " &amp; C52 &amp; ", " &amp; D52 &amp; ", " &amp; E52 &amp; ", " &amp; F52 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f>'2000'!A190+1</f>
+        <v>661</v>
+      </c>
+      <c r="B53" s="4">
+        <f>A20</f>
+        <v>143</v>
+      </c>
+      <c r="C53" s="4">
+        <v>351</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" ref="G53:G116" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A53 &amp; ", " &amp; B53 &amp; ", " &amp; C53 &amp; ", " &amp; D53 &amp; ", " &amp; E53 &amp; ", " &amp; F53 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 143, 351, 1, 0, 2);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f>A53+1</f>
+        <v>662</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B53</f>
+        <v>143</v>
+      </c>
+      <c r="C54" s="4">
+        <v>351</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 143, 351, 0, 0, 1);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" ref="A55:A118" si="9">A54+1</f>
+        <v>663</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B53</f>
+        <v>143</v>
+      </c>
+      <c r="C55" s="4">
+        <v>30</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 143, 30, 2, 3, 2);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="9"/>
+        <v>664</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B53</f>
+        <v>143</v>
+      </c>
+      <c r="C56" s="4">
+        <v>30</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 143, 30, 1, 0, 1);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="9"/>
+        <v>665</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>144</v>
+      </c>
+      <c r="C57" s="4">
+        <v>34</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (665, 144, 34, 1, 3, 2);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="9"/>
+        <v>666</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>144</v>
+      </c>
+      <c r="C58" s="4">
+        <v>34</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (666, 144, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="9"/>
+        <v>667</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>144</v>
+      </c>
+      <c r="C59" s="4">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (667, 144, 7, 0, 0, 2);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="9"/>
+        <v>668</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>144</v>
+      </c>
+      <c r="C60" s="4">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (668, 144, 7, 0, 0, 1);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="9"/>
+        <v>669</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B57+1</f>
+        <v>145</v>
+      </c>
+      <c r="C61" s="4">
+        <v>30</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 145, 30, 1, 1, 2);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="9"/>
+        <v>670</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B61</f>
+        <v>145</v>
+      </c>
+      <c r="C62" s="4">
+        <v>30</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 145, 30, 0, 0, 1);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="9"/>
+        <v>671</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B61</f>
+        <v>145</v>
+      </c>
+      <c r="C63" s="4">
+        <v>34</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 145, 34, 1, 1, 2);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="9"/>
+        <v>672</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B61</f>
+        <v>145</v>
+      </c>
+      <c r="C64" s="4">
+        <v>34</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 145, 34, 1, 0, 1);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="9"/>
+        <v>673</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>146</v>
+      </c>
+      <c r="C65" s="4">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (673, 146, 7, 0, 0, 2);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="9"/>
+        <v>674</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>146</v>
+      </c>
+      <c r="C66" s="4">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (674, 146, 7, 0, 0, 1);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="9"/>
+        <v>675</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>146</v>
+      </c>
+      <c r="C67" s="4">
+        <v>351</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (675, 146, 351, 2, 3, 2);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="9"/>
+        <v>676</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>146</v>
+      </c>
+      <c r="C68" s="4">
+        <v>351</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (676, 146, 351, 1, 0, 1);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="9"/>
+        <v>677</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B65+1</f>
+        <v>147</v>
+      </c>
+      <c r="C69" s="4">
+        <v>34</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (677, 147, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="9"/>
+        <v>678</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B69</f>
+        <v>147</v>
+      </c>
+      <c r="C70" s="4">
+        <v>34</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (678, 147, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="9"/>
+        <v>679</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B69</f>
+        <v>147</v>
+      </c>
+      <c r="C71" s="4">
+        <v>351</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (679, 147, 351, 1, 3, 2);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="9"/>
+        <v>680</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B69</f>
+        <v>147</v>
+      </c>
+      <c r="C72" s="4">
+        <v>351</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (680, 147, 351, 0, 0, 1);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="9"/>
+        <v>681</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>148</v>
+      </c>
+      <c r="C73" s="4">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A73 &amp; ", " &amp; B73 &amp; ", " &amp; C73 &amp; ", " &amp; D73 &amp; ", " &amp; E73 &amp; ", " &amp; F73 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (681, 148, 7, 2, 3, 2);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="9"/>
+        <v>682</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>148</v>
+      </c>
+      <c r="C74" s="4">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A74 &amp; ", " &amp; B74 &amp; ", " &amp; C74 &amp; ", " &amp; D74 &amp; ", " &amp; E74 &amp; ", " &amp; F74 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (682, 148, 7, 2, 0, 1);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="9"/>
+        <v>683</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>148</v>
+      </c>
+      <c r="C75" s="4">
+        <v>30</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A75 &amp; ", " &amp; B75 &amp; ", " &amp; C75 &amp; ", " &amp; D75 &amp; ", " &amp; E75 &amp; ", " &amp; F75 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (683, 148, 30, 1, 0, 2);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="9"/>
+        <v>684</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>148</v>
+      </c>
+      <c r="C76" s="4">
+        <v>30</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (684, 148, 30, 1, 0, 1);</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="9"/>
+        <v>685</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B73+1</f>
+        <v>149</v>
+      </c>
+      <c r="C77" s="4">
+        <v>41</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (685, 149, 41, 0, 1, 2);</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="9"/>
+        <v>686</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B77</f>
+        <v>149</v>
+      </c>
+      <c r="C78" s="4">
+        <v>41</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (686, 149, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="9"/>
+        <v>687</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B77</f>
+        <v>149</v>
+      </c>
+      <c r="C79" s="4">
+        <v>385</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (687, 149, 385, 0, 1, 2);</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="9"/>
+        <v>688</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B77</f>
+        <v>149</v>
+      </c>
+      <c r="C80" s="4">
+        <v>385</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (688, 149, 385, 0, 0, 1);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="9"/>
+        <v>689</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B77+1</f>
+        <v>150</v>
+      </c>
+      <c r="C81" s="4">
+        <v>33</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 150, 33, 2, 3, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="9"/>
+        <v>690</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B81</f>
+        <v>150</v>
+      </c>
+      <c r="C82" s="4">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 150, 33, 0, 0, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="9"/>
+        <v>691</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B81</f>
+        <v>150</v>
+      </c>
+      <c r="C83" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 150, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="9"/>
+        <v>692</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B81</f>
+        <v>150</v>
+      </c>
+      <c r="C84" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 150, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="9"/>
+        <v>693</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B81+1</f>
+        <v>151</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 151, 4420, 3, 3, 2);</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="9"/>
+        <v>694</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B85</f>
+        <v>151</v>
+      </c>
+      <c r="C86" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 151, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="9"/>
+        <v>695</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B85</f>
+        <v>151</v>
+      </c>
+      <c r="C87" s="4">
+        <v>41</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 151, 41, 0, 0, 2);</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="9"/>
+        <v>696</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B85</f>
+        <v>151</v>
+      </c>
+      <c r="C88" s="4">
+        <v>41</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 151, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="9"/>
+        <v>697</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B85+1</f>
+        <v>152</v>
+      </c>
+      <c r="C89" s="4">
+        <v>385</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 152, 385, 2, 1, 2);</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="9"/>
+        <v>698</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B89</f>
+        <v>152</v>
+      </c>
+      <c r="C90" s="4">
+        <v>385</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 152, 385, 0, 0, 1);</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="9"/>
+        <v>699</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B89</f>
+        <v>152</v>
+      </c>
+      <c r="C91" s="4">
+        <v>33</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 152, 33, 2, 1, 2);</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="9"/>
+        <v>700</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B89</f>
+        <v>152</v>
+      </c>
+      <c r="C92" s="4">
+        <v>33</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 152, 33, 1, 0, 1);</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="9"/>
+        <v>701</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B89+1</f>
+        <v>153</v>
+      </c>
+      <c r="C93" s="4">
+        <v>385</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 153, 385, 2, 0, 2);</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="9"/>
+        <v>702</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B93</f>
+        <v>153</v>
+      </c>
+      <c r="C94" s="4">
+        <v>385</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 153, 385, 1, 0, 1);</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="9"/>
+        <v>703</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B93</f>
+        <v>153</v>
+      </c>
+      <c r="C95" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D95" s="4">
+        <v>4</v>
+      </c>
+      <c r="E95" s="4">
+        <v>3</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 153, 4420, 4, 3, 2);</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="9"/>
+        <v>704</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B93</f>
+        <v>153</v>
+      </c>
+      <c r="C96" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 153, 4420, 2, 0, 1);</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="9"/>
+        <v>705</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B93+1</f>
+        <v>154</v>
+      </c>
+      <c r="C97" s="4">
+        <v>41</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (705, 154, 41, 1, 0, 2);</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f t="shared" si="9"/>
+        <v>706</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B97</f>
+        <v>154</v>
+      </c>
+      <c r="C98" s="4">
+        <v>41</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (706, 154, 41, 1, 0, 1);</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f t="shared" si="9"/>
+        <v>707</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B97</f>
+        <v>154</v>
+      </c>
+      <c r="C99" s="4">
+        <v>33</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (707, 154, 33, 3, 3, 2);</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="9"/>
+        <v>708</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B97</f>
+        <v>154</v>
+      </c>
+      <c r="C100" s="4">
+        <v>33</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (708, 154, 33, 1, 0, 1);</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="9"/>
+        <v>709</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B97+1</f>
+        <v>155</v>
+      </c>
+      <c r="C101" s="4">
+        <v>45</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 155, 45, 0, 1, 2);</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="9"/>
+        <v>710</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B101</f>
+        <v>155</v>
+      </c>
+      <c r="C102" s="4">
+        <v>45</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 155, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f t="shared" si="9"/>
+        <v>711</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B101</f>
+        <v>155</v>
+      </c>
+      <c r="C103" s="4">
+        <v>39</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 155, 39, 0, 1, 2);</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <f t="shared" si="9"/>
+        <v>712</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B101</f>
+        <v>155</v>
+      </c>
+      <c r="C104" s="4">
+        <v>39</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 155, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f t="shared" si="9"/>
+        <v>713</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B101+1</f>
+        <v>156</v>
+      </c>
+      <c r="C105" s="4">
+        <v>46</v>
+      </c>
+      <c r="D105" s="4">
+        <v>5</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (713, 156, 46, 5, 3, 2);</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <f t="shared" si="9"/>
+        <v>714</v>
+      </c>
+      <c r="B106" s="4">
+        <f>B105</f>
+        <v>156</v>
+      </c>
+      <c r="C106" s="4">
+        <v>46</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 156, 46, 1, 0, 1);</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <f t="shared" si="9"/>
+        <v>715</v>
+      </c>
+      <c r="B107" s="4">
+        <f>B105</f>
+        <v>156</v>
+      </c>
+      <c r="C107" s="4">
+        <v>359</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (715, 156, 359, 0, 0, 2);</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <f t="shared" si="9"/>
+        <v>716</v>
+      </c>
+      <c r="B108" s="4">
+        <f>B105</f>
+        <v>156</v>
+      </c>
+      <c r="C108" s="4">
+        <v>359</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (716, 156, 359, 0, 0, 1);</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <f t="shared" si="9"/>
+        <v>717</v>
+      </c>
+      <c r="B109" s="4">
+        <f>B105+1</f>
+        <v>157</v>
+      </c>
+      <c r="C109" s="4">
+        <v>359</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 157, 359, 0, 0, 2);</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <f t="shared" si="9"/>
+        <v>718</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B109</f>
+        <v>157</v>
+      </c>
+      <c r="C110" s="4">
+        <v>359</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 157, 359, 0, 0, 1);</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <f t="shared" si="9"/>
+        <v>719</v>
+      </c>
+      <c r="B111" s="4">
+        <f>B109</f>
+        <v>157</v>
+      </c>
+      <c r="C111" s="4">
+        <v>45</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2</v>
+      </c>
+      <c r="E111" s="4">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 157, 45, 2, 3, 2);</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="B112" s="4">
+        <f>B109</f>
+        <v>157</v>
+      </c>
+      <c r="C112" s="4">
+        <v>45</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 157, 45, 1, 0, 1);</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="9"/>
+        <v>721</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B109+1</f>
+        <v>158</v>
+      </c>
+      <c r="C113" s="4">
+        <v>39</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
+        <v>2</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (721, 158, 39, 1, 1, 2);</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <f t="shared" si="9"/>
+        <v>722</v>
+      </c>
+      <c r="B114" s="4">
+        <f>B113</f>
+        <v>158</v>
+      </c>
+      <c r="C114" s="4">
+        <v>39</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (722, 158, 39, 1, 0, 1);</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <f t="shared" si="9"/>
+        <v>723</v>
+      </c>
+      <c r="B115" s="4">
+        <f>B113</f>
+        <v>158</v>
+      </c>
+      <c r="C115" s="4">
+        <v>46</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (723, 158, 46, 1, 1, 2);</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <f t="shared" si="9"/>
+        <v>724</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B113</f>
+        <v>158</v>
+      </c>
+      <c r="C116" s="4">
+        <v>46</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (724, 158, 46, 0, 0, 1);</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <f t="shared" si="9"/>
+        <v>725</v>
+      </c>
+      <c r="B117" s="4">
+        <f>B113+1</f>
+        <v>159</v>
+      </c>
+      <c r="C117" s="4">
+        <v>39</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4">
+        <v>3</v>
+      </c>
+      <c r="F117" s="4">
+        <v>2</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" ref="G117:G148" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 159, 39, 2, 3, 2);</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f t="shared" si="9"/>
+        <v>726</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B117</f>
+        <v>159</v>
+      </c>
+      <c r="C118" s="4">
+        <v>39</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 159, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f t="shared" ref="A119:A182" si="11">A118+1</f>
+        <v>727</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B117</f>
+        <v>159</v>
+      </c>
+      <c r="C119" s="4">
+        <v>359</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 159, 359, 1, 0, 2);</v>
+      </c>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f t="shared" si="11"/>
+        <v>728</v>
+      </c>
+      <c r="B120" s="4">
+        <f>B117</f>
+        <v>159</v>
+      </c>
+      <c r="C120" s="4">
+        <v>359</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 159, 359, 1, 0, 1);</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" si="11"/>
+        <v>729</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B117+1</f>
+        <v>160</v>
+      </c>
+      <c r="C121" s="4">
+        <v>45</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (729, 160, 45, 2, 1, 2);</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <f t="shared" si="11"/>
+        <v>730</v>
+      </c>
+      <c r="B122" s="4">
+        <f>B121</f>
+        <v>160</v>
+      </c>
+      <c r="C122" s="4">
+        <v>45</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (730, 160, 45, 1, 0, 1);</v>
+      </c>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <f t="shared" si="11"/>
+        <v>731</v>
+      </c>
+      <c r="B123" s="4">
+        <f>B121</f>
+        <v>160</v>
+      </c>
+      <c r="C123" s="4">
+        <v>46</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (731, 160, 46, 2, 1, 2);</v>
+      </c>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="11"/>
+        <v>732</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B121</f>
+        <v>160</v>
+      </c>
+      <c r="C124" s="4">
+        <v>46</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 160, 46, 0, 0, 1);</v>
+      </c>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <f t="shared" si="11"/>
+        <v>733</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B121+1</f>
+        <v>161</v>
+      </c>
+      <c r="C125" s="4">
+        <v>420</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2</v>
+      </c>
+      <c r="E125" s="4">
+        <v>3</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 161, 420, 2, 3, 2);</v>
+      </c>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <f t="shared" si="11"/>
+        <v>734</v>
+      </c>
+      <c r="B126" s="4">
+        <f>B125</f>
+        <v>161</v>
+      </c>
+      <c r="C126" s="4">
+        <v>420</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 161, 420, 0, 0, 1);</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <f t="shared" si="11"/>
+        <v>735</v>
+      </c>
+      <c r="B127" s="4">
+        <f>B125</f>
+        <v>161</v>
+      </c>
+      <c r="C127" s="4">
+        <v>371</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 161, 371, 1, 0, 2);</v>
+      </c>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <f t="shared" si="11"/>
+        <v>736</v>
+      </c>
+      <c r="B128" s="4">
+        <f>B125</f>
+        <v>161</v>
+      </c>
+      <c r="C128" s="4">
+        <v>371</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 161, 371, 1, 0, 1);</v>
+      </c>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <f t="shared" si="11"/>
+        <v>737</v>
+      </c>
+      <c r="B129" s="4">
+        <f>B125+1</f>
+        <v>162</v>
+      </c>
+      <c r="C129" s="4">
+        <v>49</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 162, 49, 1, 1, 2);</v>
+      </c>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <f t="shared" si="11"/>
+        <v>738</v>
+      </c>
+      <c r="B130" s="4">
+        <f>B129</f>
+        <v>162</v>
+      </c>
+      <c r="C130" s="4">
+        <v>49</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 162, 49, 1, 0, 1);</v>
+      </c>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <f t="shared" si="11"/>
+        <v>739</v>
+      </c>
+      <c r="B131" s="4">
+        <f>B129</f>
+        <v>162</v>
+      </c>
+      <c r="C131" s="4">
+        <v>31</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2</v>
+      </c>
+      <c r="G131" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 162, 31, 1, 1, 2);</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <f t="shared" si="11"/>
+        <v>740</v>
+      </c>
+      <c r="B132" s="4">
+        <f>B129</f>
+        <v>162</v>
+      </c>
+      <c r="C132" s="4">
+        <v>31</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 162, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <f t="shared" si="11"/>
+        <v>741</v>
+      </c>
+      <c r="B133" s="4">
+        <f>B129+1</f>
+        <v>163</v>
+      </c>
+      <c r="C133" s="4">
+        <v>371</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 163, 371, 0, 1, 2);</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <f t="shared" si="11"/>
+        <v>742</v>
+      </c>
+      <c r="B134" s="4">
+        <f>B133</f>
+        <v>163</v>
+      </c>
+      <c r="C134" s="4">
+        <v>371</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 163, 371, 0, 0, 1);</v>
+      </c>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <f t="shared" si="11"/>
+        <v>743</v>
+      </c>
+      <c r="B135" s="4">
+        <f>B133</f>
+        <v>163</v>
+      </c>
+      <c r="C135" s="4">
+        <v>49</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 163, 49, 0, 1, 2);</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <f t="shared" si="11"/>
+        <v>744</v>
+      </c>
+      <c r="B136" s="4">
+        <f>B133</f>
+        <v>163</v>
+      </c>
+      <c r="C136" s="4">
+        <v>49</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 163, 49, 0, 0, 1);</v>
+      </c>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <f t="shared" si="11"/>
+        <v>745</v>
+      </c>
+      <c r="B137" s="4">
+        <f>B133+1</f>
+        <v>164</v>
+      </c>
+      <c r="C137" s="4">
+        <v>31</v>
+      </c>
+      <c r="D137" s="4">
+        <v>2</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>2</v>
+      </c>
+      <c r="G137" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 164, 31, 2, 0, 2);</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <f t="shared" si="11"/>
+        <v>746</v>
+      </c>
+      <c r="B138" s="4">
+        <f>B137</f>
+        <v>164</v>
+      </c>
+      <c r="C138" s="4">
+        <v>31</v>
+      </c>
+      <c r="D138" s="4">
+        <v>2</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 164, 31, 2, 0, 1);</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <f t="shared" si="11"/>
+        <v>747</v>
+      </c>
+      <c r="B139" s="4">
+        <f>B137</f>
+        <v>164</v>
+      </c>
+      <c r="C139" s="4">
+        <v>420</v>
+      </c>
+      <c r="D139" s="4">
+        <v>3</v>
+      </c>
+      <c r="E139" s="4">
+        <v>3</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 164, 420, 3, 3, 2);</v>
+      </c>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <f t="shared" si="11"/>
+        <v>748</v>
+      </c>
+      <c r="B140" s="4">
+        <f>B137</f>
+        <v>164</v>
+      </c>
+      <c r="C140" s="4">
+        <v>420</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 164, 420, 1, 0, 1);</v>
+      </c>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <f t="shared" si="11"/>
+        <v>749</v>
+      </c>
+      <c r="B141" s="4">
+        <f>B137+1</f>
+        <v>165</v>
+      </c>
+      <c r="C141" s="4">
+        <v>49</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (749, 165, 49, 1, 0, 2);</v>
+      </c>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+      <c r="B142" s="4">
+        <f>B141</f>
+        <v>165</v>
+      </c>
+      <c r="C142" s="4">
+        <v>49</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (750, 165, 49, 1, 0, 1);</v>
+      </c>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <f t="shared" si="11"/>
+        <v>751</v>
+      </c>
+      <c r="B143" s="4">
+        <f>B141</f>
+        <v>165</v>
+      </c>
+      <c r="C143" s="4">
+        <v>420</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (751, 165, 420, 2, 3, 2);</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <f t="shared" si="11"/>
+        <v>752</v>
+      </c>
+      <c r="B144" s="4">
+        <f>B141</f>
+        <v>165</v>
+      </c>
+      <c r="C144" s="4">
+        <v>420</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (752, 165, 420, 1, 0, 1);</v>
+      </c>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <f t="shared" si="11"/>
+        <v>753</v>
+      </c>
+      <c r="B145" s="4">
+        <f>B141+1</f>
+        <v>166</v>
+      </c>
+      <c r="C145" s="4">
+        <v>31</v>
+      </c>
+      <c r="D145" s="4">
+        <v>3</v>
+      </c>
+      <c r="E145" s="4">
+        <v>3</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (753, 166, 31, 3, 3, 2);</v>
+      </c>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <f t="shared" si="11"/>
+        <v>754</v>
+      </c>
+      <c r="B146" s="4">
+        <f>B145</f>
+        <v>166</v>
+      </c>
+      <c r="C146" s="4">
+        <v>31</v>
+      </c>
+      <c r="D146" s="4">
+        <v>2</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (754, 166, 31, 2, 0, 1);</v>
+      </c>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <f t="shared" si="11"/>
+        <v>755</v>
+      </c>
+      <c r="B147" s="4">
+        <f>B145</f>
+        <v>166</v>
+      </c>
+      <c r="C147" s="4">
+        <v>371</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (755, 166, 371, 0, 0, 2);</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <f t="shared" si="11"/>
+        <v>756</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B146</f>
+        <v>166</v>
+      </c>
+      <c r="C148" s="4">
+        <v>371</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (756, 166, 371, 0, 0, 1);</v>
+      </c>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <f t="shared" si="11"/>
+        <v>757</v>
+      </c>
+      <c r="B149" s="4">
+        <f>B145+1</f>
+        <v>167</v>
+      </c>
+      <c r="C149" s="4">
+        <v>351</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" ref="G149:G152" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A149 &amp; ", " &amp; B149 &amp; ", " &amp; C149 &amp; ", " &amp; D149 &amp; ", " &amp; E149 &amp; ", " &amp; F149 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (757, 167, 351, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <f t="shared" si="11"/>
+        <v>758</v>
+      </c>
+      <c r="B150" s="4">
+        <f>B149</f>
+        <v>167</v>
+      </c>
+      <c r="C150" s="4">
+        <v>351</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (758, 167, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <f t="shared" si="11"/>
+        <v>759</v>
+      </c>
+      <c r="B151" s="4">
+        <f>B149</f>
+        <v>167</v>
+      </c>
+      <c r="C151" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (759, 167, 4420, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
+      <c r="B152" s="4">
+        <f>B150</f>
+        <v>167</v>
+      </c>
+      <c r="C152" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (760, 167, 4420, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <f t="shared" si="11"/>
+        <v>761</v>
+      </c>
+      <c r="B153" s="4">
+        <f>B151</f>
+        <v>167</v>
+      </c>
+      <c r="C153" s="4">
+        <v>351</v>
+      </c>
+      <c r="D153" s="4">
+        <v>2</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F153" s="4">
+        <v>4</v>
+      </c>
+      <c r="G153" s="4" t="str">
+        <f t="shared" ref="G153:G156" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A153 &amp; ", " &amp; B153 &amp; ", " &amp; C153 &amp; ", " &amp; D153 &amp; ", " &amp; E153 &amp; ", " &amp; F153 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (761, 167, 351, 2, 1, 4);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <f t="shared" si="11"/>
+        <v>762</v>
+      </c>
+      <c r="B154" s="4">
+        <f>B152</f>
+        <v>167</v>
+      </c>
+      <c r="C154" s="4">
+        <v>351</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>3</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (762, 167, 351, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <f t="shared" si="11"/>
+        <v>763</v>
+      </c>
+      <c r="B155" s="4">
+        <f>B153</f>
+        <v>167</v>
+      </c>
+      <c r="C155" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D155" s="4">
+        <v>2</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F155" s="4">
+        <v>4</v>
+      </c>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (763, 167, 4420, 2, 1, 4);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <f t="shared" si="11"/>
+        <v>764</v>
+      </c>
+      <c r="B156" s="4">
+        <f>B154</f>
+        <v>167</v>
+      </c>
+      <c r="C156" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>3</v>
+      </c>
+      <c r="G156" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (764, 167, 4420, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
+      <c r="B157" s="4">
+        <f>B155</f>
+        <v>167</v>
+      </c>
+      <c r="C157" s="4">
+        <v>351</v>
+      </c>
+      <c r="D157" s="4">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>7</v>
+      </c>
+      <c r="G157" s="4" t="str">
+        <f t="shared" ref="G157:G170" si="14">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A157 &amp; ", " &amp; B157 &amp; ", " &amp; C157 &amp; ", " &amp; D157 &amp; ", " &amp; E157 &amp; ", " &amp; F157 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (765, 167, 351, 6, 0, 7);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <f t="shared" si="11"/>
+        <v>766</v>
+      </c>
+      <c r="B158" s="4">
+        <f>B156</f>
+        <v>167</v>
+      </c>
+      <c r="C158" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D158" s="4">
+        <v>5</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>7</v>
+      </c>
+      <c r="G158" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 141, 31, 1, 0, 7);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (766, 167, 4420, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <f t="shared" si="11"/>
+        <v>767</v>
+      </c>
+      <c r="B159" s="4">
+        <f>B155+1</f>
+        <v>168</v>
+      </c>
+      <c r="C159" s="4">
+        <v>33</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>2</v>
+      </c>
+      <c r="G159" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (767, 168, 33, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <f t="shared" si="11"/>
+        <v>768</v>
+      </c>
+      <c r="B160" s="4">
+        <f>B159</f>
+        <v>168</v>
+      </c>
+      <c r="C160" s="4">
+        <v>33</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (768, 168, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <f t="shared" si="11"/>
+        <v>769</v>
+      </c>
+      <c r="B161" s="4">
+        <f>B159</f>
+        <v>168</v>
+      </c>
+      <c r="C161" s="4">
+        <v>30</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4">
+        <v>3</v>
+      </c>
+      <c r="F161" s="4">
+        <v>2</v>
+      </c>
+      <c r="G161" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (769, 168, 30, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <f t="shared" si="11"/>
+        <v>770</v>
+      </c>
+      <c r="B162" s="4">
+        <f>B160</f>
+        <v>168</v>
+      </c>
+      <c r="C162" s="4">
+        <v>30</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (770, 168, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <f t="shared" si="11"/>
+        <v>771</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B159+1</f>
+        <v>169</v>
+      </c>
+      <c r="C163" s="4">
+        <v>46</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (771, 169, 46, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <f t="shared" si="11"/>
+        <v>772</v>
+      </c>
+      <c r="B164" s="4">
+        <f>B163</f>
+        <v>169</v>
+      </c>
+      <c r="C164" s="4">
+        <v>46</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (772, 169, 46, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <f t="shared" si="11"/>
+        <v>773</v>
+      </c>
+      <c r="B165" s="4">
+        <f>B163</f>
+        <v>169</v>
+      </c>
+      <c r="C165" s="4">
+        <v>31</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (773, 169, 31, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <f t="shared" si="11"/>
+        <v>774</v>
+      </c>
+      <c r="B166" s="4">
+        <f>B164</f>
+        <v>169</v>
+      </c>
+      <c r="C166" s="4">
+        <v>31</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (774, 169, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <f t="shared" si="11"/>
+        <v>775</v>
+      </c>
+      <c r="B167" s="4">
+        <f>B165</f>
+        <v>169</v>
+      </c>
+      <c r="C167" s="4">
+        <v>46</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F167" s="4">
+        <v>4</v>
+      </c>
+      <c r="G167" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (775, 169, 46, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <f t="shared" si="11"/>
+        <v>776</v>
+      </c>
+      <c r="B168" s="4">
+        <f>B166</f>
+        <v>169</v>
+      </c>
+      <c r="C168" s="4">
+        <v>46</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>3</v>
+      </c>
+      <c r="G168" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (776, 169, 46, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <f t="shared" si="11"/>
+        <v>777</v>
+      </c>
+      <c r="B169" s="4">
+        <f>B167</f>
+        <v>169</v>
+      </c>
+      <c r="C169" s="4">
+        <v>31</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="4">
+        <v>4</v>
+      </c>
+      <c r="G169" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (777, 169, 31, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <f t="shared" si="11"/>
+        <v>778</v>
+      </c>
+      <c r="B170" s="4">
+        <f>B168</f>
+        <v>169</v>
+      </c>
+      <c r="C170" s="4">
+        <v>31</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>3</v>
+      </c>
+      <c r="G170" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (778, 169, 31, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <f t="shared" si="11"/>
+        <v>779</v>
+      </c>
+      <c r="B171" s="4">
+        <f>B169</f>
+        <v>169</v>
+      </c>
+      <c r="C171" s="4">
+        <v>46</v>
+      </c>
+      <c r="D171" s="4">
+        <v>4</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>7</v>
+      </c>
+      <c r="G171" s="4" t="str">
+        <f t="shared" ref="G171:G176" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A171 &amp; ", " &amp; B171 &amp; ", " &amp; C171 &amp; ", " &amp; D171 &amp; ", " &amp; E171 &amp; ", " &amp; F171 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (779, 169, 46, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="B172" s="4">
+        <f>B170</f>
+        <v>169</v>
+      </c>
+      <c r="C172" s="4">
+        <v>31</v>
+      </c>
+      <c r="D172" s="4">
+        <v>5</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+      <c r="F172" s="4">
+        <v>7</v>
+      </c>
+      <c r="G172" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (780, 169, 31, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <f t="shared" si="11"/>
+        <v>781</v>
+      </c>
+      <c r="B173" s="4">
+        <f>B169+1</f>
+        <v>170</v>
+      </c>
+      <c r="C173" s="4">
+        <v>420</v>
+      </c>
+      <c r="D173" s="4">
+        <v>3</v>
+      </c>
+      <c r="E173" s="4">
+        <v>3</v>
+      </c>
+      <c r="F173" s="4">
+        <v>2</v>
+      </c>
+      <c r="G173" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (781, 170, 420, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <f t="shared" si="11"/>
+        <v>782</v>
+      </c>
+      <c r="B174" s="4">
+        <f>B173</f>
+        <v>170</v>
+      </c>
+      <c r="C174" s="4">
+        <v>429</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+      <c r="G174" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (782, 170, 429, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <f t="shared" si="11"/>
+        <v>783</v>
+      </c>
+      <c r="B175" s="4">
+        <f>B173</f>
+        <v>170</v>
+      </c>
+      <c r="C175" s="4">
+        <v>45</v>
+      </c>
+      <c r="D175" s="4">
+        <v>0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="4">
+        <v>2</v>
+      </c>
+      <c r="G175" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (783, 170, 45, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <f t="shared" si="11"/>
+        <v>784</v>
+      </c>
+      <c r="B176" s="4">
+        <f>B174</f>
+        <v>170</v>
+      </c>
+      <c r="C176" s="4">
+        <v>45</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>1</v>
+      </c>
+      <c r="G176" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (784, 170, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <f t="shared" si="11"/>
+        <v>785</v>
+      </c>
+      <c r="B177" s="4">
+        <f>B173+1</f>
+        <v>171</v>
+      </c>
+      <c r="C177" s="4">
+        <v>351</v>
+      </c>
+      <c r="D177" s="4">
+        <v>2</v>
+      </c>
+      <c r="E177" s="4">
+        <v>3</v>
+      </c>
+      <c r="F177" s="4">
+        <v>2</v>
+      </c>
+      <c r="G177" s="4" t="str">
+        <f t="shared" ref="G177:G184" si="16">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A177 &amp; ", " &amp; B177 &amp; ", " &amp; C177 &amp; ", " &amp; D177 &amp; ", " &amp; E177 &amp; ", " &amp; F177 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (785, 171, 351, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <f t="shared" si="11"/>
+        <v>786</v>
+      </c>
+      <c r="B178" s="4">
+        <f>B177</f>
+        <v>171</v>
+      </c>
+      <c r="C178" s="4">
+        <v>351</v>
+      </c>
+      <c r="D178" s="4">
+        <v>1</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+      <c r="G178" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (786, 171, 351, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <f t="shared" si="11"/>
+        <v>787</v>
+      </c>
+      <c r="B179" s="4">
+        <f>B177</f>
+        <v>171</v>
+      </c>
+      <c r="C179" s="4">
+        <v>31</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+      <c r="F179" s="4">
+        <v>2</v>
+      </c>
+      <c r="G179" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (787, 171, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <f t="shared" si="11"/>
+        <v>788</v>
+      </c>
+      <c r="B180" s="4">
+        <f>B178</f>
+        <v>171</v>
+      </c>
+      <c r="C180" s="4">
+        <v>31</v>
+      </c>
+      <c r="D180" s="4">
+        <v>0</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1</v>
+      </c>
+      <c r="G180" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (788, 171, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <f t="shared" si="11"/>
+        <v>789</v>
+      </c>
+      <c r="B181" s="4">
+        <f>B177+1</f>
+        <v>172</v>
+      </c>
+      <c r="C181" s="4">
+        <v>30</v>
+      </c>
+      <c r="D181" s="4">
+        <v>0</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0</v>
+      </c>
+      <c r="F181" s="4">
+        <v>2</v>
+      </c>
+      <c r="G181" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (789, 172, 30, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <f t="shared" si="11"/>
+        <v>790</v>
+      </c>
+      <c r="B182" s="4">
+        <f>B181</f>
+        <v>172</v>
+      </c>
+      <c r="C182" s="4">
+        <v>30</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+      <c r="G182" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (790, 172, 30, 0, 0, 1);</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <f t="shared" si="10"/>
-        <v>653</v>
+        <f t="shared" ref="A183:A190" si="17">A182+1</f>
+        <v>791</v>
       </c>
       <c r="B183" s="4">
-        <f>B179+1</f>
-        <v>142</v>
+        <f>B181</f>
+        <v>172</v>
       </c>
       <c r="C183" s="4">
-        <v>33</v>
+        <v>420</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" s="4">
         <v>0</v>
@@ -10818,21 +15663,21 @@
         <v>2</v>
       </c>
       <c r="G183" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 142, 33, 1, 0, 2);</v>
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (791, 172, 420, 0, 0, 2);</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <f t="shared" ref="A184:A190" si="15">A183+1</f>
-        <v>654</v>
+        <f t="shared" si="17"/>
+        <v>792</v>
       </c>
       <c r="B184" s="4">
-        <f>B183</f>
-        <v>142</v>
+        <f>B182</f>
+        <v>172</v>
       </c>
       <c r="C184" s="4">
-        <v>33</v>
+        <v>420</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
@@ -10844,47 +15689,47 @@
         <v>1</v>
       </c>
       <c r="G184" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 142, 33, 0, 0, 1);</v>
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (792, 172, 420, 0, 0, 1);</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <f t="shared" si="15"/>
-        <v>655</v>
+        <f t="shared" si="17"/>
+        <v>793</v>
       </c>
       <c r="B185" s="4">
         <f>B183</f>
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C185" s="4">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D185" s="4">
         <v>1</v>
       </c>
       <c r="E185" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F185" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G185" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 142, 39, 1, 0, 2);</v>
+        <f t="shared" ref="G185:G190" si="18">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A185 &amp; ", " &amp; B185 &amp; ", " &amp; C185 &amp; ", " &amp; D185 &amp; ", " &amp; E185 &amp; ", " &amp; F185 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (793, 172, 30, 1, 3, 3);</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <f t="shared" si="15"/>
-        <v>656</v>
+        <f t="shared" si="17"/>
+        <v>794</v>
       </c>
       <c r="B186" s="4">
         <f>B184</f>
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C186" s="4">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
@@ -10893,115 +15738,115 @@
         <v>0</v>
       </c>
       <c r="F186" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G186" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 142, 39, 0, 0, 1);</v>
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (794, 172, 420, 0, 0, 3);</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <f t="shared" si="15"/>
-        <v>657</v>
+        <f t="shared" si="17"/>
+        <v>795</v>
       </c>
       <c r="B187" s="4">
-        <f>B185</f>
-        <v>142</v>
+        <f>B183+1</f>
+        <v>173</v>
       </c>
       <c r="C187" s="4">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="D187" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F187" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G187" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 142, 33, 2, 3, 4);</v>
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 173, 351, 0, 0, 2);</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <f t="shared" si="15"/>
-        <v>658</v>
+        <f t="shared" si="17"/>
+        <v>796</v>
       </c>
       <c r="B188" s="4">
-        <f>B186</f>
-        <v>142</v>
+        <f>B187</f>
+        <v>173</v>
       </c>
       <c r="C188" s="4">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="D188" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" s="4">
         <v>0</v>
       </c>
       <c r="F188" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G188" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 142, 33, 1, 0, 3);</v>
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 173, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <f t="shared" si="15"/>
-        <v>659</v>
+        <f t="shared" si="17"/>
+        <v>797</v>
       </c>
       <c r="B189" s="4">
         <f>B187</f>
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C189" s="4">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D189" s="4">
         <v>1</v>
       </c>
       <c r="E189" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F189" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G189" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 142, 39, 1, 0, 4);</v>
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 173, 30, 1, 3, 2);</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <f t="shared" si="15"/>
-        <v>660</v>
+        <f t="shared" si="17"/>
+        <v>798</v>
       </c>
       <c r="B190" s="4">
         <f>B188</f>
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C190" s="4">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D190" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" s="4">
         <v>0</v>
       </c>
       <c r="F190" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G190" s="4" t="str">
-        <f t="shared" ref="G190" si="16">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A190 &amp; ", " &amp; B190 &amp; ", " &amp; C190 &amp; ", " &amp; D190 &amp; ", " &amp; E190 &amp; ", " &amp; F190 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 142, 39, 1, 0, 3);</v>
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 173, 30, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="1996" sheetId="57" r:id="rId10"/>
     <sheet name="2000" sheetId="58" r:id="rId11"/>
     <sheet name="2004" sheetId="59" r:id="rId12"/>
+    <sheet name="2008" sheetId="60" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -11015,9 +11016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12120,27 +12119,27 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <f>'2000'!A190+1</f>
         <v>661</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <f>A20</f>
         <v>143</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>351</v>
       </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4" t="str">
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
         <f t="shared" ref="G53:G116" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A53 &amp; ", " &amp; B53 &amp; ", " &amp; C53 &amp; ", " &amp; D53 &amp; ", " &amp; E53 &amp; ", " &amp; F53 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 143, 351, 1, 0, 2);</v>
       </c>
@@ -12149,27 +12148,27 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <f>A53+1</f>
         <v>662</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <f>B53</f>
         <v>143</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>351</v>
       </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4" t="str">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 143, 351, 0, 0, 1);</v>
       </c>
@@ -12178,27 +12177,27 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <f t="shared" ref="A55:A118" si="9">A54+1</f>
         <v>663</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <f>B53</f>
         <v>143</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>30</v>
       </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
         <v>3</v>
       </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="4" t="str">
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 143, 30, 2, 3, 2);</v>
       </c>
@@ -12207,27 +12206,27 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <f t="shared" si="9"/>
         <v>664</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <f>B53</f>
         <v>143</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>30</v>
       </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4" t="str">
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 143, 30, 1, 0, 1);</v>
       </c>
@@ -12352,27 +12351,27 @@
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <f t="shared" si="9"/>
         <v>669</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <f>B57+1</f>
         <v>145</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>30</v>
       </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4" t="str">
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 145, 30, 1, 1, 2);</v>
       </c>
@@ -12381,27 +12380,27 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <f t="shared" si="9"/>
         <v>670</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <f>B61</f>
         <v>145</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>30</v>
       </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="str">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 145, 30, 0, 0, 1);</v>
       </c>
@@ -12410,27 +12409,27 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <f t="shared" si="9"/>
         <v>671</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <f>B61</f>
         <v>145</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>34</v>
       </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4" t="str">
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 145, 34, 1, 1, 2);</v>
       </c>
@@ -12439,27 +12438,27 @@
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <f t="shared" si="9"/>
         <v>672</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <f>B61</f>
         <v>145</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>34</v>
       </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="str">
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 145, 34, 1, 0, 1);</v>
       </c>
@@ -12584,27 +12583,27 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <f t="shared" si="9"/>
         <v>677</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <f>B65+1</f>
         <v>147</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>34</v>
       </c>
-      <c r="D69" s="4">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>2</v>
-      </c>
-      <c r="G69" s="4" t="str">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (677, 147, 34, 0, 0, 2);</v>
       </c>
@@ -12613,27 +12612,27 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <f t="shared" si="9"/>
         <v>678</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <f>B69</f>
         <v>147</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>34</v>
       </c>
-      <c r="D70" s="4">
-        <v>0</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="4" t="str">
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (678, 147, 34, 0, 0, 1);</v>
       </c>
@@ -12642,27 +12641,27 @@
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <f t="shared" si="9"/>
         <v>679</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <f>B69</f>
         <v>147</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>351</v>
       </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
         <v>3</v>
       </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-      <c r="G71" s="4" t="str">
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (679, 147, 351, 1, 3, 2);</v>
       </c>
@@ -12671,27 +12670,27 @@
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <f t="shared" si="9"/>
         <v>680</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <f>B69</f>
         <v>147</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>351</v>
       </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <v>1</v>
-      </c>
-      <c r="G72" s="4" t="str">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (680, 147, 351, 0, 0, 1);</v>
       </c>
@@ -12814,108 +12813,108 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <f t="shared" si="9"/>
         <v>685</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <f>B73+1</f>
         <v>149</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>41</v>
       </c>
-      <c r="D77" s="4">
-        <v>0</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
-        <v>2</v>
-      </c>
-      <c r="G77" s="4" t="str">
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (685, 149, 41, 0, 1, 2);</v>
       </c>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <f t="shared" si="9"/>
         <v>686</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <f>B77</f>
         <v>149</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>41</v>
       </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="4" t="str">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (686, 149, 41, 0, 0, 1);</v>
       </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <f t="shared" si="9"/>
         <v>687</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <f>B77</f>
         <v>149</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>385</v>
       </c>
-      <c r="D79" s="4">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>2</v>
-      </c>
-      <c r="G79" s="4" t="str">
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (687, 149, 385, 0, 1, 2);</v>
       </c>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <f t="shared" si="9"/>
         <v>688</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <f>B77</f>
         <v>149</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>385</v>
       </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4" t="str">
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (688, 149, 385, 0, 0, 1);</v>
       </c>
@@ -13030,108 +13029,108 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <f t="shared" si="9"/>
         <v>693</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <f>B81+1</f>
         <v>151</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>4420</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>3</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>3</v>
       </c>
-      <c r="F85" s="4">
-        <v>2</v>
-      </c>
-      <c r="G85" s="4" t="str">
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 151, 4420, 3, 3, 2);</v>
       </c>
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <f t="shared" si="9"/>
         <v>694</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <f>B85</f>
         <v>151</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>4420</v>
       </c>
-      <c r="D86" s="4">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1</v>
-      </c>
-      <c r="G86" s="4" t="str">
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 151, 4420, 1, 0, 1);</v>
       </c>
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <f t="shared" si="9"/>
         <v>695</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <f>B85</f>
         <v>151</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>41</v>
       </c>
-      <c r="D87" s="4">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4">
-        <v>2</v>
-      </c>
-      <c r="G87" s="4" t="str">
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 151, 41, 0, 0, 2);</v>
       </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <f t="shared" si="9"/>
         <v>696</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <f>B85</f>
         <v>151</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>41</v>
       </c>
-      <c r="D88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>1</v>
-      </c>
-      <c r="G88" s="4" t="str">
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 151, 41, 0, 0, 1);</v>
       </c>
@@ -13246,108 +13245,108 @@
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <f t="shared" si="9"/>
         <v>701</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <f>B89+1</f>
         <v>153</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>385</v>
       </c>
-      <c r="D93" s="4">
-        <v>2</v>
-      </c>
-      <c r="E93" s="4">
-        <v>0</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2</v>
-      </c>
-      <c r="G93" s="4" t="str">
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 153, 385, 2, 0, 2);</v>
       </c>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <f t="shared" si="9"/>
         <v>702</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <f>B93</f>
         <v>153</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>385</v>
       </c>
-      <c r="D94" s="4">
-        <v>1</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1</v>
-      </c>
-      <c r="G94" s="4" t="str">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 153, 385, 1, 0, 1);</v>
       </c>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <f t="shared" si="9"/>
         <v>703</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <f>B93</f>
         <v>153</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>4420</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>4</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>3</v>
       </c>
-      <c r="F95" s="4">
-        <v>2</v>
-      </c>
-      <c r="G95" s="4" t="str">
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 153, 4420, 4, 3, 2);</v>
       </c>
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <f t="shared" si="9"/>
         <v>704</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <f>B93</f>
         <v>153</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>4420</v>
       </c>
-      <c r="D96" s="4">
-        <v>2</v>
-      </c>
-      <c r="E96" s="4">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1</v>
-      </c>
-      <c r="G96" s="4" t="str">
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 153, 4420, 2, 0, 1);</v>
       </c>
@@ -13462,108 +13461,108 @@
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <f t="shared" si="9"/>
         <v>709</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <f>B97+1</f>
         <v>155</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>45</v>
       </c>
-      <c r="D101" s="4">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="4">
-        <v>2</v>
-      </c>
-      <c r="G101" s="4" t="str">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 155, 45, 0, 1, 2);</v>
       </c>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <f t="shared" si="9"/>
         <v>710</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <f>B101</f>
         <v>155</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>45</v>
       </c>
-      <c r="D102" s="4">
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4">
-        <v>1</v>
-      </c>
-      <c r="G102" s="4" t="str">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 155, 45, 0, 0, 1);</v>
       </c>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <f t="shared" si="9"/>
         <v>711</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <f>B101</f>
         <v>155</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>39</v>
       </c>
-      <c r="D103" s="4">
-        <v>0</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="4">
-        <v>2</v>
-      </c>
-      <c r="G103" s="4" t="str">
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 155, 39, 0, 1, 2);</v>
       </c>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <f t="shared" si="9"/>
         <v>712</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <f>B101</f>
         <v>155</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>39</v>
       </c>
-      <c r="D104" s="4">
-        <v>0</v>
-      </c>
-      <c r="E104" s="4">
-        <v>0</v>
-      </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104" s="4" t="str">
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 155, 39, 0, 0, 1);</v>
       </c>
@@ -13678,108 +13677,108 @@
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <f t="shared" si="9"/>
         <v>717</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <f>B105+1</f>
         <v>157</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>359</v>
       </c>
-      <c r="D109" s="4">
-        <v>0</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>2</v>
-      </c>
-      <c r="G109" s="4" t="str">
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2</v>
+      </c>
+      <c r="G109" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 157, 359, 0, 0, 2);</v>
       </c>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <f t="shared" si="9"/>
         <v>718</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <f>B109</f>
         <v>157</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>359</v>
       </c>
-      <c r="D110" s="4">
-        <v>0</v>
-      </c>
-      <c r="E110" s="4">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
-      <c r="G110" s="4" t="str">
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 157, 359, 0, 0, 1);</v>
       </c>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <f t="shared" si="9"/>
         <v>719</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <f>B109</f>
         <v>157</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>45</v>
       </c>
-      <c r="D111" s="4">
-        <v>2</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="D111" s="3">
+        <v>2</v>
+      </c>
+      <c r="E111" s="3">
         <v>3</v>
       </c>
-      <c r="F111" s="4">
-        <v>2</v>
-      </c>
-      <c r="G111" s="4" t="str">
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 157, 45, 2, 3, 2);</v>
       </c>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <f t="shared" si="9"/>
         <v>720</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <f>B109</f>
         <v>157</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>45</v>
       </c>
-      <c r="D112" s="4">
-        <v>1</v>
-      </c>
-      <c r="E112" s="4">
-        <v>0</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="str">
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="str">
         <f t="shared" si="8"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 157, 45, 1, 0, 1);</v>
       </c>
@@ -13894,108 +13893,108 @@
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <f t="shared" si="9"/>
         <v>725</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <f>B113+1</f>
         <v>159</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>39</v>
       </c>
-      <c r="D117" s="4">
-        <v>2</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="D117" s="3">
+        <v>2</v>
+      </c>
+      <c r="E117" s="3">
         <v>3</v>
       </c>
-      <c r="F117" s="4">
-        <v>2</v>
-      </c>
-      <c r="G117" s="4" t="str">
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G117" s="3" t="str">
         <f t="shared" ref="G117:G148" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 159, 39, 2, 3, 2);</v>
       </c>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <f t="shared" si="9"/>
         <v>726</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <f>B117</f>
         <v>159</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>39</v>
       </c>
-      <c r="D118" s="4">
-        <v>0</v>
-      </c>
-      <c r="E118" s="4">
-        <v>0</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1</v>
-      </c>
-      <c r="G118" s="4" t="str">
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 159, 39, 0, 0, 1);</v>
       </c>
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <f t="shared" ref="A119:A182" si="11">A118+1</f>
         <v>727</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <f>B117</f>
         <v>159</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>359</v>
       </c>
-      <c r="D119" s="4">
-        <v>1</v>
-      </c>
-      <c r="E119" s="4">
-        <v>0</v>
-      </c>
-      <c r="F119" s="4">
-        <v>2</v>
-      </c>
-      <c r="G119" s="4" t="str">
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>2</v>
+      </c>
+      <c r="G119" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 159, 359, 1, 0, 2);</v>
       </c>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <f t="shared" si="11"/>
         <v>728</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <f>B117</f>
         <v>159</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>359</v>
       </c>
-      <c r="D120" s="4">
-        <v>1</v>
-      </c>
-      <c r="E120" s="4">
-        <v>0</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1</v>
-      </c>
-      <c r="G120" s="4" t="str">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 159, 359, 1, 0, 1);</v>
       </c>
@@ -14110,108 +14109,108 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <f t="shared" si="11"/>
         <v>733</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <f>B121+1</f>
         <v>161</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>420</v>
       </c>
-      <c r="D125" s="4">
-        <v>2</v>
-      </c>
-      <c r="E125" s="4">
+      <c r="D125" s="3">
+        <v>2</v>
+      </c>
+      <c r="E125" s="3">
         <v>3</v>
       </c>
-      <c r="F125" s="4">
-        <v>2</v>
-      </c>
-      <c r="G125" s="4" t="str">
+      <c r="F125" s="3">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 161, 420, 2, 3, 2);</v>
       </c>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <f t="shared" si="11"/>
         <v>734</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <f>B125</f>
         <v>161</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>420</v>
       </c>
-      <c r="D126" s="4">
-        <v>0</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4">
-        <v>1</v>
-      </c>
-      <c r="G126" s="4" t="str">
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 161, 420, 0, 0, 1);</v>
       </c>
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <f t="shared" si="11"/>
         <v>735</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <f>B125</f>
         <v>161</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>371</v>
       </c>
-      <c r="D127" s="4">
-        <v>1</v>
-      </c>
-      <c r="E127" s="4">
-        <v>0</v>
-      </c>
-      <c r="F127" s="4">
-        <v>2</v>
-      </c>
-      <c r="G127" s="4" t="str">
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>2</v>
+      </c>
+      <c r="G127" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 161, 371, 1, 0, 2);</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <f t="shared" si="11"/>
         <v>736</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <f>B125</f>
         <v>161</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>371</v>
       </c>
-      <c r="D128" s="4">
-        <v>1</v>
-      </c>
-      <c r="E128" s="4">
-        <v>0</v>
-      </c>
-      <c r="F128" s="4">
-        <v>1</v>
-      </c>
-      <c r="G128" s="4" t="str">
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 161, 371, 1, 0, 1);</v>
       </c>
@@ -14326,108 +14325,108 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <f t="shared" si="11"/>
         <v>741</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <f>B129+1</f>
         <v>163</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>371</v>
       </c>
-      <c r="D133" s="4">
-        <v>0</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1</v>
-      </c>
-      <c r="F133" s="4">
-        <v>2</v>
-      </c>
-      <c r="G133" s="4" t="str">
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 163, 371, 0, 1, 2);</v>
       </c>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <f t="shared" si="11"/>
         <v>742</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <f>B133</f>
         <v>163</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>371</v>
       </c>
-      <c r="D134" s="4">
-        <v>0</v>
-      </c>
-      <c r="E134" s="4">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4">
-        <v>1</v>
-      </c>
-      <c r="G134" s="4" t="str">
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 163, 371, 0, 0, 1);</v>
       </c>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <f t="shared" si="11"/>
         <v>743</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <f>B133</f>
         <v>163</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>49</v>
       </c>
-      <c r="D135" s="4">
-        <v>0</v>
-      </c>
-      <c r="E135" s="4">
-        <v>1</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2</v>
-      </c>
-      <c r="G135" s="4" t="str">
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 163, 49, 0, 1, 2);</v>
       </c>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <f t="shared" si="11"/>
         <v>744</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <f>B133</f>
         <v>163</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>49</v>
       </c>
-      <c r="D136" s="4">
-        <v>0</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0</v>
-      </c>
-      <c r="F136" s="4">
-        <v>1</v>
-      </c>
-      <c r="G136" s="4" t="str">
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 163, 49, 0, 0, 1);</v>
       </c>
@@ -14542,108 +14541,108 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <f t="shared" si="11"/>
         <v>749</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <f>B137+1</f>
         <v>165</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>49</v>
       </c>
-      <c r="D141" s="4">
-        <v>1</v>
-      </c>
-      <c r="E141" s="4">
-        <v>0</v>
-      </c>
-      <c r="F141" s="4">
-        <v>2</v>
-      </c>
-      <c r="G141" s="4" t="str">
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (749, 165, 49, 1, 0, 2);</v>
       </c>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <f t="shared" si="11"/>
         <v>750</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <f>B141</f>
         <v>165</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>49</v>
       </c>
-      <c r="D142" s="4">
-        <v>1</v>
-      </c>
-      <c r="E142" s="4">
-        <v>0</v>
-      </c>
-      <c r="F142" s="4">
-        <v>1</v>
-      </c>
-      <c r="G142" s="4" t="str">
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (750, 165, 49, 1, 0, 1);</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <f t="shared" si="11"/>
         <v>751</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <f>B141</f>
         <v>165</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>420</v>
       </c>
-      <c r="D143" s="4">
-        <v>2</v>
-      </c>
-      <c r="E143" s="4">
+      <c r="D143" s="3">
+        <v>2</v>
+      </c>
+      <c r="E143" s="3">
         <v>3</v>
       </c>
-      <c r="F143" s="4">
-        <v>2</v>
-      </c>
-      <c r="G143" s="4" t="str">
+      <c r="F143" s="3">
+        <v>2</v>
+      </c>
+      <c r="G143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (751, 165, 420, 2, 3, 2);</v>
       </c>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <f t="shared" si="11"/>
         <v>752</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <f>B141</f>
         <v>165</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>420</v>
       </c>
-      <c r="D144" s="4">
-        <v>1</v>
-      </c>
-      <c r="E144" s="4">
-        <v>0</v>
-      </c>
-      <c r="F144" s="4">
-        <v>1</v>
-      </c>
-      <c r="G144" s="4" t="str">
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (752, 165, 420, 1, 0, 1);</v>
       </c>
@@ -14758,262 +14757,262 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <f t="shared" si="11"/>
         <v>757</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <f>B145+1</f>
         <v>167</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <v>351</v>
       </c>
-      <c r="D149" s="4">
-        <v>1</v>
-      </c>
-      <c r="E149" s="4">
-        <v>0</v>
-      </c>
-      <c r="F149" s="4">
-        <v>2</v>
-      </c>
-      <c r="G149" s="4" t="str">
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3" t="str">
         <f t="shared" ref="G149:G152" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A149 &amp; ", " &amp; B149 &amp; ", " &amp; C149 &amp; ", " &amp; D149 &amp; ", " &amp; E149 &amp; ", " &amp; F149 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (757, 167, 351, 1, 0, 2);</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <f t="shared" si="11"/>
         <v>758</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="3">
         <f>B149</f>
         <v>167</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>351</v>
       </c>
-      <c r="D150" s="4">
-        <v>0</v>
-      </c>
-      <c r="E150" s="4">
-        <v>0</v>
-      </c>
-      <c r="F150" s="4">
-        <v>1</v>
-      </c>
-      <c r="G150" s="4" t="str">
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (758, 167, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <f t="shared" si="11"/>
         <v>759</v>
       </c>
-      <c r="B151" s="4">
-        <f>B149</f>
+      <c r="B151" s="3">
+        <f t="shared" ref="B151:B158" si="13">B149</f>
         <v>167</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>4420</v>
       </c>
-      <c r="D151" s="4">
-        <v>1</v>
-      </c>
-      <c r="E151" s="4">
-        <v>0</v>
-      </c>
-      <c r="F151" s="4">
-        <v>2</v>
-      </c>
-      <c r="G151" s="4" t="str">
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>2</v>
+      </c>
+      <c r="G151" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (759, 167, 4420, 1, 0, 2);</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <f t="shared" si="11"/>
         <v>760</v>
       </c>
-      <c r="B152" s="4">
-        <f>B150</f>
+      <c r="B152" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <v>4420</v>
       </c>
-      <c r="D152" s="4">
-        <v>1</v>
-      </c>
-      <c r="E152" s="4">
-        <v>0</v>
-      </c>
-      <c r="F152" s="4">
-        <v>1</v>
-      </c>
-      <c r="G152" s="4" t="str">
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (760, 167, 4420, 1, 0, 1);</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <f t="shared" si="11"/>
         <v>761</v>
       </c>
-      <c r="B153" s="4">
-        <f>B151</f>
+      <c r="B153" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="3">
         <v>351</v>
       </c>
-      <c r="D153" s="4">
-        <v>2</v>
-      </c>
-      <c r="E153" s="4">
-        <v>1</v>
-      </c>
-      <c r="F153" s="4">
+      <c r="D153" s="3">
+        <v>2</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
         <v>4</v>
       </c>
-      <c r="G153" s="4" t="str">
-        <f t="shared" ref="G153:G156" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A153 &amp; ", " &amp; B153 &amp; ", " &amp; C153 &amp; ", " &amp; D153 &amp; ", " &amp; E153 &amp; ", " &amp; F153 &amp; ");"</f>
+      <c r="G153" s="3" t="str">
+        <f t="shared" ref="G153:G156" si="14">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A153 &amp; ", " &amp; B153 &amp; ", " &amp; C153 &amp; ", " &amp; D153 &amp; ", " &amp; E153 &amp; ", " &amp; F153 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (761, 167, 351, 2, 1, 4);</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <f t="shared" si="11"/>
         <v>762</v>
       </c>
-      <c r="B154" s="4">
-        <f>B152</f>
+      <c r="B154" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>351</v>
       </c>
-      <c r="D154" s="4">
-        <v>1</v>
-      </c>
-      <c r="E154" s="4">
-        <v>0</v>
-      </c>
-      <c r="F154" s="4">
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+      <c r="F154" s="3">
         <v>3</v>
       </c>
-      <c r="G154" s="4" t="str">
-        <f t="shared" si="13"/>
+      <c r="G154" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (762, 167, 351, 1, 0, 3);</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <f t="shared" si="11"/>
         <v>763</v>
       </c>
-      <c r="B155" s="4">
-        <f>B153</f>
+      <c r="B155" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <v>4420</v>
       </c>
-      <c r="D155" s="4">
-        <v>2</v>
-      </c>
-      <c r="E155" s="4">
-        <v>1</v>
-      </c>
-      <c r="F155" s="4">
+      <c r="D155" s="3">
+        <v>2</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
         <v>4</v>
       </c>
-      <c r="G155" s="4" t="str">
-        <f t="shared" si="13"/>
+      <c r="G155" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (763, 167, 4420, 2, 1, 4);</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <f t="shared" si="11"/>
         <v>764</v>
       </c>
-      <c r="B156" s="4">
-        <f>B154</f>
+      <c r="B156" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <v>4420</v>
       </c>
-      <c r="D156" s="4">
-        <v>1</v>
-      </c>
-      <c r="E156" s="4">
-        <v>0</v>
-      </c>
-      <c r="F156" s="4">
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3">
         <v>3</v>
       </c>
-      <c r="G156" s="4" t="str">
-        <f t="shared" si="13"/>
+      <c r="G156" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (764, 167, 4420, 1, 0, 3);</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <f t="shared" si="11"/>
         <v>765</v>
       </c>
-      <c r="B157" s="4">
-        <f>B155</f>
+      <c r="B157" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <v>351</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>6</v>
       </c>
-      <c r="E157" s="4">
-        <v>0</v>
-      </c>
-      <c r="F157" s="4">
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3">
         <v>7</v>
       </c>
-      <c r="G157" s="4" t="str">
-        <f t="shared" ref="G157:G170" si="14">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A157 &amp; ", " &amp; B157 &amp; ", " &amp; C157 &amp; ", " &amp; D157 &amp; ", " &amp; E157 &amp; ", " &amp; F157 &amp; ");"</f>
+      <c r="G157" s="3" t="str">
+        <f t="shared" ref="G157:G170" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A157 &amp; ", " &amp; B157 &amp; ", " &amp; C157 &amp; ", " &amp; D157 &amp; ", " &amp; E157 &amp; ", " &amp; F157 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (765, 167, 351, 6, 0, 7);</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <f t="shared" si="11"/>
         <v>766</v>
       </c>
-      <c r="B158" s="4">
-        <f>B156</f>
+      <c r="B158" s="3">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="3">
         <v>4420</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="3">
         <v>5</v>
       </c>
-      <c r="E158" s="4">
-        <v>0</v>
-      </c>
-      <c r="F158" s="4">
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3">
         <v>7</v>
       </c>
-      <c r="G158" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="G158" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (766, 167, 4420, 5, 0, 7);</v>
       </c>
     </row>
@@ -15039,7 +15038,7 @@
         <v>2</v>
       </c>
       <c r="G159" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (767, 168, 33, 0, 0, 2);</v>
       </c>
     </row>
@@ -15065,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (768, 168, 33, 0, 0, 1);</v>
       </c>
     </row>
@@ -15091,7 +15090,7 @@
         <v>2</v>
       </c>
       <c r="G161" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (769, 168, 30, 1, 3, 2);</v>
       </c>
     </row>
@@ -15117,267 +15116,267 @@
         <v>1</v>
       </c>
       <c r="G162" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (770, 168, 30, 0, 0, 1);</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <f t="shared" si="11"/>
         <v>771</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <f>B159+1</f>
         <v>169</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>46</v>
       </c>
-      <c r="D163" s="4">
-        <v>0</v>
-      </c>
-      <c r="E163" s="4">
-        <v>0</v>
-      </c>
-      <c r="F163" s="4">
-        <v>2</v>
-      </c>
-      <c r="G163" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>2</v>
+      </c>
+      <c r="G163" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (771, 169, 46, 0, 0, 2);</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <f t="shared" si="11"/>
         <v>772</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <f>B163</f>
         <v>169</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>46</v>
       </c>
-      <c r="D164" s="4">
-        <v>0</v>
-      </c>
-      <c r="E164" s="4">
-        <v>0</v>
-      </c>
-      <c r="F164" s="4">
-        <v>1</v>
-      </c>
-      <c r="G164" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (772, 169, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <f t="shared" si="11"/>
         <v>773</v>
       </c>
-      <c r="B165" s="4">
-        <f>B163</f>
+      <c r="B165" s="3">
+        <f t="shared" ref="B165:B172" si="16">B163</f>
         <v>169</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>31</v>
       </c>
-      <c r="D165" s="4">
-        <v>0</v>
-      </c>
-      <c r="E165" s="4">
-        <v>0</v>
-      </c>
-      <c r="F165" s="4">
-        <v>2</v>
-      </c>
-      <c r="G165" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>2</v>
+      </c>
+      <c r="G165" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (773, 169, 31, 0, 0, 2);</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <f t="shared" si="11"/>
         <v>774</v>
       </c>
-      <c r="B166" s="4">
-        <f>B164</f>
+      <c r="B166" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>31</v>
       </c>
-      <c r="D166" s="4">
-        <v>0</v>
-      </c>
-      <c r="E166" s="4">
-        <v>0</v>
-      </c>
-      <c r="F166" s="4">
-        <v>1</v>
-      </c>
-      <c r="G166" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (774, 169, 31, 0, 0, 1);</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <f t="shared" si="11"/>
         <v>775</v>
       </c>
-      <c r="B167" s="4">
-        <f>B165</f>
+      <c r="B167" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>46</v>
       </c>
-      <c r="D167" s="4">
-        <v>0</v>
-      </c>
-      <c r="E167" s="4">
-        <v>1</v>
-      </c>
-      <c r="F167" s="4">
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
         <v>4</v>
       </c>
-      <c r="G167" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="G167" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (775, 169, 46, 0, 1, 4);</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <f t="shared" si="11"/>
         <v>776</v>
       </c>
-      <c r="B168" s="4">
-        <f>B166</f>
+      <c r="B168" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>46</v>
       </c>
-      <c r="D168" s="4">
-        <v>0</v>
-      </c>
-      <c r="E168" s="4">
-        <v>0</v>
-      </c>
-      <c r="F168" s="4">
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168" s="3">
         <v>3</v>
       </c>
-      <c r="G168" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="G168" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (776, 169, 46, 0, 0, 3);</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <f t="shared" si="11"/>
         <v>777</v>
       </c>
-      <c r="B169" s="4">
-        <f>B167</f>
+      <c r="B169" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>31</v>
       </c>
-      <c r="D169" s="4">
-        <v>0</v>
-      </c>
-      <c r="E169" s="4">
-        <v>1</v>
-      </c>
-      <c r="F169" s="4">
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
         <v>4</v>
       </c>
-      <c r="G169" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="G169" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (777, 169, 31, 0, 1, 4);</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <f t="shared" si="11"/>
         <v>778</v>
       </c>
-      <c r="B170" s="4">
-        <f>B168</f>
+      <c r="B170" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>31</v>
       </c>
-      <c r="D170" s="4">
-        <v>0</v>
-      </c>
-      <c r="E170" s="4">
-        <v>0</v>
-      </c>
-      <c r="F170" s="4">
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
         <v>3</v>
       </c>
-      <c r="G170" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="G170" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (778, 169, 31, 0, 0, 3);</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <f t="shared" si="11"/>
         <v>779</v>
       </c>
-      <c r="B171" s="4">
-        <f>B169</f>
+      <c r="B171" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>46</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>4</v>
       </c>
-      <c r="E171" s="4">
-        <v>0</v>
-      </c>
-      <c r="F171" s="4">
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3">
         <v>7</v>
       </c>
-      <c r="G171" s="4" t="str">
-        <f t="shared" ref="G171:G176" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A171 &amp; ", " &amp; B171 &amp; ", " &amp; C171 &amp; ", " &amp; D171 &amp; ", " &amp; E171 &amp; ", " &amp; F171 &amp; ");"</f>
+      <c r="G171" s="3" t="str">
+        <f t="shared" ref="G171:G176" si="17">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A171 &amp; ", " &amp; B171 &amp; ", " &amp; C171 &amp; ", " &amp; D171 &amp; ", " &amp; E171 &amp; ", " &amp; F171 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (779, 169, 46, 4, 0, 7);</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <f t="shared" si="11"/>
         <v>780</v>
       </c>
-      <c r="B172" s="4">
-        <f>B170</f>
+      <c r="B172" s="3">
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>31</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>5</v>
       </c>
-      <c r="E172" s="4">
-        <v>0</v>
-      </c>
-      <c r="F172" s="4">
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3">
         <v>7</v>
       </c>
-      <c r="G172" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="G172" s="3" t="str">
+        <f t="shared" si="17"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (780, 169, 31, 5, 0, 7);</v>
       </c>
     </row>
@@ -15403,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="G173" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (781, 170, 420, 3, 3, 2);</v>
       </c>
     </row>
@@ -15429,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (782, 170, 429, 0, 0, 1);</v>
       </c>
     </row>
@@ -15455,7 +15454,7 @@
         <v>2</v>
       </c>
       <c r="G175" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (783, 170, 45, 0, 0, 2);</v>
       </c>
     </row>
@@ -15481,111 +15480,111 @@
         <v>1</v>
       </c>
       <c r="G176" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (784, 170, 45, 0, 0, 1);</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <f t="shared" si="11"/>
         <v>785</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <f>B173+1</f>
         <v>171</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>351</v>
       </c>
-      <c r="D177" s="4">
-        <v>2</v>
-      </c>
-      <c r="E177" s="4">
+      <c r="D177" s="3">
+        <v>2</v>
+      </c>
+      <c r="E177" s="3">
         <v>3</v>
       </c>
-      <c r="F177" s="4">
-        <v>2</v>
-      </c>
-      <c r="G177" s="4" t="str">
-        <f t="shared" ref="G177:G184" si="16">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A177 &amp; ", " &amp; B177 &amp; ", " &amp; C177 &amp; ", " &amp; D177 &amp; ", " &amp; E177 &amp; ", " &amp; F177 &amp; ");"</f>
+      <c r="F177" s="3">
+        <v>2</v>
+      </c>
+      <c r="G177" s="3" t="str">
+        <f t="shared" ref="G177:G184" si="18">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A177 &amp; ", " &amp; B177 &amp; ", " &amp; C177 &amp; ", " &amp; D177 &amp; ", " &amp; E177 &amp; ", " &amp; F177 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (785, 171, 351, 2, 3, 2);</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <f t="shared" si="11"/>
         <v>786</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <f>B177</f>
         <v>171</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="3">
         <v>351</v>
       </c>
-      <c r="D178" s="4">
-        <v>1</v>
-      </c>
-      <c r="E178" s="4">
-        <v>0</v>
-      </c>
-      <c r="F178" s="4">
-        <v>1</v>
-      </c>
-      <c r="G178" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (786, 171, 351, 1, 0, 1);</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <f t="shared" si="11"/>
         <v>787</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <f>B177</f>
         <v>171</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="3">
         <v>31</v>
       </c>
-      <c r="D179" s="4">
-        <v>1</v>
-      </c>
-      <c r="E179" s="4">
-        <v>0</v>
-      </c>
-      <c r="F179" s="4">
-        <v>2</v>
-      </c>
-      <c r="G179" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2</v>
+      </c>
+      <c r="G179" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (787, 171, 31, 1, 0, 2);</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <f t="shared" si="11"/>
         <v>788</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <f>B178</f>
         <v>171</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="3">
         <v>31</v>
       </c>
-      <c r="D180" s="4">
-        <v>0</v>
-      </c>
-      <c r="E180" s="4">
-        <v>0</v>
-      </c>
-      <c r="F180" s="4">
-        <v>1</v>
-      </c>
-      <c r="G180" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (788, 171, 31, 0, 0, 1);</v>
       </c>
     </row>
@@ -15611,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="G181" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (789, 172, 30, 0, 0, 2);</v>
       </c>
     </row>
@@ -15637,13 +15636,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (790, 172, 30, 0, 0, 1);</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <f t="shared" ref="A183:A190" si="17">A182+1</f>
+        <f t="shared" ref="A183:A190" si="19">A182+1</f>
         <v>791</v>
       </c>
       <c r="B183" s="4">
@@ -15663,13 +15662,13 @@
         <v>2</v>
       </c>
       <c r="G183" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (791, 172, 420, 0, 0, 2);</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>792</v>
       </c>
       <c r="B184" s="4">
@@ -15689,13 +15688,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (792, 172, 420, 0, 0, 1);</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>793</v>
       </c>
       <c r="B185" s="4">
@@ -15715,13 +15714,13 @@
         <v>3</v>
       </c>
       <c r="G185" s="4" t="str">
-        <f t="shared" ref="G185:G190" si="18">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A185 &amp; ", " &amp; B185 &amp; ", " &amp; C185 &amp; ", " &amp; D185 &amp; ", " &amp; E185 &amp; ", " &amp; F185 &amp; ");"</f>
+        <f t="shared" ref="G185:G190" si="20">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A185 &amp; ", " &amp; B185 &amp; ", " &amp; C185 &amp; ", " &amp; D185 &amp; ", " &amp; E185 &amp; ", " &amp; F185 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (793, 172, 30, 1, 3, 3);</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>794</v>
       </c>
       <c r="B186" s="4">
@@ -15741,47 +15740,4859 @@
         <v>3</v>
       </c>
       <c r="G186" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (794, 172, 420, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <f t="shared" si="19"/>
+        <v>795</v>
+      </c>
+      <c r="B187" s="3">
+        <f>B183+1</f>
+        <v>173</v>
+      </c>
+      <c r="C187" s="3">
+        <v>351</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 173, 351, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <f t="shared" si="19"/>
+        <v>796</v>
+      </c>
+      <c r="B188" s="3">
+        <f>B187</f>
+        <v>173</v>
+      </c>
+      <c r="C188" s="3">
+        <v>351</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 173, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f t="shared" si="19"/>
+        <v>797</v>
+      </c>
+      <c r="B189" s="3">
+        <f>B187</f>
+        <v>173</v>
+      </c>
+      <c r="C189" s="3">
+        <v>30</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3">
+        <v>3</v>
+      </c>
+      <c r="F189" s="3">
+        <v>2</v>
+      </c>
+      <c r="G189" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 173, 30, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <f t="shared" si="19"/>
+        <v>798</v>
+      </c>
+      <c r="B190" s="3">
+        <f>B188</f>
+        <v>173</v>
+      </c>
+      <c r="C190" s="3">
+        <v>30</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 173, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2004'!A17+1</f>
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>2008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>351</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G17" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (81, 2008, 'A', 351);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>2008</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (82, 2008, 'A', 90);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="1">A3+1</f>
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="2">B3</f>
+        <v>2008</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>420</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (83, 2008, 'A', 420);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (84, 2008, 'A', 41);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>2008</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>385</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (85, 2008, 'B', 385);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>2008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>49</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (86, 2008, 'B', 49);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>2008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (87, 2008, 'B', 43);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>2008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (88, 2008, 'B', 48);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A17" si="3">A9+1</f>
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B17" si="4">B9</f>
+        <v>2008</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (89, 2008, 'C', 31);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (90, 2008, 'C', 39);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (91, 2008, 'C', 40);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (92, 2008, 'C', 33);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (93, 2008, 'D', 34);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (94, 2008, 'D', 7);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (95, 2008, 'D', 46);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (96, 2008, 'D', 30);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f>'2004'!A50+1</f>
+        <v>174</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>"2008-06-07"</f>
+        <v>2008-06-07</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="str">
+        <f t="shared" ref="G20:G50" si="5">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (174, '2008-06-07', 2, 41);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f>A20+1</f>
+        <v>175</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>"2008-06-07"</f>
+        <v>2008-06-07</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (175, '2008-06-07', 2, 41);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" ref="A22:A50" si="6">A21+1</f>
+        <v>176</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>"2008-06-11"</f>
+        <v>2008-06-11</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (176, '2008-06-11', 2, 41);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>"2008-06-11"</f>
+        <v>2008-06-11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (177, '2008-06-11', 2, 41);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>"2008-06-15"</f>
+        <v>2008-06-15</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>41</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (178, '2008-06-15', 2, 41);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>"2008-06-15"</f>
+        <v>2008-06-15</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>41</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (179, '2008-06-15', 2, 41);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>"2008-06-08"</f>
+        <v>2008-06-08</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (180, '2008-06-08', 2, 43);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>"2008-06-08"</f>
+        <v>2008-06-08</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (181, '2008-06-08', 2, 43);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f>"2008-06-12"</f>
+        <v>2008-06-12</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (182, '2008-06-12', 2, 43);</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f>"2008-06-12"</f>
+        <v>2008-06-12</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (183, '2008-06-12', 2, 43);</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>"2008-06-16"</f>
+        <v>2008-06-16</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (184, '2008-06-16', 2, 43);</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>"2008-06-16"</f>
+        <v>2008-06-16</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (185, '2008-06-16', 2, 43);</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>"2008-06-09"</f>
+        <v>2008-06-09</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>41</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (186, '2008-06-09', 2, 41);</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>"2008-06-09"</f>
+        <v>2008-06-09</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>41</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (187, '2008-06-09', 2, 41);</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f>"2008-06-13"</f>
+        <v>2008-06-13</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>41</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (188, '2008-06-13', 2, 41);</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f>"2008-06-13"</f>
+        <v>2008-06-13</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>41</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (189, '2008-06-13', 2, 41);</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f>"2008-06-17"</f>
+        <v>2008-06-17</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>41</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (190, '2008-06-17', 2, 41);</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f>"2008-06-17"</f>
+        <v>2008-06-17</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>41</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (191, '2008-06-17', 2, 41);</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f>"2008-06-10"</f>
+        <v>2008-06-10</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (192, '2008-06-10', 2, 43);</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f>"2008-06-10"</f>
+        <v>2008-06-10</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (193, '2008-06-10', 2, 43);</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f>"2008-06-14"</f>
+        <v>2008-06-14</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (194, '2008-06-14', 2, 43);</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f>"2008-06-14"</f>
+        <v>2008-06-14</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (195, '2008-06-14', 2, 43);</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f>"2008-06-18"</f>
+        <v>2008-06-18</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (196, '2008-06-18', 2, 43);</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <f>"2008-06-18"</f>
+        <v>2008-06-18</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (197, '2008-06-18', 2, 43);</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f>"2008-06-19"</f>
+        <v>2008-06-19</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (198, '2008-06-19', 3, 43);</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f>"2008-06-20"</f>
+        <v>2008-06-20</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4">
+        <v>41</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (199, '2008-06-20', 3, 41);</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f>"2008-06-21"</f>
+        <v>2008-06-21</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>42</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (200, '2008-06-21', 3, 42);</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f>"2008-06-22"</f>
+        <v>2008-06-22</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4">
+        <v>43</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (201, '2008-06-22', 3, 43);</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f>"2008-06-25"</f>
+        <v>2008-06-25</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>41</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (202, '2008-06-25', 4, 41);</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f>"2008-06-26"</f>
+        <v>2008-06-26</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (203, '2008-06-26', 4, 43);</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f>"2008-06-29"</f>
+        <v>2008-06-29</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (204, '2008-06-29', 6, 43);</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A52 &amp; ", " &amp; B52 &amp; ", " &amp; C52 &amp; ", " &amp; D52 &amp; ", " &amp; E52 &amp; ", " &amp; F52 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f>'2004'!A190+1</f>
+        <v>799</v>
+      </c>
+      <c r="B53" s="4">
+        <f>A20</f>
+        <v>174</v>
+      </c>
+      <c r="C53" s="4">
+        <v>41</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" ref="G53:G116" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A53 &amp; ", " &amp; B53 &amp; ", " &amp; C53 &amp; ", " &amp; D53 &amp; ", " &amp; E53 &amp; ", " &amp; F53 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (799, 174, 41, 0, 0, 2);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f>A53+1</f>
+        <v>800</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B53</f>
+        <v>174</v>
+      </c>
+      <c r="C54" s="4">
+        <v>41</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (800, 174, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" ref="A55:A118" si="8">A54+1</f>
+        <v>801</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B53</f>
+        <v>174</v>
+      </c>
+      <c r="C55" s="4">
+        <v>420</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (801, 174, 420, 1, 3, 2);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="8"/>
+        <v>802</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B53</f>
+        <v>174</v>
+      </c>
+      <c r="C56" s="4">
+        <v>420</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (802, 174, 420, 0, 0, 1);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="8"/>
+        <v>803</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>175</v>
+      </c>
+      <c r="C57" s="4">
+        <v>351</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (803, 175, 351, 2, 3, 2);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>804</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>175</v>
+      </c>
+      <c r="C58" s="4">
+        <v>351</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (804, 175, 351, 0, 0, 1);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>805</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>175</v>
+      </c>
+      <c r="C59" s="4">
+        <v>90</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (805, 175, 90, 0, 0, 2);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>806</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>175</v>
+      </c>
+      <c r="C60" s="4">
+        <v>90</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (806, 175, 90, 0, 0, 1);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="8"/>
+        <v>807</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B57+1</f>
+        <v>176</v>
+      </c>
+      <c r="C61" s="4">
+        <v>420</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (807, 176, 420, 1, 0, 2);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="8"/>
+        <v>808</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B61</f>
+        <v>176</v>
+      </c>
+      <c r="C62" s="4">
+        <v>420</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (808, 176, 420, 1, 0, 1);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="8"/>
+        <v>809</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B61</f>
+        <v>176</v>
+      </c>
+      <c r="C63" s="4">
+        <v>351</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (809, 176, 351, 3, 3, 2);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="8"/>
+        <v>810</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B61</f>
+        <v>176</v>
+      </c>
+      <c r="C64" s="4">
+        <v>351</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (810, 176, 351, 1, 0, 1);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="8"/>
+        <v>811</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>177</v>
+      </c>
+      <c r="C65" s="4">
+        <v>41</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (811, 177, 41, 1, 0, 2);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="8"/>
+        <v>812</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>177</v>
+      </c>
+      <c r="C66" s="4">
+        <v>41</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (812, 177, 41, 1, 0, 1);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="8"/>
+        <v>813</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>177</v>
+      </c>
+      <c r="C67" s="4">
+        <v>90</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (813, 177, 90, 2, 3, 2);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="8"/>
+        <v>814</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>177</v>
+      </c>
+      <c r="C68" s="4">
+        <v>90</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (814, 177, 90, 0, 0, 1);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="8"/>
+        <v>815</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B65+1</f>
+        <v>178</v>
+      </c>
+      <c r="C69" s="4">
+        <v>41</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (815, 178, 41, 2, 3, 2);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="8"/>
+        <v>816</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B69</f>
+        <v>178</v>
+      </c>
+      <c r="C70" s="4">
+        <v>41</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (816, 178, 41, 0, 0, 1);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="8"/>
+        <v>817</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B69</f>
+        <v>178</v>
+      </c>
+      <c r="C71" s="4">
+        <v>351</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (817, 178, 351, 0, 0, 2);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="8"/>
+        <v>818</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B69</f>
+        <v>178</v>
+      </c>
+      <c r="C72" s="4">
+        <v>351</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (818, 178, 351, 0, 0, 1);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="8"/>
+        <v>819</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>179</v>
+      </c>
+      <c r="C73" s="4">
+        <v>90</v>
+      </c>
+      <c r="D73" s="4">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A73 &amp; ", " &amp; B73 &amp; ", " &amp; C73 &amp; ", " &amp; D73 &amp; ", " &amp; E73 &amp; ", " &amp; F73 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (819, 179, 90, 3, 3, 2);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="8"/>
+        <v>820</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>179</v>
+      </c>
+      <c r="C74" s="4">
+        <v>90</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A74 &amp; ", " &amp; B74 &amp; ", " &amp; C74 &amp; ", " &amp; D74 &amp; ", " &amp; E74 &amp; ", " &amp; F74 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (820, 179, 90, 0, 0, 1);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="8"/>
+        <v>821</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>179</v>
+      </c>
+      <c r="C75" s="4">
+        <v>420</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A75 &amp; ", " &amp; B75 &amp; ", " &amp; C75 &amp; ", " &amp; D75 &amp; ", " &amp; E75 &amp; ", " &amp; F75 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (821, 179, 420, 2, 0, 2);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="8"/>
+        <v>822</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>179</v>
+      </c>
+      <c r="C76" s="4">
+        <v>420</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (822, 179, 420, 1, 0, 1);</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="8"/>
+        <v>823</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B73+1</f>
+        <v>180</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (823, 180, 43, 0, 0, 2);</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="8"/>
+        <v>824</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B77</f>
+        <v>180</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (824, 180, 43, 0, 0, 1);</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="8"/>
+        <v>825</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B77</f>
+        <v>180</v>
+      </c>
+      <c r="C79" s="4">
+        <v>385</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (825, 180, 385, 1, 3, 2);</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="8"/>
+        <v>826</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B77</f>
+        <v>180</v>
+      </c>
+      <c r="C80" s="4">
+        <v>385</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (826, 180, 385, 1, 0, 1);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="8"/>
+        <v>827</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B77+1</f>
+        <v>181</v>
+      </c>
+      <c r="C81" s="4">
+        <v>49</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (827, 181, 49, 2, 3, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="8"/>
+        <v>828</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B81</f>
+        <v>181</v>
+      </c>
+      <c r="C82" s="4">
+        <v>49</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (828, 181, 49, 1, 0, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="8"/>
+        <v>829</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B81</f>
+        <v>181</v>
+      </c>
+      <c r="C83" s="4">
+        <v>48</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (829, 181, 48, 0, 0, 2);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="8"/>
+        <v>830</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B81</f>
+        <v>181</v>
+      </c>
+      <c r="C84" s="4">
+        <v>48</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (830, 181, 48, 0, 0, 1);</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="8"/>
+        <v>831</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B81+1</f>
+        <v>182</v>
+      </c>
+      <c r="C85" s="4">
+        <v>385</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (831, 182, 385, 2, 3, 2);</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="8"/>
+        <v>832</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B85</f>
+        <v>182</v>
+      </c>
+      <c r="C86" s="4">
+        <v>385</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (832, 182, 385, 1, 0, 1);</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="8"/>
+        <v>833</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B85</f>
+        <v>182</v>
+      </c>
+      <c r="C87" s="4">
+        <v>49</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (833, 182, 49, 1, 0, 2);</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="8"/>
+        <v>834</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B85</f>
+        <v>182</v>
+      </c>
+      <c r="C88" s="4">
+        <v>49</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (834, 182, 49, 0, 0, 1);</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="8"/>
+        <v>835</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B85+1</f>
+        <v>183</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (835, 183, 43, 1, 1, 2);</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="8"/>
+        <v>836</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B89</f>
+        <v>183</v>
+      </c>
+      <c r="C90" s="4">
+        <v>43</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (836, 183, 43, 0, 0, 1);</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="8"/>
+        <v>837</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B89</f>
+        <v>183</v>
+      </c>
+      <c r="C91" s="4">
+        <v>48</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (837, 183, 48, 1, 1, 2);</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="8"/>
+        <v>838</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B89</f>
+        <v>183</v>
+      </c>
+      <c r="C92" s="4">
+        <v>48</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (838, 183, 48, 1, 0, 1);</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="8"/>
+        <v>839</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B89+1</f>
+        <v>184</v>
+      </c>
+      <c r="C93" s="4">
+        <v>43</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (839, 184, 43, 0, 0, 2);</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="8"/>
+        <v>840</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B93</f>
+        <v>184</v>
+      </c>
+      <c r="C94" s="4">
+        <v>43</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (840, 184, 43, 0, 0, 1);</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="8"/>
+        <v>841</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B93</f>
+        <v>184</v>
+      </c>
+      <c r="C95" s="4">
+        <v>49</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
+        <v>3</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (841, 184, 49, 1, 3, 2);</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="8"/>
+        <v>842</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B93</f>
+        <v>184</v>
+      </c>
+      <c r="C96" s="4">
+        <v>49</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (842, 184, 49, 0, 0, 1);</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="8"/>
+        <v>843</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B93+1</f>
+        <v>185</v>
+      </c>
+      <c r="C97" s="4">
+        <v>48</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (843, 185, 48, 0, 0, 2);</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f t="shared" si="8"/>
+        <v>844</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B97</f>
+        <v>185</v>
+      </c>
+      <c r="C98" s="4">
+        <v>48</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (844, 185, 48, 0, 0, 1);</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f t="shared" si="8"/>
+        <v>845</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B97</f>
+        <v>185</v>
+      </c>
+      <c r="C99" s="4">
+        <v>385</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (845, 185, 385, 1, 3, 2);</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B97</f>
+        <v>185</v>
+      </c>
+      <c r="C100" s="4">
+        <v>385</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (846, 185, 385, 0, 0, 1);</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="8"/>
+        <v>847</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B97+1</f>
+        <v>186</v>
+      </c>
+      <c r="C101" s="4">
+        <v>40</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (847, 186, 40, 0, 1, 2);</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="8"/>
+        <v>848</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B101</f>
+        <v>186</v>
+      </c>
+      <c r="C102" s="4">
+        <v>40</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (848, 186, 40, 0, 0, 1);</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f t="shared" si="8"/>
+        <v>849</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B101</f>
+        <v>186</v>
+      </c>
+      <c r="C103" s="4">
+        <v>33</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (849, 186, 33, 0, 1, 2);</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <f t="shared" si="8"/>
+        <v>850</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B101</f>
+        <v>186</v>
+      </c>
+      <c r="C104" s="4">
+        <v>33</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (850, 186, 33, 0, 0, 1);</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f t="shared" si="8"/>
+        <v>851</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B101+1</f>
+        <v>187</v>
+      </c>
+      <c r="C105" s="4">
+        <v>31</v>
+      </c>
+      <c r="D105" s="4">
+        <v>3</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (851, 187, 31, 3, 3, 2);</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <f t="shared" si="8"/>
+        <v>852</v>
+      </c>
+      <c r="B106" s="4">
+        <f>B105</f>
+        <v>187</v>
+      </c>
+      <c r="C106" s="4">
+        <v>31</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (852, 187, 31, 2, 0, 1);</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <f t="shared" si="8"/>
+        <v>853</v>
+      </c>
+      <c r="B107" s="4">
+        <f>B105</f>
+        <v>187</v>
+      </c>
+      <c r="C107" s="4">
+        <v>39</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (853, 187, 39, 0, 0, 2);</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <f t="shared" si="8"/>
+        <v>854</v>
+      </c>
+      <c r="B108" s="4">
+        <f>B105</f>
+        <v>187</v>
+      </c>
+      <c r="C108" s="4">
+        <v>39</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (854, 187, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <f t="shared" si="8"/>
+        <v>855</v>
+      </c>
+      <c r="B109" s="4">
+        <f>B105+1</f>
+        <v>188</v>
+      </c>
+      <c r="C109" s="4">
+        <v>39</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (855, 188, 39, 1, 1, 2);</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <f t="shared" si="8"/>
+        <v>856</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B109</f>
+        <v>188</v>
+      </c>
+      <c r="C110" s="4">
+        <v>39</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (856, 188, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <f t="shared" si="8"/>
+        <v>857</v>
+      </c>
+      <c r="B111" s="4">
+        <f>B109</f>
+        <v>188</v>
+      </c>
+      <c r="C111" s="4">
+        <v>40</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (857, 188, 40, 1, 1, 2);</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <f t="shared" si="8"/>
+        <v>858</v>
+      </c>
+      <c r="B112" s="4">
+        <f>B109</f>
+        <v>188</v>
+      </c>
+      <c r="C112" s="4">
+        <v>40</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (858, 188, 40, 0, 0, 1);</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="8"/>
+        <v>859</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B109+1</f>
+        <v>189</v>
+      </c>
+      <c r="C113" s="4">
+        <v>31</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4</v>
+      </c>
+      <c r="E113" s="4">
+        <v>3</v>
+      </c>
+      <c r="F113" s="4">
+        <v>2</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (859, 189, 31, 4, 3, 2);</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <f t="shared" si="8"/>
+        <v>860</v>
+      </c>
+      <c r="B114" s="4">
+        <f>B113</f>
+        <v>189</v>
+      </c>
+      <c r="C114" s="4">
+        <v>31</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (860, 189, 31, 1, 0, 1);</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <f t="shared" si="8"/>
+        <v>861</v>
+      </c>
+      <c r="B115" s="4">
+        <f>B113</f>
+        <v>189</v>
+      </c>
+      <c r="C115" s="4">
+        <v>33</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (861, 189, 33, 1, 0, 2);</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <f t="shared" si="8"/>
+        <v>862</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B113</f>
+        <v>189</v>
+      </c>
+      <c r="C116" s="4">
+        <v>33</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (862, 189, 33, 0, 0, 1);</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <f t="shared" si="8"/>
+        <v>863</v>
+      </c>
+      <c r="B117" s="4">
+        <f>B113+1</f>
+        <v>190</v>
+      </c>
+      <c r="C117" s="4">
+        <v>31</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4">
+        <v>3</v>
+      </c>
+      <c r="F117" s="4">
+        <v>2</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" ref="G117:G148" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (863, 190, 31, 2, 3, 2);</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f t="shared" si="8"/>
+        <v>864</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B117</f>
+        <v>190</v>
+      </c>
+      <c r="C118" s="4">
+        <v>31</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (864, 190, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f t="shared" ref="A119:A182" si="10">A118+1</f>
+        <v>865</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B117</f>
+        <v>190</v>
+      </c>
+      <c r="C119" s="4">
+        <v>40</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (865, 190, 40, 0, 0, 2);</v>
+      </c>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f t="shared" si="10"/>
+        <v>866</v>
+      </c>
+      <c r="B120" s="4">
+        <f>B117</f>
+        <v>190</v>
+      </c>
+      <c r="C120" s="4">
+        <v>40</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (866, 190, 40, 0, 0, 1);</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" si="10"/>
+        <v>867</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B117+1</f>
+        <v>191</v>
+      </c>
+      <c r="C121" s="4">
+        <v>33</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (867, 191, 33, 0, 0, 2);</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <f t="shared" si="10"/>
+        <v>868</v>
+      </c>
+      <c r="B122" s="4">
+        <f>B121</f>
+        <v>191</v>
+      </c>
+      <c r="C122" s="4">
+        <v>33</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (868, 191, 33, 0, 0, 1);</v>
+      </c>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <f t="shared" si="10"/>
+        <v>869</v>
+      </c>
+      <c r="B123" s="4">
+        <f>B121</f>
+        <v>191</v>
+      </c>
+      <c r="C123" s="4">
+        <v>39</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4">
+        <v>3</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (869, 191, 39, 2, 3, 2);</v>
+      </c>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="10"/>
+        <v>870</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B121</f>
+        <v>191</v>
+      </c>
+      <c r="C124" s="4">
+        <v>39</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (870, 191, 39, 1, 0, 1);</v>
+      </c>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <f t="shared" si="10"/>
+        <v>871</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B121+1</f>
+        <v>192</v>
+      </c>
+      <c r="C125" s="4">
+        <v>34</v>
+      </c>
+      <c r="D125" s="4">
+        <v>4</v>
+      </c>
+      <c r="E125" s="4">
+        <v>3</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (871, 192, 34, 4, 3, 2);</v>
+      </c>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <f t="shared" si="10"/>
+        <v>872</v>
+      </c>
+      <c r="B126" s="4">
+        <f>B125</f>
+        <v>192</v>
+      </c>
+      <c r="C126" s="4">
+        <v>34</v>
+      </c>
+      <c r="D126" s="4">
+        <v>2</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (872, 192, 34, 2, 0, 1);</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <f t="shared" si="10"/>
+        <v>873</v>
+      </c>
+      <c r="B127" s="4">
+        <f>B125</f>
+        <v>192</v>
+      </c>
+      <c r="C127" s="4">
+        <v>7</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (873, 192, 7, 1, 0, 2);</v>
+      </c>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <f t="shared" si="10"/>
+        <v>874</v>
+      </c>
+      <c r="B128" s="4">
+        <f>B125</f>
+        <v>192</v>
+      </c>
+      <c r="C128" s="4">
+        <v>7</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (874, 192, 7, 0, 0, 1);</v>
+      </c>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <f t="shared" si="10"/>
+        <v>875</v>
+      </c>
+      <c r="B129" s="4">
+        <f>B125+1</f>
+        <v>193</v>
+      </c>
+      <c r="C129" s="4">
+        <v>30</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (875, 193, 30, 0, 0, 2);</v>
+      </c>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <f t="shared" si="10"/>
+        <v>876</v>
+      </c>
+      <c r="B130" s="4">
+        <f>B129</f>
+        <v>193</v>
+      </c>
+      <c r="C130" s="4">
+        <v>30</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (876, 193, 30, 0, 0, 1);</v>
+      </c>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <f t="shared" si="10"/>
+        <v>877</v>
+      </c>
+      <c r="B131" s="4">
+        <f>B129</f>
+        <v>193</v>
+      </c>
+      <c r="C131" s="4">
+        <v>46</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2</v>
+      </c>
+      <c r="E131" s="4">
+        <v>3</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2</v>
+      </c>
+      <c r="G131" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (877, 193, 46, 2, 3, 2);</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <f t="shared" si="10"/>
+        <v>878</v>
+      </c>
+      <c r="B132" s="4">
+        <f>B129</f>
+        <v>193</v>
+      </c>
+      <c r="C132" s="4">
+        <v>46</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (878, 193, 46, 0, 0, 1);</v>
+      </c>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <f t="shared" si="10"/>
+        <v>879</v>
+      </c>
+      <c r="B133" s="4">
+        <f>B129+1</f>
+        <v>194</v>
+      </c>
+      <c r="C133" s="4">
+        <v>46</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (879, 194, 46, 1, 0, 2);</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <f t="shared" si="10"/>
+        <v>880</v>
+      </c>
+      <c r="B134" s="4">
+        <f>B133</f>
+        <v>194</v>
+      </c>
+      <c r="C134" s="4">
+        <v>46</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (880, 194, 46, 1, 0, 1);</v>
+      </c>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <f t="shared" si="10"/>
+        <v>881</v>
+      </c>
+      <c r="B135" s="4">
+        <f>B133</f>
+        <v>194</v>
+      </c>
+      <c r="C135" s="4">
+        <v>34</v>
+      </c>
+      <c r="D135" s="4">
+        <v>2</v>
+      </c>
+      <c r="E135" s="4">
+        <v>3</v>
+      </c>
+      <c r="F135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (881, 194, 34, 2, 3, 2);</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <f t="shared" si="10"/>
+        <v>882</v>
+      </c>
+      <c r="B136" s="4">
+        <f>B133</f>
+        <v>194</v>
+      </c>
+      <c r="C136" s="4">
+        <v>34</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (882, 194, 34, 1, 0, 1);</v>
+      </c>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <f t="shared" si="10"/>
+        <v>883</v>
+      </c>
+      <c r="B137" s="4">
+        <f>B133+1</f>
+        <v>195</v>
+      </c>
+      <c r="C137" s="4">
+        <v>30</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>2</v>
+      </c>
+      <c r="G137" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (883, 195, 30, 0, 0, 2);</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <f t="shared" si="10"/>
+        <v>884</v>
+      </c>
+      <c r="B138" s="4">
+        <f>B137</f>
+        <v>195</v>
+      </c>
+      <c r="C138" s="4">
+        <v>30</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (884, 195, 30, 0, 0, 1);</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <f t="shared" si="10"/>
+        <v>885</v>
+      </c>
+      <c r="B139" s="4">
+        <f>B137</f>
+        <v>195</v>
+      </c>
+      <c r="C139" s="4">
+        <v>7</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4">
+        <v>3</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (885, 195, 7, 1, 3, 2);</v>
+      </c>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <f t="shared" si="10"/>
+        <v>886</v>
+      </c>
+      <c r="B140" s="4">
+        <f>B137</f>
+        <v>195</v>
+      </c>
+      <c r="C140" s="4">
+        <v>7</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (886, 195, 7, 1, 0, 1);</v>
+      </c>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <f t="shared" si="10"/>
+        <v>887</v>
+      </c>
+      <c r="B141" s="4">
+        <f>B137+1</f>
+        <v>196</v>
+      </c>
+      <c r="C141" s="4">
+        <v>30</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (887, 196, 30, 1, 0, 2);</v>
+      </c>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <f t="shared" si="10"/>
+        <v>888</v>
+      </c>
+      <c r="B142" s="4">
+        <f>B141</f>
+        <v>196</v>
+      </c>
+      <c r="C142" s="4">
+        <v>30</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (888, 196, 30, 1, 0, 1);</v>
+      </c>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <f t="shared" si="10"/>
+        <v>889</v>
+      </c>
+      <c r="B143" s="4">
+        <f>B141</f>
+        <v>196</v>
+      </c>
+      <c r="C143" s="4">
+        <v>34</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (889, 196, 34, 2, 3, 2);</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <f t="shared" si="10"/>
+        <v>890</v>
+      </c>
+      <c r="B144" s="4">
+        <f>B141</f>
+        <v>196</v>
+      </c>
+      <c r="C144" s="4">
+        <v>34</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (890, 196, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <f t="shared" si="10"/>
+        <v>891</v>
+      </c>
+      <c r="B145" s="4">
+        <f>B141+1</f>
+        <v>197</v>
+      </c>
+      <c r="C145" s="4">
+        <v>7</v>
+      </c>
+      <c r="D145" s="4">
+        <v>2</v>
+      </c>
+      <c r="E145" s="4">
+        <v>3</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (891, 197, 7, 2, 3, 2);</v>
+      </c>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <f t="shared" si="10"/>
+        <v>892</v>
+      </c>
+      <c r="B146" s="4">
+        <f>B145</f>
+        <v>197</v>
+      </c>
+      <c r="C146" s="4">
+        <v>7</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (892, 197, 7, 1, 0, 1);</v>
+      </c>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <f t="shared" si="10"/>
+        <v>893</v>
+      </c>
+      <c r="B147" s="4">
+        <f>B145</f>
+        <v>197</v>
+      </c>
+      <c r="C147" s="4">
+        <v>46</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (893, 197, 46, 0, 0, 2);</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <f t="shared" si="10"/>
+        <v>894</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B146</f>
+        <v>197</v>
+      </c>
+      <c r="C148" s="4">
+        <v>46</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (894, 197, 46, 0, 0, 1);</v>
+      </c>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <f>A148+1</f>
+        <v>895</v>
+      </c>
+      <c r="B149" s="4">
+        <f>B145+1</f>
+        <v>198</v>
+      </c>
+      <c r="C149" s="4">
+        <v>351</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" ref="G149:G156" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A149 &amp; ", " &amp; B149 &amp; ", " &amp; C149 &amp; ", " &amp; D149 &amp; ", " &amp; E149 &amp; ", " &amp; F149 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (895, 198, 351, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <f t="shared" si="10"/>
+        <v>896</v>
+      </c>
+      <c r="B150" s="4">
+        <f>B149</f>
+        <v>198</v>
+      </c>
+      <c r="C150" s="4">
+        <v>351</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (896, 198, 351, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <f t="shared" si="10"/>
+        <v>897</v>
+      </c>
+      <c r="B151" s="4">
+        <f>B149</f>
+        <v>198</v>
+      </c>
+      <c r="C151" s="4">
+        <v>49</v>
+      </c>
+      <c r="D151" s="4">
+        <v>3</v>
+      </c>
+      <c r="E151" s="4">
+        <v>3</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (897, 198, 49, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <f t="shared" si="10"/>
+        <v>898</v>
+      </c>
+      <c r="B152" s="4">
+        <f>B150</f>
+        <v>198</v>
+      </c>
+      <c r="C152" s="4">
+        <v>49</v>
+      </c>
+      <c r="D152" s="4">
+        <v>2</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (898, 198, 49, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <f t="shared" si="10"/>
+        <v>899</v>
+      </c>
+      <c r="B153" s="4">
+        <f>B149+1</f>
+        <v>199</v>
+      </c>
+      <c r="C153" s="4">
+        <v>385</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0</v>
+      </c>
+      <c r="F153" s="4">
+        <v>2</v>
+      </c>
+      <c r="G153" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (899, 199, 385, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+      <c r="B154" s="4">
+        <f>B153</f>
+        <v>199</v>
+      </c>
+      <c r="C154" s="4">
+        <v>385</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (900, 199, 385, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <f t="shared" si="10"/>
+        <v>901</v>
+      </c>
+      <c r="B155" s="4">
+        <f>B153</f>
+        <v>199</v>
+      </c>
+      <c r="C155" s="4">
+        <v>90</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>2</v>
+      </c>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (901, 199, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <f t="shared" si="10"/>
+        <v>902</v>
+      </c>
+      <c r="B156" s="4">
+        <f>B154</f>
+        <v>199</v>
+      </c>
+      <c r="C156" s="4">
+        <v>90</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (902, 199, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <f t="shared" si="10"/>
+        <v>903</v>
+      </c>
+      <c r="B157" s="4">
+        <f>B155</f>
+        <v>199</v>
+      </c>
+      <c r="C157" s="4">
+        <v>385</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F157" s="4">
+        <v>4</v>
+      </c>
+      <c r="G157" s="4" t="str">
+        <f t="shared" ref="G157:G166" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A157 &amp; ", " &amp; B157 &amp; ", " &amp; C157 &amp; ", " &amp; D157 &amp; ", " &amp; E157 &amp; ", " &amp; F157 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (903, 199, 385, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <f t="shared" si="10"/>
+        <v>904</v>
+      </c>
+      <c r="B158" s="4">
+        <f>B156</f>
+        <v>199</v>
+      </c>
+      <c r="C158" s="4">
+        <v>385</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>3</v>
+      </c>
+      <c r="G158" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (904, 199, 385, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <f t="shared" si="10"/>
+        <v>905</v>
+      </c>
+      <c r="B159" s="4">
+        <f>B157</f>
+        <v>199</v>
+      </c>
+      <c r="C159" s="4">
+        <v>90</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="4">
+        <v>4</v>
+      </c>
+      <c r="G159" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (905, 199, 90, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <f t="shared" si="10"/>
+        <v>906</v>
+      </c>
+      <c r="B160" s="4">
+        <f>B158</f>
+        <v>199</v>
+      </c>
+      <c r="C160" s="4">
+        <v>90</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>3</v>
+      </c>
+      <c r="G160" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (906, 199, 90, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <f t="shared" si="10"/>
+        <v>907</v>
+      </c>
+      <c r="B161" s="4">
+        <f>B159</f>
+        <v>199</v>
+      </c>
+      <c r="C161" s="4">
+        <v>385</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>7</v>
+      </c>
+      <c r="G161" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (907, 199, 385, 1, 0, 7);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <f t="shared" si="10"/>
+        <v>908</v>
+      </c>
+      <c r="B162" s="4">
+        <f>B160</f>
+        <v>199</v>
+      </c>
+      <c r="C162" s="4">
+        <v>90</v>
+      </c>
+      <c r="D162" s="4">
+        <v>3</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>7</v>
+      </c>
+      <c r="G162" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (908, 199, 90, 3, 0, 7);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <f t="shared" si="10"/>
+        <v>909</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B159+1</f>
+        <v>200</v>
+      </c>
+      <c r="C163" s="4">
+        <v>31</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (909, 200, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <f t="shared" si="10"/>
+        <v>910</v>
+      </c>
+      <c r="B164" s="4">
+        <f>B163</f>
+        <v>200</v>
+      </c>
+      <c r="C164" s="4">
+        <v>31</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (910, 200, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <f t="shared" si="10"/>
+        <v>911</v>
+      </c>
+      <c r="B165" s="4">
+        <f>B163</f>
+        <v>200</v>
+      </c>
+      <c r="C165" s="4">
+        <v>7</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (911, 200, 7, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <f t="shared" si="10"/>
+        <v>912</v>
+      </c>
+      <c r="B166" s="4">
+        <f>B164</f>
+        <v>200</v>
+      </c>
+      <c r="C166" s="4">
+        <v>7</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (912, 200, 7, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <f t="shared" si="10"/>
+        <v>913</v>
+      </c>
+      <c r="B167" s="4">
+        <f>B165</f>
+        <v>200</v>
+      </c>
+      <c r="C167" s="4">
+        <v>31</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>4</v>
+      </c>
+      <c r="G167" s="4" t="str">
+        <f t="shared" ref="G167:G178" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A167 &amp; ", " &amp; B167 &amp; ", " &amp; C167 &amp; ", " &amp; D167 &amp; ", " &amp; E167 &amp; ", " &amp; F167 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (913, 200, 31, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <f t="shared" si="10"/>
+        <v>914</v>
+      </c>
+      <c r="B168" s="4">
+        <f>B166</f>
+        <v>200</v>
+      </c>
+      <c r="C168" s="4">
+        <v>31</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>3</v>
+      </c>
+      <c r="G168" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (914, 200, 31, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <f t="shared" si="10"/>
+        <v>915</v>
+      </c>
+      <c r="B169" s="4">
+        <f>B167</f>
+        <v>200</v>
+      </c>
+      <c r="C169" s="4">
+        <v>7</v>
+      </c>
+      <c r="D169" s="4">
+        <v>3</v>
+      </c>
+      <c r="E169" s="4">
+        <v>3</v>
+      </c>
+      <c r="F169" s="4">
+        <v>4</v>
+      </c>
+      <c r="G169" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (915, 200, 7, 3, 3, 4);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <f t="shared" si="10"/>
+        <v>916</v>
+      </c>
+      <c r="B170" s="4">
+        <f>B168</f>
+        <v>200</v>
+      </c>
+      <c r="C170" s="4">
+        <v>7</v>
+      </c>
+      <c r="D170" s="4">
+        <v>1</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>3</v>
+      </c>
+      <c r="G170" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (916, 200, 7, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <f t="shared" si="10"/>
+        <v>917</v>
+      </c>
+      <c r="B171" s="4">
+        <f>B167+1</f>
+        <v>201</v>
+      </c>
+      <c r="C171" s="4">
+        <v>34</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>2</v>
+      </c>
+      <c r="G171" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (917, 201, 34, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <f t="shared" si="10"/>
+        <v>918</v>
+      </c>
+      <c r="B172" s="4">
+        <f>B171</f>
+        <v>201</v>
+      </c>
+      <c r="C172" s="4">
+        <v>34</v>
+      </c>
+      <c r="D172" s="4">
+        <v>0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1</v>
+      </c>
+      <c r="G172" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (918, 201, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <f t="shared" si="10"/>
+        <v>919</v>
+      </c>
+      <c r="B173" s="4">
+        <f>B171</f>
+        <v>201</v>
+      </c>
+      <c r="C173" s="4">
+        <v>39</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" s="4">
+        <v>2</v>
+      </c>
+      <c r="G173" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (919, 201, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <f t="shared" si="10"/>
+        <v>920</v>
+      </c>
+      <c r="B174" s="4">
+        <f>B172</f>
+        <v>201</v>
+      </c>
+      <c r="C174" s="4">
+        <v>39</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+      <c r="G174" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (920, 201, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <f t="shared" si="10"/>
+        <v>921</v>
+      </c>
+      <c r="B175" s="4">
+        <f>B173</f>
+        <v>201</v>
+      </c>
+      <c r="C175" s="4">
+        <v>34</v>
+      </c>
+      <c r="D175" s="4">
+        <v>0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1</v>
+      </c>
+      <c r="F175" s="4">
+        <v>4</v>
+      </c>
+      <c r="G175" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (921, 201, 34, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <f t="shared" si="10"/>
+        <v>922</v>
+      </c>
+      <c r="B176" s="4">
+        <f>B174</f>
+        <v>201</v>
+      </c>
+      <c r="C176" s="4">
+        <v>34</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>3</v>
+      </c>
+      <c r="G176" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (922, 201, 34, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <f t="shared" si="10"/>
+        <v>923</v>
+      </c>
+      <c r="B177" s="4">
+        <f>B175</f>
+        <v>201</v>
+      </c>
+      <c r="C177" s="4">
+        <v>39</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F177" s="4">
+        <v>4</v>
+      </c>
+      <c r="G177" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (923, 201, 39, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <f t="shared" si="10"/>
+        <v>924</v>
+      </c>
+      <c r="B178" s="4">
+        <f>B176</f>
+        <v>201</v>
+      </c>
+      <c r="C178" s="4">
+        <v>39</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0</v>
+      </c>
+      <c r="F178" s="4">
+        <v>3</v>
+      </c>
+      <c r="G178" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (924, 201, 39, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <f t="shared" si="10"/>
+        <v>925</v>
+      </c>
+      <c r="B179" s="4">
+        <f>B177</f>
+        <v>201</v>
+      </c>
+      <c r="C179" s="4">
+        <v>34</v>
+      </c>
+      <c r="D179" s="4">
+        <v>4</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+      <c r="F179" s="4">
+        <v>7</v>
+      </c>
+      <c r="G179" s="4" t="str">
+        <f t="shared" ref="G179:G192" si="14">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A179 &amp; ", " &amp; B179 &amp; ", " &amp; C179 &amp; ", " &amp; D179 &amp; ", " &amp; E179 &amp; ", " &amp; F179 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (925, 201, 34, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <f t="shared" si="10"/>
+        <v>926</v>
+      </c>
+      <c r="B180" s="4">
+        <f>B178</f>
+        <v>201</v>
+      </c>
+      <c r="C180" s="4">
+        <v>39</v>
+      </c>
+      <c r="D180" s="4">
+        <v>2</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0</v>
+      </c>
+      <c r="F180" s="4">
+        <v>7</v>
+      </c>
+      <c r="G180" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (926, 201, 39, 2, 0, 7);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <f t="shared" si="10"/>
+        <v>927</v>
+      </c>
+      <c r="B181" s="4">
+        <f>B177+1</f>
+        <v>202</v>
+      </c>
+      <c r="C181" s="4">
+        <v>49</v>
+      </c>
+      <c r="D181" s="4">
+        <v>3</v>
+      </c>
+      <c r="E181" s="4">
+        <v>3</v>
+      </c>
+      <c r="F181" s="4">
+        <v>2</v>
+      </c>
+      <c r="G181" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (927, 202, 49, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <f t="shared" si="10"/>
+        <v>928</v>
+      </c>
+      <c r="B182" s="4">
+        <f>B181</f>
+        <v>202</v>
+      </c>
+      <c r="C182" s="4">
+        <v>49</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+      <c r="G182" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (928, 202, 49, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <f t="shared" ref="A183:A192" si="15">A182+1</f>
+        <v>929</v>
+      </c>
+      <c r="B183" s="4">
+        <f>B181</f>
+        <v>202</v>
+      </c>
+      <c r="C183" s="4">
+        <v>90</v>
+      </c>
+      <c r="D183" s="4">
+        <v>2</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0</v>
+      </c>
+      <c r="F183" s="4">
+        <v>2</v>
+      </c>
+      <c r="G183" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (929, 202, 90, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <f t="shared" si="15"/>
+        <v>930</v>
+      </c>
+      <c r="B184" s="4">
+        <f>B182</f>
+        <v>202</v>
+      </c>
+      <c r="C184" s="4">
+        <v>90</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0</v>
+      </c>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+      <c r="G184" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (930, 202, 90, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <f t="shared" si="15"/>
+        <v>931</v>
+      </c>
+      <c r="B185" s="4">
+        <f>B181+1</f>
+        <v>203</v>
+      </c>
+      <c r="C185" s="4">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4">
+        <v>0</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0</v>
+      </c>
+      <c r="F185" s="4">
+        <v>2</v>
+      </c>
+      <c r="G185" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (931, 203, 7, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <f t="shared" si="15"/>
+        <v>932</v>
+      </c>
+      <c r="B186" s="4">
+        <f>B185</f>
+        <v>203</v>
+      </c>
+      <c r="C186" s="4">
+        <v>7</v>
+      </c>
+      <c r="D186" s="4">
+        <v>0</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+      <c r="G186" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (932, 203, 7, 0, 0, 1);</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <f t="shared" si="17"/>
-        <v>795</v>
+        <f t="shared" si="15"/>
+        <v>933</v>
       </c>
       <c r="B187" s="4">
-        <f>B183+1</f>
-        <v>173</v>
+        <f>B185</f>
+        <v>203</v>
       </c>
       <c r="C187" s="4">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="D187" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E187" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F187" s="4">
         <v>2</v>
       </c>
       <c r="G187" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 173, 351, 0, 0, 2);</v>
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (933, 203, 34, 3, 3, 2);</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <f t="shared" si="17"/>
-        <v>796</v>
+        <f t="shared" si="15"/>
+        <v>934</v>
       </c>
       <c r="B188" s="4">
-        <f>B187</f>
-        <v>173</v>
+        <f>B186</f>
+        <v>203</v>
       </c>
       <c r="C188" s="4">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
@@ -15793,47 +20604,47 @@
         <v>1</v>
       </c>
       <c r="G188" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 173, 351, 0, 0, 1);</v>
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (934, 203, 34, 0, 0, 1);</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <f t="shared" si="17"/>
-        <v>797</v>
+        <f t="shared" si="15"/>
+        <v>935</v>
       </c>
       <c r="B189" s="4">
-        <f>B187</f>
-        <v>173</v>
+        <f>B185+1</f>
+        <v>204</v>
       </c>
       <c r="C189" s="4">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D189" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F189" s="4">
         <v>2</v>
       </c>
       <c r="G189" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 173, 30, 1, 3, 2);</v>
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (935, 204, 49, 0, 0, 2);</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <f t="shared" si="17"/>
-        <v>798</v>
+        <f t="shared" si="15"/>
+        <v>936</v>
       </c>
       <c r="B190" s="4">
-        <f>B188</f>
-        <v>173</v>
+        <f>B189</f>
+        <v>204</v>
       </c>
       <c r="C190" s="4">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
@@ -15845,8 +20656,60 @@
         <v>1</v>
       </c>
       <c r="G190" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 173, 30, 0, 0, 1);</v>
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (936, 204, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <f t="shared" si="15"/>
+        <v>937</v>
+      </c>
+      <c r="B191" s="4">
+        <f>B189</f>
+        <v>204</v>
+      </c>
+      <c r="C191" s="4">
+        <v>34</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1</v>
+      </c>
+      <c r="E191" s="4">
+        <v>3</v>
+      </c>
+      <c r="F191" s="4">
+        <v>2</v>
+      </c>
+      <c r="G191" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (937, 204, 34, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <f t="shared" si="15"/>
+        <v>938</v>
+      </c>
+      <c r="B192" s="4">
+        <f>B190</f>
+        <v>204</v>
+      </c>
+      <c r="C192" s="4">
+        <v>34</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+      <c r="F192" s="4">
+        <v>1</v>
+      </c>
+      <c r="G192" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (938, 204, 34, 1, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="2004" sheetId="59" r:id="rId12"/>
     <sheet name="2008" sheetId="60" r:id="rId13"/>
     <sheet name="2012" sheetId="61" r:id="rId14"/>
+    <sheet name="2016" sheetId="62" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>match_number</t>
   </si>
 </sst>
 </file>
@@ -20723,7 +20736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25471,6 +25484,7295 @@
       <c r="G188" s="4" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1074, 235, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J284"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2012'!A17+1</f>
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G17" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (113, 2016, 'A', 33);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (114, 2016, 'A', 40);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="1">A3+1</f>
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="2">B3</f>
+        <v>2016</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>355</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (115, 2016, 'A', 355);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (116, 2016, 'A', 41);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>2016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>4420</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (117, 2016, 'B', 4420);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>2016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (118, 2016, 'B', 7);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>2016</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>4429</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (119, 2016, 'B', 4429);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>2016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>421</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (120, 2016, 'B', 421);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A25" si="3">A9+1</f>
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B25" si="4">B9</f>
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (121, 2016, 'C', 49);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>380</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (122, 2016, 'C', 380);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (123, 2016, 'C', 48);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>4428</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (124, 2016, 'C', 4428);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (125, 2016, 'D', 34);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>420</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (126, 2016, 'D', 420);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (127, 2016, 'D', 90);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>385</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (128, 2016, 'D', 385);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ref="G18:G25" si="5">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", '" &amp; C18 &amp; "', " &amp; D18 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (129, 2016, 'E', 32);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (130, 2016, 'E', 39);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>353</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (131, 2016, 'E', 353);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (132, 2016, 'E', 46);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>351</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (133, 2016, 'F', 351);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>354</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (134, 2016, 'F', 354);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>43</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (135, 2016, 'F', 43);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (136, 2016, 'F', 36);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A27 &amp; ", '" &amp; B27 &amp; "', " &amp; C27 &amp; ", " &amp; D27 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>'2012'!A50+1</f>
+        <v>236</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f>"2016-06-10"</f>
+        <v>2016-06-10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:G78" si="6">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A28 &amp; ", '" &amp; B28 &amp; "', " &amp; C28 &amp; ", " &amp; D28 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (236, '2016-06-10', 2, 33);</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>A28+1</f>
+        <v>237</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f>"2016-06-11"</f>
+        <v>2016-06-11</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <f>D28</f>
+        <v>33</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (237, '2016-06-11', 2, 33);</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" ref="A30:A78" si="7">A29+1</f>
+        <v>238</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>"2016-06-15"</f>
+        <v>2016-06-15</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ref="D30:D51" si="8">D29</f>
+        <v>33</v>
+      </c>
+      <c r="E30" s="4">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (238, '2016-06-15', 2, 33);</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>"2016-06-15"</f>
+        <v>2016-06-15</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E31" s="4">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (239, '2016-06-15', 2, 33);</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>"2016-06-19"</f>
+        <v>2016-06-19</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E32" s="4">
+        <v>25</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (240, '2016-06-19', 2, 33);</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>"2016-06-19"</f>
+        <v>2016-06-19</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E33" s="4">
+        <v>26</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (241, '2016-06-19', 2, 33);</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f>"2016-06-11"</f>
+        <v>2016-06-11</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (242, '2016-06-11', 2, 33);</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f>"2016-06-11"</f>
+        <v>2016-06-11</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (243, '2016-06-11', 2, 33);</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>244</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f>"2016-06-15"</f>
+        <v>2016-06-15</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E36" s="4">
+        <v>13</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (244, '2016-06-15', 2, 33);</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>245</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f>"2016-06-16"</f>
+        <v>2016-06-16</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E37" s="4">
+        <v>16</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (245, '2016-06-16', 2, 33);</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="7"/>
+        <v>246</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f>"2016-06-20"</f>
+        <v>2016-06-20</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E38" s="4">
+        <v>27</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (246, '2016-06-20', 2, 33);</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f>"2016-06-20"</f>
+        <v>2016-06-20</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E39" s="4">
+        <v>28</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (247, '2016-06-20', 2, 33);</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f>"2016-06-12"</f>
+        <v>2016-06-12</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E40" s="4">
+        <v>6</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (248, '2016-06-12', 2, 33);</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f>"2016-06-12"</f>
+        <v>2016-06-12</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (249, '2016-06-12', 2, 33);</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f>"2016-06-16"</f>
+        <v>2016-06-16</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E42" s="4">
+        <v>17</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (250, '2016-06-16', 2, 33);</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="7"/>
+        <v>251</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <f>"2016-06-16"</f>
+        <v>2016-06-16</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E43" s="4">
+        <v>18</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (251, '2016-06-16', 2, 33);</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f>"2016-06-21"</f>
+        <v>2016-06-21</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E44" s="4">
+        <v>29</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (252, '2016-06-21', 2, 33);</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f>"2016-06-21"</f>
+        <v>2016-06-21</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E45" s="4">
+        <v>30</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (253, '2016-06-21', 2, 33);</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f>"2016-06-12"</f>
+        <v>2016-06-12</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (254, '2016-06-12', 2, 33);</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f>"2016-06-13"</f>
+        <v>2016-06-13</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (255, '2016-06-13', 2, 33);</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f>"2016-06-17"</f>
+        <v>2016-06-17</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E48" s="4">
+        <v>20</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (256, '2016-06-17', 2, 33);</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f>"2016-06-17"</f>
+        <v>2016-06-17</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E49" s="4">
+        <v>21</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (257, '2016-06-17', 2, 33);</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f>"2016-06-21"</f>
+        <v>2016-06-21</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E50" s="4">
+        <v>31</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (258, '2016-06-21', 2, 33);</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="7"/>
+        <v>259</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <f>"2016-06-21"</f>
+        <v>2016-06-21</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E51" s="4">
+        <v>32</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (259, '2016-06-21', 2, 33);</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="B52" s="5" t="str">
+        <f>"2016-06-13"</f>
+        <v>2016-06-13</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" ref="D52:D78" si="9">D51</f>
+        <v>33</v>
+      </c>
+      <c r="E52" s="4">
+        <v>9</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (260, '2016-06-13', 2, 33);</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="7"/>
+        <v>261</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <f>"2016-06-13"</f>
+        <v>2016-06-13</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E53" s="4">
+        <v>10</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (261, '2016-06-13', 2, 33);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <f>"2016-06-17"</f>
+        <v>2016-06-17</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E54" s="4">
+        <v>19</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (262, '2016-06-17', 2, 33);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f>"2016-06-18"</f>
+        <v>2016-06-18</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E55" s="4">
+        <v>22</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (263, '2016-06-18', 2, 33);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f>"2016-06-22"</f>
+        <v>2016-06-22</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E56" s="4">
+        <v>35</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (264, '2016-06-22', 2, 33);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f>"2016-06-22"</f>
+        <v>2016-06-22</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E57" s="4">
+        <v>36</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (265, '2016-06-22', 2, 33);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f>"2016-06-14"</f>
+        <v>2016-06-14</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E58" s="4">
+        <v>11</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (266, '2016-06-14', 2, 33);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="7"/>
+        <v>267</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f>"2016-06-14"</f>
+        <v>2016-06-14</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E59" s="4">
+        <v>12</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (267, '2016-06-14', 2, 33);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f>"2016-06-18"</f>
+        <v>2016-06-18</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E60" s="4">
+        <v>23</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (268, '2016-06-18', 2, 33);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="7"/>
+        <v>269</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f>"2016-06-18"</f>
+        <v>2016-06-18</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E61" s="4">
+        <v>24</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (269, '2016-06-18', 2, 33);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f>"2016-06-22"</f>
+        <v>2016-06-22</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E62" s="4">
+        <v>33</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (270, '2016-06-22', 2, 33);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="7"/>
+        <v>271</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f>"2016-06-22"</f>
+        <v>2016-06-22</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E63" s="4">
+        <v>34</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (271, '2016-06-22', 2, 33);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="7"/>
+        <v>272</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f>"2016-06-25"</f>
+        <v>2016-06-25</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E64" s="4">
+        <v>37</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (272, '2016-06-25', 9, 33);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="7"/>
+        <v>273</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <f>"2016-06-25"</f>
+        <v>2016-06-25</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E65" s="4">
+        <v>38</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (273, '2016-06-25', 9, 33);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="7"/>
+        <v>274</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f>"2016-06-25"</f>
+        <v>2016-06-25</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E66" s="4">
+        <v>39</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (274, '2016-06-25', 9, 33);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="7"/>
+        <v>275</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f>"2016-06-26"</f>
+        <v>2016-06-26</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E67" s="4">
+        <v>40</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (275, '2016-06-26', 9, 33);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="7"/>
+        <v>276</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f>"2016-06-26"</f>
+        <v>2016-06-26</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E68" s="4">
+        <v>41</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (276, '2016-06-26', 9, 33);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f>"2016-06-26"</f>
+        <v>2016-06-26</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E69" s="4">
+        <v>42</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (277, '2016-06-26', 9, 33);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f>"2016-06-27"</f>
+        <v>2016-06-27</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (278, '2016-06-27', 9, 33);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <f>"2016-06-27"</f>
+        <v>2016-06-27</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E71" s="4">
+        <v>44</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (279, '2016-06-27', 9, 33);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f>"2016-06-30"</f>
+        <v>2016-06-30</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E72" s="4">
+        <v>45</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (280, '2016-06-30', 3, 33);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <f>"2016-07-01"</f>
+        <v>2016-07-01</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E73" s="4">
+        <v>46</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (281, '2016-07-01', 3, 33);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <f>"2016-07-02"</f>
+        <v>2016-07-02</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E74" s="4">
+        <v>47</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (282, '2016-07-02', 3, 33);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <f>"2016-07-03"</f>
+        <v>2016-07-03</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E75" s="4">
+        <v>48</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (283, '2016-07-03', 3, 33);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <f>"2016-07-06"</f>
+        <v>2016-07-06</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E76" s="4">
+        <v>49</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (284, '2016-07-06', 4, 33);</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f>"2016-07-07"</f>
+        <v>2016-07-07</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E77" s="4">
+        <v>50</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (285, '2016-07-07', 4, 33);</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f>"2016-07-10"</f>
+        <v>2016-07-10</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="E78" s="4">
+        <v>51</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (286, '2016-07-10', 6, 33);</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A80 &amp; ", " &amp; B80 &amp; ", " &amp; C80 &amp; ", " &amp; D80 &amp; ", " &amp; E80 &amp; ", " &amp; F80 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f>'2008'!A192+1</f>
+        <v>939</v>
+      </c>
+      <c r="B81" s="4">
+        <f>A28</f>
+        <v>236</v>
+      </c>
+      <c r="C81" s="4">
+        <v>33</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" ref="G81:G144" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A81 &amp; ", " &amp; B81 &amp; ", " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (939, 236, 33, null, null, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f>A81+1</f>
+        <v>940</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B81</f>
+        <v>236</v>
+      </c>
+      <c r="C82" s="4">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (940, 236, 33, null, null, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" ref="A83:A146" si="11">A82+1</f>
+        <v>941</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B81</f>
+        <v>236</v>
+      </c>
+      <c r="C83" s="4">
+        <v>40</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (941, 236, 40, null, null, 2);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="11"/>
+        <v>942</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B81</f>
+        <v>236</v>
+      </c>
+      <c r="C84" s="4">
+        <v>40</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (942, 236, 40, null, null, 1);</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="11"/>
+        <v>943</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B81+1</f>
+        <v>237</v>
+      </c>
+      <c r="C85" s="4">
+        <v>355</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (943, 237, 355, null, null, 2);</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="11"/>
+        <v>944</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B85</f>
+        <v>237</v>
+      </c>
+      <c r="C86" s="4">
+        <v>355</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (944, 237, 355, null, null, 1);</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="11"/>
+        <v>945</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B85</f>
+        <v>237</v>
+      </c>
+      <c r="C87" s="4">
+        <v>41</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (945, 237, 41, null, null, 2);</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="11"/>
+        <v>946</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B85</f>
+        <v>237</v>
+      </c>
+      <c r="C88" s="4">
+        <v>41</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (946, 237, 41, null, null, 1);</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="11"/>
+        <v>947</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B85+1</f>
+        <v>238</v>
+      </c>
+      <c r="C89" s="4">
+        <v>40</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (947, 238, 40, null, null, 2);</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="11"/>
+        <v>948</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B89</f>
+        <v>238</v>
+      </c>
+      <c r="C90" s="4">
+        <v>40</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (948, 238, 40, null, null, 1);</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="11"/>
+        <v>949</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B89</f>
+        <v>238</v>
+      </c>
+      <c r="C91" s="4">
+        <v>41</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (949, 238, 41, null, null, 2);</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="11"/>
+        <v>950</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B89</f>
+        <v>238</v>
+      </c>
+      <c r="C92" s="4">
+        <v>41</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (950, 238, 41, null, null, 1);</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="11"/>
+        <v>951</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B89+1</f>
+        <v>239</v>
+      </c>
+      <c r="C93" s="4">
+        <v>33</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (951, 239, 33, null, null, 2);</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="11"/>
+        <v>952</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B93</f>
+        <v>239</v>
+      </c>
+      <c r="C94" s="4">
+        <v>33</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (952, 239, 33, null, null, 1);</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="11"/>
+        <v>953</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B93</f>
+        <v>239</v>
+      </c>
+      <c r="C95" s="4">
+        <v>355</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (953, 239, 355, null, null, 2);</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="11"/>
+        <v>954</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B93</f>
+        <v>239</v>
+      </c>
+      <c r="C96" s="4">
+        <v>355</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (954, 239, 355, null, null, 1);</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="11"/>
+        <v>955</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B93+1</f>
+        <v>240</v>
+      </c>
+      <c r="C97" s="4">
+        <v>40</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (955, 240, 40, null, null, 2);</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f t="shared" si="11"/>
+        <v>956</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B97</f>
+        <v>240</v>
+      </c>
+      <c r="C98" s="4">
+        <v>40</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (956, 240, 40, null, null, 1);</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f t="shared" si="11"/>
+        <v>957</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B97</f>
+        <v>240</v>
+      </c>
+      <c r="C99" s="4">
+        <v>355</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (957, 240, 355, null, null, 2);</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="11"/>
+        <v>958</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B97</f>
+        <v>240</v>
+      </c>
+      <c r="C100" s="4">
+        <v>355</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (958, 240, 355, null, null, 1);</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="11"/>
+        <v>959</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B97+1</f>
+        <v>241</v>
+      </c>
+      <c r="C101" s="4">
+        <v>41</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A101 &amp; ", " &amp; B101 &amp; ", " &amp; C101 &amp; ", " &amp; D101 &amp; ", " &amp; E101 &amp; ", " &amp; F101 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (959, 241, 41, null, null, 2);</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="11"/>
+        <v>960</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B101</f>
+        <v>241</v>
+      </c>
+      <c r="C102" s="4">
+        <v>41</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A102 &amp; ", " &amp; B102 &amp; ", " &amp; C102 &amp; ", " &amp; D102 &amp; ", " &amp; E102 &amp; ", " &amp; F102 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (960, 241, 41, null, null, 1);</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f t="shared" si="11"/>
+        <v>961</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B101</f>
+        <v>241</v>
+      </c>
+      <c r="C103" s="4">
+        <v>33</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="4">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A103 &amp; ", " &amp; B103 &amp; ", " &amp; C103 &amp; ", " &amp; D103 &amp; ", " &amp; E103 &amp; ", " &amp; F103 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (961, 241, 33, null, null, 2);</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <f t="shared" si="11"/>
+        <v>962</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B101</f>
+        <v>241</v>
+      </c>
+      <c r="C104" s="4">
+        <v>33</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A104 &amp; ", " &amp; B104 &amp; ", " &amp; C104 &amp; ", " &amp; D104 &amp; ", " &amp; E104 &amp; ", " &amp; F104 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (962, 241, 33, null, null, 1);</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f t="shared" si="11"/>
+        <v>963</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B101+1</f>
+        <v>242</v>
+      </c>
+      <c r="C105" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (963, 242, 4429, null, null, 2);</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <f t="shared" si="11"/>
+        <v>964</v>
+      </c>
+      <c r="B106" s="4">
+        <f>B105</f>
+        <v>242</v>
+      </c>
+      <c r="C106" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (964, 242, 4429, null, null, 1);</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <f t="shared" si="11"/>
+        <v>965</v>
+      </c>
+      <c r="B107" s="4">
+        <f>B105</f>
+        <v>242</v>
+      </c>
+      <c r="C107" s="4">
+        <v>421</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (965, 242, 421, null, null, 2);</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <f t="shared" si="11"/>
+        <v>966</v>
+      </c>
+      <c r="B108" s="4">
+        <f>B105</f>
+        <v>242</v>
+      </c>
+      <c r="C108" s="4">
+        <v>421</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (966, 242, 421, null, null, 1);</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <f t="shared" si="11"/>
+        <v>967</v>
+      </c>
+      <c r="B109" s="4">
+        <f>B105+1</f>
+        <v>243</v>
+      </c>
+      <c r="C109" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (967, 243, 4420, null, null, 2);</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <f t="shared" si="11"/>
+        <v>968</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B109</f>
+        <v>243</v>
+      </c>
+      <c r="C110" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (968, 243, 4420, null, null, 1);</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <f t="shared" si="11"/>
+        <v>969</v>
+      </c>
+      <c r="B111" s="4">
+        <f>B109</f>
+        <v>243</v>
+      </c>
+      <c r="C111" s="4">
+        <v>7</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (969, 243, 7, null, null, 2);</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <f t="shared" si="11"/>
+        <v>970</v>
+      </c>
+      <c r="B112" s="4">
+        <f>B109</f>
+        <v>243</v>
+      </c>
+      <c r="C112" s="4">
+        <v>7</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (970, 243, 7, null, null, 1);</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="11"/>
+        <v>971</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B109+1</f>
+        <v>244</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="4">
+        <v>2</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (971, 244, 7, null, null, 2);</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <f t="shared" si="11"/>
+        <v>972</v>
+      </c>
+      <c r="B114" s="4">
+        <f>B113</f>
+        <v>244</v>
+      </c>
+      <c r="C114" s="4">
+        <v>7</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (972, 244, 7, null, null, 1);</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <f t="shared" si="11"/>
+        <v>973</v>
+      </c>
+      <c r="B115" s="4">
+        <f>B113</f>
+        <v>244</v>
+      </c>
+      <c r="C115" s="4">
+        <v>421</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (973, 244, 421, null, null, 2);</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <f t="shared" si="11"/>
+        <v>974</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B113</f>
+        <v>244</v>
+      </c>
+      <c r="C116" s="4">
+        <v>421</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (974, 244, 421, null, null, 1);</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <f t="shared" si="11"/>
+        <v>975</v>
+      </c>
+      <c r="B117" s="4">
+        <f>B113+1</f>
+        <v>245</v>
+      </c>
+      <c r="C117" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="4">
+        <v>2</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (975, 245, 4420, null, null, 2);</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f t="shared" si="11"/>
+        <v>976</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B117</f>
+        <v>245</v>
+      </c>
+      <c r="C118" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (976, 245, 4420, null, null, 1);</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f t="shared" si="11"/>
+        <v>977</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B117</f>
+        <v>245</v>
+      </c>
+      <c r="C119" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (977, 245, 4429, null, null, 2);</v>
+      </c>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f t="shared" si="11"/>
+        <v>978</v>
+      </c>
+      <c r="B120" s="4">
+        <f>B117</f>
+        <v>245</v>
+      </c>
+      <c r="C120" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (978, 245, 4429, null, null, 1);</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" si="11"/>
+        <v>979</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B117+1</f>
+        <v>246</v>
+      </c>
+      <c r="C121" s="4">
+        <v>7</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (979, 246, 7, null, null, 2);</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <f t="shared" si="11"/>
+        <v>980</v>
+      </c>
+      <c r="B122" s="4">
+        <f>B121</f>
+        <v>246</v>
+      </c>
+      <c r="C122" s="4">
+        <v>7</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (980, 246, 7, null, null, 1);</v>
+      </c>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <f t="shared" si="11"/>
+        <v>981</v>
+      </c>
+      <c r="B123" s="4">
+        <f>B121</f>
+        <v>246</v>
+      </c>
+      <c r="C123" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (981, 246, 4429, null, null, 2);</v>
+      </c>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="11"/>
+        <v>982</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B121</f>
+        <v>246</v>
+      </c>
+      <c r="C124" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (982, 246, 4429, null, null, 1);</v>
+      </c>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <f t="shared" si="11"/>
+        <v>983</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B121+1</f>
+        <v>247</v>
+      </c>
+      <c r="C125" s="4">
+        <v>421</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (983, 247, 421, null, null, 2);</v>
+      </c>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <f t="shared" si="11"/>
+        <v>984</v>
+      </c>
+      <c r="B126" s="4">
+        <f>B125</f>
+        <v>247</v>
+      </c>
+      <c r="C126" s="4">
+        <v>421</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (984, 247, 421, null, null, 1);</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <f t="shared" si="11"/>
+        <v>985</v>
+      </c>
+      <c r="B127" s="4">
+        <f>B125</f>
+        <v>247</v>
+      </c>
+      <c r="C127" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (985, 247, 4420, null, null, 2);</v>
+      </c>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <f t="shared" si="11"/>
+        <v>986</v>
+      </c>
+      <c r="B128" s="4">
+        <f>B125</f>
+        <v>247</v>
+      </c>
+      <c r="C128" s="4">
+        <v>4420</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (986, 247, 4420, null, null, 1);</v>
+      </c>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <f t="shared" si="11"/>
+        <v>987</v>
+      </c>
+      <c r="B129" s="4">
+        <f>B125+1</f>
+        <v>248</v>
+      </c>
+      <c r="C129" s="4">
+        <v>48</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (987, 248, 48, null, null, 2);</v>
+      </c>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <f t="shared" si="11"/>
+        <v>988</v>
+      </c>
+      <c r="B130" s="4">
+        <f>B129</f>
+        <v>248</v>
+      </c>
+      <c r="C130" s="4">
+        <v>48</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (988, 248, 48, null, null, 1);</v>
+      </c>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <f t="shared" si="11"/>
+        <v>989</v>
+      </c>
+      <c r="B131" s="4">
+        <f>B129</f>
+        <v>248</v>
+      </c>
+      <c r="C131" s="4">
+        <v>4428</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2</v>
+      </c>
+      <c r="G131" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (989, 248, 4428, null, null, 2);</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <f t="shared" si="11"/>
+        <v>990</v>
+      </c>
+      <c r="B132" s="4">
+        <f>B129</f>
+        <v>248</v>
+      </c>
+      <c r="C132" s="4">
+        <v>4428</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (990, 248, 4428, null, null, 1);</v>
+      </c>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <f t="shared" si="11"/>
+        <v>991</v>
+      </c>
+      <c r="B133" s="4">
+        <f>B129+1</f>
+        <v>249</v>
+      </c>
+      <c r="C133" s="4">
+        <v>49</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (991, 249, 49, null, null, 2);</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <f t="shared" si="11"/>
+        <v>992</v>
+      </c>
+      <c r="B134" s="4">
+        <f>B133</f>
+        <v>249</v>
+      </c>
+      <c r="C134" s="4">
+        <v>49</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (992, 249, 49, null, null, 1);</v>
+      </c>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <f t="shared" si="11"/>
+        <v>993</v>
+      </c>
+      <c r="B135" s="4">
+        <f>B133</f>
+        <v>249</v>
+      </c>
+      <c r="C135" s="4">
+        <v>380</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (993, 249, 380, null, null, 2);</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <f t="shared" si="11"/>
+        <v>994</v>
+      </c>
+      <c r="B136" s="4">
+        <f>B133</f>
+        <v>249</v>
+      </c>
+      <c r="C136" s="4">
+        <v>380</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (994, 249, 380, null, null, 1);</v>
+      </c>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <f t="shared" si="11"/>
+        <v>995</v>
+      </c>
+      <c r="B137" s="4">
+        <f>B133+1</f>
+        <v>250</v>
+      </c>
+      <c r="C137" s="4">
+        <v>380</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="4">
+        <v>2</v>
+      </c>
+      <c r="G137" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (995, 250, 380, null, null, 2);</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <f t="shared" si="11"/>
+        <v>996</v>
+      </c>
+      <c r="B138" s="4">
+        <f>B137</f>
+        <v>250</v>
+      </c>
+      <c r="C138" s="4">
+        <v>380</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (996, 250, 380, null, null, 1);</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <f t="shared" si="11"/>
+        <v>997</v>
+      </c>
+      <c r="B139" s="4">
+        <f>B137</f>
+        <v>250</v>
+      </c>
+      <c r="C139" s="4">
+        <v>4428</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (997, 250, 4428, null, null, 2);</v>
+      </c>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <f t="shared" si="11"/>
+        <v>998</v>
+      </c>
+      <c r="B140" s="4">
+        <f>B137</f>
+        <v>250</v>
+      </c>
+      <c r="C140" s="4">
+        <v>4428</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (998, 250, 4428, null, null, 1);</v>
+      </c>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+      <c r="B141" s="4">
+        <f>B137+1</f>
+        <v>251</v>
+      </c>
+      <c r="C141" s="4">
+        <v>49</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (999, 251, 49, null, null, 2);</v>
+      </c>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="B142" s="4">
+        <f>B141</f>
+        <v>251</v>
+      </c>
+      <c r="C142" s="4">
+        <v>49</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1000, 251, 49, null, null, 1);</v>
+      </c>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <f t="shared" si="11"/>
+        <v>1001</v>
+      </c>
+      <c r="B143" s="4">
+        <f>B141</f>
+        <v>251</v>
+      </c>
+      <c r="C143" s="4">
+        <v>48</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1001, 251, 48, null, null, 2);</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <f t="shared" si="11"/>
+        <v>1002</v>
+      </c>
+      <c r="B144" s="4">
+        <f>B141</f>
+        <v>251</v>
+      </c>
+      <c r="C144" s="4">
+        <v>48</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1002, 251, 48, null, null, 1);</v>
+      </c>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <f t="shared" si="11"/>
+        <v>1003</v>
+      </c>
+      <c r="B145" s="4">
+        <f>B141+1</f>
+        <v>252</v>
+      </c>
+      <c r="C145" s="4">
+        <v>380</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" ref="G145:G192" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A145 &amp; ", " &amp; B145 &amp; ", " &amp; C145 &amp; ", " &amp; D145 &amp; ", " &amp; E145 &amp; ", " &amp; F145 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1003, 252, 380, null, null, 2);</v>
+      </c>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <f t="shared" si="11"/>
+        <v>1004</v>
+      </c>
+      <c r="B146" s="4">
+        <f>B145</f>
+        <v>252</v>
+      </c>
+      <c r="C146" s="4">
+        <v>380</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1004, 252, 380, null, null, 1);</v>
+      </c>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <f t="shared" ref="A147:A210" si="13">A146+1</f>
+        <v>1005</v>
+      </c>
+      <c r="B147" s="4">
+        <f>B145</f>
+        <v>252</v>
+      </c>
+      <c r="C147" s="4">
+        <v>48</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1005, 252, 48, null, null, 2);</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <f t="shared" si="13"/>
+        <v>1006</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B145</f>
+        <v>252</v>
+      </c>
+      <c r="C148" s="4">
+        <v>48</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1006, 252, 48, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <f t="shared" si="13"/>
+        <v>1007</v>
+      </c>
+      <c r="B149" s="4">
+        <f>B145+1</f>
+        <v>253</v>
+      </c>
+      <c r="C149" s="4">
+        <v>4428</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1007, 253, 4428, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <f t="shared" si="13"/>
+        <v>1008</v>
+      </c>
+      <c r="B150" s="4">
+        <f>B149</f>
+        <v>253</v>
+      </c>
+      <c r="C150" s="4">
+        <v>4428</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1008, 253, 4428, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <f t="shared" si="13"/>
+        <v>1009</v>
+      </c>
+      <c r="B151" s="4">
+        <f>B149</f>
+        <v>253</v>
+      </c>
+      <c r="C151" s="4">
+        <v>49</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1009, 253, 49, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <f t="shared" si="13"/>
+        <v>1010</v>
+      </c>
+      <c r="B152" s="4">
+        <f>B149</f>
+        <v>253</v>
+      </c>
+      <c r="C152" s="4">
+        <v>49</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1010, 253, 49, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <f t="shared" si="13"/>
+        <v>1011</v>
+      </c>
+      <c r="B153" s="4">
+        <f>B149+1</f>
+        <v>254</v>
+      </c>
+      <c r="C153" s="4">
+        <v>90</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="4">
+        <v>2</v>
+      </c>
+      <c r="G153" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1011, 254, 90, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <f t="shared" si="13"/>
+        <v>1012</v>
+      </c>
+      <c r="B154" s="4">
+        <f>B153</f>
+        <v>254</v>
+      </c>
+      <c r="C154" s="4">
+        <v>90</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1012, 254, 90, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <f t="shared" si="13"/>
+        <v>1013</v>
+      </c>
+      <c r="B155" s="4">
+        <f>B153</f>
+        <v>254</v>
+      </c>
+      <c r="C155" s="4">
+        <v>385</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="4">
+        <v>2</v>
+      </c>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1013, 254, 385, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <f t="shared" si="13"/>
+        <v>1014</v>
+      </c>
+      <c r="B156" s="4">
+        <f>B153</f>
+        <v>254</v>
+      </c>
+      <c r="C156" s="4">
+        <v>385</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1014, 254, 385, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <f t="shared" si="13"/>
+        <v>1015</v>
+      </c>
+      <c r="B157" s="4">
+        <f>B153+1</f>
+        <v>255</v>
+      </c>
+      <c r="C157" s="4">
+        <v>34</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="4">
+        <v>2</v>
+      </c>
+      <c r="G157" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1015, 255, 34, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <f t="shared" si="13"/>
+        <v>1016</v>
+      </c>
+      <c r="B158" s="4">
+        <f>B157</f>
+        <v>255</v>
+      </c>
+      <c r="C158" s="4">
+        <v>34</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1</v>
+      </c>
+      <c r="G158" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1016, 255, 34, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <f t="shared" si="13"/>
+        <v>1017</v>
+      </c>
+      <c r="B159" s="4">
+        <f>B157</f>
+        <v>255</v>
+      </c>
+      <c r="C159" s="4">
+        <v>420</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="4">
+        <v>2</v>
+      </c>
+      <c r="G159" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1017, 255, 420, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <f t="shared" si="13"/>
+        <v>1018</v>
+      </c>
+      <c r="B160" s="4">
+        <f>B157</f>
+        <v>255</v>
+      </c>
+      <c r="C160" s="4">
+        <v>420</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1018, 255, 420, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <f t="shared" si="13"/>
+        <v>1019</v>
+      </c>
+      <c r="B161" s="4">
+        <f>B157+1</f>
+        <v>256</v>
+      </c>
+      <c r="C161" s="4">
+        <v>420</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="4">
+        <v>2</v>
+      </c>
+      <c r="G161" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1019, 256, 420, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <f t="shared" si="13"/>
+        <v>1020</v>
+      </c>
+      <c r="B162" s="4">
+        <f>B161</f>
+        <v>256</v>
+      </c>
+      <c r="C162" s="4">
+        <v>420</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1020, 256, 420, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <f t="shared" si="13"/>
+        <v>1021</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B161</f>
+        <v>256</v>
+      </c>
+      <c r="C163" s="4">
+        <v>385</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1021, 256, 385, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <f t="shared" si="13"/>
+        <v>1022</v>
+      </c>
+      <c r="B164" s="4">
+        <f>B161</f>
+        <v>256</v>
+      </c>
+      <c r="C164" s="4">
+        <v>385</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1022, 256, 385, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <f t="shared" si="13"/>
+        <v>1023</v>
+      </c>
+      <c r="B165" s="4">
+        <f>B161+1</f>
+        <v>257</v>
+      </c>
+      <c r="C165" s="4">
+        <v>34</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1023, 257, 34, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <f t="shared" si="13"/>
+        <v>1024</v>
+      </c>
+      <c r="B166" s="4">
+        <f>B165</f>
+        <v>257</v>
+      </c>
+      <c r="C166" s="4">
+        <v>34</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1024, 257, 34, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <f t="shared" si="13"/>
+        <v>1025</v>
+      </c>
+      <c r="B167" s="4">
+        <f>B165</f>
+        <v>257</v>
+      </c>
+      <c r="C167" s="4">
+        <v>90</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="4">
+        <v>2</v>
+      </c>
+      <c r="G167" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1025, 257, 90, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <f t="shared" si="13"/>
+        <v>1026</v>
+      </c>
+      <c r="B168" s="4">
+        <f>B165</f>
+        <v>257</v>
+      </c>
+      <c r="C168" s="4">
+        <v>90</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+      <c r="G168" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1026, 257, 90, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <f t="shared" si="13"/>
+        <v>1027</v>
+      </c>
+      <c r="B169" s="4">
+        <f>B165+1</f>
+        <v>258</v>
+      </c>
+      <c r="C169" s="4">
+        <v>420</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="4">
+        <v>2</v>
+      </c>
+      <c r="G169" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1027, 258, 420, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <f t="shared" si="13"/>
+        <v>1028</v>
+      </c>
+      <c r="B170" s="4">
+        <f>B169</f>
+        <v>258</v>
+      </c>
+      <c r="C170" s="4">
+        <v>420</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1</v>
+      </c>
+      <c r="G170" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1028, 258, 420, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <f t="shared" si="13"/>
+        <v>1029</v>
+      </c>
+      <c r="B171" s="4">
+        <f>B169</f>
+        <v>258</v>
+      </c>
+      <c r="C171" s="4">
+        <v>90</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="4">
+        <v>2</v>
+      </c>
+      <c r="G171" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1029, 258, 90, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <f t="shared" si="13"/>
+        <v>1030</v>
+      </c>
+      <c r="B172" s="4">
+        <f>B169</f>
+        <v>258</v>
+      </c>
+      <c r="C172" s="4">
+        <v>90</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1</v>
+      </c>
+      <c r="G172" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1030, 258, 90, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <f t="shared" si="13"/>
+        <v>1031</v>
+      </c>
+      <c r="B173" s="4">
+        <f>B169+1</f>
+        <v>259</v>
+      </c>
+      <c r="C173" s="4">
+        <v>385</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="4">
+        <v>2</v>
+      </c>
+      <c r="G173" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1031, 259, 385, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <f t="shared" si="13"/>
+        <v>1032</v>
+      </c>
+      <c r="B174" s="4">
+        <f>B173</f>
+        <v>259</v>
+      </c>
+      <c r="C174" s="4">
+        <v>385</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+      <c r="G174" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1032, 259, 385, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <f t="shared" si="13"/>
+        <v>1033</v>
+      </c>
+      <c r="B175" s="4">
+        <f>B173</f>
+        <v>259</v>
+      </c>
+      <c r="C175" s="4">
+        <v>34</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="4">
+        <v>2</v>
+      </c>
+      <c r="G175" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1033, 259, 34, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <f t="shared" si="13"/>
+        <v>1034</v>
+      </c>
+      <c r="B176" s="4">
+        <f>B174</f>
+        <v>259</v>
+      </c>
+      <c r="C176" s="4">
+        <v>34</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="4">
+        <v>1</v>
+      </c>
+      <c r="G176" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1034, 259, 34, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <f t="shared" si="13"/>
+        <v>1035</v>
+      </c>
+      <c r="B177" s="4">
+        <f>B173+1</f>
+        <v>260</v>
+      </c>
+      <c r="C177" s="4">
+        <v>353</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="4">
+        <v>2</v>
+      </c>
+      <c r="G177" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1035, 260, 353, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <f t="shared" si="13"/>
+        <v>1036</v>
+      </c>
+      <c r="B178" s="4">
+        <f>B177</f>
+        <v>260</v>
+      </c>
+      <c r="C178" s="4">
+        <v>353</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+      <c r="G178" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1036, 260, 353, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <f t="shared" si="13"/>
+        <v>1037</v>
+      </c>
+      <c r="B179" s="4">
+        <f>B177</f>
+        <v>260</v>
+      </c>
+      <c r="C179" s="4">
+        <v>46</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="4">
+        <v>2</v>
+      </c>
+      <c r="G179" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1037, 260, 46, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <f t="shared" si="13"/>
+        <v>1038</v>
+      </c>
+      <c r="B180" s="4">
+        <f>B178</f>
+        <v>260</v>
+      </c>
+      <c r="C180" s="4">
+        <v>46</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1</v>
+      </c>
+      <c r="G180" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1038, 260, 46, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <f t="shared" si="13"/>
+        <v>1039</v>
+      </c>
+      <c r="B181" s="4">
+        <f>B177+1</f>
+        <v>261</v>
+      </c>
+      <c r="C181" s="4">
+        <v>32</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="4">
+        <v>2</v>
+      </c>
+      <c r="G181" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1039, 261, 32, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <f t="shared" si="13"/>
+        <v>1040</v>
+      </c>
+      <c r="B182" s="4">
+        <f>B181</f>
+        <v>261</v>
+      </c>
+      <c r="C182" s="4">
+        <v>32</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+      <c r="G182" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1040, 261, 32, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <f t="shared" si="13"/>
+        <v>1041</v>
+      </c>
+      <c r="B183" s="4">
+        <f>B181</f>
+        <v>261</v>
+      </c>
+      <c r="C183" s="4">
+        <v>39</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="4">
+        <v>2</v>
+      </c>
+      <c r="G183" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1041, 261, 39, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <f t="shared" si="13"/>
+        <v>1042</v>
+      </c>
+      <c r="B184" s="4">
+        <f>B182</f>
+        <v>261</v>
+      </c>
+      <c r="C184" s="4">
+        <v>39</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+      <c r="G184" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1042, 261, 39, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <f t="shared" si="13"/>
+        <v>1043</v>
+      </c>
+      <c r="B185" s="4">
+        <f>B181+1</f>
+        <v>262</v>
+      </c>
+      <c r="C185" s="4">
+        <v>39</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="4">
+        <v>2</v>
+      </c>
+      <c r="G185" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1043, 262, 39, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <f t="shared" si="13"/>
+        <v>1044</v>
+      </c>
+      <c r="B186" s="4">
+        <f>B185</f>
+        <v>262</v>
+      </c>
+      <c r="C186" s="4">
+        <v>39</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+      <c r="G186" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1044, 262, 39, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <f t="shared" si="13"/>
+        <v>1045</v>
+      </c>
+      <c r="B187" s="4">
+        <f>B185</f>
+        <v>262</v>
+      </c>
+      <c r="C187" s="4">
+        <v>46</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" s="4">
+        <v>2</v>
+      </c>
+      <c r="G187" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1045, 262, 46, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <f t="shared" si="13"/>
+        <v>1046</v>
+      </c>
+      <c r="B188" s="4">
+        <f>B186</f>
+        <v>262</v>
+      </c>
+      <c r="C188" s="4">
+        <v>46</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="4">
+        <v>1</v>
+      </c>
+      <c r="G188" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1046, 262, 46, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <f t="shared" si="13"/>
+        <v>1047</v>
+      </c>
+      <c r="B189" s="4">
+        <f>B185+1</f>
+        <v>263</v>
+      </c>
+      <c r="C189" s="4">
+        <v>32</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" s="4">
+        <v>2</v>
+      </c>
+      <c r="G189" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1047, 263, 32, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <f t="shared" si="13"/>
+        <v>1048</v>
+      </c>
+      <c r="B190" s="4">
+        <f>B189</f>
+        <v>263</v>
+      </c>
+      <c r="C190" s="4">
+        <v>32</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+      <c r="G190" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1048, 263, 32, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <f t="shared" si="13"/>
+        <v>1049</v>
+      </c>
+      <c r="B191" s="4">
+        <f t="shared" ref="B191:B192" si="14">B189</f>
+        <v>263</v>
+      </c>
+      <c r="C191" s="4">
+        <v>353</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="4">
+        <v>2</v>
+      </c>
+      <c r="G191" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1049, 263, 353, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <f t="shared" si="13"/>
+        <v>1050</v>
+      </c>
+      <c r="B192" s="4">
+        <f t="shared" si="14"/>
+        <v>263</v>
+      </c>
+      <c r="C192" s="4">
+        <v>353</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" s="4">
+        <v>1</v>
+      </c>
+      <c r="G192" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1050, 263, 353, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <f t="shared" si="13"/>
+        <v>1051</v>
+      </c>
+      <c r="B193" s="4">
+        <f>B189+1</f>
+        <v>264</v>
+      </c>
+      <c r="C193" s="4">
+        <v>39</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="4">
+        <v>2</v>
+      </c>
+      <c r="G193" s="4" t="str">
+        <f t="shared" ref="G193:G256" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A193 &amp; ", " &amp; B193 &amp; ", " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1051, 264, 39, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <f t="shared" si="13"/>
+        <v>1052</v>
+      </c>
+      <c r="B194" s="4">
+        <f>B193</f>
+        <v>264</v>
+      </c>
+      <c r="C194" s="4">
+        <v>39</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" s="4">
+        <v>1</v>
+      </c>
+      <c r="G194" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1052, 264, 39, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <f t="shared" si="13"/>
+        <v>1053</v>
+      </c>
+      <c r="B195" s="4">
+        <f t="shared" ref="B195:B196" si="16">B193</f>
+        <v>264</v>
+      </c>
+      <c r="C195" s="4">
+        <v>353</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="4">
+        <v>2</v>
+      </c>
+      <c r="G195" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1053, 264, 353, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <f t="shared" si="13"/>
+        <v>1054</v>
+      </c>
+      <c r="B196" s="4">
+        <f t="shared" si="16"/>
+        <v>264</v>
+      </c>
+      <c r="C196" s="4">
+        <v>353</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="4">
+        <v>1</v>
+      </c>
+      <c r="G196" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1054, 264, 353, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <f t="shared" si="13"/>
+        <v>1055</v>
+      </c>
+      <c r="B197" s="4">
+        <f>B193+1</f>
+        <v>265</v>
+      </c>
+      <c r="C197" s="4">
+        <v>46</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" s="4">
+        <v>2</v>
+      </c>
+      <c r="G197" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1055, 265, 46, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <f t="shared" si="13"/>
+        <v>1056</v>
+      </c>
+      <c r="B198" s="4">
+        <f>B197</f>
+        <v>265</v>
+      </c>
+      <c r="C198" s="4">
+        <v>46</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="4">
+        <v>1</v>
+      </c>
+      <c r="G198" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1056, 265, 46, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <f t="shared" si="13"/>
+        <v>1057</v>
+      </c>
+      <c r="B199" s="4">
+        <f t="shared" ref="B199:B200" si="17">B197</f>
+        <v>265</v>
+      </c>
+      <c r="C199" s="4">
+        <v>32</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" s="4">
+        <v>2</v>
+      </c>
+      <c r="G199" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1057, 265, 32, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <f t="shared" si="13"/>
+        <v>1058</v>
+      </c>
+      <c r="B200" s="4">
+        <f t="shared" si="17"/>
+        <v>265</v>
+      </c>
+      <c r="C200" s="4">
+        <v>32</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="4">
+        <v>1</v>
+      </c>
+      <c r="G200" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1058, 265, 32, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <f t="shared" si="13"/>
+        <v>1059</v>
+      </c>
+      <c r="B201" s="4">
+        <f>B197+1</f>
+        <v>266</v>
+      </c>
+      <c r="C201" s="4">
+        <v>43</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="4">
+        <v>2</v>
+      </c>
+      <c r="G201" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1059, 266, 43, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <f t="shared" si="13"/>
+        <v>1060</v>
+      </c>
+      <c r="B202" s="4">
+        <f>B201</f>
+        <v>266</v>
+      </c>
+      <c r="C202" s="4">
+        <v>43</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="4">
+        <v>1</v>
+      </c>
+      <c r="G202" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1060, 266, 43, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <f t="shared" si="13"/>
+        <v>1061</v>
+      </c>
+      <c r="B203" s="4">
+        <f t="shared" ref="B203:B204" si="18">B201</f>
+        <v>266</v>
+      </c>
+      <c r="C203" s="4">
+        <v>36</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="4">
+        <v>2</v>
+      </c>
+      <c r="G203" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1061, 266, 36, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <f t="shared" si="13"/>
+        <v>1062</v>
+      </c>
+      <c r="B204" s="4">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="C204" s="4">
+        <v>36</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="4">
+        <v>1</v>
+      </c>
+      <c r="G204" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1062, 266, 36, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <f t="shared" si="13"/>
+        <v>1063</v>
+      </c>
+      <c r="B205" s="4">
+        <f>B201+1</f>
+        <v>267</v>
+      </c>
+      <c r="C205" s="4">
+        <v>351</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="4">
+        <v>2</v>
+      </c>
+      <c r="G205" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1063, 267, 351, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <f t="shared" si="13"/>
+        <v>1064</v>
+      </c>
+      <c r="B206" s="4">
+        <f>B205</f>
+        <v>267</v>
+      </c>
+      <c r="C206" s="4">
+        <v>351</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="4">
+        <v>1</v>
+      </c>
+      <c r="G206" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1064, 267, 351, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <f t="shared" si="13"/>
+        <v>1065</v>
+      </c>
+      <c r="B207" s="4">
+        <f t="shared" ref="B207:B208" si="19">B205</f>
+        <v>267</v>
+      </c>
+      <c r="C207" s="4">
+        <v>354</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" s="4">
+        <v>2</v>
+      </c>
+      <c r="G207" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1065, 267, 354, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <f t="shared" si="13"/>
+        <v>1066</v>
+      </c>
+      <c r="B208" s="4">
+        <f t="shared" si="19"/>
+        <v>267</v>
+      </c>
+      <c r="C208" s="4">
+        <v>354</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="4">
+        <v>1</v>
+      </c>
+      <c r="G208" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1066, 267, 354, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <f t="shared" si="13"/>
+        <v>1067</v>
+      </c>
+      <c r="B209" s="4">
+        <f>B205+1</f>
+        <v>268</v>
+      </c>
+      <c r="C209" s="4">
+        <v>354</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" s="4">
+        <v>2</v>
+      </c>
+      <c r="G209" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1067, 268, 354, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <f t="shared" si="13"/>
+        <v>1068</v>
+      </c>
+      <c r="B210" s="4">
+        <f>B209</f>
+        <v>268</v>
+      </c>
+      <c r="C210" s="4">
+        <v>354</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="4">
+        <v>1</v>
+      </c>
+      <c r="G210" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1068, 268, 354, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <f t="shared" ref="A211:A274" si="20">A210+1</f>
+        <v>1069</v>
+      </c>
+      <c r="B211" s="4">
+        <f t="shared" ref="B211:B212" si="21">B209</f>
+        <v>268</v>
+      </c>
+      <c r="C211" s="4">
+        <v>36</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" s="4">
+        <v>2</v>
+      </c>
+      <c r="G211" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1069, 268, 36, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <f t="shared" si="20"/>
+        <v>1070</v>
+      </c>
+      <c r="B212" s="4">
+        <f t="shared" si="21"/>
+        <v>268</v>
+      </c>
+      <c r="C212" s="4">
+        <v>36</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F212" s="4">
+        <v>1</v>
+      </c>
+      <c r="G212" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1070, 268, 36, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <f t="shared" si="20"/>
+        <v>1071</v>
+      </c>
+      <c r="B213" s="4">
+        <f>B209+1</f>
+        <v>269</v>
+      </c>
+      <c r="C213" s="4">
+        <v>351</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F213" s="4">
+        <v>2</v>
+      </c>
+      <c r="G213" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1071, 269, 351, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <f t="shared" si="20"/>
+        <v>1072</v>
+      </c>
+      <c r="B214" s="4">
+        <f>B213</f>
+        <v>269</v>
+      </c>
+      <c r="C214" s="4">
+        <v>351</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" s="4">
+        <v>1</v>
+      </c>
+      <c r="G214" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1072, 269, 351, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <f t="shared" si="20"/>
+        <v>1073</v>
+      </c>
+      <c r="B215" s="4">
+        <f t="shared" ref="B215:B216" si="22">B213</f>
+        <v>269</v>
+      </c>
+      <c r="C215" s="4">
+        <v>43</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" s="4">
+        <v>2</v>
+      </c>
+      <c r="G215" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1073, 269, 43, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <f t="shared" si="20"/>
+        <v>1074</v>
+      </c>
+      <c r="B216" s="4">
+        <f t="shared" si="22"/>
+        <v>269</v>
+      </c>
+      <c r="C216" s="4">
+        <v>43</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" s="4">
+        <v>1</v>
+      </c>
+      <c r="G216" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1074, 269, 43, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <f t="shared" si="20"/>
+        <v>1075</v>
+      </c>
+      <c r="B217" s="4">
+        <f>B213+1</f>
+        <v>270</v>
+      </c>
+      <c r="C217" s="4">
+        <v>354</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="4">
+        <v>2</v>
+      </c>
+      <c r="G217" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 270, 354, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <f t="shared" si="20"/>
+        <v>1076</v>
+      </c>
+      <c r="B218" s="4">
+        <f>B217</f>
+        <v>270</v>
+      </c>
+      <c r="C218" s="4">
+        <v>354</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="4">
+        <v>1</v>
+      </c>
+      <c r="G218" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 270, 354, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <f t="shared" si="20"/>
+        <v>1077</v>
+      </c>
+      <c r="B219" s="4">
+        <f t="shared" ref="B219:B220" si="23">B217</f>
+        <v>270</v>
+      </c>
+      <c r="C219" s="4">
+        <v>43</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" s="4">
+        <v>2</v>
+      </c>
+      <c r="G219" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 270, 43, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <f t="shared" si="20"/>
+        <v>1078</v>
+      </c>
+      <c r="B220" s="4">
+        <f t="shared" si="23"/>
+        <v>270</v>
+      </c>
+      <c r="C220" s="4">
+        <v>43</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="4">
+        <v>1</v>
+      </c>
+      <c r="G220" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 270, 43, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <f t="shared" si="20"/>
+        <v>1079</v>
+      </c>
+      <c r="B221" s="4">
+        <f>B217+1</f>
+        <v>271</v>
+      </c>
+      <c r="C221" s="4">
+        <v>36</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" s="4">
+        <v>2</v>
+      </c>
+      <c r="G221" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 271, 36, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="B222" s="4">
+        <f>B221</f>
+        <v>271</v>
+      </c>
+      <c r="C222" s="4">
+        <v>36</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="4">
+        <v>1</v>
+      </c>
+      <c r="G222" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 271, 36, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <f t="shared" si="20"/>
+        <v>1081</v>
+      </c>
+      <c r="B223" s="4">
+        <f t="shared" ref="B223:B224" si="24">B221</f>
+        <v>271</v>
+      </c>
+      <c r="C223" s="4">
+        <v>351</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" s="4">
+        <v>2</v>
+      </c>
+      <c r="G223" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 271, 351, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <f t="shared" si="20"/>
+        <v>1082</v>
+      </c>
+      <c r="B224" s="4">
+        <f t="shared" si="24"/>
+        <v>271</v>
+      </c>
+      <c r="C224" s="4">
+        <v>351</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="4">
+        <v>1</v>
+      </c>
+      <c r="G224" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 271, 351, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <f t="shared" si="20"/>
+        <v>1083</v>
+      </c>
+      <c r="B225" s="4">
+        <f>B221+1</f>
+        <v>272</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" s="4">
+        <v>2</v>
+      </c>
+      <c r="G225" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 272, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <f t="shared" si="20"/>
+        <v>1084</v>
+      </c>
+      <c r="B226" s="4">
+        <f>B225</f>
+        <v>272</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226" s="4">
+        <v>1</v>
+      </c>
+      <c r="G226" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 272, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <f t="shared" si="20"/>
+        <v>1085</v>
+      </c>
+      <c r="B227" s="4">
+        <f t="shared" ref="B227:B228" si="25">B225</f>
+        <v>272</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" s="4">
+        <v>2</v>
+      </c>
+      <c r="G227" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 272, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <f t="shared" si="20"/>
+        <v>1086</v>
+      </c>
+      <c r="B228" s="4">
+        <f t="shared" si="25"/>
+        <v>272</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="4">
+        <v>1</v>
+      </c>
+      <c r="G228" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 272, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <f t="shared" si="20"/>
+        <v>1087</v>
+      </c>
+      <c r="B229" s="4">
+        <f>B225+1</f>
+        <v>273</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" s="4">
+        <v>2</v>
+      </c>
+      <c r="G229" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 273, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <f t="shared" si="20"/>
+        <v>1088</v>
+      </c>
+      <c r="B230" s="4">
+        <f>B229</f>
+        <v>273</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230" s="4">
+        <v>1</v>
+      </c>
+      <c r="G230" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 273, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <f t="shared" si="20"/>
+        <v>1089</v>
+      </c>
+      <c r="B231" s="4">
+        <f t="shared" ref="B231:B232" si="26">B229</f>
+        <v>273</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" s="4">
+        <v>2</v>
+      </c>
+      <c r="G231" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 273, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <f t="shared" si="20"/>
+        <v>1090</v>
+      </c>
+      <c r="B232" s="4">
+        <f t="shared" si="26"/>
+        <v>273</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" s="4">
+        <v>1</v>
+      </c>
+      <c r="G232" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 273, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <f t="shared" si="20"/>
+        <v>1091</v>
+      </c>
+      <c r="B233" s="4">
+        <f>B229+1</f>
+        <v>274</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F233" s="4">
+        <v>2</v>
+      </c>
+      <c r="G233" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 274, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <f t="shared" si="20"/>
+        <v>1092</v>
+      </c>
+      <c r="B234" s="4">
+        <f>B233</f>
+        <v>274</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="4">
+        <v>1</v>
+      </c>
+      <c r="G234" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 274, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <f t="shared" si="20"/>
+        <v>1093</v>
+      </c>
+      <c r="B235" s="4">
+        <f t="shared" ref="B235:B236" si="27">B233</f>
+        <v>274</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" s="4">
+        <v>2</v>
+      </c>
+      <c r="G235" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 274, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <f t="shared" si="20"/>
+        <v>1094</v>
+      </c>
+      <c r="B236" s="4">
+        <f t="shared" si="27"/>
+        <v>274</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" s="4">
+        <v>1</v>
+      </c>
+      <c r="G236" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 274, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <f t="shared" si="20"/>
+        <v>1095</v>
+      </c>
+      <c r="B237" s="4">
+        <f>B233+1</f>
+        <v>275</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" s="4">
+        <v>2</v>
+      </c>
+      <c r="G237" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 275, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <f t="shared" si="20"/>
+        <v>1096</v>
+      </c>
+      <c r="B238" s="4">
+        <f>B237</f>
+        <v>275</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238" s="4">
+        <v>1</v>
+      </c>
+      <c r="G238" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 275, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <f t="shared" si="20"/>
+        <v>1097</v>
+      </c>
+      <c r="B239" s="4">
+        <f t="shared" ref="B239:B240" si="28">B237</f>
+        <v>275</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239" s="4">
+        <v>2</v>
+      </c>
+      <c r="G239" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 275, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <f t="shared" si="20"/>
+        <v>1098</v>
+      </c>
+      <c r="B240" s="4">
+        <f t="shared" si="28"/>
+        <v>275</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F240" s="4">
+        <v>1</v>
+      </c>
+      <c r="G240" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 275, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <f t="shared" si="20"/>
+        <v>1099</v>
+      </c>
+      <c r="B241" s="4">
+        <f>B237+1</f>
+        <v>276</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F241" s="4">
+        <v>2</v>
+      </c>
+      <c r="G241" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 276, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <f t="shared" si="20"/>
+        <v>1100</v>
+      </c>
+      <c r="B242" s="4">
+        <f>B241</f>
+        <v>276</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F242" s="4">
+        <v>1</v>
+      </c>
+      <c r="G242" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 276, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <f t="shared" si="20"/>
+        <v>1101</v>
+      </c>
+      <c r="B243" s="4">
+        <f t="shared" ref="B243:B244" si="29">B241</f>
+        <v>276</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F243" s="4">
+        <v>2</v>
+      </c>
+      <c r="G243" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 276, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <f t="shared" si="20"/>
+        <v>1102</v>
+      </c>
+      <c r="B244" s="4">
+        <f t="shared" si="29"/>
+        <v>276</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F244" s="4">
+        <v>1</v>
+      </c>
+      <c r="G244" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 276, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <f t="shared" si="20"/>
+        <v>1103</v>
+      </c>
+      <c r="B245" s="4">
+        <f>B241+1</f>
+        <v>277</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F245" s="4">
+        <v>2</v>
+      </c>
+      <c r="G245" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 277, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <f t="shared" si="20"/>
+        <v>1104</v>
+      </c>
+      <c r="B246" s="4">
+        <f>B245</f>
+        <v>277</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F246" s="4">
+        <v>1</v>
+      </c>
+      <c r="G246" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 277, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <f t="shared" si="20"/>
+        <v>1105</v>
+      </c>
+      <c r="B247" s="4">
+        <f t="shared" ref="B247:B248" si="30">B245</f>
+        <v>277</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F247" s="4">
+        <v>2</v>
+      </c>
+      <c r="G247" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 277, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <f t="shared" si="20"/>
+        <v>1106</v>
+      </c>
+      <c r="B248" s="4">
+        <f t="shared" si="30"/>
+        <v>277</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F248" s="4">
+        <v>1</v>
+      </c>
+      <c r="G248" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 277, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <f t="shared" si="20"/>
+        <v>1107</v>
+      </c>
+      <c r="B249" s="4">
+        <f>B245+1</f>
+        <v>278</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" s="4">
+        <v>2</v>
+      </c>
+      <c r="G249" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 278, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <f t="shared" si="20"/>
+        <v>1108</v>
+      </c>
+      <c r="B250" s="4">
+        <f>B249</f>
+        <v>278</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F250" s="4">
+        <v>1</v>
+      </c>
+      <c r="G250" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 278, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <f t="shared" si="20"/>
+        <v>1109</v>
+      </c>
+      <c r="B251" s="4">
+        <f t="shared" ref="B251:B252" si="31">B249</f>
+        <v>278</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F251" s="4">
+        <v>2</v>
+      </c>
+      <c r="G251" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 278, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <f t="shared" si="20"/>
+        <v>1110</v>
+      </c>
+      <c r="B252" s="4">
+        <f t="shared" si="31"/>
+        <v>278</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F252" s="4">
+        <v>1</v>
+      </c>
+      <c r="G252" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 278, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <f t="shared" si="20"/>
+        <v>1111</v>
+      </c>
+      <c r="B253" s="4">
+        <f>B249+1</f>
+        <v>279</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253" s="4">
+        <v>2</v>
+      </c>
+      <c r="G253" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 279, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <f t="shared" si="20"/>
+        <v>1112</v>
+      </c>
+      <c r="B254" s="4">
+        <f>B253</f>
+        <v>279</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F254" s="4">
+        <v>1</v>
+      </c>
+      <c r="G254" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 279, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <f t="shared" si="20"/>
+        <v>1113</v>
+      </c>
+      <c r="B255" s="4">
+        <f t="shared" ref="B255:B256" si="32">B253</f>
+        <v>279</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255" s="4">
+        <v>2</v>
+      </c>
+      <c r="G255" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 279, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <f t="shared" si="20"/>
+        <v>1114</v>
+      </c>
+      <c r="B256" s="4">
+        <f t="shared" si="32"/>
+        <v>279</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F256" s="4">
+        <v>1</v>
+      </c>
+      <c r="G256" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 279, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <f t="shared" si="20"/>
+        <v>1115</v>
+      </c>
+      <c r="B257" s="4">
+        <f>B253+1</f>
+        <v>280</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F257" s="4">
+        <v>2</v>
+      </c>
+      <c r="G257" s="4" t="str">
+        <f t="shared" ref="G257:G284" si="33">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A257 &amp; ", " &amp; B257 &amp; ", " &amp; C257 &amp; ", " &amp; D257 &amp; ", " &amp; E257 &amp; ", " &amp; F257 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 280, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <f t="shared" si="20"/>
+        <v>1116</v>
+      </c>
+      <c r="B258" s="4">
+        <f>B257</f>
+        <v>280</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258" s="4">
+        <v>1</v>
+      </c>
+      <c r="G258" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 280, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <f t="shared" si="20"/>
+        <v>1117</v>
+      </c>
+      <c r="B259" s="4">
+        <f t="shared" ref="B259:B260" si="34">B257</f>
+        <v>280</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F259" s="4">
+        <v>2</v>
+      </c>
+      <c r="G259" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 280, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <f t="shared" si="20"/>
+        <v>1118</v>
+      </c>
+      <c r="B260" s="4">
+        <f t="shared" si="34"/>
+        <v>280</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F260" s="4">
+        <v>1</v>
+      </c>
+      <c r="G260" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 280, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <f t="shared" si="20"/>
+        <v>1119</v>
+      </c>
+      <c r="B261" s="4">
+        <f>B257+1</f>
+        <v>281</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F261" s="4">
+        <v>2</v>
+      </c>
+      <c r="G261" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 281, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <f t="shared" si="20"/>
+        <v>1120</v>
+      </c>
+      <c r="B262" s="4">
+        <f>B261</f>
+        <v>281</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F262" s="4">
+        <v>1</v>
+      </c>
+      <c r="G262" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 281, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <f t="shared" si="20"/>
+        <v>1121</v>
+      </c>
+      <c r="B263" s="4">
+        <f t="shared" ref="B263:B264" si="35">B261</f>
+        <v>281</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F263" s="4">
+        <v>2</v>
+      </c>
+      <c r="G263" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 281, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <f t="shared" si="20"/>
+        <v>1122</v>
+      </c>
+      <c r="B264" s="4">
+        <f t="shared" si="35"/>
+        <v>281</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F264" s="4">
+        <v>1</v>
+      </c>
+      <c r="G264" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 281, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <f t="shared" si="20"/>
+        <v>1123</v>
+      </c>
+      <c r="B265" s="4">
+        <f>B261+1</f>
+        <v>282</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F265" s="4">
+        <v>2</v>
+      </c>
+      <c r="G265" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 282, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <f t="shared" si="20"/>
+        <v>1124</v>
+      </c>
+      <c r="B266" s="4">
+        <f>B265</f>
+        <v>282</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F266" s="4">
+        <v>1</v>
+      </c>
+      <c r="G266" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 282, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <f t="shared" si="20"/>
+        <v>1125</v>
+      </c>
+      <c r="B267" s="4">
+        <f t="shared" ref="B267:B268" si="36">B265</f>
+        <v>282</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F267" s="4">
+        <v>2</v>
+      </c>
+      <c r="G267" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 282, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <f t="shared" si="20"/>
+        <v>1126</v>
+      </c>
+      <c r="B268" s="4">
+        <f t="shared" si="36"/>
+        <v>282</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="4">
+        <v>1</v>
+      </c>
+      <c r="G268" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 282, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <f t="shared" si="20"/>
+        <v>1127</v>
+      </c>
+      <c r="B269" s="4">
+        <f>B265+1</f>
+        <v>283</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269" s="4">
+        <v>2</v>
+      </c>
+      <c r="G269" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 283, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <f t="shared" si="20"/>
+        <v>1128</v>
+      </c>
+      <c r="B270" s="4">
+        <f>B269</f>
+        <v>283</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F270" s="4">
+        <v>1</v>
+      </c>
+      <c r="G270" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 283, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <f t="shared" si="20"/>
+        <v>1129</v>
+      </c>
+      <c r="B271" s="4">
+        <f t="shared" ref="B271:B272" si="37">B269</f>
+        <v>283</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F271" s="4">
+        <v>2</v>
+      </c>
+      <c r="G271" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 283, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <f t="shared" si="20"/>
+        <v>1130</v>
+      </c>
+      <c r="B272" s="4">
+        <f t="shared" si="37"/>
+        <v>283</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272" s="4">
+        <v>1</v>
+      </c>
+      <c r="G272" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 283, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <f t="shared" si="20"/>
+        <v>1131</v>
+      </c>
+      <c r="B273" s="4">
+        <f>B269+1</f>
+        <v>284</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F273" s="4">
+        <v>2</v>
+      </c>
+      <c r="G273" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 284, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <f t="shared" si="20"/>
+        <v>1132</v>
+      </c>
+      <c r="B274" s="4">
+        <f>B273</f>
+        <v>284</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274" s="4">
+        <v>1</v>
+      </c>
+      <c r="G274" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 284, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <f t="shared" ref="A275:A284" si="38">A274+1</f>
+        <v>1133</v>
+      </c>
+      <c r="B275" s="4">
+        <f t="shared" ref="B275:B276" si="39">B273</f>
+        <v>284</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="4">
+        <v>2</v>
+      </c>
+      <c r="G275" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 284, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <f t="shared" si="38"/>
+        <v>1134</v>
+      </c>
+      <c r="B276" s="4">
+        <f t="shared" si="39"/>
+        <v>284</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276" s="4">
+        <v>1</v>
+      </c>
+      <c r="G276" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 284, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <f t="shared" si="38"/>
+        <v>1135</v>
+      </c>
+      <c r="B277" s="4">
+        <f>B273+1</f>
+        <v>285</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F277" s="4">
+        <v>2</v>
+      </c>
+      <c r="G277" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 285, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <f t="shared" si="38"/>
+        <v>1136</v>
+      </c>
+      <c r="B278" s="4">
+        <f>B277</f>
+        <v>285</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F278" s="4">
+        <v>1</v>
+      </c>
+      <c r="G278" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 285, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <f t="shared" si="38"/>
+        <v>1137</v>
+      </c>
+      <c r="B279" s="4">
+        <f t="shared" ref="B279:B280" si="40">B277</f>
+        <v>285</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F279" s="4">
+        <v>2</v>
+      </c>
+      <c r="G279" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 285, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <f t="shared" si="38"/>
+        <v>1138</v>
+      </c>
+      <c r="B280" s="4">
+        <f t="shared" si="40"/>
+        <v>285</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F280" s="4">
+        <v>1</v>
+      </c>
+      <c r="G280" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 285, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <f t="shared" si="38"/>
+        <v>1139</v>
+      </c>
+      <c r="B281" s="4">
+        <f>B277+1</f>
+        <v>286</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281" s="4">
+        <v>2</v>
+      </c>
+      <c r="G281" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <f t="shared" si="38"/>
+        <v>1140</v>
+      </c>
+      <c r="B282" s="4">
+        <f>B281</f>
+        <v>286</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282" s="4">
+        <v>1</v>
+      </c>
+      <c r="G282" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 286, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <f t="shared" si="38"/>
+        <v>1141</v>
+      </c>
+      <c r="B283" s="4">
+        <f t="shared" ref="B283:B284" si="41">B281</f>
+        <v>286</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F283" s="4">
+        <v>2</v>
+      </c>
+      <c r="G283" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <f t="shared" si="38"/>
+        <v>1142</v>
+      </c>
+      <c r="B284" s="4">
+        <f t="shared" si="41"/>
+        <v>286</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F284" s="4">
+        <v>1</v>
+      </c>
+      <c r="G284" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 286, null, null, null, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -27406,8 +27406,8 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f>'2008'!A192+1</f>
-        <v>939</v>
+        <f>'2012'!A188+1</f>
+        <v>1075</v>
       </c>
       <c r="B81" s="4">
         <f>A28</f>
@@ -27427,14 +27427,14 @@
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" ref="G81:G144" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A81 &amp; ", " &amp; B81 &amp; ", " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (939, 236, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 236, 33, null, null, 2);</v>
       </c>
       <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>A81+1</f>
-        <v>940</v>
+        <v>1076</v>
       </c>
       <c r="B82" s="4">
         <f>B81</f>
@@ -27454,14 +27454,14 @@
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (940, 236, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 236, 33, null, null, 1);</v>
       </c>
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" ref="A83:A146" si="11">A82+1</f>
-        <v>941</v>
+        <v>1077</v>
       </c>
       <c r="B83" s="4">
         <f>B81</f>
@@ -27481,14 +27481,14 @@
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (941, 236, 40, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 236, 40, null, null, 2);</v>
       </c>
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="11"/>
-        <v>942</v>
+        <v>1078</v>
       </c>
       <c r="B84" s="4">
         <f>B81</f>
@@ -27508,14 +27508,14 @@
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (942, 236, 40, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 236, 40, null, null, 1);</v>
       </c>
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="11"/>
-        <v>943</v>
+        <v>1079</v>
       </c>
       <c r="B85" s="4">
         <f>B81+1</f>
@@ -27535,14 +27535,14 @@
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (943, 237, 355, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 237, 355, null, null, 2);</v>
       </c>
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" si="11"/>
-        <v>944</v>
+        <v>1080</v>
       </c>
       <c r="B86" s="4">
         <f>B85</f>
@@ -27562,14 +27562,14 @@
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (944, 237, 355, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 237, 355, null, null, 1);</v>
       </c>
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="11"/>
-        <v>945</v>
+        <v>1081</v>
       </c>
       <c r="B87" s="4">
         <f>B85</f>
@@ -27589,14 +27589,14 @@
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (945, 237, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 237, 41, null, null, 2);</v>
       </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="11"/>
-        <v>946</v>
+        <v>1082</v>
       </c>
       <c r="B88" s="4">
         <f>B85</f>
@@ -27616,14 +27616,14 @@
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (946, 237, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 237, 41, null, null, 1);</v>
       </c>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" si="11"/>
-        <v>947</v>
+        <v>1083</v>
       </c>
       <c r="B89" s="4">
         <f>B85+1</f>
@@ -27643,14 +27643,14 @@
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (947, 238, 40, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 238, 40, null, null, 2);</v>
       </c>
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" si="11"/>
-        <v>948</v>
+        <v>1084</v>
       </c>
       <c r="B90" s="4">
         <f>B89</f>
@@ -27670,14 +27670,14 @@
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (948, 238, 40, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 238, 40, null, null, 1);</v>
       </c>
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" si="11"/>
-        <v>949</v>
+        <v>1085</v>
       </c>
       <c r="B91" s="4">
         <f>B89</f>
@@ -27697,14 +27697,14 @@
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (949, 238, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 238, 41, null, null, 2);</v>
       </c>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" si="11"/>
-        <v>950</v>
+        <v>1086</v>
       </c>
       <c r="B92" s="4">
         <f>B89</f>
@@ -27724,14 +27724,14 @@
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (950, 238, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 238, 41, null, null, 1);</v>
       </c>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f t="shared" si="11"/>
-        <v>951</v>
+        <v>1087</v>
       </c>
       <c r="B93" s="4">
         <f>B89+1</f>
@@ -27751,14 +27751,14 @@
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (951, 239, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 239, 33, null, null, 2);</v>
       </c>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f t="shared" si="11"/>
-        <v>952</v>
+        <v>1088</v>
       </c>
       <c r="B94" s="4">
         <f>B93</f>
@@ -27778,14 +27778,14 @@
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (952, 239, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 239, 33, null, null, 1);</v>
       </c>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f t="shared" si="11"/>
-        <v>953</v>
+        <v>1089</v>
       </c>
       <c r="B95" s="4">
         <f>B93</f>
@@ -27805,14 +27805,14 @@
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (953, 239, 355, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 239, 355, null, null, 2);</v>
       </c>
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f t="shared" si="11"/>
-        <v>954</v>
+        <v>1090</v>
       </c>
       <c r="B96" s="4">
         <f>B93</f>
@@ -27832,14 +27832,14 @@
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (954, 239, 355, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 239, 355, null, null, 1);</v>
       </c>
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" si="11"/>
-        <v>955</v>
+        <v>1091</v>
       </c>
       <c r="B97" s="4">
         <f>B93+1</f>
@@ -27859,14 +27859,14 @@
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (955, 240, 40, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 240, 40, null, null, 2);</v>
       </c>
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" si="11"/>
-        <v>956</v>
+        <v>1092</v>
       </c>
       <c r="B98" s="4">
         <f>B97</f>
@@ -27886,14 +27886,14 @@
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (956, 240, 40, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 240, 40, null, null, 1);</v>
       </c>
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" si="11"/>
-        <v>957</v>
+        <v>1093</v>
       </c>
       <c r="B99" s="4">
         <f>B97</f>
@@ -27913,14 +27913,14 @@
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (957, 240, 355, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 240, 355, null, null, 2);</v>
       </c>
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" si="11"/>
-        <v>958</v>
+        <v>1094</v>
       </c>
       <c r="B100" s="4">
         <f>B97</f>
@@ -27940,14 +27940,14 @@
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (958, 240, 355, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 240, 355, null, null, 1);</v>
       </c>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" si="11"/>
-        <v>959</v>
+        <v>1095</v>
       </c>
       <c r="B101" s="4">
         <f>B97+1</f>
@@ -27967,14 +27967,14 @@
       </c>
       <c r="G101" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A101 &amp; ", " &amp; B101 &amp; ", " &amp; C101 &amp; ", " &amp; D101 &amp; ", " &amp; E101 &amp; ", " &amp; F101 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (959, 241, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 241, 41, null, null, 2);</v>
       </c>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" si="11"/>
-        <v>960</v>
+        <v>1096</v>
       </c>
       <c r="B102" s="4">
         <f>B101</f>
@@ -27994,14 +27994,14 @@
       </c>
       <c r="G102" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A102 &amp; ", " &amp; B102 &amp; ", " &amp; C102 &amp; ", " &amp; D102 &amp; ", " &amp; E102 &amp; ", " &amp; F102 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (960, 241, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 241, 41, null, null, 1);</v>
       </c>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f t="shared" si="11"/>
-        <v>961</v>
+        <v>1097</v>
       </c>
       <c r="B103" s="4">
         <f>B101</f>
@@ -28021,14 +28021,14 @@
       </c>
       <c r="G103" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A103 &amp; ", " &amp; B103 &amp; ", " &amp; C103 &amp; ", " &amp; D103 &amp; ", " &amp; E103 &amp; ", " &amp; F103 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (961, 241, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 241, 33, null, null, 2);</v>
       </c>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f t="shared" si="11"/>
-        <v>962</v>
+        <v>1098</v>
       </c>
       <c r="B104" s="4">
         <f>B101</f>
@@ -28048,14 +28048,14 @@
       </c>
       <c r="G104" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A104 &amp; ", " &amp; B104 &amp; ", " &amp; C104 &amp; ", " &amp; D104 &amp; ", " &amp; E104 &amp; ", " &amp; F104 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (962, 241, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 241, 33, null, null, 1);</v>
       </c>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f t="shared" si="11"/>
-        <v>963</v>
+        <v>1099</v>
       </c>
       <c r="B105" s="4">
         <f>B101+1</f>
@@ -28075,14 +28075,14 @@
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (963, 242, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 242, 4429, null, null, 2);</v>
       </c>
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f t="shared" si="11"/>
-        <v>964</v>
+        <v>1100</v>
       </c>
       <c r="B106" s="4">
         <f>B105</f>
@@ -28102,14 +28102,14 @@
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (964, 242, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 242, 4429, null, null, 1);</v>
       </c>
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f t="shared" si="11"/>
-        <v>965</v>
+        <v>1101</v>
       </c>
       <c r="B107" s="4">
         <f>B105</f>
@@ -28129,14 +28129,14 @@
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (965, 242, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 242, 421, null, null, 2);</v>
       </c>
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f t="shared" si="11"/>
-        <v>966</v>
+        <v>1102</v>
       </c>
       <c r="B108" s="4">
         <f>B105</f>
@@ -28156,14 +28156,14 @@
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (966, 242, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 242, 421, null, null, 1);</v>
       </c>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" si="11"/>
-        <v>967</v>
+        <v>1103</v>
       </c>
       <c r="B109" s="4">
         <f>B105+1</f>
@@ -28183,14 +28183,14 @@
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (967, 243, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 243, 4420, null, null, 2);</v>
       </c>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" si="11"/>
-        <v>968</v>
+        <v>1104</v>
       </c>
       <c r="B110" s="4">
         <f>B109</f>
@@ -28210,14 +28210,14 @@
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (968, 243, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 243, 4420, null, null, 1);</v>
       </c>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="11"/>
-        <v>969</v>
+        <v>1105</v>
       </c>
       <c r="B111" s="4">
         <f>B109</f>
@@ -28237,14 +28237,14 @@
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (969, 243, 7, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 243, 7, null, null, 2);</v>
       </c>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="11"/>
-        <v>970</v>
+        <v>1106</v>
       </c>
       <c r="B112" s="4">
         <f>B109</f>
@@ -28264,14 +28264,14 @@
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (970, 243, 7, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 243, 7, null, null, 1);</v>
       </c>
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="11"/>
-        <v>971</v>
+        <v>1107</v>
       </c>
       <c r="B113" s="4">
         <f>B109+1</f>
@@ -28291,14 +28291,14 @@
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (971, 244, 7, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 244, 7, null, null, 2);</v>
       </c>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="11"/>
-        <v>972</v>
+        <v>1108</v>
       </c>
       <c r="B114" s="4">
         <f>B113</f>
@@ -28318,14 +28318,14 @@
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (972, 244, 7, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 244, 7, null, null, 1);</v>
       </c>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="11"/>
-        <v>973</v>
+        <v>1109</v>
       </c>
       <c r="B115" s="4">
         <f>B113</f>
@@ -28345,14 +28345,14 @@
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (973, 244, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 244, 421, null, null, 2);</v>
       </c>
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="11"/>
-        <v>974</v>
+        <v>1110</v>
       </c>
       <c r="B116" s="4">
         <f>B113</f>
@@ -28372,14 +28372,14 @@
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (974, 244, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 244, 421, null, null, 1);</v>
       </c>
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="11"/>
-        <v>975</v>
+        <v>1111</v>
       </c>
       <c r="B117" s="4">
         <f>B113+1</f>
@@ -28399,14 +28399,14 @@
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (975, 245, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 245, 4420, null, null, 2);</v>
       </c>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="11"/>
-        <v>976</v>
+        <v>1112</v>
       </c>
       <c r="B118" s="4">
         <f>B117</f>
@@ -28426,14 +28426,14 @@
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (976, 245, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 245, 4420, null, null, 1);</v>
       </c>
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f t="shared" si="11"/>
-        <v>977</v>
+        <v>1113</v>
       </c>
       <c r="B119" s="4">
         <f>B117</f>
@@ -28453,14 +28453,14 @@
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (977, 245, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 245, 4429, null, null, 2);</v>
       </c>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f t="shared" si="11"/>
-        <v>978</v>
+        <v>1114</v>
       </c>
       <c r="B120" s="4">
         <f>B117</f>
@@ -28480,14 +28480,14 @@
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (978, 245, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 245, 4429, null, null, 1);</v>
       </c>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f t="shared" si="11"/>
-        <v>979</v>
+        <v>1115</v>
       </c>
       <c r="B121" s="4">
         <f>B117+1</f>
@@ -28507,14 +28507,14 @@
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (979, 246, 7, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 246, 7, null, null, 2);</v>
       </c>
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f t="shared" si="11"/>
-        <v>980</v>
+        <v>1116</v>
       </c>
       <c r="B122" s="4">
         <f>B121</f>
@@ -28534,14 +28534,14 @@
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (980, 246, 7, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 246, 7, null, null, 1);</v>
       </c>
       <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f t="shared" si="11"/>
-        <v>981</v>
+        <v>1117</v>
       </c>
       <c r="B123" s="4">
         <f>B121</f>
@@ -28561,14 +28561,14 @@
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (981, 246, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 246, 4429, null, null, 2);</v>
       </c>
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f t="shared" si="11"/>
-        <v>982</v>
+        <v>1118</v>
       </c>
       <c r="B124" s="4">
         <f>B121</f>
@@ -28588,14 +28588,14 @@
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (982, 246, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 246, 4429, null, null, 1);</v>
       </c>
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f t="shared" si="11"/>
-        <v>983</v>
+        <v>1119</v>
       </c>
       <c r="B125" s="4">
         <f>B121+1</f>
@@ -28615,14 +28615,14 @@
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (983, 247, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 247, 421, null, null, 2);</v>
       </c>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f t="shared" si="11"/>
-        <v>984</v>
+        <v>1120</v>
       </c>
       <c r="B126" s="4">
         <f>B125</f>
@@ -28642,14 +28642,14 @@
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (984, 247, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 247, 421, null, null, 1);</v>
       </c>
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f t="shared" si="11"/>
-        <v>985</v>
+        <v>1121</v>
       </c>
       <c r="B127" s="4">
         <f>B125</f>
@@ -28669,14 +28669,14 @@
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (985, 247, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 247, 4420, null, null, 2);</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f t="shared" si="11"/>
-        <v>986</v>
+        <v>1122</v>
       </c>
       <c r="B128" s="4">
         <f>B125</f>
@@ -28696,14 +28696,14 @@
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (986, 247, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 247, 4420, null, null, 1);</v>
       </c>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f t="shared" si="11"/>
-        <v>987</v>
+        <v>1123</v>
       </c>
       <c r="B129" s="4">
         <f>B125+1</f>
@@ -28723,14 +28723,14 @@
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (987, 248, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 248, 48, null, null, 2);</v>
       </c>
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f t="shared" si="11"/>
-        <v>988</v>
+        <v>1124</v>
       </c>
       <c r="B130" s="4">
         <f>B129</f>
@@ -28750,14 +28750,14 @@
       </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (988, 248, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 248, 48, null, null, 1);</v>
       </c>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f t="shared" si="11"/>
-        <v>989</v>
+        <v>1125</v>
       </c>
       <c r="B131" s="4">
         <f>B129</f>
@@ -28777,14 +28777,14 @@
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (989, 248, 4428, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 248, 4428, null, null, 2);</v>
       </c>
       <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f t="shared" si="11"/>
-        <v>990</v>
+        <v>1126</v>
       </c>
       <c r="B132" s="4">
         <f>B129</f>
@@ -28804,14 +28804,14 @@
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (990, 248, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 248, 4428, null, null, 1);</v>
       </c>
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f t="shared" si="11"/>
-        <v>991</v>
+        <v>1127</v>
       </c>
       <c r="B133" s="4">
         <f>B129+1</f>
@@ -28831,14 +28831,14 @@
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (991, 249, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 249, 49, null, null, 2);</v>
       </c>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f t="shared" si="11"/>
-        <v>992</v>
+        <v>1128</v>
       </c>
       <c r="B134" s="4">
         <f>B133</f>
@@ -28858,14 +28858,14 @@
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (992, 249, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 249, 49, null, null, 1);</v>
       </c>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f t="shared" si="11"/>
-        <v>993</v>
+        <v>1129</v>
       </c>
       <c r="B135" s="4">
         <f>B133</f>
@@ -28885,14 +28885,14 @@
       </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (993, 249, 380, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 249, 380, null, null, 2);</v>
       </c>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f t="shared" si="11"/>
-        <v>994</v>
+        <v>1130</v>
       </c>
       <c r="B136" s="4">
         <f>B133</f>
@@ -28912,14 +28912,14 @@
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (994, 249, 380, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 249, 380, null, null, 1);</v>
       </c>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f t="shared" si="11"/>
-        <v>995</v>
+        <v>1131</v>
       </c>
       <c r="B137" s="4">
         <f>B133+1</f>
@@ -28939,14 +28939,14 @@
       </c>
       <c r="G137" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (995, 250, 380, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 250, 380, null, null, 2);</v>
       </c>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f t="shared" si="11"/>
-        <v>996</v>
+        <v>1132</v>
       </c>
       <c r="B138" s="4">
         <f>B137</f>
@@ -28966,14 +28966,14 @@
       </c>
       <c r="G138" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (996, 250, 380, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 250, 380, null, null, 1);</v>
       </c>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f t="shared" si="11"/>
-        <v>997</v>
+        <v>1133</v>
       </c>
       <c r="B139" s="4">
         <f>B137</f>
@@ -28993,14 +28993,14 @@
       </c>
       <c r="G139" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (997, 250, 4428, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 250, 4428, null, null, 2);</v>
       </c>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f t="shared" si="11"/>
-        <v>998</v>
+        <v>1134</v>
       </c>
       <c r="B140" s="4">
         <f>B137</f>
@@ -29020,14 +29020,14 @@
       </c>
       <c r="G140" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (998, 250, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 250, 4428, null, null, 1);</v>
       </c>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f t="shared" si="11"/>
-        <v>999</v>
+        <v>1135</v>
       </c>
       <c r="B141" s="4">
         <f>B137+1</f>
@@ -29047,14 +29047,14 @@
       </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (999, 251, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 251, 49, null, null, 2);</v>
       </c>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f t="shared" si="11"/>
-        <v>1000</v>
+        <v>1136</v>
       </c>
       <c r="B142" s="4">
         <f>B141</f>
@@ -29074,14 +29074,14 @@
       </c>
       <c r="G142" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1000, 251, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 251, 49, null, null, 1);</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f t="shared" si="11"/>
-        <v>1001</v>
+        <v>1137</v>
       </c>
       <c r="B143" s="4">
         <f>B141</f>
@@ -29101,14 +29101,14 @@
       </c>
       <c r="G143" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1001, 251, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 251, 48, null, null, 2);</v>
       </c>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f t="shared" si="11"/>
-        <v>1002</v>
+        <v>1138</v>
       </c>
       <c r="B144" s="4">
         <f>B141</f>
@@ -29128,14 +29128,14 @@
       </c>
       <c r="G144" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1002, 251, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 251, 48, null, null, 1);</v>
       </c>
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f t="shared" si="11"/>
-        <v>1003</v>
+        <v>1139</v>
       </c>
       <c r="B145" s="4">
         <f>B141+1</f>
@@ -29155,14 +29155,14 @@
       </c>
       <c r="G145" s="4" t="str">
         <f t="shared" ref="G145:G192" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A145 &amp; ", " &amp; B145 &amp; ", " &amp; C145 &amp; ", " &amp; D145 &amp; ", " &amp; E145 &amp; ", " &amp; F145 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1003, 252, 380, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 252, 380, null, null, 2);</v>
       </c>
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f t="shared" si="11"/>
-        <v>1004</v>
+        <v>1140</v>
       </c>
       <c r="B146" s="4">
         <f>B145</f>
@@ -29182,14 +29182,14 @@
       </c>
       <c r="G146" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1004, 252, 380, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 252, 380, null, null, 1);</v>
       </c>
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f t="shared" ref="A147:A210" si="13">A146+1</f>
-        <v>1005</v>
+        <v>1141</v>
       </c>
       <c r="B147" s="4">
         <f>B145</f>
@@ -29209,14 +29209,14 @@
       </c>
       <c r="G147" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1005, 252, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 252, 48, null, null, 2);</v>
       </c>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f t="shared" si="13"/>
-        <v>1006</v>
+        <v>1142</v>
       </c>
       <c r="B148" s="4">
         <f>B145</f>
@@ -29236,13 +29236,13 @@
       </c>
       <c r="G148" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1006, 252, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 252, 48, null, null, 1);</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f t="shared" si="13"/>
-        <v>1007</v>
+        <v>1143</v>
       </c>
       <c r="B149" s="4">
         <f>B145+1</f>
@@ -29262,13 +29262,13 @@
       </c>
       <c r="G149" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1007, 253, 4428, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1143, 253, 4428, null, null, 2);</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f t="shared" si="13"/>
-        <v>1008</v>
+        <v>1144</v>
       </c>
       <c r="B150" s="4">
         <f>B149</f>
@@ -29288,13 +29288,13 @@
       </c>
       <c r="G150" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1008, 253, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1144, 253, 4428, null, null, 1);</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f t="shared" si="13"/>
-        <v>1009</v>
+        <v>1145</v>
       </c>
       <c r="B151" s="4">
         <f>B149</f>
@@ -29314,13 +29314,13 @@
       </c>
       <c r="G151" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1009, 253, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1145, 253, 49, null, null, 2);</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f t="shared" si="13"/>
-        <v>1010</v>
+        <v>1146</v>
       </c>
       <c r="B152" s="4">
         <f>B149</f>
@@ -29340,13 +29340,13 @@
       </c>
       <c r="G152" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1010, 253, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1146, 253, 49, null, null, 1);</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f t="shared" si="13"/>
-        <v>1011</v>
+        <v>1147</v>
       </c>
       <c r="B153" s="4">
         <f>B149+1</f>
@@ -29366,13 +29366,13 @@
       </c>
       <c r="G153" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1011, 254, 90, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 254, 90, null, null, 2);</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f t="shared" si="13"/>
-        <v>1012</v>
+        <v>1148</v>
       </c>
       <c r="B154" s="4">
         <f>B153</f>
@@ -29392,13 +29392,13 @@
       </c>
       <c r="G154" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1012, 254, 90, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 254, 90, null, null, 1);</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f t="shared" si="13"/>
-        <v>1013</v>
+        <v>1149</v>
       </c>
       <c r="B155" s="4">
         <f>B153</f>
@@ -29418,13 +29418,13 @@
       </c>
       <c r="G155" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1013, 254, 385, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 254, 385, null, null, 2);</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f t="shared" si="13"/>
-        <v>1014</v>
+        <v>1150</v>
       </c>
       <c r="B156" s="4">
         <f>B153</f>
@@ -29444,13 +29444,13 @@
       </c>
       <c r="G156" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1014, 254, 385, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 254, 385, null, null, 1);</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f t="shared" si="13"/>
-        <v>1015</v>
+        <v>1151</v>
       </c>
       <c r="B157" s="4">
         <f>B153+1</f>
@@ -29470,13 +29470,13 @@
       </c>
       <c r="G157" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1015, 255, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1151, 255, 34, null, null, 2);</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f t="shared" si="13"/>
-        <v>1016</v>
+        <v>1152</v>
       </c>
       <c r="B158" s="4">
         <f>B157</f>
@@ -29496,13 +29496,13 @@
       </c>
       <c r="G158" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1016, 255, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1152, 255, 34, null, null, 1);</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f t="shared" si="13"/>
-        <v>1017</v>
+        <v>1153</v>
       </c>
       <c r="B159" s="4">
         <f>B157</f>
@@ -29522,13 +29522,13 @@
       </c>
       <c r="G159" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1017, 255, 420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1153, 255, 420, null, null, 2);</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f t="shared" si="13"/>
-        <v>1018</v>
+        <v>1154</v>
       </c>
       <c r="B160" s="4">
         <f>B157</f>
@@ -29548,13 +29548,13 @@
       </c>
       <c r="G160" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1018, 255, 420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1154, 255, 420, null, null, 1);</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f t="shared" si="13"/>
-        <v>1019</v>
+        <v>1155</v>
       </c>
       <c r="B161" s="4">
         <f>B157+1</f>
@@ -29574,13 +29574,13 @@
       </c>
       <c r="G161" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1019, 256, 420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 256, 420, null, null, 2);</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f t="shared" si="13"/>
-        <v>1020</v>
+        <v>1156</v>
       </c>
       <c r="B162" s="4">
         <f>B161</f>
@@ -29600,13 +29600,13 @@
       </c>
       <c r="G162" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1020, 256, 420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 256, 420, null, null, 1);</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f t="shared" si="13"/>
-        <v>1021</v>
+        <v>1157</v>
       </c>
       <c r="B163" s="4">
         <f>B161</f>
@@ -29626,13 +29626,13 @@
       </c>
       <c r="G163" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1021, 256, 385, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 256, 385, null, null, 2);</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f t="shared" si="13"/>
-        <v>1022</v>
+        <v>1158</v>
       </c>
       <c r="B164" s="4">
         <f>B161</f>
@@ -29652,13 +29652,13 @@
       </c>
       <c r="G164" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1022, 256, 385, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 256, 385, null, null, 1);</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f t="shared" si="13"/>
-        <v>1023</v>
+        <v>1159</v>
       </c>
       <c r="B165" s="4">
         <f>B161+1</f>
@@ -29678,13 +29678,13 @@
       </c>
       <c r="G165" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1023, 257, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1159, 257, 34, null, null, 2);</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f t="shared" si="13"/>
-        <v>1024</v>
+        <v>1160</v>
       </c>
       <c r="B166" s="4">
         <f>B165</f>
@@ -29704,13 +29704,13 @@
       </c>
       <c r="G166" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1024, 257, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1160, 257, 34, null, null, 1);</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f t="shared" si="13"/>
-        <v>1025</v>
+        <v>1161</v>
       </c>
       <c r="B167" s="4">
         <f>B165</f>
@@ -29730,13 +29730,13 @@
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1025, 257, 90, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1161, 257, 90, null, null, 2);</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f t="shared" si="13"/>
-        <v>1026</v>
+        <v>1162</v>
       </c>
       <c r="B168" s="4">
         <f>B165</f>
@@ -29756,13 +29756,13 @@
       </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1026, 257, 90, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1162, 257, 90, null, null, 1);</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f t="shared" si="13"/>
-        <v>1027</v>
+        <v>1163</v>
       </c>
       <c r="B169" s="4">
         <f>B165+1</f>
@@ -29782,13 +29782,13 @@
       </c>
       <c r="G169" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1027, 258, 420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 258, 420, null, null, 2);</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f t="shared" si="13"/>
-        <v>1028</v>
+        <v>1164</v>
       </c>
       <c r="B170" s="4">
         <f>B169</f>
@@ -29808,13 +29808,13 @@
       </c>
       <c r="G170" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1028, 258, 420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 258, 420, null, null, 1);</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f t="shared" si="13"/>
-        <v>1029</v>
+        <v>1165</v>
       </c>
       <c r="B171" s="4">
         <f>B169</f>
@@ -29834,13 +29834,13 @@
       </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1029, 258, 90, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 258, 90, null, null, 2);</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f t="shared" si="13"/>
-        <v>1030</v>
+        <v>1166</v>
       </c>
       <c r="B172" s="4">
         <f>B169</f>
@@ -29860,13 +29860,13 @@
       </c>
       <c r="G172" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1030, 258, 90, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 258, 90, null, null, 1);</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f t="shared" si="13"/>
-        <v>1031</v>
+        <v>1167</v>
       </c>
       <c r="B173" s="4">
         <f>B169+1</f>
@@ -29886,13 +29886,13 @@
       </c>
       <c r="G173" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1031, 259, 385, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1167, 259, 385, null, null, 2);</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f t="shared" si="13"/>
-        <v>1032</v>
+        <v>1168</v>
       </c>
       <c r="B174" s="4">
         <f>B173</f>
@@ -29912,13 +29912,13 @@
       </c>
       <c r="G174" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1032, 259, 385, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1168, 259, 385, null, null, 1);</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f t="shared" si="13"/>
-        <v>1033</v>
+        <v>1169</v>
       </c>
       <c r="B175" s="4">
         <f>B173</f>
@@ -29938,13 +29938,13 @@
       </c>
       <c r="G175" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1033, 259, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1169, 259, 34, null, null, 2);</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f t="shared" si="13"/>
-        <v>1034</v>
+        <v>1170</v>
       </c>
       <c r="B176" s="4">
         <f>B174</f>
@@ -29964,13 +29964,13 @@
       </c>
       <c r="G176" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1034, 259, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1170, 259, 34, null, null, 1);</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f t="shared" si="13"/>
-        <v>1035</v>
+        <v>1171</v>
       </c>
       <c r="B177" s="4">
         <f>B173+1</f>
@@ -29990,13 +29990,13 @@
       </c>
       <c r="G177" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1035, 260, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1171, 260, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f t="shared" si="13"/>
-        <v>1036</v>
+        <v>1172</v>
       </c>
       <c r="B178" s="4">
         <f>B177</f>
@@ -30016,13 +30016,13 @@
       </c>
       <c r="G178" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1036, 260, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1172, 260, 353, null, null, 1);</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f t="shared" si="13"/>
-        <v>1037</v>
+        <v>1173</v>
       </c>
       <c r="B179" s="4">
         <f>B177</f>
@@ -30042,13 +30042,13 @@
       </c>
       <c r="G179" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1037, 260, 46, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1173, 260, 46, null, null, 2);</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f t="shared" si="13"/>
-        <v>1038</v>
+        <v>1174</v>
       </c>
       <c r="B180" s="4">
         <f>B178</f>
@@ -30068,13 +30068,13 @@
       </c>
       <c r="G180" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1038, 260, 46, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1174, 260, 46, null, null, 1);</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f t="shared" si="13"/>
-        <v>1039</v>
+        <v>1175</v>
       </c>
       <c r="B181" s="4">
         <f>B177+1</f>
@@ -30094,13 +30094,13 @@
       </c>
       <c r="G181" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1039, 261, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1175, 261, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f t="shared" si="13"/>
-        <v>1040</v>
+        <v>1176</v>
       </c>
       <c r="B182" s="4">
         <f>B181</f>
@@ -30120,13 +30120,13 @@
       </c>
       <c r="G182" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1040, 261, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1176, 261, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f t="shared" si="13"/>
-        <v>1041</v>
+        <v>1177</v>
       </c>
       <c r="B183" s="4">
         <f>B181</f>
@@ -30146,13 +30146,13 @@
       </c>
       <c r="G183" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1041, 261, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1177, 261, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f t="shared" si="13"/>
-        <v>1042</v>
+        <v>1178</v>
       </c>
       <c r="B184" s="4">
         <f>B182</f>
@@ -30172,13 +30172,13 @@
       </c>
       <c r="G184" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1042, 261, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1178, 261, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f t="shared" si="13"/>
-        <v>1043</v>
+        <v>1179</v>
       </c>
       <c r="B185" s="4">
         <f>B181+1</f>
@@ -30198,13 +30198,13 @@
       </c>
       <c r="G185" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1043, 262, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1179, 262, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f t="shared" si="13"/>
-        <v>1044</v>
+        <v>1180</v>
       </c>
       <c r="B186" s="4">
         <f>B185</f>
@@ -30224,13 +30224,13 @@
       </c>
       <c r="G186" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1044, 262, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1180, 262, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f t="shared" si="13"/>
-        <v>1045</v>
+        <v>1181</v>
       </c>
       <c r="B187" s="4">
         <f>B185</f>
@@ -30250,13 +30250,13 @@
       </c>
       <c r="G187" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1045, 262, 46, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1181, 262, 46, null, null, 2);</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f t="shared" si="13"/>
-        <v>1046</v>
+        <v>1182</v>
       </c>
       <c r="B188" s="4">
         <f>B186</f>
@@ -30276,13 +30276,13 @@
       </c>
       <c r="G188" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1046, 262, 46, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1182, 262, 46, null, null, 1);</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f t="shared" si="13"/>
-        <v>1047</v>
+        <v>1183</v>
       </c>
       <c r="B189" s="4">
         <f>B185+1</f>
@@ -30302,13 +30302,13 @@
       </c>
       <c r="G189" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1047, 263, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1183, 263, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f t="shared" si="13"/>
-        <v>1048</v>
+        <v>1184</v>
       </c>
       <c r="B190" s="4">
         <f>B189</f>
@@ -30328,13 +30328,13 @@
       </c>
       <c r="G190" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1048, 263, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1184, 263, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f t="shared" si="13"/>
-        <v>1049</v>
+        <v>1185</v>
       </c>
       <c r="B191" s="4">
         <f t="shared" ref="B191:B192" si="14">B189</f>
@@ -30354,13 +30354,13 @@
       </c>
       <c r="G191" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1049, 263, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1185, 263, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f t="shared" si="13"/>
-        <v>1050</v>
+        <v>1186</v>
       </c>
       <c r="B192" s="4">
         <f t="shared" si="14"/>
@@ -30380,13 +30380,13 @@
       </c>
       <c r="G192" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1050, 263, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1186, 263, 353, null, null, 1);</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f t="shared" si="13"/>
-        <v>1051</v>
+        <v>1187</v>
       </c>
       <c r="B193" s="4">
         <f>B189+1</f>
@@ -30406,13 +30406,13 @@
       </c>
       <c r="G193" s="4" t="str">
         <f t="shared" ref="G193:G256" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A193 &amp; ", " &amp; B193 &amp; ", " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1051, 264, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 264, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f t="shared" si="13"/>
-        <v>1052</v>
+        <v>1188</v>
       </c>
       <c r="B194" s="4">
         <f>B193</f>
@@ -30432,13 +30432,13 @@
       </c>
       <c r="G194" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1052, 264, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1188, 264, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f t="shared" si="13"/>
-        <v>1053</v>
+        <v>1189</v>
       </c>
       <c r="B195" s="4">
         <f t="shared" ref="B195:B196" si="16">B193</f>
@@ -30458,13 +30458,13 @@
       </c>
       <c r="G195" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1053, 264, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1189, 264, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f t="shared" si="13"/>
-        <v>1054</v>
+        <v>1190</v>
       </c>
       <c r="B196" s="4">
         <f t="shared" si="16"/>
@@ -30484,13 +30484,13 @@
       </c>
       <c r="G196" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1054, 264, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1190, 264, 353, null, null, 1);</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f t="shared" si="13"/>
-        <v>1055</v>
+        <v>1191</v>
       </c>
       <c r="B197" s="4">
         <f>B193+1</f>
@@ -30510,13 +30510,13 @@
       </c>
       <c r="G197" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1055, 265, 46, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1191, 265, 46, null, null, 2);</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f t="shared" si="13"/>
-        <v>1056</v>
+        <v>1192</v>
       </c>
       <c r="B198" s="4">
         <f>B197</f>
@@ -30536,13 +30536,13 @@
       </c>
       <c r="G198" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1056, 265, 46, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1192, 265, 46, null, null, 1);</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f t="shared" si="13"/>
-        <v>1057</v>
+        <v>1193</v>
       </c>
       <c r="B199" s="4">
         <f t="shared" ref="B199:B200" si="17">B197</f>
@@ -30562,13 +30562,13 @@
       </c>
       <c r="G199" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1057, 265, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1193, 265, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f t="shared" si="13"/>
-        <v>1058</v>
+        <v>1194</v>
       </c>
       <c r="B200" s="4">
         <f t="shared" si="17"/>
@@ -30588,13 +30588,13 @@
       </c>
       <c r="G200" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1058, 265, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1194, 265, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f t="shared" si="13"/>
-        <v>1059</v>
+        <v>1195</v>
       </c>
       <c r="B201" s="4">
         <f>B197+1</f>
@@ -30614,13 +30614,13 @@
       </c>
       <c r="G201" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1059, 266, 43, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1195, 266, 43, null, null, 2);</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f t="shared" si="13"/>
-        <v>1060</v>
+        <v>1196</v>
       </c>
       <c r="B202" s="4">
         <f>B201</f>
@@ -30640,13 +30640,13 @@
       </c>
       <c r="G202" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1060, 266, 43, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1196, 266, 43, null, null, 1);</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f t="shared" si="13"/>
-        <v>1061</v>
+        <v>1197</v>
       </c>
       <c r="B203" s="4">
         <f t="shared" ref="B203:B204" si="18">B201</f>
@@ -30666,13 +30666,13 @@
       </c>
       <c r="G203" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1061, 266, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1197, 266, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f t="shared" si="13"/>
-        <v>1062</v>
+        <v>1198</v>
       </c>
       <c r="B204" s="4">
         <f t="shared" si="18"/>
@@ -30692,13 +30692,13 @@
       </c>
       <c r="G204" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1062, 266, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1198, 266, 36, null, null, 1);</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f t="shared" si="13"/>
-        <v>1063</v>
+        <v>1199</v>
       </c>
       <c r="B205" s="4">
         <f>B201+1</f>
@@ -30718,13 +30718,13 @@
       </c>
       <c r="G205" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1063, 267, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1199, 267, 351, null, null, 2);</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f t="shared" si="13"/>
-        <v>1064</v>
+        <v>1200</v>
       </c>
       <c r="B206" s="4">
         <f>B205</f>
@@ -30744,13 +30744,13 @@
       </c>
       <c r="G206" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1064, 267, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1200, 267, 351, null, null, 1);</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>1201</v>
       </c>
       <c r="B207" s="4">
         <f t="shared" ref="B207:B208" si="19">B205</f>
@@ -30770,13 +30770,13 @@
       </c>
       <c r="G207" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1065, 267, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1201, 267, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f t="shared" si="13"/>
-        <v>1066</v>
+        <v>1202</v>
       </c>
       <c r="B208" s="4">
         <f t="shared" si="19"/>
@@ -30796,13 +30796,13 @@
       </c>
       <c r="G208" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1066, 267, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1202, 267, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f t="shared" si="13"/>
-        <v>1067</v>
+        <v>1203</v>
       </c>
       <c r="B209" s="4">
         <f>B205+1</f>
@@ -30822,13 +30822,13 @@
       </c>
       <c r="G209" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1067, 268, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1203, 268, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f t="shared" si="13"/>
-        <v>1068</v>
+        <v>1204</v>
       </c>
       <c r="B210" s="4">
         <f>B209</f>
@@ -30848,13 +30848,13 @@
       </c>
       <c r="G210" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1068, 268, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1204, 268, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f t="shared" ref="A211:A274" si="20">A210+1</f>
-        <v>1069</v>
+        <v>1205</v>
       </c>
       <c r="B211" s="4">
         <f t="shared" ref="B211:B212" si="21">B209</f>
@@ -30874,13 +30874,13 @@
       </c>
       <c r="G211" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1069, 268, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1205, 268, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f t="shared" si="20"/>
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="B212" s="4">
         <f t="shared" si="21"/>
@@ -30900,13 +30900,13 @@
       </c>
       <c r="G212" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1070, 268, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1206, 268, 36, null, null, 1);</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f t="shared" si="20"/>
-        <v>1071</v>
+        <v>1207</v>
       </c>
       <c r="B213" s="4">
         <f>B209+1</f>
@@ -30926,13 +30926,13 @@
       </c>
       <c r="G213" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1071, 269, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1207, 269, 351, null, null, 2);</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f t="shared" si="20"/>
-        <v>1072</v>
+        <v>1208</v>
       </c>
       <c r="B214" s="4">
         <f>B213</f>
@@ -30952,13 +30952,13 @@
       </c>
       <c r="G214" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1072, 269, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1208, 269, 351, null, null, 1);</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f t="shared" si="20"/>
-        <v>1073</v>
+        <v>1209</v>
       </c>
       <c r="B215" s="4">
         <f t="shared" ref="B215:B216" si="22">B213</f>
@@ -30978,13 +30978,13 @@
       </c>
       <c r="G215" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1073, 269, 43, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1209, 269, 43, null, null, 2);</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f t="shared" si="20"/>
-        <v>1074</v>
+        <v>1210</v>
       </c>
       <c r="B216" s="4">
         <f t="shared" si="22"/>
@@ -31004,13 +31004,13 @@
       </c>
       <c r="G216" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1074, 269, 43, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1210, 269, 43, null, null, 1);</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f t="shared" si="20"/>
-        <v>1075</v>
+        <v>1211</v>
       </c>
       <c r="B217" s="4">
         <f>B213+1</f>
@@ -31030,13 +31030,13 @@
       </c>
       <c r="G217" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 270, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1211, 270, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f t="shared" si="20"/>
-        <v>1076</v>
+        <v>1212</v>
       </c>
       <c r="B218" s="4">
         <f>B217</f>
@@ -31056,13 +31056,13 @@
       </c>
       <c r="G218" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 270, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1212, 270, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f t="shared" si="20"/>
-        <v>1077</v>
+        <v>1213</v>
       </c>
       <c r="B219" s="4">
         <f t="shared" ref="B219:B220" si="23">B217</f>
@@ -31082,13 +31082,13 @@
       </c>
       <c r="G219" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 270, 43, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1213, 270, 43, null, null, 2);</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f t="shared" si="20"/>
-        <v>1078</v>
+        <v>1214</v>
       </c>
       <c r="B220" s="4">
         <f t="shared" si="23"/>
@@ -31108,13 +31108,13 @@
       </c>
       <c r="G220" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 270, 43, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1214, 270, 43, null, null, 1);</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f t="shared" si="20"/>
-        <v>1079</v>
+        <v>1215</v>
       </c>
       <c r="B221" s="4">
         <f>B217+1</f>
@@ -31134,13 +31134,13 @@
       </c>
       <c r="G221" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 271, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1215, 271, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f t="shared" si="20"/>
-        <v>1080</v>
+        <v>1216</v>
       </c>
       <c r="B222" s="4">
         <f>B221</f>
@@ -31160,13 +31160,13 @@
       </c>
       <c r="G222" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 271, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1216, 271, 36, null, null, 1);</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f t="shared" si="20"/>
-        <v>1081</v>
+        <v>1217</v>
       </c>
       <c r="B223" s="4">
         <f t="shared" ref="B223:B224" si="24">B221</f>
@@ -31186,13 +31186,13 @@
       </c>
       <c r="G223" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 271, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1217, 271, 351, null, null, 2);</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f t="shared" si="20"/>
-        <v>1082</v>
+        <v>1218</v>
       </c>
       <c r="B224" s="4">
         <f t="shared" si="24"/>
@@ -31212,13 +31212,13 @@
       </c>
       <c r="G224" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 271, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1218, 271, 351, null, null, 1);</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f t="shared" si="20"/>
-        <v>1083</v>
+        <v>1219</v>
       </c>
       <c r="B225" s="4">
         <f>B221+1</f>
@@ -31238,13 +31238,13 @@
       </c>
       <c r="G225" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 272, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 272, null, null, null, 2);</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f t="shared" si="20"/>
-        <v>1084</v>
+        <v>1220</v>
       </c>
       <c r="B226" s="4">
         <f>B225</f>
@@ -31264,13 +31264,13 @@
       </c>
       <c r="G226" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 272, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 272, null, null, null, 1);</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f t="shared" si="20"/>
-        <v>1085</v>
+        <v>1221</v>
       </c>
       <c r="B227" s="4">
         <f t="shared" ref="B227:B228" si="25">B225</f>
@@ -31290,13 +31290,13 @@
       </c>
       <c r="G227" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 272, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 272, null, null, null, 2);</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f t="shared" si="20"/>
-        <v>1086</v>
+        <v>1222</v>
       </c>
       <c r="B228" s="4">
         <f t="shared" si="25"/>
@@ -31316,13 +31316,13 @@
       </c>
       <c r="G228" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 272, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 272, null, null, null, 1);</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f t="shared" si="20"/>
-        <v>1087</v>
+        <v>1223</v>
       </c>
       <c r="B229" s="4">
         <f>B225+1</f>
@@ -31342,13 +31342,13 @@
       </c>
       <c r="G229" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 273, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 273, null, null, null, 2);</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f t="shared" si="20"/>
-        <v>1088</v>
+        <v>1224</v>
       </c>
       <c r="B230" s="4">
         <f>B229</f>
@@ -31368,13 +31368,13 @@
       </c>
       <c r="G230" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 273, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 273, null, null, null, 1);</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f t="shared" si="20"/>
-        <v>1089</v>
+        <v>1225</v>
       </c>
       <c r="B231" s="4">
         <f t="shared" ref="B231:B232" si="26">B229</f>
@@ -31394,13 +31394,13 @@
       </c>
       <c r="G231" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 273, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 273, null, null, null, 2);</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f t="shared" si="20"/>
-        <v>1090</v>
+        <v>1226</v>
       </c>
       <c r="B232" s="4">
         <f t="shared" si="26"/>
@@ -31420,13 +31420,13 @@
       </c>
       <c r="G232" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 273, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 273, null, null, null, 1);</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f t="shared" si="20"/>
-        <v>1091</v>
+        <v>1227</v>
       </c>
       <c r="B233" s="4">
         <f>B229+1</f>
@@ -31446,13 +31446,13 @@
       </c>
       <c r="G233" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 274, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 274, null, null, null, 2);</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f t="shared" si="20"/>
-        <v>1092</v>
+        <v>1228</v>
       </c>
       <c r="B234" s="4">
         <f>B233</f>
@@ -31472,13 +31472,13 @@
       </c>
       <c r="G234" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 274, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 274, null, null, null, 1);</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f t="shared" si="20"/>
-        <v>1093</v>
+        <v>1229</v>
       </c>
       <c r="B235" s="4">
         <f t="shared" ref="B235:B236" si="27">B233</f>
@@ -31498,13 +31498,13 @@
       </c>
       <c r="G235" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 274, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 274, null, null, null, 2);</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f t="shared" si="20"/>
-        <v>1094</v>
+        <v>1230</v>
       </c>
       <c r="B236" s="4">
         <f t="shared" si="27"/>
@@ -31524,13 +31524,13 @@
       </c>
       <c r="G236" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 274, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 274, null, null, null, 1);</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f t="shared" si="20"/>
-        <v>1095</v>
+        <v>1231</v>
       </c>
       <c r="B237" s="4">
         <f>B233+1</f>
@@ -31550,13 +31550,13 @@
       </c>
       <c r="G237" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 275, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 275, null, null, null, 2);</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f t="shared" si="20"/>
-        <v>1096</v>
+        <v>1232</v>
       </c>
       <c r="B238" s="4">
         <f>B237</f>
@@ -31576,13 +31576,13 @@
       </c>
       <c r="G238" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 275, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 275, null, null, null, 1);</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f t="shared" si="20"/>
-        <v>1097</v>
+        <v>1233</v>
       </c>
       <c r="B239" s="4">
         <f t="shared" ref="B239:B240" si="28">B237</f>
@@ -31602,13 +31602,13 @@
       </c>
       <c r="G239" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 275, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 275, null, null, null, 2);</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f t="shared" si="20"/>
-        <v>1098</v>
+        <v>1234</v>
       </c>
       <c r="B240" s="4">
         <f t="shared" si="28"/>
@@ -31628,13 +31628,13 @@
       </c>
       <c r="G240" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 275, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 275, null, null, null, 1);</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f t="shared" si="20"/>
-        <v>1099</v>
+        <v>1235</v>
       </c>
       <c r="B241" s="4">
         <f>B237+1</f>
@@ -31654,13 +31654,13 @@
       </c>
       <c r="G241" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 276, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 276, null, null, null, 2);</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f t="shared" si="20"/>
-        <v>1100</v>
+        <v>1236</v>
       </c>
       <c r="B242" s="4">
         <f>B241</f>
@@ -31680,13 +31680,13 @@
       </c>
       <c r="G242" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 276, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 276, null, null, null, 1);</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f t="shared" si="20"/>
-        <v>1101</v>
+        <v>1237</v>
       </c>
       <c r="B243" s="4">
         <f t="shared" ref="B243:B244" si="29">B241</f>
@@ -31706,13 +31706,13 @@
       </c>
       <c r="G243" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 276, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 276, null, null, null, 2);</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f t="shared" si="20"/>
-        <v>1102</v>
+        <v>1238</v>
       </c>
       <c r="B244" s="4">
         <f t="shared" si="29"/>
@@ -31732,13 +31732,13 @@
       </c>
       <c r="G244" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 276, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 276, null, null, null, 1);</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f t="shared" si="20"/>
-        <v>1103</v>
+        <v>1239</v>
       </c>
       <c r="B245" s="4">
         <f>B241+1</f>
@@ -31758,13 +31758,13 @@
       </c>
       <c r="G245" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 277, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 277, null, null, null, 2);</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f t="shared" si="20"/>
-        <v>1104</v>
+        <v>1240</v>
       </c>
       <c r="B246" s="4">
         <f>B245</f>
@@ -31784,13 +31784,13 @@
       </c>
       <c r="G246" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 277, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 277, null, null, null, 1);</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f t="shared" si="20"/>
-        <v>1105</v>
+        <v>1241</v>
       </c>
       <c r="B247" s="4">
         <f t="shared" ref="B247:B248" si="30">B245</f>
@@ -31810,13 +31810,13 @@
       </c>
       <c r="G247" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 277, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 277, null, null, null, 2);</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f t="shared" si="20"/>
-        <v>1106</v>
+        <v>1242</v>
       </c>
       <c r="B248" s="4">
         <f t="shared" si="30"/>
@@ -31836,13 +31836,13 @@
       </c>
       <c r="G248" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 277, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 277, null, null, null, 1);</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f t="shared" si="20"/>
-        <v>1107</v>
+        <v>1243</v>
       </c>
       <c r="B249" s="4">
         <f>B245+1</f>
@@ -31862,13 +31862,13 @@
       </c>
       <c r="G249" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 278, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 278, null, null, null, 2);</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f t="shared" si="20"/>
-        <v>1108</v>
+        <v>1244</v>
       </c>
       <c r="B250" s="4">
         <f>B249</f>
@@ -31888,13 +31888,13 @@
       </c>
       <c r="G250" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 278, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 278, null, null, null, 1);</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f t="shared" si="20"/>
-        <v>1109</v>
+        <v>1245</v>
       </c>
       <c r="B251" s="4">
         <f t="shared" ref="B251:B252" si="31">B249</f>
@@ -31914,13 +31914,13 @@
       </c>
       <c r="G251" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 278, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 278, null, null, null, 2);</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f t="shared" si="20"/>
-        <v>1110</v>
+        <v>1246</v>
       </c>
       <c r="B252" s="4">
         <f t="shared" si="31"/>
@@ -31940,13 +31940,13 @@
       </c>
       <c r="G252" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 278, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 278, null, null, null, 1);</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f t="shared" si="20"/>
-        <v>1111</v>
+        <v>1247</v>
       </c>
       <c r="B253" s="4">
         <f>B249+1</f>
@@ -31966,13 +31966,13 @@
       </c>
       <c r="G253" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 279, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 279, null, null, null, 2);</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f t="shared" si="20"/>
-        <v>1112</v>
+        <v>1248</v>
       </c>
       <c r="B254" s="4">
         <f>B253</f>
@@ -31992,13 +31992,13 @@
       </c>
       <c r="G254" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 279, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 279, null, null, null, 1);</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f t="shared" si="20"/>
-        <v>1113</v>
+        <v>1249</v>
       </c>
       <c r="B255" s="4">
         <f t="shared" ref="B255:B256" si="32">B253</f>
@@ -32018,13 +32018,13 @@
       </c>
       <c r="G255" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 279, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 279, null, null, null, 2);</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f t="shared" si="20"/>
-        <v>1114</v>
+        <v>1250</v>
       </c>
       <c r="B256" s="4">
         <f t="shared" si="32"/>
@@ -32044,13 +32044,13 @@
       </c>
       <c r="G256" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 279, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 279, null, null, null, 1);</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f t="shared" si="20"/>
-        <v>1115</v>
+        <v>1251</v>
       </c>
       <c r="B257" s="4">
         <f>B253+1</f>
@@ -32070,13 +32070,13 @@
       </c>
       <c r="G257" s="4" t="str">
         <f t="shared" ref="G257:G284" si="33">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A257 &amp; ", " &amp; B257 &amp; ", " &amp; C257 &amp; ", " &amp; D257 &amp; ", " &amp; E257 &amp; ", " &amp; F257 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 280, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1251, 280, null, null, null, 2);</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f t="shared" si="20"/>
-        <v>1116</v>
+        <v>1252</v>
       </c>
       <c r="B258" s="4">
         <f>B257</f>
@@ -32096,13 +32096,13 @@
       </c>
       <c r="G258" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 280, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1252, 280, null, null, null, 1);</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f t="shared" si="20"/>
-        <v>1117</v>
+        <v>1253</v>
       </c>
       <c r="B259" s="4">
         <f t="shared" ref="B259:B260" si="34">B257</f>
@@ -32122,13 +32122,13 @@
       </c>
       <c r="G259" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 280, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1253, 280, null, null, null, 2);</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f t="shared" si="20"/>
-        <v>1118</v>
+        <v>1254</v>
       </c>
       <c r="B260" s="4">
         <f t="shared" si="34"/>
@@ -32148,13 +32148,13 @@
       </c>
       <c r="G260" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 280, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1254, 280, null, null, null, 1);</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f t="shared" si="20"/>
-        <v>1119</v>
+        <v>1255</v>
       </c>
       <c r="B261" s="4">
         <f>B257+1</f>
@@ -32174,13 +32174,13 @@
       </c>
       <c r="G261" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 281, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1255, 281, null, null, null, 2);</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f t="shared" si="20"/>
-        <v>1120</v>
+        <v>1256</v>
       </c>
       <c r="B262" s="4">
         <f>B261</f>
@@ -32200,13 +32200,13 @@
       </c>
       <c r="G262" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 281, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1256, 281, null, null, null, 1);</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f t="shared" si="20"/>
-        <v>1121</v>
+        <v>1257</v>
       </c>
       <c r="B263" s="4">
         <f t="shared" ref="B263:B264" si="35">B261</f>
@@ -32226,13 +32226,13 @@
       </c>
       <c r="G263" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 281, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1257, 281, null, null, null, 2);</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f t="shared" si="20"/>
-        <v>1122</v>
+        <v>1258</v>
       </c>
       <c r="B264" s="4">
         <f t="shared" si="35"/>
@@ -32252,13 +32252,13 @@
       </c>
       <c r="G264" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 281, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1258, 281, null, null, null, 1);</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f t="shared" si="20"/>
-        <v>1123</v>
+        <v>1259</v>
       </c>
       <c r="B265" s="4">
         <f>B261+1</f>
@@ -32278,13 +32278,13 @@
       </c>
       <c r="G265" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 282, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1259, 282, null, null, null, 2);</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f t="shared" si="20"/>
-        <v>1124</v>
+        <v>1260</v>
       </c>
       <c r="B266" s="4">
         <f>B265</f>
@@ -32304,13 +32304,13 @@
       </c>
       <c r="G266" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 282, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1260, 282, null, null, null, 1);</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f t="shared" si="20"/>
-        <v>1125</v>
+        <v>1261</v>
       </c>
       <c r="B267" s="4">
         <f t="shared" ref="B267:B268" si="36">B265</f>
@@ -32330,13 +32330,13 @@
       </c>
       <c r="G267" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 282, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 282, null, null, null, 2);</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f t="shared" si="20"/>
-        <v>1126</v>
+        <v>1262</v>
       </c>
       <c r="B268" s="4">
         <f t="shared" si="36"/>
@@ -32356,13 +32356,13 @@
       </c>
       <c r="G268" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 282, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 282, null, null, null, 1);</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f t="shared" si="20"/>
-        <v>1127</v>
+        <v>1263</v>
       </c>
       <c r="B269" s="4">
         <f>B265+1</f>
@@ -32382,13 +32382,13 @@
       </c>
       <c r="G269" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 283, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 283, null, null, null, 2);</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f t="shared" si="20"/>
-        <v>1128</v>
+        <v>1264</v>
       </c>
       <c r="B270" s="4">
         <f>B269</f>
@@ -32408,13 +32408,13 @@
       </c>
       <c r="G270" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 283, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 283, null, null, null, 1);</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f t="shared" si="20"/>
-        <v>1129</v>
+        <v>1265</v>
       </c>
       <c r="B271" s="4">
         <f t="shared" ref="B271:B272" si="37">B269</f>
@@ -32434,13 +32434,13 @@
       </c>
       <c r="G271" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 283, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 283, null, null, null, 2);</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f t="shared" si="20"/>
-        <v>1130</v>
+        <v>1266</v>
       </c>
       <c r="B272" s="4">
         <f t="shared" si="37"/>
@@ -32460,13 +32460,13 @@
       </c>
       <c r="G272" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 283, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 283, null, null, null, 1);</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f t="shared" si="20"/>
-        <v>1131</v>
+        <v>1267</v>
       </c>
       <c r="B273" s="4">
         <f>B269+1</f>
@@ -32486,13 +32486,13 @@
       </c>
       <c r="G273" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 284, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f t="shared" si="20"/>
-        <v>1132</v>
+        <v>1268</v>
       </c>
       <c r="B274" s="4">
         <f>B273</f>
@@ -32512,13 +32512,13 @@
       </c>
       <c r="G274" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 284, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 284, null, null, null, 1);</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f t="shared" ref="A275:A284" si="38">A274+1</f>
-        <v>1133</v>
+        <v>1269</v>
       </c>
       <c r="B275" s="4">
         <f t="shared" ref="B275:B276" si="39">B273</f>
@@ -32538,13 +32538,13 @@
       </c>
       <c r="G275" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 284, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f t="shared" si="38"/>
-        <v>1134</v>
+        <v>1270</v>
       </c>
       <c r="B276" s="4">
         <f t="shared" si="39"/>
@@ -32564,13 +32564,13 @@
       </c>
       <c r="G276" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 284, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 284, null, null, null, 1);</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f t="shared" si="38"/>
-        <v>1135</v>
+        <v>1271</v>
       </c>
       <c r="B277" s="4">
         <f>B273+1</f>
@@ -32590,13 +32590,13 @@
       </c>
       <c r="G277" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 285, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 285, null, null, null, 2);</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f t="shared" si="38"/>
-        <v>1136</v>
+        <v>1272</v>
       </c>
       <c r="B278" s="4">
         <f>B277</f>
@@ -32616,13 +32616,13 @@
       </c>
       <c r="G278" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 285, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 285, null, null, null, 1);</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f t="shared" si="38"/>
-        <v>1137</v>
+        <v>1273</v>
       </c>
       <c r="B279" s="4">
         <f t="shared" ref="B279:B280" si="40">B277</f>
@@ -32642,13 +32642,13 @@
       </c>
       <c r="G279" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 285, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 285, null, null, null, 2);</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f t="shared" si="38"/>
-        <v>1138</v>
+        <v>1274</v>
       </c>
       <c r="B280" s="4">
         <f t="shared" si="40"/>
@@ -32668,13 +32668,13 @@
       </c>
       <c r="G280" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 285, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 285, null, null, null, 1);</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f t="shared" si="38"/>
-        <v>1139</v>
+        <v>1275</v>
       </c>
       <c r="B281" s="4">
         <f>B277+1</f>
@@ -32694,13 +32694,13 @@
       </c>
       <c r="G281" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 286, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 286, null, null, null, 2);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f t="shared" si="38"/>
-        <v>1140</v>
+        <v>1276</v>
       </c>
       <c r="B282" s="4">
         <f>B281</f>
@@ -32720,13 +32720,13 @@
       </c>
       <c r="G282" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 286, null, null, null, 1);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f t="shared" si="38"/>
-        <v>1141</v>
+        <v>1277</v>
       </c>
       <c r="B283" s="4">
         <f t="shared" ref="B283:B284" si="41">B281</f>
@@ -32746,13 +32746,13 @@
       </c>
       <c r="G283" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 286, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 286, null, null, null, 2);</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f t="shared" si="38"/>
-        <v>1142</v>
+        <v>1278</v>
       </c>
       <c r="B284" s="4">
         <f t="shared" si="41"/>
@@ -32772,7 +32772,7 @@
       </c>
       <c r="G284" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 286, null, null, null, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1960" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="1976" sheetId="51" r:id="rId5"/>
     <sheet name="1980" sheetId="53" r:id="rId6"/>
     <sheet name="1984" sheetId="54" r:id="rId7"/>
-    <sheet name="1992" sheetId="56" r:id="rId8"/>
-    <sheet name="1988" sheetId="55" r:id="rId9"/>
+    <sheet name="1988" sheetId="55" r:id="rId8"/>
+    <sheet name="1992" sheetId="56" r:id="rId9"/>
     <sheet name="1996" sheetId="57" r:id="rId10"/>
     <sheet name="2000" sheetId="58" r:id="rId11"/>
     <sheet name="2004" sheetId="59" r:id="rId12"/>
@@ -26046,7 +26046,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" t="str">
+      <c r="G28" s="4" t="str">
         <f t="shared" ref="G28:G78" si="6">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A28 &amp; ", '" &amp; B28 &amp; "', " &amp; C28 &amp; ", " &amp; D28 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (236, '2016-06-10', 2, 33);</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" t="str">
+      <c r="G29" s="4" t="str">
         <f t="shared" si="6"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (237, '2016-06-11', 2, 33);</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" t="str">
+      <c r="G30" s="4" t="str">
         <f t="shared" si="6"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (238, '2016-06-15', 2, 33);</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" t="str">
+      <c r="G31" s="4" t="str">
         <f t="shared" si="6"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (239, '2016-06-15', 2, 33);</v>
       </c>
@@ -27405,108 +27405,108 @@
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <f>'2012'!A188+1</f>
         <v>1075</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <f>A28</f>
         <v>236</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>33</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="4">
-        <v>2</v>
-      </c>
-      <c r="G81" s="4" t="str">
+      <c r="D81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2</v>
+      </c>
+      <c r="G81" s="3" t="str">
         <f t="shared" ref="G81:G144" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A81 &amp; ", " &amp; B81 &amp; ", " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 236, 33, null, null, 2);</v>
       </c>
       <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <f>A81+1</f>
         <v>1076</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <f>B81</f>
         <v>236</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>33</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-      <c r="G82" s="4" t="str">
+      <c r="D82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 236, 33, null, null, 1);</v>
       </c>
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <f t="shared" ref="A83:A146" si="11">A82+1</f>
         <v>1077</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <f>B81</f>
         <v>236</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>40</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="4">
-        <v>2</v>
-      </c>
-      <c r="G83" s="4" t="str">
+      <c r="D83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 236, 40, null, null, 2);</v>
       </c>
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <f t="shared" si="11"/>
         <v>1078</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <f>B81</f>
         <v>236</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>40</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1</v>
-      </c>
-      <c r="G84" s="4" t="str">
+      <c r="D84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 236, 40, null, null, 1);</v>
       </c>
@@ -27621,108 +27621,108 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <f t="shared" si="11"/>
         <v>1083</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <f>B85+1</f>
         <v>238</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>40</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="4">
-        <v>2</v>
-      </c>
-      <c r="G89" s="4" t="str">
+      <c r="D89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2</v>
+      </c>
+      <c r="G89" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 238, 40, null, null, 2);</v>
       </c>
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <f t="shared" si="11"/>
         <v>1084</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <f>B89</f>
         <v>238</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>40</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="4">
-        <v>1</v>
-      </c>
-      <c r="G90" s="4" t="str">
+      <c r="D90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 238, 40, null, null, 1);</v>
       </c>
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <f t="shared" si="11"/>
         <v>1085</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <f>B89</f>
         <v>238</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>41</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="4">
-        <v>2</v>
-      </c>
-      <c r="G91" s="4" t="str">
+      <c r="D91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 238, 41, null, null, 2);</v>
       </c>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <f t="shared" si="11"/>
         <v>1086</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <f>B89</f>
         <v>238</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>41</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1</v>
-      </c>
-      <c r="G92" s="4" t="str">
+      <c r="D92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 238, 41, null, null, 1);</v>
       </c>
@@ -27837,108 +27837,108 @@
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <f t="shared" si="11"/>
         <v>1091</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <f>B93+1</f>
         <v>240</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>40</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="4">
-        <v>2</v>
-      </c>
-      <c r="G97" s="4" t="str">
+      <c r="D97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 240, 40, null, null, 2);</v>
       </c>
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <f t="shared" si="11"/>
         <v>1092</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <f>B97</f>
         <v>240</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>40</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1</v>
-      </c>
-      <c r="G98" s="4" t="str">
+      <c r="D98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 240, 40, null, null, 1);</v>
       </c>
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <f t="shared" si="11"/>
         <v>1093</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <f>B97</f>
         <v>240</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>355</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2</v>
-      </c>
-      <c r="G99" s="4" t="str">
+      <c r="D99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 240, 355, null, null, 2);</v>
       </c>
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <f t="shared" si="11"/>
         <v>1094</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <f>B97</f>
         <v>240</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>355</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="4">
-        <v>1</v>
-      </c>
-      <c r="G100" s="4" t="str">
+      <c r="D100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 240, 355, null, null, 1);</v>
       </c>
@@ -28053,108 +28053,108 @@
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <f t="shared" si="11"/>
         <v>1099</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <f>B101+1</f>
         <v>242</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>4429</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="4">
-        <v>2</v>
-      </c>
-      <c r="G105" s="4" t="str">
+      <c r="D105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2</v>
+      </c>
+      <c r="G105" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 242, 4429, null, null, 2);</v>
       </c>
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <f t="shared" si="11"/>
         <v>1100</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <f>B105</f>
         <v>242</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>4429</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="4">
-        <v>1</v>
-      </c>
-      <c r="G106" s="4" t="str">
+      <c r="D106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 242, 4429, null, null, 1);</v>
       </c>
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <f t="shared" si="11"/>
         <v>1101</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <f>B105</f>
         <v>242</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>421</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="4">
-        <v>2</v>
-      </c>
-      <c r="G107" s="4" t="str">
+      <c r="D107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="3">
+        <v>2</v>
+      </c>
+      <c r="G107" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 242, 421, null, null, 2);</v>
       </c>
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <f t="shared" si="11"/>
         <v>1102</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <f>B105</f>
         <v>242</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>421</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" s="4">
-        <v>1</v>
-      </c>
-      <c r="G108" s="4" t="str">
+      <c r="D108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 242, 421, null, null, 1);</v>
       </c>
@@ -28269,108 +28269,108 @@
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <f t="shared" si="11"/>
         <v>1107</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <f>B109+1</f>
         <v>244</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>7</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="4">
-        <v>2</v>
-      </c>
-      <c r="G113" s="4" t="str">
+      <c r="D113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2</v>
+      </c>
+      <c r="G113" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 244, 7, null, null, 2);</v>
       </c>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <f t="shared" si="11"/>
         <v>1108</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <f>B113</f>
         <v>244</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>7</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" s="4">
-        <v>1</v>
-      </c>
-      <c r="G114" s="4" t="str">
+      <c r="D114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 244, 7, null, null, 1);</v>
       </c>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <f t="shared" si="11"/>
         <v>1109</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <f>B113</f>
         <v>244</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>421</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" s="4">
-        <v>2</v>
-      </c>
-      <c r="G115" s="4" t="str">
+      <c r="D115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2</v>
+      </c>
+      <c r="G115" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 244, 421, null, null, 2);</v>
       </c>
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <f t="shared" si="11"/>
         <v>1110</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <f>B113</f>
         <v>244</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>421</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="4">
-        <v>1</v>
-      </c>
-      <c r="G116" s="4" t="str">
+      <c r="D116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 244, 421, null, null, 1);</v>
       </c>
@@ -28485,108 +28485,108 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <f t="shared" si="11"/>
         <v>1115</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <f>B117+1</f>
         <v>246</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>7</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" s="4">
-        <v>2</v>
-      </c>
-      <c r="G121" s="4" t="str">
+      <c r="D121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2</v>
+      </c>
+      <c r="G121" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 246, 7, null, null, 2);</v>
       </c>
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <f t="shared" si="11"/>
         <v>1116</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <f>B121</f>
         <v>246</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>7</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1</v>
-      </c>
-      <c r="G122" s="4" t="str">
+      <c r="D122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 246, 7, null, null, 1);</v>
       </c>
       <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <f t="shared" si="11"/>
         <v>1117</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <f>B121</f>
         <v>246</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <v>4429</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="4">
-        <v>2</v>
-      </c>
-      <c r="G123" s="4" t="str">
+      <c r="D123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2</v>
+      </c>
+      <c r="G123" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 246, 4429, null, null, 2);</v>
       </c>
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <f t="shared" si="11"/>
         <v>1118</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <f>B121</f>
         <v>246</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>4429</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1</v>
-      </c>
-      <c r="G124" s="4" t="str">
+      <c r="D124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 246, 4429, null, null, 1);</v>
       </c>
@@ -28701,108 +28701,108 @@
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <f t="shared" si="11"/>
         <v>1123</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <f>B125+1</f>
         <v>248</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>48</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" s="4">
-        <v>2</v>
-      </c>
-      <c r="G129" s="4" t="str">
+      <c r="D129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="3">
+        <v>2</v>
+      </c>
+      <c r="G129" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 248, 48, null, null, 2);</v>
       </c>
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <f t="shared" si="11"/>
         <v>1124</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <f>B129</f>
         <v>248</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>48</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F130" s="4">
-        <v>1</v>
-      </c>
-      <c r="G130" s="4" t="str">
+      <c r="D130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 248, 48, null, null, 1);</v>
       </c>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <f t="shared" si="11"/>
         <v>1125</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <f>B129</f>
         <v>248</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>4428</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F131" s="4">
-        <v>2</v>
-      </c>
-      <c r="G131" s="4" t="str">
+      <c r="D131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2</v>
+      </c>
+      <c r="G131" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 248, 4428, null, null, 2);</v>
       </c>
       <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <f t="shared" si="11"/>
         <v>1126</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <f>B129</f>
         <v>248</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="3">
         <v>4428</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F132" s="4">
-        <v>1</v>
-      </c>
-      <c r="G132" s="4" t="str">
+      <c r="D132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 248, 4428, null, null, 1);</v>
       </c>
@@ -28917,108 +28917,108 @@
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <f t="shared" si="11"/>
         <v>1131</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <f>B133+1</f>
         <v>250</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>380</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="4">
-        <v>2</v>
-      </c>
-      <c r="G137" s="4" t="str">
+      <c r="D137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="3">
+        <v>2</v>
+      </c>
+      <c r="G137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 250, 380, null, null, 2);</v>
       </c>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <f t="shared" si="11"/>
         <v>1132</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <f>B137</f>
         <v>250</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>380</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="4">
-        <v>1</v>
-      </c>
-      <c r="G138" s="4" t="str">
+      <c r="D138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 250, 380, null, null, 1);</v>
       </c>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <f t="shared" si="11"/>
         <v>1133</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <f>B137</f>
         <v>250</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>4428</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F139" s="4">
-        <v>2</v>
-      </c>
-      <c r="G139" s="4" t="str">
+      <c r="D139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="3">
+        <v>2</v>
+      </c>
+      <c r="G139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 250, 4428, null, null, 2);</v>
       </c>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <f t="shared" si="11"/>
         <v>1134</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="3">
         <f>B137</f>
         <v>250</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>4428</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F140" s="4">
-        <v>1</v>
-      </c>
-      <c r="G140" s="4" t="str">
+      <c r="D140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 250, 4428, null, null, 1);</v>
       </c>
@@ -29133,108 +29133,108 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <f t="shared" si="11"/>
         <v>1139</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="3">
         <f>B141+1</f>
         <v>252</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>380</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F145" s="4">
-        <v>2</v>
-      </c>
-      <c r="G145" s="4" t="str">
+      <c r="D145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="3">
+        <v>2</v>
+      </c>
+      <c r="G145" s="3" t="str">
         <f t="shared" ref="G145:G192" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A145 &amp; ", " &amp; B145 &amp; ", " &amp; C145 &amp; ", " &amp; D145 &amp; ", " &amp; E145 &amp; ", " &amp; F145 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 252, 380, null, null, 2);</v>
       </c>
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <f t="shared" si="11"/>
         <v>1140</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="3">
         <f>B145</f>
         <v>252</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="3">
         <v>380</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F146" s="4">
-        <v>1</v>
-      </c>
-      <c r="G146" s="4" t="str">
+      <c r="D146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 252, 380, null, null, 1);</v>
       </c>
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <f t="shared" ref="A147:A210" si="13">A146+1</f>
         <v>1141</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="3">
         <f>B145</f>
         <v>252</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <v>48</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F147" s="4">
-        <v>2</v>
-      </c>
-      <c r="G147" s="4" t="str">
+      <c r="D147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="3">
+        <v>2</v>
+      </c>
+      <c r="G147" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 252, 48, null, null, 2);</v>
       </c>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <f t="shared" si="13"/>
         <v>1142</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="3">
         <f>B145</f>
         <v>252</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="3">
         <v>48</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" s="4">
-        <v>1</v>
-      </c>
-      <c r="G148" s="4" t="str">
+      <c r="D148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 252, 48, null, null, 1);</v>
       </c>
@@ -29344,105 +29344,105 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <f t="shared" si="13"/>
         <v>1147</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <f>B149+1</f>
         <v>254</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="3">
         <v>90</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F153" s="4">
-        <v>2</v>
-      </c>
-      <c r="G153" s="4" t="str">
+      <c r="D153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2</v>
+      </c>
+      <c r="G153" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 254, 90, null, null, 2);</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <f t="shared" si="13"/>
         <v>1148</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <f>B153</f>
         <v>254</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>90</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" s="4">
-        <v>1</v>
-      </c>
-      <c r="G154" s="4" t="str">
+      <c r="D154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 254, 90, null, null, 1);</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <f t="shared" si="13"/>
         <v>1149</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <f>B153</f>
         <v>254</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <v>385</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="4">
-        <v>2</v>
-      </c>
-      <c r="G155" s="4" t="str">
+      <c r="D155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="3">
+        <v>2</v>
+      </c>
+      <c r="G155" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 254, 385, null, null, 2);</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <f t="shared" si="13"/>
         <v>1150</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <f>B153</f>
         <v>254</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <v>385</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" s="4">
-        <v>1</v>
-      </c>
-      <c r="G156" s="4" t="str">
+      <c r="D156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 254, 385, null, null, 1);</v>
       </c>
@@ -29552,105 +29552,105 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <f t="shared" si="13"/>
         <v>1155</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <f>B157+1</f>
         <v>256</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="3">
         <v>420</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F161" s="4">
-        <v>2</v>
-      </c>
-      <c r="G161" s="4" t="str">
+      <c r="D161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="3">
+        <v>2</v>
+      </c>
+      <c r="G161" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 256, 420, null, null, 2);</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <f t="shared" si="13"/>
         <v>1156</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <f>B161</f>
         <v>256</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="3">
         <v>420</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F162" s="4">
-        <v>1</v>
-      </c>
-      <c r="G162" s="4" t="str">
+      <c r="D162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 256, 420, null, null, 1);</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <f t="shared" si="13"/>
         <v>1157</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <f>B161</f>
         <v>256</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>385</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" s="4">
-        <v>2</v>
-      </c>
-      <c r="G163" s="4" t="str">
+      <c r="D163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="3">
+        <v>2</v>
+      </c>
+      <c r="G163" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 256, 385, null, null, 2);</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <f t="shared" si="13"/>
         <v>1158</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <f>B161</f>
         <v>256</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>385</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" s="4">
-        <v>1</v>
-      </c>
-      <c r="G164" s="4" t="str">
+      <c r="D164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 256, 385, null, null, 1);</v>
       </c>
@@ -29760,105 +29760,105 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <f t="shared" si="13"/>
         <v>1163</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <f>B165+1</f>
         <v>258</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>420</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" s="4">
-        <v>2</v>
-      </c>
-      <c r="G169" s="4" t="str">
+      <c r="D169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2</v>
+      </c>
+      <c r="G169" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 258, 420, null, null, 2);</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <f t="shared" si="13"/>
         <v>1164</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <f>B169</f>
         <v>258</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>420</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F170" s="4">
-        <v>1</v>
-      </c>
-      <c r="G170" s="4" t="str">
+      <c r="D170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 258, 420, null, null, 1);</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <f t="shared" si="13"/>
         <v>1165</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <f>B169</f>
         <v>258</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>90</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F171" s="4">
-        <v>2</v>
-      </c>
-      <c r="G171" s="4" t="str">
+      <c r="D171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="3">
+        <v>2</v>
+      </c>
+      <c r="G171" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 258, 90, null, null, 2);</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <f t="shared" si="13"/>
         <v>1166</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="3">
         <f>B169</f>
         <v>258</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>90</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="4">
-        <v>1</v>
-      </c>
-      <c r="G172" s="4" t="str">
+      <c r="D172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 258, 90, null, null, 1);</v>
       </c>
@@ -29968,105 +29968,105 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <f t="shared" si="13"/>
         <v>1171</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <f>B173+1</f>
         <v>260</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>353</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F177" s="4">
-        <v>2</v>
-      </c>
-      <c r="G177" s="4" t="str">
+      <c r="D177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="3">
+        <v>2</v>
+      </c>
+      <c r="G177" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1171, 260, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <f t="shared" si="13"/>
         <v>1172</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <f>B177</f>
         <v>260</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="3">
         <v>353</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="4">
-        <v>1</v>
-      </c>
-      <c r="G178" s="4" t="str">
+      <c r="D178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1172, 260, 353, null, null, 1);</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <f t="shared" si="13"/>
         <v>1173</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <f>B177</f>
         <v>260</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="3">
         <v>46</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" s="4">
-        <v>2</v>
-      </c>
-      <c r="G179" s="4" t="str">
+      <c r="D179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2</v>
+      </c>
+      <c r="G179" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1173, 260, 46, null, null, 2);</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <f t="shared" si="13"/>
         <v>1174</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <f>B178</f>
         <v>260</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="3">
         <v>46</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" s="4">
-        <v>1</v>
-      </c>
-      <c r="G180" s="4" t="str">
+      <c r="D180" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1174, 260, 46, null, null, 1);</v>
       </c>
@@ -30176,105 +30176,105 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <f t="shared" si="13"/>
         <v>1179</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <f>B181+1</f>
         <v>262</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="3">
         <v>39</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="4">
-        <v>2</v>
-      </c>
-      <c r="G185" s="4" t="str">
+      <c r="D185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="3">
+        <v>2</v>
+      </c>
+      <c r="G185" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1179, 262, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <f t="shared" si="13"/>
         <v>1180</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <f>B185</f>
         <v>262</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="3">
         <v>39</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F186" s="4">
-        <v>1</v>
-      </c>
-      <c r="G186" s="4" t="str">
+      <c r="D186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1180, 262, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <f t="shared" si="13"/>
         <v>1181</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <f>B185</f>
         <v>262</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="3">
         <v>46</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F187" s="4">
-        <v>2</v>
-      </c>
-      <c r="G187" s="4" t="str">
+      <c r="D187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" s="3">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1181, 262, 46, null, null, 2);</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <f t="shared" si="13"/>
         <v>1182</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <f>B186</f>
         <v>262</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="3">
         <v>46</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F188" s="4">
-        <v>1</v>
-      </c>
-      <c r="G188" s="4" t="str">
+      <c r="D188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1182, 262, 46, null, null, 1);</v>
       </c>
@@ -30384,105 +30384,105 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <f t="shared" si="13"/>
         <v>1187</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <f>B189+1</f>
         <v>264</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="3">
         <v>39</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F193" s="4">
-        <v>2</v>
-      </c>
-      <c r="G193" s="4" t="str">
+      <c r="D193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="3">
+        <v>2</v>
+      </c>
+      <c r="G193" s="3" t="str">
         <f t="shared" ref="G193:G256" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A193 &amp; ", " &amp; B193 &amp; ", " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 264, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <f t="shared" si="13"/>
         <v>1188</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="3">
         <f>B193</f>
         <v>264</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="3">
         <v>39</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F194" s="4">
-        <v>1</v>
-      </c>
-      <c r="G194" s="4" t="str">
+      <c r="D194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1188, 264, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="3">
         <f t="shared" si="13"/>
         <v>1189</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="3">
         <f t="shared" ref="B195:B196" si="16">B193</f>
         <v>264</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="3">
         <v>353</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F195" s="4">
-        <v>2</v>
-      </c>
-      <c r="G195" s="4" t="str">
+      <c r="D195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="3">
+        <v>2</v>
+      </c>
+      <c r="G195" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1189, 264, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="3">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="3">
         <f t="shared" si="16"/>
         <v>264</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="3">
         <v>353</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F196" s="4">
-        <v>1</v>
-      </c>
-      <c r="G196" s="4" t="str">
+      <c r="D196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1190, 264, 353, null, null, 1);</v>
       </c>
@@ -30592,105 +30592,105 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="3">
         <f t="shared" si="13"/>
         <v>1195</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="3">
         <f>B197+1</f>
         <v>266</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="3">
         <v>43</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F201" s="4">
-        <v>2</v>
-      </c>
-      <c r="G201" s="4" t="str">
+      <c r="D201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="3">
+        <v>2</v>
+      </c>
+      <c r="G201" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1195, 266, 43, null, null, 2);</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="3">
         <f t="shared" si="13"/>
         <v>1196</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="3">
         <f>B201</f>
         <v>266</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="3">
         <v>43</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F202" s="4">
-        <v>1</v>
-      </c>
-      <c r="G202" s="4" t="str">
+      <c r="D202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1196, 266, 43, null, null, 1);</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="3">
         <f t="shared" si="13"/>
         <v>1197</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="3">
         <f t="shared" ref="B203:B204" si="18">B201</f>
         <v>266</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="3">
         <v>36</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F203" s="4">
-        <v>2</v>
-      </c>
-      <c r="G203" s="4" t="str">
+      <c r="D203" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="3">
+        <v>2</v>
+      </c>
+      <c r="G203" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1197, 266, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="3">
         <f t="shared" si="13"/>
         <v>1198</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="3">
         <f t="shared" si="18"/>
         <v>266</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="3">
         <v>36</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F204" s="4">
-        <v>1</v>
-      </c>
-      <c r="G204" s="4" t="str">
+      <c r="D204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1198, 266, 36, null, null, 1);</v>
       </c>
@@ -30800,105 +30800,105 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="3">
         <f t="shared" si="13"/>
         <v>1203</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="3">
         <f>B205+1</f>
         <v>268</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>354</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F209" s="4">
-        <v>2</v>
-      </c>
-      <c r="G209" s="4" t="str">
+      <c r="D209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" s="3">
+        <v>2</v>
+      </c>
+      <c r="G209" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1203, 268, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
         <f t="shared" si="13"/>
         <v>1204</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="3">
         <f>B209</f>
         <v>268</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>354</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F210" s="4">
-        <v>1</v>
-      </c>
-      <c r="G210" s="4" t="str">
+      <c r="D210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1204, 268, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="3">
         <f t="shared" ref="A211:A274" si="20">A210+1</f>
         <v>1205</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="3">
         <f t="shared" ref="B211:B212" si="21">B209</f>
         <v>268</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>36</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F211" s="4">
-        <v>2</v>
-      </c>
-      <c r="G211" s="4" t="str">
+      <c r="D211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" s="3">
+        <v>2</v>
+      </c>
+      <c r="G211" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1205, 268, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
+      <c r="A212" s="3">
         <f t="shared" si="20"/>
         <v>1206</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="3">
         <f t="shared" si="21"/>
         <v>268</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="3">
         <v>36</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F212" s="4">
-        <v>1</v>
-      </c>
-      <c r="G212" s="4" t="str">
+      <c r="D212" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1206, 268, 36, null, null, 1);</v>
       </c>
@@ -31008,105 +31008,105 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <f t="shared" si="20"/>
         <v>1211</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="3">
         <f>B213+1</f>
         <v>270</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="3">
         <v>354</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F217" s="4">
-        <v>2</v>
-      </c>
-      <c r="G217" s="4" t="str">
+      <c r="D217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="3">
+        <v>2</v>
+      </c>
+      <c r="G217" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1211, 270, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <f t="shared" si="20"/>
         <v>1212</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="3">
         <f>B217</f>
         <v>270</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="3">
         <v>354</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F218" s="4">
-        <v>1</v>
-      </c>
-      <c r="G218" s="4" t="str">
+      <c r="D218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1212, 270, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <f t="shared" si="20"/>
         <v>1213</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="3">
         <f t="shared" ref="B219:B220" si="23">B217</f>
         <v>270</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="3">
         <v>43</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F219" s="4">
-        <v>2</v>
-      </c>
-      <c r="G219" s="4" t="str">
+      <c r="D219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" s="3">
+        <v>2</v>
+      </c>
+      <c r="G219" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1213, 270, 43, null, null, 2);</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <f t="shared" si="20"/>
         <v>1214</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="3">
         <f t="shared" si="23"/>
         <v>270</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="3">
         <v>43</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F220" s="4">
-        <v>1</v>
-      </c>
-      <c r="G220" s="4" t="str">
+      <c r="D220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1214, 270, 43, null, null, 1);</v>
       </c>
@@ -31216,105 +31216,105 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="3">
         <f t="shared" si="20"/>
         <v>1219</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="3">
         <f>B221+1</f>
         <v>272</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F225" s="4">
-        <v>2</v>
-      </c>
-      <c r="G225" s="4" t="str">
+      <c r="C225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" s="3">
+        <v>2</v>
+      </c>
+      <c r="G225" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 272, null, null, null, 2);</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
+      <c r="A226" s="3">
         <f t="shared" si="20"/>
         <v>1220</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="3">
         <f>B225</f>
         <v>272</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F226" s="4">
-        <v>1</v>
-      </c>
-      <c r="G226" s="4" t="str">
+      <c r="C226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 272, null, null, null, 1);</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
+      <c r="A227" s="3">
         <f t="shared" si="20"/>
         <v>1221</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="3">
         <f t="shared" ref="B227:B228" si="25">B225</f>
         <v>272</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F227" s="4">
-        <v>2</v>
-      </c>
-      <c r="G227" s="4" t="str">
+      <c r="C227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" s="3">
+        <v>2</v>
+      </c>
+      <c r="G227" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 272, null, null, null, 2);</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
+      <c r="A228" s="3">
         <f t="shared" si="20"/>
         <v>1222</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="3">
         <f t="shared" si="25"/>
         <v>272</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1</v>
-      </c>
-      <c r="G228" s="4" t="str">
+      <c r="C228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 272, null, null, null, 1);</v>
       </c>
@@ -31424,105 +31424,105 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="4">
+      <c r="A233" s="3">
         <f t="shared" si="20"/>
         <v>1227</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="3">
         <f>B229+1</f>
         <v>274</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F233" s="4">
-        <v>2</v>
-      </c>
-      <c r="G233" s="4" t="str">
+      <c r="C233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F233" s="3">
+        <v>2</v>
+      </c>
+      <c r="G233" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 274, null, null, null, 2);</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="4">
+      <c r="A234" s="3">
         <f t="shared" si="20"/>
         <v>1228</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="3">
         <f>B233</f>
         <v>274</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F234" s="4">
-        <v>1</v>
-      </c>
-      <c r="G234" s="4" t="str">
+      <c r="C234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="3">
+        <v>1</v>
+      </c>
+      <c r="G234" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 274, null, null, null, 1);</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="4">
+      <c r="A235" s="3">
         <f t="shared" si="20"/>
         <v>1229</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="3">
         <f t="shared" ref="B235:B236" si="27">B233</f>
         <v>274</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F235" s="4">
-        <v>2</v>
-      </c>
-      <c r="G235" s="4" t="str">
+      <c r="C235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" s="3">
+        <v>2</v>
+      </c>
+      <c r="G235" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 274, null, null, null, 2);</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="4">
+      <c r="A236" s="3">
         <f t="shared" si="20"/>
         <v>1230</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="3">
         <f t="shared" si="27"/>
         <v>274</v>
       </c>
-      <c r="C236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F236" s="4">
-        <v>1</v>
-      </c>
-      <c r="G236" s="4" t="str">
+      <c r="C236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1</v>
+      </c>
+      <c r="G236" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 274, null, null, null, 1);</v>
       </c>
@@ -31632,105 +31632,105 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="4">
+      <c r="A241" s="3">
         <f t="shared" si="20"/>
         <v>1235</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="3">
         <f>B237+1</f>
         <v>276</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F241" s="4">
-        <v>2</v>
-      </c>
-      <c r="G241" s="4" t="str">
+      <c r="C241" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F241" s="3">
+        <v>2</v>
+      </c>
+      <c r="G241" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 276, null, null, null, 2);</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
+      <c r="A242" s="3">
         <f t="shared" si="20"/>
         <v>1236</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="3">
         <f>B241</f>
         <v>276</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F242" s="4">
-        <v>1</v>
-      </c>
-      <c r="G242" s="4" t="str">
+      <c r="C242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F242" s="3">
+        <v>1</v>
+      </c>
+      <c r="G242" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 276, null, null, null, 1);</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
+      <c r="A243" s="3">
         <f t="shared" si="20"/>
         <v>1237</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="3">
         <f t="shared" ref="B243:B244" si="29">B241</f>
         <v>276</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F243" s="4">
-        <v>2</v>
-      </c>
-      <c r="G243" s="4" t="str">
+      <c r="C243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F243" s="3">
+        <v>2</v>
+      </c>
+      <c r="G243" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 276, null, null, null, 2);</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="4">
+      <c r="A244" s="3">
         <f t="shared" si="20"/>
         <v>1238</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="3">
         <f t="shared" si="29"/>
         <v>276</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F244" s="4">
-        <v>1</v>
-      </c>
-      <c r="G244" s="4" t="str">
+      <c r="C244" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F244" s="3">
+        <v>1</v>
+      </c>
+      <c r="G244" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 276, null, null, null, 1);</v>
       </c>
@@ -31840,105 +31840,105 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
+      <c r="A249" s="3">
         <f t="shared" si="20"/>
         <v>1243</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="3">
         <f>B245+1</f>
         <v>278</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F249" s="4">
-        <v>2</v>
-      </c>
-      <c r="G249" s="4" t="str">
+      <c r="C249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" s="3">
+        <v>2</v>
+      </c>
+      <c r="G249" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 278, null, null, null, 2);</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="4">
+      <c r="A250" s="3">
         <f t="shared" si="20"/>
         <v>1244</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="3">
         <f>B249</f>
         <v>278</v>
       </c>
-      <c r="C250" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F250" s="4">
-        <v>1</v>
-      </c>
-      <c r="G250" s="4" t="str">
+      <c r="C250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 278, null, null, null, 1);</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
+      <c r="A251" s="3">
         <f t="shared" si="20"/>
         <v>1245</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="3">
         <f t="shared" ref="B251:B252" si="31">B249</f>
         <v>278</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F251" s="4">
-        <v>2</v>
-      </c>
-      <c r="G251" s="4" t="str">
+      <c r="C251" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F251" s="3">
+        <v>2</v>
+      </c>
+      <c r="G251" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 278, null, null, null, 2);</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <f t="shared" si="20"/>
         <v>1246</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="3">
         <f t="shared" si="31"/>
         <v>278</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F252" s="4">
-        <v>1</v>
-      </c>
-      <c r="G252" s="4" t="str">
+      <c r="C252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F252" s="3">
+        <v>1</v>
+      </c>
+      <c r="G252" s="3" t="str">
         <f t="shared" si="15"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 278, null, null, null, 1);</v>
       </c>
@@ -32048,105 +32048,105 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
+      <c r="A257" s="3">
         <f t="shared" si="20"/>
         <v>1251</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="3">
         <f>B253+1</f>
         <v>280</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F257" s="4">
-        <v>2</v>
-      </c>
-      <c r="G257" s="4" t="str">
+      <c r="C257" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F257" s="3">
+        <v>2</v>
+      </c>
+      <c r="G257" s="3" t="str">
         <f t="shared" ref="G257:G284" si="33">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A257 &amp; ", " &amp; B257 &amp; ", " &amp; C257 &amp; ", " &amp; D257 &amp; ", " &amp; E257 &amp; ", " &amp; F257 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1251, 280, null, null, null, 2);</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
+      <c r="A258" s="3">
         <f t="shared" si="20"/>
         <v>1252</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="3">
         <f>B257</f>
         <v>280</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F258" s="4">
-        <v>1</v>
-      </c>
-      <c r="G258" s="4" t="str">
+      <c r="C258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258" s="3">
+        <v>1</v>
+      </c>
+      <c r="G258" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1252, 280, null, null, null, 1);</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
+      <c r="A259" s="3">
         <f t="shared" si="20"/>
         <v>1253</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="3">
         <f t="shared" ref="B259:B260" si="34">B257</f>
         <v>280</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F259" s="4">
-        <v>2</v>
-      </c>
-      <c r="G259" s="4" t="str">
+      <c r="C259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F259" s="3">
+        <v>2</v>
+      </c>
+      <c r="G259" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1253, 280, null, null, null, 2);</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
+      <c r="A260" s="3">
         <f t="shared" si="20"/>
         <v>1254</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="3">
         <f t="shared" si="34"/>
         <v>280</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F260" s="4">
-        <v>1</v>
-      </c>
-      <c r="G260" s="4" t="str">
+      <c r="C260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1</v>
+      </c>
+      <c r="G260" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1254, 280, null, null, null, 1);</v>
       </c>
@@ -32256,105 +32256,105 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="4">
+      <c r="A265" s="3">
         <f t="shared" si="20"/>
         <v>1259</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="3">
         <f>B261+1</f>
         <v>282</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F265" s="4">
-        <v>2</v>
-      </c>
-      <c r="G265" s="4" t="str">
+      <c r="C265" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F265" s="3">
+        <v>2</v>
+      </c>
+      <c r="G265" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1259, 282, null, null, null, 2);</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
+      <c r="A266" s="3">
         <f t="shared" si="20"/>
         <v>1260</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="3">
         <f>B265</f>
         <v>282</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F266" s="4">
-        <v>1</v>
-      </c>
-      <c r="G266" s="4" t="str">
+      <c r="C266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F266" s="3">
+        <v>1</v>
+      </c>
+      <c r="G266" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1260, 282, null, null, null, 1);</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="4">
+      <c r="A267" s="3">
         <f t="shared" si="20"/>
         <v>1261</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="3">
         <f t="shared" ref="B267:B268" si="36">B265</f>
         <v>282</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F267" s="4">
-        <v>2</v>
-      </c>
-      <c r="G267" s="4" t="str">
+      <c r="C267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F267" s="3">
+        <v>2</v>
+      </c>
+      <c r="G267" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 282, null, null, null, 2);</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="4">
+      <c r="A268" s="3">
         <f t="shared" si="20"/>
         <v>1262</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="3">
         <f t="shared" si="36"/>
         <v>282</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F268" s="4">
-        <v>1</v>
-      </c>
-      <c r="G268" s="4" t="str">
+      <c r="C268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="3">
+        <v>1</v>
+      </c>
+      <c r="G268" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 282, null, null, null, 1);</v>
       </c>
@@ -32464,105 +32464,105 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="4">
+      <c r="A273" s="3">
         <f t="shared" si="20"/>
         <v>1267</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="3">
         <f>B269+1</f>
         <v>284</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F273" s="4">
-        <v>2</v>
-      </c>
-      <c r="G273" s="4" t="str">
+      <c r="C273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F273" s="3">
+        <v>2</v>
+      </c>
+      <c r="G273" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="4">
+      <c r="A274" s="3">
         <f t="shared" si="20"/>
         <v>1268</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="3">
         <f>B273</f>
         <v>284</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F274" s="4">
-        <v>1</v>
-      </c>
-      <c r="G274" s="4" t="str">
+      <c r="C274" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274" s="3">
+        <v>1</v>
+      </c>
+      <c r="G274" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 284, null, null, null, 1);</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="4">
+      <c r="A275" s="3">
         <f t="shared" ref="A275:A284" si="38">A274+1</f>
         <v>1269</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="3">
         <f t="shared" ref="B275:B276" si="39">B273</f>
         <v>284</v>
       </c>
-      <c r="C275" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F275" s="4">
-        <v>2</v>
-      </c>
-      <c r="G275" s="4" t="str">
+      <c r="C275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="3">
+        <v>2</v>
+      </c>
+      <c r="G275" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="4">
+      <c r="A276" s="3">
         <f t="shared" si="38"/>
         <v>1270</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="3">
         <f t="shared" si="39"/>
         <v>284</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F276" s="4">
-        <v>1</v>
-      </c>
-      <c r="G276" s="4" t="str">
+      <c r="C276" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276" s="3">
+        <v>1</v>
+      </c>
+      <c r="G276" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 284, null, null, null, 1);</v>
       </c>
@@ -32672,105 +32672,105 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="4">
+      <c r="A281" s="3">
         <f t="shared" si="38"/>
         <v>1275</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="3">
         <f>B277+1</f>
         <v>286</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F281" s="4">
-        <v>2</v>
-      </c>
-      <c r="G281" s="4" t="str">
+      <c r="C281" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281" s="3">
+        <v>2</v>
+      </c>
+      <c r="G281" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 286, null, null, null, 2);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="4">
+      <c r="A282" s="3">
         <f t="shared" si="38"/>
         <v>1276</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="3">
         <f>B281</f>
         <v>286</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F282" s="4">
-        <v>1</v>
-      </c>
-      <c r="G282" s="4" t="str">
+      <c r="C282" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282" s="3">
+        <v>1</v>
+      </c>
+      <c r="G282" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 286, null, null, null, 1);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="4">
+      <c r="A283" s="3">
         <f t="shared" si="38"/>
         <v>1277</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="3">
         <f t="shared" ref="B283:B284" si="41">B281</f>
         <v>286</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F283" s="4">
-        <v>2</v>
-      </c>
-      <c r="G283" s="4" t="str">
+      <c r="C283" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F283" s="3">
+        <v>2</v>
+      </c>
+      <c r="G283" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 286, null, null, null, 2);</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="4">
+      <c r="A284" s="3">
         <f t="shared" si="38"/>
         <v>1278</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="3">
         <f t="shared" si="41"/>
         <v>286</v>
       </c>
-      <c r="C284" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F284" s="4">
-        <v>1</v>
-      </c>
-      <c r="G284" s="4" t="str">
+      <c r="C284" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F284" s="3">
+        <v>1</v>
+      </c>
+      <c r="G284" s="3" t="str">
         <f t="shared" si="33"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 286, null, null, null, 1);</v>
       </c>
@@ -33147,14 +33147,14 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (29, 6, 45, 0, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (29, 6, 45, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -33991,14 +33991,14 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 10, 4420, 0, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 10, 4420, 0, 0, 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -34040,17 +34040,17 @@
         <v>4420</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 11, 4420, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 11, 4420, 2, 2, 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -34092,7 +34092,7 @@
         <v>7097</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -34102,7 +34102,7 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 11, 7097, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 11, 7097, 0, 0, 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -34118,7 +34118,7 @@
         <v>7097</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -34128,7 +34128,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 11, 7097, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 11, 7097, 0, 0, 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -34144,7 +34144,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -34154,7 +34154,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 12, 39, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 12, 39, 1, 0, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -34196,7 +34196,7 @@
         <v>38</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -34206,7 +34206,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 12, 38, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 12, 38, 1, 0, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -34222,7 +34222,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -34232,7 +34232,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 12, 38, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 12, 38, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -34248,7 +34248,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -34258,7 +34258,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" ref="G29:G36" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 12, 39, 0, 1, 4);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 12, 39, 1, 1, 4);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -34274,7 +34274,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -34284,7 +34284,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 12, 39, 0, 0, 3);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 12, 39, 1, 0, 3);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -34300,7 +34300,7 @@
         <v>38</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -34310,7 +34310,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 12, 38, 0, 1, 4);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 12, 38, 1, 1, 4);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -34326,7 +34326,7 @@
         <v>38</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -34336,7 +34336,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="7"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 12, 38, 0, 0, 3);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 12, 38, 1, 0, 3);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -40482,6 +40482,2266 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1984'!A9+1</f>
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1988</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>49228</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1988, 'A', 49228);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1988</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1988, 'A', 39);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B9" si="2">B3</f>
+        <v>1988</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 1988, 'A', 34);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 1988, 'A', 45);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>7097</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 1988, 'B', 7097);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 1988, 'B', 31);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 1988, 'B', 353);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>4420</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 1988, 'B', 4420);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'1984'!A26+1</f>
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1988-06-10"</f>
+        <v>1988-06-10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>49228</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G26" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1988-06-10', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1988-06-11"</f>
+        <v>1988-06-11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>49228</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1988-06-11', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A26" si="4">A13+1</f>
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1988-06-14"</f>
+        <v>1988-06-14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D26" si="5">D13</f>
+        <v>49228</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1988-06-14', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1988-06-14"</f>
+        <v>1988-06-14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1988-06-14', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1988-06-17"</f>
+        <v>1988-06-17</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1988-06-17', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1988-06-17"</f>
+        <v>1988-06-17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1988-06-17', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1988-06-12"</f>
+        <v>1988-06-12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1988-06-12', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1988-06-12"</f>
+        <v>1988-06-12</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1988-06-12', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1988-06-15"</f>
+        <v>1988-06-15</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '1988-06-15', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1988-06-15"</f>
+        <v>1988-06-15</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '1988-06-15', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1988-06-18"</f>
+        <v>1988-06-18</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '1988-06-18', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1988-06-18"</f>
+        <v>1988-06-18</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '1988-06-18', 2, 49228);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1988-06-21"</f>
+        <v>1988-06-21</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '1988-06-21', 4, 49228);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1988-06-22"</f>
+        <v>1988-06-22</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '1988-06-22', 4, 49228);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1988-06-25"</f>
+        <v>1988-06-25</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>49228</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '1988-06-25', 6, 49228);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>'1984'!A98+1</f>
+        <v>251</v>
+      </c>
+      <c r="B29" s="3">
+        <f>A12</f>
+        <v>51</v>
+      </c>
+      <c r="C29" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" ref="G29:G88" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 51, 49228, 1, 1, 2);</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>252</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C30" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 51, 49228, 0, 0, 1);</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" ref="A31:A88" si="7">A30+1</f>
+        <v>253</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C31" s="3">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 51, 39, 1, 1, 2);</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B29</f>
+        <v>51</v>
+      </c>
+      <c r="C32" s="3">
+        <v>39</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 51, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B29+1</f>
+        <v>52</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 52, 45, 2, 0, 2);</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 52, 45, 1, 0, 1);</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 52, 34, 3, 2, 2);</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B33</f>
+        <v>52</v>
+      </c>
+      <c r="C36" s="4">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 52, 34, 1, 0, 1);</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="7"/>
+        <v>259</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B33+1</f>
+        <v>53</v>
+      </c>
+      <c r="C37" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 53, 49228, 2, 2, 2);</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C38" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 53, 49228, 1, 0, 1);</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="7"/>
+        <v>261</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 53, 45, 0, 0, 2);</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B37</f>
+        <v>53</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 53, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B37+1</f>
+        <v>54</v>
+      </c>
+      <c r="C41" s="4">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 54, 39, 1, 2, 2);</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C42" s="4">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 54, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C43" s="4">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 54, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41</f>
+        <v>54</v>
+      </c>
+      <c r="C44" s="4">
+        <v>34</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 54, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="7"/>
+        <v>267</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B41+1</f>
+        <v>55</v>
+      </c>
+      <c r="C45" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 55, 49228, 2, 2, 2);</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C46" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 55, 49228, 1, 0, 1);</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="7"/>
+        <v>269</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C47" s="3">
+        <v>34</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 55, 34, 0, 0, 2);</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B45</f>
+        <v>55</v>
+      </c>
+      <c r="C48" s="3">
+        <v>34</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 55, 34, 0, 0, 1);</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="7"/>
+        <v>271</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B45+1</f>
+        <v>56</v>
+      </c>
+      <c r="C49" s="4">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 56, 39, 2, 2, 2);</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="7"/>
+        <v>272</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C50" s="4">
+        <v>39</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 56, 39, 0, 0, 1);</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="7"/>
+        <v>273</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 56, 45, 0, 0, 2);</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="7"/>
+        <v>274</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B49</f>
+        <v>56</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 56, 45, 0, 0, 1);</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="7"/>
+        <v>275</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+1</f>
+        <v>57</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 57, 4420, 0, 0, 2);</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="7"/>
+        <v>276</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 57, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C55" s="3">
+        <v>353</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 57, 353, 1, 2, 2);</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>57</v>
+      </c>
+      <c r="C56" s="3">
+        <v>353</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 57, 353, 1, 0, 1);</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>58</v>
+      </c>
+      <c r="C57" s="4">
+        <v>31</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 58, 31, 0, 0, 2);</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C58" s="4">
+        <v>31</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 58, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 58, 7097, 1, 2, 2);</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>58</v>
+      </c>
+      <c r="C60" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 58, 7097, 0, 0, 1);</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>59</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 59, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 59, 4420, 0, 0, 1);</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C63" s="3">
+        <v>31</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 59, 31, 3, 2, 2);</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>59</v>
+      </c>
+      <c r="C64" s="3">
+        <v>31</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 59, 31, 1, 0, 1);</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>60</v>
+      </c>
+      <c r="C65" s="4">
+        <v>353</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 60, 353, 1, 1, 2);</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C66" s="4">
+        <v>353</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 60, 353, 1, 0, 1);</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="7"/>
+        <v>289</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C67" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 60, 7097, 1, 1, 2);</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 60, 7097, 0, 0, 1);</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="7"/>
+        <v>291</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>61</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 61, 4420, 1, 0, 2);</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="7"/>
+        <v>292</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4420</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 61, 4420, 1, 0, 1);</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="7"/>
+        <v>293</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 61, 7097, 3, 2, 2);</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>61</v>
+      </c>
+      <c r="C72" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 61, 7097, 2, 0, 1);</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="7"/>
+        <v>295</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B69+1</f>
+        <v>62</v>
+      </c>
+      <c r="C73" s="4">
+        <v>353</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 62, 353, 0, 0, 2);</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="7"/>
+        <v>296</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C74" s="4">
+        <v>353</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 62, 353, 0, 0, 1);</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="7"/>
+        <v>297</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C75" s="4">
+        <v>31</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 62, 31, 1, 2, 2);</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B73</f>
+        <v>62</v>
+      </c>
+      <c r="C76" s="4">
+        <v>31</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 62, 31, 0, 0, 1);</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B73+1</f>
+        <v>63</v>
+      </c>
+      <c r="C77" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 63, 49228, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C78" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 63, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="7"/>
+        <v>301</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C79" s="3">
+        <v>31</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 63, 31, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>63</v>
+      </c>
+      <c r="C80" s="3">
+        <v>31</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 63, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B77+1</f>
+        <v>64</v>
+      </c>
+      <c r="C81" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 64, 7097, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="7"/>
+        <v>304</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B81</f>
+        <v>64</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 64, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="7"/>
+        <v>305</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B81</f>
+        <v>64</v>
+      </c>
+      <c r="C83" s="4">
+        <v>39</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 64, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="7"/>
+        <v>306</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B81</f>
+        <v>64</v>
+      </c>
+      <c r="C84" s="4">
+        <v>39</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 64, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B81+1</f>
+        <v>65</v>
+      </c>
+      <c r="C85" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 65, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C86" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 65, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="7"/>
+        <v>309</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C87" s="3">
+        <v>31</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 65, 31, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>65</v>
+      </c>
+      <c r="C88" s="3">
+        <v>31</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 65, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42790,2264 +45050,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="str">
-        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'1984'!A9+1</f>
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1988</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>49228</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1988, 'A', 49228);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>1988</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1988, 'A', 39);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A9" si="1">A3+1</f>
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B9" si="2">B3</f>
-        <v>1988</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 1988, 'A', 34);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="2"/>
-        <v>1988</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>45</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 1988, 'A', 45);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="2"/>
-        <v>1988</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>7097</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 1988, 'B', 7097);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="2"/>
-        <v>1988</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 1988, 'B', 31);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="2"/>
-        <v>1988</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>353</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 1988, 'B', 353);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="2"/>
-        <v>1988</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>4420</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 1988, 'B', 4420);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>'1984'!A26+1</f>
-        <v>51</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>"1988-06-10"</f>
-        <v>1988-06-10</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>49228</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ref="G12:G26" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1988-06-10', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A12+1</f>
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>"1988-06-11"</f>
-        <v>1988-06-11</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f>D12</f>
-        <v>49228</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1988-06-11', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" ref="A14:A26" si="4">A13+1</f>
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>"1988-06-14"</f>
-        <v>1988-06-14</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D26" si="5">D13</f>
-        <v>49228</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1988-06-14', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>"1988-06-14"</f>
-        <v>1988-06-14</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1988-06-14', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>"1988-06-17"</f>
-        <v>1988-06-17</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1988-06-17', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>"1988-06-17"</f>
-        <v>1988-06-17</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1988-06-17', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>"1988-06-12"</f>
-        <v>1988-06-12</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1988-06-12', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>"1988-06-12"</f>
-        <v>1988-06-12</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1988-06-12', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>"1988-06-15"</f>
-        <v>1988-06-15</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (59, '1988-06-15', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>"1988-06-15"</f>
-        <v>1988-06-15</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (60, '1988-06-15', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>"1988-06-18"</f>
-        <v>1988-06-18</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (61, '1988-06-18', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>"1988-06-18"</f>
-        <v>1988-06-18</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (62, '1988-06-18', 2, 49228);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>"1988-06-21"</f>
-        <v>1988-06-21</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (63, '1988-06-21', 4, 49228);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>"1988-06-22"</f>
-        <v>1988-06-22</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (64, '1988-06-22', 4, 49228);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>"1988-06-25"</f>
-        <v>1988-06-25</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
-        <v>49228</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (65, '1988-06-25', 6, 49228);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <f>'1984'!A98+1</f>
-        <v>251</v>
-      </c>
-      <c r="B29" s="3">
-        <f>A12</f>
-        <v>51</v>
-      </c>
-      <c r="C29" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3" t="str">
-        <f t="shared" ref="G29:G88" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 51, 49228, 1, 1, 2);</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <f>A29+1</f>
-        <v>252</v>
-      </c>
-      <c r="B30" s="3">
-        <f>B29</f>
-        <v>51</v>
-      </c>
-      <c r="C30" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 51, 49228, 0, 0, 1);</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <f t="shared" ref="A31:A88" si="7">A30+1</f>
-        <v>253</v>
-      </c>
-      <c r="B31" s="3">
-        <f>B29</f>
-        <v>51</v>
-      </c>
-      <c r="C31" s="3">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 51, 39, 1, 1, 2);</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <f t="shared" si="7"/>
-        <v>254</v>
-      </c>
-      <c r="B32" s="3">
-        <f>B29</f>
-        <v>51</v>
-      </c>
-      <c r="C32" s="3">
-        <v>39</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 51, 39, 0, 0, 1);</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="B33" s="4">
-        <f>B29+1</f>
-        <v>52</v>
-      </c>
-      <c r="C33" s="4">
-        <v>45</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 52, 45, 2, 0, 2);</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="B34" s="4">
-        <f>B33</f>
-        <v>52</v>
-      </c>
-      <c r="C34" s="4">
-        <v>45</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 52, 45, 1, 0, 1);</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <f t="shared" si="7"/>
-        <v>257</v>
-      </c>
-      <c r="B35" s="4">
-        <f>B33</f>
-        <v>52</v>
-      </c>
-      <c r="C35" s="4">
-        <v>34</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 52, 34, 3, 2, 2);</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <f t="shared" si="7"/>
-        <v>258</v>
-      </c>
-      <c r="B36" s="4">
-        <f>B33</f>
-        <v>52</v>
-      </c>
-      <c r="C36" s="4">
-        <v>34</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 52, 34, 1, 0, 1);</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <f t="shared" si="7"/>
-        <v>259</v>
-      </c>
-      <c r="B37" s="3">
-        <f>B33+1</f>
-        <v>53</v>
-      </c>
-      <c r="C37" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 53, 49228, 2, 2, 2);</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f t="shared" si="7"/>
-        <v>260</v>
-      </c>
-      <c r="B38" s="3">
-        <f>B37</f>
-        <v>53</v>
-      </c>
-      <c r="C38" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 53, 49228, 1, 0, 1);</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f t="shared" si="7"/>
-        <v>261</v>
-      </c>
-      <c r="B39" s="3">
-        <f>B37</f>
-        <v>53</v>
-      </c>
-      <c r="C39" s="3">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 53, 45, 0, 0, 2);</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <f t="shared" si="7"/>
-        <v>262</v>
-      </c>
-      <c r="B40" s="3">
-        <f>B37</f>
-        <v>53</v>
-      </c>
-      <c r="C40" s="3">
-        <v>45</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 53, 45, 0, 0, 1);</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <f t="shared" si="7"/>
-        <v>263</v>
-      </c>
-      <c r="B41" s="4">
-        <f>B37+1</f>
-        <v>54</v>
-      </c>
-      <c r="C41" s="4">
-        <v>39</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>2</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 54, 39, 1, 2, 2);</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <f t="shared" si="7"/>
-        <v>264</v>
-      </c>
-      <c r="B42" s="4">
-        <f>B41</f>
-        <v>54</v>
-      </c>
-      <c r="C42" s="4">
-        <v>39</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 54, 39, 0, 0, 1);</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <f t="shared" si="7"/>
-        <v>265</v>
-      </c>
-      <c r="B43" s="4">
-        <f>B41</f>
-        <v>54</v>
-      </c>
-      <c r="C43" s="4">
-        <v>34</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 54, 34, 0, 0, 2);</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <f t="shared" si="7"/>
-        <v>266</v>
-      </c>
-      <c r="B44" s="4">
-        <f>B41</f>
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>34</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 54, 34, 0, 0, 1);</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <f t="shared" si="7"/>
-        <v>267</v>
-      </c>
-      <c r="B45" s="3">
-        <f>B41+1</f>
-        <v>55</v>
-      </c>
-      <c r="C45" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 55, 49228, 2, 2, 2);</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="7"/>
-        <v>268</v>
-      </c>
-      <c r="B46" s="3">
-        <f>B45</f>
-        <v>55</v>
-      </c>
-      <c r="C46" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 55, 49228, 1, 0, 1);</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f t="shared" si="7"/>
-        <v>269</v>
-      </c>
-      <c r="B47" s="3">
-        <f>B45</f>
-        <v>55</v>
-      </c>
-      <c r="C47" s="3">
-        <v>34</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 55, 34, 0, 0, 2);</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <f t="shared" si="7"/>
-        <v>270</v>
-      </c>
-      <c r="B48" s="3">
-        <f>B45</f>
-        <v>55</v>
-      </c>
-      <c r="C48" s="3">
-        <v>34</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 55, 34, 0, 0, 1);</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <f t="shared" si="7"/>
-        <v>271</v>
-      </c>
-      <c r="B49" s="4">
-        <f>B45+1</f>
-        <v>56</v>
-      </c>
-      <c r="C49" s="4">
-        <v>39</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 56, 39, 2, 2, 2);</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <f t="shared" si="7"/>
-        <v>272</v>
-      </c>
-      <c r="B50" s="4">
-        <f>B49</f>
-        <v>56</v>
-      </c>
-      <c r="C50" s="4">
-        <v>39</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 56, 39, 0, 0, 1);</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <f t="shared" si="7"/>
-        <v>273</v>
-      </c>
-      <c r="B51" s="4">
-        <f>B49</f>
-        <v>56</v>
-      </c>
-      <c r="C51" s="4">
-        <v>45</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 56, 45, 0, 0, 2);</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <f t="shared" si="7"/>
-        <v>274</v>
-      </c>
-      <c r="B52" s="4">
-        <f>B49</f>
-        <v>56</v>
-      </c>
-      <c r="C52" s="4">
-        <v>45</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 56, 45, 0, 0, 1);</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <f t="shared" si="7"/>
-        <v>275</v>
-      </c>
-      <c r="B53" s="3">
-        <f>B49+1</f>
-        <v>57</v>
-      </c>
-      <c r="C53" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 57, 4420, 0, 0, 2);</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <f t="shared" si="7"/>
-        <v>276</v>
-      </c>
-      <c r="B54" s="3">
-        <f>B53</f>
-        <v>57</v>
-      </c>
-      <c r="C54" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 57, 4420, 0, 0, 1);</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f t="shared" si="7"/>
-        <v>277</v>
-      </c>
-      <c r="B55" s="3">
-        <f>B53</f>
-        <v>57</v>
-      </c>
-      <c r="C55" s="3">
-        <v>353</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3">
-        <v>2</v>
-      </c>
-      <c r="G55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 57, 353, 1, 2, 2);</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <f t="shared" si="7"/>
-        <v>278</v>
-      </c>
-      <c r="B56" s="3">
-        <f>B53</f>
-        <v>57</v>
-      </c>
-      <c r="C56" s="3">
-        <v>353</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 57, 353, 1, 0, 1);</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <f t="shared" si="7"/>
-        <v>279</v>
-      </c>
-      <c r="B57" s="4">
-        <f>B53+1</f>
-        <v>58</v>
-      </c>
-      <c r="C57" s="4">
-        <v>31</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>2</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 58, 31, 0, 0, 2);</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="B58" s="4">
-        <f>B57</f>
-        <v>58</v>
-      </c>
-      <c r="C58" s="4">
-        <v>31</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 58, 31, 0, 0, 1);</v>
-      </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <f t="shared" si="7"/>
-        <v>281</v>
-      </c>
-      <c r="B59" s="4">
-        <f>B57</f>
-        <v>58</v>
-      </c>
-      <c r="C59" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>2</v>
-      </c>
-      <c r="F59" s="4">
-        <v>2</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 58, 7097, 1, 2, 2);</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <f t="shared" si="7"/>
-        <v>282</v>
-      </c>
-      <c r="B60" s="4">
-        <f>B57</f>
-        <v>58</v>
-      </c>
-      <c r="C60" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 58, 7097, 0, 0, 1);</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <f t="shared" si="7"/>
-        <v>283</v>
-      </c>
-      <c r="B61" s="3">
-        <f>B57+1</f>
-        <v>59</v>
-      </c>
-      <c r="C61" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2</v>
-      </c>
-      <c r="G61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 59, 4420, 1, 0, 2);</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <f t="shared" si="7"/>
-        <v>284</v>
-      </c>
-      <c r="B62" s="3">
-        <f>B61</f>
-        <v>59</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 59, 4420, 0, 0, 1);</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <f t="shared" si="7"/>
-        <v>285</v>
-      </c>
-      <c r="B63" s="3">
-        <f>B61</f>
-        <v>59</v>
-      </c>
-      <c r="C63" s="3">
-        <v>31</v>
-      </c>
-      <c r="D63" s="3">
-        <v>3</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 59, 31, 3, 2, 2);</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <f t="shared" si="7"/>
-        <v>286</v>
-      </c>
-      <c r="B64" s="3">
-        <f>B61</f>
-        <v>59</v>
-      </c>
-      <c r="C64" s="3">
-        <v>31</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 59, 31, 1, 0, 1);</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <f t="shared" si="7"/>
-        <v>287</v>
-      </c>
-      <c r="B65" s="4">
-        <f>B61+1</f>
-        <v>60</v>
-      </c>
-      <c r="C65" s="4">
-        <v>353</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 60, 353, 1, 1, 2);</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <f t="shared" si="7"/>
-        <v>288</v>
-      </c>
-      <c r="B66" s="4">
-        <f>B65</f>
-        <v>60</v>
-      </c>
-      <c r="C66" s="4">
-        <v>353</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 60, 353, 1, 0, 1);</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <f t="shared" si="7"/>
-        <v>289</v>
-      </c>
-      <c r="B67" s="4">
-        <f>B65</f>
-        <v>60</v>
-      </c>
-      <c r="C67" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>2</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 60, 7097, 1, 1, 2);</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <f t="shared" si="7"/>
-        <v>290</v>
-      </c>
-      <c r="B68" s="4">
-        <f>B65</f>
-        <v>60</v>
-      </c>
-      <c r="C68" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 60, 7097, 0, 0, 1);</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <f t="shared" si="7"/>
-        <v>291</v>
-      </c>
-      <c r="B69" s="3">
-        <f>B65+1</f>
-        <v>61</v>
-      </c>
-      <c r="C69" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>2</v>
-      </c>
-      <c r="G69" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 61, 4420, 1, 0, 2);</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <f t="shared" si="7"/>
-        <v>292</v>
-      </c>
-      <c r="B70" s="3">
-        <f>B69</f>
-        <v>61</v>
-      </c>
-      <c r="C70" s="3">
-        <v>4420</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 61, 4420, 1, 0, 1);</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <f t="shared" si="7"/>
-        <v>293</v>
-      </c>
-      <c r="B71" s="3">
-        <f>B69</f>
-        <v>61</v>
-      </c>
-      <c r="C71" s="3">
-        <v>7097</v>
-      </c>
-      <c r="D71" s="3">
-        <v>3</v>
-      </c>
-      <c r="E71" s="3">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>2</v>
-      </c>
-      <c r="G71" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 61, 7097, 3, 2, 2);</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <f t="shared" si="7"/>
-        <v>294</v>
-      </c>
-      <c r="B72" s="3">
-        <f>B69</f>
-        <v>61</v>
-      </c>
-      <c r="C72" s="3">
-        <v>7097</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 61, 7097, 2, 0, 1);</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <f t="shared" si="7"/>
-        <v>295</v>
-      </c>
-      <c r="B73" s="4">
-        <f>B69+1</f>
-        <v>62</v>
-      </c>
-      <c r="C73" s="4">
-        <v>353</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>2</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 62, 353, 0, 0, 2);</v>
-      </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <f t="shared" si="7"/>
-        <v>296</v>
-      </c>
-      <c r="B74" s="4">
-        <f>B73</f>
-        <v>62</v>
-      </c>
-      <c r="C74" s="4">
-        <v>353</v>
-      </c>
-      <c r="D74" s="4">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 62, 353, 0, 0, 1);</v>
-      </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <f t="shared" si="7"/>
-        <v>297</v>
-      </c>
-      <c r="B75" s="4">
-        <f>B73</f>
-        <v>62</v>
-      </c>
-      <c r="C75" s="4">
-        <v>31</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>2</v>
-      </c>
-      <c r="F75" s="4">
-        <v>2</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 62, 31, 1, 2, 2);</v>
-      </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <f t="shared" si="7"/>
-        <v>298</v>
-      </c>
-      <c r="B76" s="4">
-        <f>B73</f>
-        <v>62</v>
-      </c>
-      <c r="C76" s="4">
-        <v>31</v>
-      </c>
-      <c r="D76" s="4">
-        <v>0</v>
-      </c>
-      <c r="E76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 62, 31, 0, 0, 1);</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <f t="shared" si="7"/>
-        <v>299</v>
-      </c>
-      <c r="B77" s="3">
-        <f>B73+1</f>
-        <v>63</v>
-      </c>
-      <c r="C77" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>2</v>
-      </c>
-      <c r="G77" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 63, 49228, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="B78" s="3">
-        <f>B77</f>
-        <v>63</v>
-      </c>
-      <c r="C78" s="3">
-        <v>49228</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 63, 49228, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <f t="shared" si="7"/>
-        <v>301</v>
-      </c>
-      <c r="B79" s="3">
-        <f>B77</f>
-        <v>63</v>
-      </c>
-      <c r="C79" s="3">
-        <v>31</v>
-      </c>
-      <c r="D79" s="3">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3">
-        <v>2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>2</v>
-      </c>
-      <c r="G79" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 63, 31, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <f t="shared" si="7"/>
-        <v>302</v>
-      </c>
-      <c r="B80" s="3">
-        <f>B77</f>
-        <v>63</v>
-      </c>
-      <c r="C80" s="3">
-        <v>31</v>
-      </c>
-      <c r="D80" s="3">
-        <v>2</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 63, 31, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <f t="shared" si="7"/>
-        <v>303</v>
-      </c>
-      <c r="B81" s="4">
-        <f>B77+1</f>
-        <v>64</v>
-      </c>
-      <c r="C81" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D81" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" s="4">
-        <v>2</v>
-      </c>
-      <c r="F81" s="4">
-        <v>2</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 64, 7097, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <f t="shared" si="7"/>
-        <v>304</v>
-      </c>
-      <c r="B82" s="4">
-        <f>B81</f>
-        <v>64</v>
-      </c>
-      <c r="C82" s="4">
-        <v>7097</v>
-      </c>
-      <c r="D82" s="4">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 64, 7097, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <f t="shared" si="7"/>
-        <v>305</v>
-      </c>
-      <c r="B83" s="4">
-        <f>B81</f>
-        <v>64</v>
-      </c>
-      <c r="C83" s="4">
-        <v>39</v>
-      </c>
-      <c r="D83" s="4">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
-        <v>2</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 64, 39, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <f t="shared" si="7"/>
-        <v>306</v>
-      </c>
-      <c r="B84" s="4">
-        <f>B81</f>
-        <v>64</v>
-      </c>
-      <c r="C84" s="4">
-        <v>39</v>
-      </c>
-      <c r="D84" s="4">
-        <v>0</v>
-      </c>
-      <c r="E84" s="4">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 64, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <f t="shared" si="7"/>
-        <v>307</v>
-      </c>
-      <c r="B85" s="3">
-        <f>B81+1</f>
-        <v>65</v>
-      </c>
-      <c r="C85" s="3">
-        <v>7097</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>2</v>
-      </c>
-      <c r="G85" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 65, 7097, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <f t="shared" si="7"/>
-        <v>308</v>
-      </c>
-      <c r="B86" s="3">
-        <f>B85</f>
-        <v>65</v>
-      </c>
-      <c r="C86" s="3">
-        <v>7097</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 65, 7097, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <f t="shared" si="7"/>
-        <v>309</v>
-      </c>
-      <c r="B87" s="3">
-        <f>B85</f>
-        <v>65</v>
-      </c>
-      <c r="C87" s="3">
-        <v>31</v>
-      </c>
-      <c r="D87" s="3">
-        <v>3</v>
-      </c>
-      <c r="E87" s="3">
-        <v>2</v>
-      </c>
-      <c r="F87" s="3">
-        <v>2</v>
-      </c>
-      <c r="G87" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 65, 31, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <f t="shared" si="7"/>
-        <v>310</v>
-      </c>
-      <c r="B88" s="3">
-        <f>B85</f>
-        <v>65</v>
-      </c>
-      <c r="C88" s="3">
-        <v>31</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 65, 31, 1, 0, 1);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -27416,18 +27416,18 @@
       <c r="C81" s="3">
         <v>33</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
       </c>
       <c r="G81" s="3" t="str">
         <f t="shared" ref="G81:G144" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A81 &amp; ", " &amp; B81 &amp; ", " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 236, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 236, 33, 2, 3, 2);</v>
       </c>
       <c r="H81" s="4"/>
     </row>
@@ -27443,18 +27443,18 @@
       <c r="C82" s="3">
         <v>33</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 236, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 236, 33, 0, 0, 1);</v>
       </c>
       <c r="H82" s="4"/>
     </row>
@@ -27470,18 +27470,18 @@
       <c r="C83" s="3">
         <v>40</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>17</v>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>2</v>
       </c>
       <c r="G83" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 236, 40, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 236, 40, 1, 0, 2);</v>
       </c>
       <c r="H83" s="4"/>
     </row>
@@ -27497,18 +27497,18 @@
       <c r="C84" s="3">
         <v>40</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>17</v>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
       </c>
       <c r="F84" s="3">
         <v>1</v>
       </c>
       <c r="G84" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 236, 40, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 236, 40, 0, 0, 1);</v>
       </c>
       <c r="H84" s="4"/>
     </row>
@@ -27524,18 +27524,18 @@
       <c r="C85" s="4">
         <v>355</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>17</v>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
       </c>
       <c r="F85" s="4">
         <v>2</v>
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 237, 355, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 237, 355, 0, 0, 2);</v>
       </c>
       <c r="H85" s="4"/>
     </row>
@@ -27551,18 +27551,18 @@
       <c r="C86" s="4">
         <v>355</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>17</v>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 237, 355, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 237, 355, 0, 0, 1);</v>
       </c>
       <c r="H86" s="4"/>
     </row>
@@ -27578,18 +27578,18 @@
       <c r="C87" s="4">
         <v>41</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>17</v>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>3</v>
       </c>
       <c r="F87" s="4">
         <v>2</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 237, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 237, 41, 1, 3, 2);</v>
       </c>
       <c r="H87" s="4"/>
     </row>
@@ -27605,18 +27605,18 @@
       <c r="C88" s="4">
         <v>41</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>17</v>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 237, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 237, 41, 1, 0, 1);</v>
       </c>
       <c r="H88" s="4"/>
     </row>
@@ -28064,18 +28064,18 @@
       <c r="C105" s="3">
         <v>4429</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>17</v>
+      <c r="D105" s="3">
+        <v>2</v>
+      </c>
+      <c r="E105" s="3">
+        <v>3</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
       </c>
       <c r="G105" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 242, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 242, 4429, 2, 3, 2);</v>
       </c>
       <c r="H105" s="4"/>
     </row>
@@ -28091,18 +28091,18 @@
       <c r="C106" s="3">
         <v>4429</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>17</v>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 242, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 242, 4429, 1, 0, 1);</v>
       </c>
       <c r="H106" s="4"/>
     </row>
@@ -28118,18 +28118,18 @@
       <c r="C107" s="3">
         <v>421</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>17</v>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
       </c>
       <c r="G107" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 242, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 242, 421, 1, 0, 2);</v>
       </c>
       <c r="H107" s="4"/>
     </row>
@@ -28145,18 +28145,18 @@
       <c r="C108" s="3">
         <v>421</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>17</v>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 242, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 242, 421, 0, 0, 1);</v>
       </c>
       <c r="H108" s="4"/>
     </row>
@@ -28172,18 +28172,18 @@
       <c r="C109" s="4">
         <v>4420</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>17</v>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 243, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 243, 4420, 1, 1, 2);</v>
       </c>
       <c r="H109" s="4"/>
     </row>
@@ -28199,18 +28199,18 @@
       <c r="C110" s="4">
         <v>4420</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>17</v>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 243, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 243, 4420, 0, 0, 1);</v>
       </c>
       <c r="H110" s="4"/>
     </row>
@@ -28226,18 +28226,18 @@
       <c r="C111" s="4">
         <v>7</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>17</v>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1</v>
       </c>
       <c r="F111" s="4">
         <v>2</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 243, 7, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 243, 7, 1, 1, 2);</v>
       </c>
       <c r="H111" s="4"/>
     </row>
@@ -28253,18 +28253,18 @@
       <c r="C112" s="4">
         <v>7</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>17</v>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 243, 7, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 243, 7, 0, 0, 1);</v>
       </c>
       <c r="H112" s="4"/>
     </row>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25496,7 +25496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129:G136"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28712,18 +28714,18 @@
       <c r="C129" s="3">
         <v>48</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>17</v>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>3</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
       </c>
       <c r="G129" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 248, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 248, 48, 1, 3, 2);</v>
       </c>
       <c r="H129" s="4"/>
     </row>
@@ -28739,18 +28741,18 @@
       <c r="C130" s="3">
         <v>48</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>17</v>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 248, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 248, 48, 0, 0, 1);</v>
       </c>
       <c r="H130" s="4"/>
     </row>
@@ -28766,18 +28768,18 @@
       <c r="C131" s="3">
         <v>4428</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>17</v>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
       </c>
       <c r="F131" s="3">
         <v>2</v>
       </c>
       <c r="G131" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 248, 4428, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 248, 4428, 0, 0, 2);</v>
       </c>
       <c r="H131" s="4"/>
     </row>
@@ -28793,18 +28795,18 @@
       <c r="C132" s="3">
         <v>4428</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>17</v>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 248, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 248, 4428, 0, 0, 1);</v>
       </c>
       <c r="H132" s="4"/>
     </row>
@@ -28820,18 +28822,18 @@
       <c r="C133" s="4">
         <v>49</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>17</v>
+      <c r="D133" s="4">
+        <v>2</v>
+      </c>
+      <c r="E133" s="4">
+        <v>3</v>
       </c>
       <c r="F133" s="4">
         <v>2</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 249, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 249, 49, 2, 3, 2);</v>
       </c>
       <c r="H133" s="4"/>
     </row>
@@ -28847,18 +28849,18 @@
       <c r="C134" s="4">
         <v>49</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>17</v>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
       </c>
       <c r="F134" s="4">
         <v>1</v>
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 249, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 249, 49, 1, 0, 1);</v>
       </c>
       <c r="H134" s="4"/>
     </row>
@@ -28874,18 +28876,18 @@
       <c r="C135" s="4">
         <v>380</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>17</v>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
       </c>
       <c r="F135" s="4">
         <v>2</v>
       </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 249, 380, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 249, 380, 0, 0, 2);</v>
       </c>
       <c r="H135" s="4"/>
     </row>
@@ -28901,18 +28903,18 @@
       <c r="C136" s="4">
         <v>380</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>17</v>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 249, 380, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 249, 380, 0, 0, 1);</v>
       </c>
       <c r="H136" s="4"/>
     </row>
@@ -29355,18 +29357,18 @@
       <c r="C153" s="3">
         <v>90</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>17</v>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0</v>
       </c>
       <c r="F153" s="3">
         <v>2</v>
       </c>
       <c r="G153" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 254, 90, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 254, 90, 0, 0, 2);</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -29381,18 +29383,18 @@
       <c r="C154" s="3">
         <v>90</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>17</v>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
       </c>
       <c r="G154" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 254, 90, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 254, 90, 0, 0, 1);</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -29407,18 +29409,18 @@
       <c r="C155" s="3">
         <v>385</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>17</v>
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>3</v>
       </c>
       <c r="F155" s="3">
         <v>2</v>
       </c>
       <c r="G155" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 254, 385, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 254, 385, 1, 3, 2);</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -29433,18 +29435,18 @@
       <c r="C156" s="3">
         <v>385</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>17</v>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
       </c>
       <c r="G156" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 254, 385, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 254, 385, 1, 0, 1);</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25496,9 +25496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129:G136"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29461,18 +29459,18 @@
       <c r="C157" s="4">
         <v>34</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>17</v>
+      <c r="D157" s="4">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4">
+        <v>3</v>
       </c>
       <c r="F157" s="4">
         <v>2</v>
       </c>
       <c r="G157" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1151, 255, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1151, 255, 34, 1, 3, 2);</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -29487,18 +29485,18 @@
       <c r="C158" s="4">
         <v>34</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>17</v>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
       </c>
       <c r="F158" s="4">
         <v>1</v>
       </c>
       <c r="G158" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1152, 255, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1152, 255, 34, 0, 0, 1);</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -29513,18 +29511,18 @@
       <c r="C159" s="4">
         <v>420</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>17</v>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
       </c>
       <c r="F159" s="4">
         <v>2</v>
       </c>
       <c r="G159" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1153, 255, 420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1153, 255, 420, 0, 0, 2);</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -29539,18 +29537,18 @@
       <c r="C160" s="4">
         <v>420</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>17</v>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
       </c>
       <c r="F160" s="4">
         <v>1</v>
       </c>
       <c r="G160" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1154, 255, 420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1154, 255, 420, 0, 0, 1);</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -29981,18 +29979,18 @@
       <c r="C177" s="3">
         <v>353</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>17</v>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
       </c>
       <c r="F177" s="3">
         <v>2</v>
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1171, 260, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1171, 260, 353, 1, 1, 2);</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -30007,18 +30005,18 @@
       <c r="C178" s="3">
         <v>353</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>17</v>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1172, 260, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1172, 260, 353, 0, 0, 1);</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -30033,18 +30031,18 @@
       <c r="C179" s="3">
         <v>46</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>17</v>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
       </c>
       <c r="F179" s="3">
         <v>2</v>
       </c>
       <c r="G179" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1173, 260, 46, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1173, 260, 46, 1, 1, 2);</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -30059,18 +30057,18 @@
       <c r="C180" s="3">
         <v>46</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>17</v>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1174, 260, 46, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1174, 260, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -30085,18 +30083,18 @@
       <c r="C181" s="4">
         <v>32</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>17</v>
+      <c r="D181" s="4">
+        <v>0</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0</v>
       </c>
       <c r="F181" s="4">
         <v>2</v>
       </c>
       <c r="G181" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1175, 261, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1175, 261, 32, 0, 0, 2);</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -30111,18 +30109,18 @@
       <c r="C182" s="4">
         <v>32</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>17</v>
+      <c r="D182" s="4">
+        <v>0</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
       </c>
       <c r="G182" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1176, 261, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1176, 261, 32, 0, 0, 1);</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -30137,18 +30135,18 @@
       <c r="C183" s="4">
         <v>39</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>17</v>
+      <c r="D183" s="4">
+        <v>2</v>
+      </c>
+      <c r="E183" s="4">
+        <v>3</v>
       </c>
       <c r="F183" s="4">
         <v>2</v>
       </c>
       <c r="G183" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1177, 261, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1177, 261, 39, 2, 3, 2);</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -30163,18 +30161,18 @@
       <c r="C184" s="4">
         <v>39</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>17</v>
+      <c r="D184" s="4">
+        <v>1</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
       </c>
       <c r="G184" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1178, 261, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1178, 261, 39, 1, 0, 1);</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -30603,18 +30603,18 @@
       <c r="C201" s="3">
         <v>43</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>17</v>
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0</v>
       </c>
       <c r="F201" s="3">
         <v>2</v>
       </c>
       <c r="G201" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1195, 266, 43, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1195, 266, 43, 0, 0, 2);</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -30629,18 +30629,18 @@
       <c r="C202" s="3">
         <v>43</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>17</v>
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
       </c>
       <c r="G202" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1196, 266, 43, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1196, 266, 43, 0, 0, 1);</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -30655,18 +30655,18 @@
       <c r="C203" s="3">
         <v>36</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>17</v>
+      <c r="D203" s="3">
+        <v>2</v>
+      </c>
+      <c r="E203" s="3">
+        <v>3</v>
       </c>
       <c r="F203" s="3">
         <v>2</v>
       </c>
       <c r="G203" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1197, 266, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1197, 266, 36, 2, 3, 2);</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -30681,18 +30681,18 @@
       <c r="C204" s="3">
         <v>36</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>17</v>
+      <c r="D204" s="3">
+        <v>0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
       </c>
       <c r="G204" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1198, 266, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1198, 266, 36, 0, 0, 1);</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -30707,18 +30707,18 @@
       <c r="C205" s="4">
         <v>351</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>17</v>
+      <c r="D205" s="4">
+        <v>1</v>
+      </c>
+      <c r="E205" s="4">
+        <v>1</v>
       </c>
       <c r="F205" s="4">
         <v>2</v>
       </c>
       <c r="G205" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1199, 267, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1199, 267, 351, 1, 1, 2);</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -30733,18 +30733,18 @@
       <c r="C206" s="4">
         <v>351</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>17</v>
+      <c r="D206" s="4">
+        <v>1</v>
+      </c>
+      <c r="E206" s="4">
+        <v>0</v>
       </c>
       <c r="F206" s="4">
         <v>1</v>
       </c>
       <c r="G206" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1200, 267, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1200, 267, 351, 1, 0, 1);</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -30759,18 +30759,18 @@
       <c r="C207" s="4">
         <v>354</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>17</v>
+      <c r="D207" s="4">
+        <v>1</v>
+      </c>
+      <c r="E207" s="4">
+        <v>1</v>
       </c>
       <c r="F207" s="4">
         <v>2</v>
       </c>
       <c r="G207" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1201, 267, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1201, 267, 354, 1, 1, 2);</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -30785,18 +30785,18 @@
       <c r="C208" s="4">
         <v>354</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>17</v>
+      <c r="D208" s="4">
+        <v>0</v>
+      </c>
+      <c r="E208" s="4">
+        <v>0</v>
       </c>
       <c r="F208" s="4">
         <v>1</v>
       </c>
       <c r="G208" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1202, 267, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1202, 267, 354, 0, 0, 1);</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -27632,18 +27632,18 @@
       <c r="C89" s="3">
         <v>40</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>17</v>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
       </c>
       <c r="F89" s="3">
         <v>2</v>
       </c>
       <c r="G89" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 238, 40, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 238, 40, 1, 1, 2);</v>
       </c>
       <c r="H89" s="4"/>
     </row>
@@ -27659,18 +27659,18 @@
       <c r="C90" s="3">
         <v>40</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>17</v>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
       </c>
       <c r="G90" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 238, 40, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 238, 40, 1, 0, 1);</v>
       </c>
       <c r="H90" s="4"/>
     </row>
@@ -27686,18 +27686,18 @@
       <c r="C91" s="3">
         <v>41</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>17</v>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
       </c>
       <c r="G91" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 238, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 238, 41, 1, 1, 2);</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -27713,18 +27713,18 @@
       <c r="C92" s="3">
         <v>41</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>17</v>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
       </c>
       <c r="G92" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 238, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 238, 41, 0, 0, 1);</v>
       </c>
       <c r="H92" s="4"/>
     </row>
@@ -27740,18 +27740,18 @@
       <c r="C93" s="4">
         <v>33</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>17</v>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 239, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 239, 33, 2, 3, 2);</v>
       </c>
       <c r="H93" s="4"/>
     </row>
@@ -27767,18 +27767,18 @@
       <c r="C94" s="4">
         <v>33</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>17</v>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 239, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 239, 33, 0, 0, 1);</v>
       </c>
       <c r="H94" s="4"/>
     </row>
@@ -27794,18 +27794,18 @@
       <c r="C95" s="4">
         <v>355</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>17</v>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
       </c>
       <c r="F95" s="4">
         <v>2</v>
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 239, 355, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 239, 355, 0, 0, 2);</v>
       </c>
       <c r="H95" s="4"/>
     </row>
@@ -27821,18 +27821,18 @@
       <c r="C96" s="4">
         <v>355</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>17</v>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 239, 355, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 239, 355, 0, 0, 1);</v>
       </c>
       <c r="H96" s="4"/>
     </row>
@@ -28280,18 +28280,18 @@
       <c r="C113" s="3">
         <v>7</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>17</v>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
       </c>
       <c r="F113" s="3">
         <v>2</v>
       </c>
       <c r="G113" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 244, 7, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 244, 7, 1, 0, 2);</v>
       </c>
       <c r="H113" s="4"/>
     </row>
@@ -28307,18 +28307,18 @@
       <c r="C114" s="3">
         <v>7</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>17</v>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
       </c>
       <c r="G114" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 244, 7, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 244, 7, 0, 0, 1);</v>
       </c>
       <c r="H114" s="4"/>
     </row>
@@ -28334,18 +28334,18 @@
       <c r="C115" s="3">
         <v>421</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>17</v>
+      <c r="D115" s="3">
+        <v>2</v>
+      </c>
+      <c r="E115" s="3">
+        <v>3</v>
       </c>
       <c r="F115" s="3">
         <v>2</v>
       </c>
       <c r="G115" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 244, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 244, 421, 2, 3, 2);</v>
       </c>
       <c r="H115" s="4"/>
     </row>
@@ -28361,18 +28361,18 @@
       <c r="C116" s="3">
         <v>421</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>17</v>
+      <c r="D116" s="3">
+        <v>2</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 244, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 244, 421, 2, 0, 1);</v>
       </c>
       <c r="H116" s="4"/>
     </row>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -28388,18 +28388,18 @@
       <c r="C117" s="4">
         <v>4420</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>17</v>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4">
+        <v>3</v>
       </c>
       <c r="F117" s="4">
         <v>2</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 245, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 245, 4420, 2, 3, 2);</v>
       </c>
       <c r="H117" s="4"/>
     </row>
@@ -28415,18 +28415,18 @@
       <c r="C118" s="4">
         <v>4420</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>17</v>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 245, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 245, 4420, 0, 0, 1);</v>
       </c>
       <c r="H118" s="4"/>
     </row>
@@ -28442,18 +28442,18 @@
       <c r="C119" s="4">
         <v>4429</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>17</v>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
       </c>
       <c r="F119" s="4">
         <v>2</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 245, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 245, 4429, 1, 0, 2);</v>
       </c>
       <c r="H119" s="4"/>
     </row>
@@ -28469,18 +28469,18 @@
       <c r="C120" s="4">
         <v>4429</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>17</v>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 245, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 245, 4429, 1, 0, 1);</v>
       </c>
       <c r="H120" s="4"/>
     </row>
@@ -28928,18 +28928,18 @@
       <c r="C137" s="3">
         <v>380</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>17</v>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
       </c>
       <c r="F137" s="3">
         <v>2</v>
       </c>
       <c r="G137" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 250, 380, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 250, 380, 0, 0, 2);</v>
       </c>
       <c r="H137" s="4"/>
     </row>
@@ -28955,18 +28955,18 @@
       <c r="C138" s="3">
         <v>380</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>17</v>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 250, 380, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 250, 380, 0, 0, 1);</v>
       </c>
       <c r="H138" s="4"/>
     </row>
@@ -28982,18 +28982,18 @@
       <c r="C139" s="3">
         <v>4428</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>17</v>
+      <c r="D139" s="3">
+        <v>2</v>
+      </c>
+      <c r="E139" s="3">
+        <v>3</v>
       </c>
       <c r="F139" s="3">
         <v>2</v>
       </c>
       <c r="G139" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 250, 4428, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 250, 4428, 2, 3, 2);</v>
       </c>
       <c r="H139" s="4"/>
     </row>
@@ -29009,18 +29009,18 @@
       <c r="C140" s="3">
         <v>4428</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>17</v>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
       </c>
       <c r="G140" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 250, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 250, 4428, 0, 0, 1);</v>
       </c>
       <c r="H140" s="4"/>
     </row>
@@ -29036,18 +29036,18 @@
       <c r="C141" s="4">
         <v>49</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>17</v>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1</v>
       </c>
       <c r="F141" s="4">
         <v>2</v>
       </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 251, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 251, 49, 0, 1, 2);</v>
       </c>
       <c r="H141" s="4"/>
     </row>
@@ -29063,18 +29063,18 @@
       <c r="C142" s="4">
         <v>49</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>17</v>
+      <c r="D142" s="4">
+        <v>0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
       </c>
       <c r="G142" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 251, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 251, 49, 0, 1, 1);</v>
       </c>
       <c r="H142" s="4"/>
     </row>
@@ -29090,18 +29090,18 @@
       <c r="C143" s="4">
         <v>48</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>17</v>
+      <c r="D143" s="4">
+        <v>0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1</v>
       </c>
       <c r="F143" s="4">
         <v>2</v>
       </c>
       <c r="G143" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 251, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 251, 48, 0, 1, 2);</v>
       </c>
       <c r="H143" s="4"/>
     </row>
@@ -29117,18 +29117,18 @@
       <c r="C144" s="4">
         <v>48</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>17</v>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>1</v>
       </c>
       <c r="F144" s="4">
         <v>1</v>
       </c>
       <c r="G144" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 251, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 251, 48, 0, 1, 1);</v>
       </c>
       <c r="H144" s="4"/>
     </row>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -27848,18 +27848,18 @@
       <c r="C97" s="3">
         <v>40</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>17</v>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
       </c>
       <c r="F97" s="3">
         <v>2</v>
       </c>
       <c r="G97" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 240, 40, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 240, 40, 0, 0, 2);</v>
       </c>
       <c r="H97" s="4"/>
     </row>
@@ -27875,18 +27875,18 @@
       <c r="C98" s="3">
         <v>40</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>17</v>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 240, 40, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 240, 40, 0, 0, 1);</v>
       </c>
       <c r="H98" s="4"/>
     </row>
@@ -27902,18 +27902,18 @@
       <c r="C99" s="3">
         <v>355</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>17</v>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>3</v>
       </c>
       <c r="F99" s="3">
         <v>2</v>
       </c>
       <c r="G99" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 240, 355, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 240, 355, 1, 3, 2);</v>
       </c>
       <c r="H99" s="4"/>
     </row>
@@ -27929,18 +27929,18 @@
       <c r="C100" s="3">
         <v>355</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>17</v>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 240, 355, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 240, 355, 1, 0, 1);</v>
       </c>
       <c r="H100" s="4"/>
     </row>
@@ -27956,18 +27956,18 @@
       <c r="C101" s="4">
         <v>41</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>17</v>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
       </c>
       <c r="F101" s="4">
         <v>2</v>
       </c>
       <c r="G101" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A101 &amp; ", " &amp; B101 &amp; ", " &amp; C101 &amp; ", " &amp; D101 &amp; ", " &amp; E101 &amp; ", " &amp; F101 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 241, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 241, 41, 0, 1, 2);</v>
       </c>
       <c r="H101" s="4"/>
     </row>
@@ -27983,18 +27983,18 @@
       <c r="C102" s="4">
         <v>41</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>17</v>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
       </c>
       <c r="G102" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A102 &amp; ", " &amp; B102 &amp; ", " &amp; C102 &amp; ", " &amp; D102 &amp; ", " &amp; E102 &amp; ", " &amp; F102 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 241, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 241, 41, 0, 0, 1);</v>
       </c>
       <c r="H102" s="4"/>
     </row>
@@ -28010,18 +28010,18 @@
       <c r="C103" s="4">
         <v>33</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>17</v>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
       </c>
       <c r="G103" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A103 &amp; ", " &amp; B103 &amp; ", " &amp; C103 &amp; ", " &amp; D103 &amp; ", " &amp; E103 &amp; ", " &amp; F103 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 241, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 241, 33, 0, 1, 2);</v>
       </c>
       <c r="H103" s="4"/>
     </row>
@@ -28037,18 +28037,18 @@
       <c r="C104" s="4">
         <v>33</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>17</v>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
       </c>
       <c r="G104" s="4" t="str">
         <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A104 &amp; ", " &amp; B104 &amp; ", " &amp; C104 &amp; ", " &amp; D104 &amp; ", " &amp; E104 &amp; ", " &amp; F104 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 241, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 241, 33, 0, 0, 1);</v>
       </c>
       <c r="H104" s="4"/>
     </row>
@@ -29563,18 +29563,18 @@
       <c r="C161" s="3">
         <v>420</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>17</v>
+      <c r="D161" s="3">
+        <v>2</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
       </c>
       <c r="F161" s="3">
         <v>2</v>
       </c>
       <c r="G161" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 256, 420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 256, 420, 2, 1, 2);</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -29589,18 +29589,18 @@
       <c r="C162" s="3">
         <v>420</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>17</v>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
       </c>
       <c r="G162" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 256, 420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 256, 420, 0, 0, 1);</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -29615,18 +29615,18 @@
       <c r="C163" s="3">
         <v>385</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>17</v>
+      <c r="D163" s="3">
+        <v>2</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
       </c>
       <c r="F163" s="3">
         <v>2</v>
       </c>
       <c r="G163" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 256, 385, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 256, 385, 2, 1, 2);</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -29641,18 +29641,18 @@
       <c r="C164" s="3">
         <v>385</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>17</v>
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
       </c>
       <c r="G164" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 256, 385, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 256, 385, 1, 0, 1);</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -29667,18 +29667,18 @@
       <c r="C165" s="4">
         <v>34</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>17</v>
+      <c r="D165" s="4">
+        <v>3</v>
+      </c>
+      <c r="E165" s="4">
+        <v>3</v>
       </c>
       <c r="F165" s="4">
         <v>2</v>
       </c>
       <c r="G165" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1159, 257, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1159, 257, 34, 3, 3, 2);</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -29693,18 +29693,18 @@
       <c r="C166" s="4">
         <v>34</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>17</v>
+      <c r="D166" s="4">
+        <v>2</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
       </c>
       <c r="G166" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1160, 257, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1160, 257, 34, 2, 0, 1);</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -29719,18 +29719,18 @@
       <c r="C167" s="4">
         <v>90</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>17</v>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0</v>
       </c>
       <c r="F167" s="4">
         <v>2</v>
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1161, 257, 90, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1161, 257, 90, 0, 0, 2);</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -29745,18 +29745,18 @@
       <c r="C168" s="4">
         <v>90</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>17</v>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
       </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1162, 257, 90, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1162, 257, 90, 0, 0, 1);</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -30187,18 +30187,18 @@
       <c r="C185" s="3">
         <v>39</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>17</v>
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+      <c r="E185" s="3">
+        <v>3</v>
       </c>
       <c r="F185" s="3">
         <v>2</v>
       </c>
       <c r="G185" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1179, 262, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1179, 262, 39, 1, 3, 2);</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -30213,18 +30213,18 @@
       <c r="C186" s="3">
         <v>39</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>17</v>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
       </c>
       <c r="G186" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1180, 262, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1180, 262, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -30239,18 +30239,18 @@
       <c r="C187" s="3">
         <v>46</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>17</v>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
       </c>
       <c r="F187" s="3">
         <v>2</v>
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1181, 262, 46, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1181, 262, 46, 0, 0, 2);</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -30265,18 +30265,18 @@
       <c r="C188" s="3">
         <v>46</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>17</v>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
       </c>
       <c r="G188" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1182, 262, 46, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1182, 262, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -30291,18 +30291,18 @@
       <c r="C189" s="4">
         <v>32</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>17</v>
+      <c r="D189" s="4">
+        <v>3</v>
+      </c>
+      <c r="E189" s="4">
+        <v>3</v>
       </c>
       <c r="F189" s="4">
         <v>2</v>
       </c>
       <c r="G189" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1183, 263, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1183, 263, 32, 3, 3, 2);</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -30317,18 +30317,18 @@
       <c r="C190" s="4">
         <v>32</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>17</v>
+      <c r="D190" s="4">
+        <v>0</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0</v>
       </c>
       <c r="F190" s="4">
         <v>1</v>
       </c>
       <c r="G190" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1184, 263, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1184, 263, 32, 0, 0, 1);</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -30343,18 +30343,18 @@
       <c r="C191" s="4">
         <v>353</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>17</v>
+      <c r="D191" s="4">
+        <v>0</v>
+      </c>
+      <c r="E191" s="4">
+        <v>0</v>
       </c>
       <c r="F191" s="4">
         <v>2</v>
       </c>
       <c r="G191" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1185, 263, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1185, 263, 353, 0, 0, 2);</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -30369,18 +30369,18 @@
       <c r="C192" s="4">
         <v>353</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>17</v>
+      <c r="D192" s="4">
+        <v>0</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
       </c>
       <c r="F192" s="4">
         <v>1</v>
       </c>
       <c r="G192" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1186, 263, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1186, 263, 353, 0, 0, 1);</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -30811,18 +30811,18 @@
       <c r="C209" s="3">
         <v>354</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>17</v>
+      <c r="D209" s="3">
+        <v>1</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1</v>
       </c>
       <c r="F209" s="3">
         <v>2</v>
       </c>
       <c r="G209" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1203, 268, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1203, 268, 354, 1, 1, 2);</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -30837,18 +30837,18 @@
       <c r="C210" s="3">
         <v>354</v>
       </c>
-      <c r="D210" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>17</v>
+      <c r="D210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0</v>
       </c>
       <c r="F210" s="3">
         <v>1</v>
       </c>
       <c r="G210" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1204, 268, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1204, 268, 354, 1, 0, 1);</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -30863,18 +30863,18 @@
       <c r="C211" s="3">
         <v>36</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>17</v>
+      <c r="D211" s="3">
+        <v>1</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1</v>
       </c>
       <c r="F211" s="3">
         <v>2</v>
       </c>
       <c r="G211" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1205, 268, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1205, 268, 36, 1, 1, 2);</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -30889,18 +30889,18 @@
       <c r="C212" s="3">
         <v>36</v>
       </c>
-      <c r="D212" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>17</v>
+      <c r="D212" s="3">
+        <v>0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0</v>
       </c>
       <c r="F212" s="3">
         <v>1</v>
       </c>
       <c r="G212" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1206, 268, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1206, 268, 36, 0, 0, 1);</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -30915,18 +30915,18 @@
       <c r="C213" s="4">
         <v>351</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>17</v>
+      <c r="D213" s="4">
+        <v>0</v>
+      </c>
+      <c r="E213" s="4">
+        <v>1</v>
       </c>
       <c r="F213" s="4">
         <v>2</v>
       </c>
       <c r="G213" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1207, 269, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1207, 269, 351, 0, 1, 2);</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -30941,18 +30941,18 @@
       <c r="C214" s="4">
         <v>351</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>17</v>
+      <c r="D214" s="4">
+        <v>0</v>
+      </c>
+      <c r="E214" s="4">
+        <v>0</v>
       </c>
       <c r="F214" s="4">
         <v>1</v>
       </c>
       <c r="G214" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1208, 269, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1208, 269, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -30967,18 +30967,18 @@
       <c r="C215" s="4">
         <v>43</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>17</v>
+      <c r="D215" s="4">
+        <v>0</v>
+      </c>
+      <c r="E215" s="4">
+        <v>1</v>
       </c>
       <c r="F215" s="4">
         <v>2</v>
       </c>
       <c r="G215" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1209, 269, 43, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1209, 269, 43, 0, 1, 2);</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -30993,18 +30993,18 @@
       <c r="C216" s="4">
         <v>43</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>17</v>
+      <c r="D216" s="4">
+        <v>0</v>
+      </c>
+      <c r="E216" s="4">
+        <v>0</v>
       </c>
       <c r="F216" s="4">
         <v>1</v>
       </c>
       <c r="G216" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1210, 269, 43, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1210, 269, 43, 0, 0, 1);</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -28496,18 +28496,18 @@
       <c r="C121" s="3">
         <v>7</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>17</v>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
       </c>
       <c r="F121" s="3">
         <v>2</v>
       </c>
       <c r="G121" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 246, 7, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 246, 7, 0, 0, 2);</v>
       </c>
       <c r="H121" s="4"/>
     </row>
@@ -28523,18 +28523,18 @@
       <c r="C122" s="3">
         <v>7</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>17</v>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 246, 7, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 246, 7, 0, 0, 1);</v>
       </c>
       <c r="H122" s="4"/>
     </row>
@@ -28550,18 +28550,18 @@
       <c r="C123" s="3">
         <v>4429</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>17</v>
+      <c r="D123" s="3">
+        <v>3</v>
+      </c>
+      <c r="E123" s="3">
+        <v>3</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
       </c>
       <c r="G123" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 246, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 246, 4429, 3, 3, 2);</v>
       </c>
       <c r="H123" s="4"/>
     </row>
@@ -28577,18 +28577,18 @@
       <c r="C124" s="3">
         <v>4429</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>17</v>
+      <c r="D124" s="3">
+        <v>2</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 246, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 246, 4429, 2, 0, 1);</v>
       </c>
       <c r="H124" s="4"/>
     </row>
@@ -28604,18 +28604,18 @@
       <c r="C125" s="4">
         <v>421</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>17</v>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 247, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 247, 421, 0, 1, 2);</v>
       </c>
       <c r="H125" s="4"/>
     </row>
@@ -28631,18 +28631,18 @@
       <c r="C126" s="4">
         <v>421</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>17</v>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
       </c>
       <c r="F126" s="4">
         <v>1</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 247, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 247, 421, 0, 0, 1);</v>
       </c>
       <c r="H126" s="4"/>
     </row>
@@ -28658,18 +28658,18 @@
       <c r="C127" s="4">
         <v>4420</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>17</v>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 247, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 247, 4420, 0, 1, 2);</v>
       </c>
       <c r="H127" s="4"/>
     </row>
@@ -28685,18 +28685,18 @@
       <c r="C128" s="4">
         <v>4420</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>17</v>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 247, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 247, 4420, 0, 0, 1);</v>
       </c>
       <c r="H128" s="4"/>
     </row>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -29144,18 +29144,18 @@
       <c r="C145" s="3">
         <v>380</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>17</v>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
       </c>
       <c r="F145" s="3">
         <v>2</v>
       </c>
       <c r="G145" s="3" t="str">
         <f t="shared" ref="G145:G192" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A145 &amp; ", " &amp; B145 &amp; ", " &amp; C145 &amp; ", " &amp; D145 &amp; ", " &amp; E145 &amp; ", " &amp; F145 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 252, 380, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 252, 380, 0, 0, 2);</v>
       </c>
       <c r="H145" s="4"/>
     </row>
@@ -29171,18 +29171,18 @@
       <c r="C146" s="3">
         <v>380</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>17</v>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
       </c>
       <c r="G146" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 252, 380, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 252, 380, 0, 0, 1);</v>
       </c>
       <c r="H146" s="4"/>
     </row>
@@ -29198,18 +29198,18 @@
       <c r="C147" s="3">
         <v>48</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>17</v>
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>3</v>
       </c>
       <c r="F147" s="3">
         <v>2</v>
       </c>
       <c r="G147" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 252, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 252, 48, 1, 3, 2);</v>
       </c>
       <c r="H147" s="4"/>
     </row>
@@ -29225,18 +29225,18 @@
       <c r="C148" s="3">
         <v>48</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>17</v>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
       </c>
       <c r="G148" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 252, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 252, 48, 0, 0, 1);</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -29251,18 +29251,18 @@
       <c r="C149" s="4">
         <v>4428</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>17</v>
+      <c r="D149" s="4">
+        <v>0</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
       </c>
       <c r="F149" s="4">
         <v>2</v>
       </c>
       <c r="G149" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1143, 253, 4428, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1143, 253, 4428, 0, 0, 2);</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -29277,18 +29277,18 @@
       <c r="C150" s="4">
         <v>4428</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>17</v>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
       </c>
       <c r="G150" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1144, 253, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1144, 253, 4428, 0, 0, 1);</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -29303,18 +29303,18 @@
       <c r="C151" s="4">
         <v>49</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>17</v>
+      <c r="D151" s="4">
+        <v>1</v>
+      </c>
+      <c r="E151" s="4">
+        <v>3</v>
       </c>
       <c r="F151" s="4">
         <v>2</v>
       </c>
       <c r="G151" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1145, 253, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1145, 253, 49, 1, 3, 2);</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -29329,18 +29329,18 @@
       <c r="C152" s="4">
         <v>49</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>17</v>
+      <c r="D152" s="4">
+        <v>1</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
       </c>
       <c r="F152" s="4">
         <v>1</v>
       </c>
       <c r="G152" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1146, 253, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1146, 253, 49, 1, 0, 1);</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -29771,18 +29771,18 @@
       <c r="C169" s="3">
         <v>420</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>17</v>
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
       </c>
       <c r="F169" s="3">
         <v>2</v>
       </c>
       <c r="G169" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 258, 420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 258, 420, 0, 0, 2);</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -29797,18 +29797,18 @@
       <c r="C170" s="3">
         <v>420</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>17</v>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
       </c>
       <c r="G170" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 258, 420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 258, 420, 0, 0, 1);</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -29823,18 +29823,18 @@
       <c r="C171" s="3">
         <v>90</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>17</v>
+      <c r="D171" s="3">
+        <v>2</v>
+      </c>
+      <c r="E171" s="3">
+        <v>3</v>
       </c>
       <c r="F171" s="3">
         <v>2</v>
       </c>
       <c r="G171" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 258, 90, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 258, 90, 2, 3, 2);</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -29849,18 +29849,18 @@
       <c r="C172" s="3">
         <v>90</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>17</v>
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
       </c>
       <c r="G172" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 258, 90, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 258, 90, 1, 0, 1);</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -29875,18 +29875,18 @@
       <c r="C173" s="4">
         <v>385</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>17</v>
+      <c r="D173" s="4">
+        <v>2</v>
+      </c>
+      <c r="E173" s="4">
+        <v>3</v>
       </c>
       <c r="F173" s="4">
         <v>2</v>
       </c>
       <c r="G173" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1167, 259, 385, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1167, 259, 385, 2, 3, 2);</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -29901,18 +29901,18 @@
       <c r="C174" s="4">
         <v>385</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>17</v>
+      <c r="D174" s="4">
+        <v>1</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
       </c>
       <c r="F174" s="4">
         <v>1</v>
       </c>
       <c r="G174" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1168, 259, 385, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1168, 259, 385, 1, 0, 1);</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -29927,18 +29927,18 @@
       <c r="C175" s="4">
         <v>34</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>17</v>
+      <c r="D175" s="4">
+        <v>1</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
       </c>
       <c r="F175" s="4">
         <v>2</v>
       </c>
       <c r="G175" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1169, 259, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1169, 259, 34, 1, 0, 2);</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -29953,18 +29953,18 @@
       <c r="C176" s="4">
         <v>34</v>
       </c>
-      <c r="D176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>17</v>
+      <c r="D176" s="4">
+        <v>1</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
       </c>
       <c r="F176" s="4">
         <v>1</v>
       </c>
       <c r="G176" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1170, 259, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1170, 259, 34, 1, 0, 1);</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25496,7 +25496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30395,18 +30397,18 @@
       <c r="C193" s="3">
         <v>39</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>17</v>
+      <c r="D193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
       </c>
       <c r="F193" s="3">
         <v>2</v>
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" ref="G193:G256" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A193 &amp; ", " &amp; B193 &amp; ", " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 264, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 264, 39, 0, 0, 2);</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -30421,18 +30423,18 @@
       <c r="C194" s="3">
         <v>39</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>17</v>
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0</v>
       </c>
       <c r="F194" s="3">
         <v>1</v>
       </c>
       <c r="G194" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1188, 264, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1188, 264, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -30447,18 +30449,18 @@
       <c r="C195" s="3">
         <v>353</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>17</v>
+      <c r="D195" s="3">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3">
+        <v>3</v>
       </c>
       <c r="F195" s="3">
         <v>2</v>
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1189, 264, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1189, 264, 353, 1, 3, 2);</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -30473,18 +30475,18 @@
       <c r="C196" s="3">
         <v>353</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>17</v>
+      <c r="D196" s="3">
+        <v>0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
       </c>
       <c r="G196" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1190, 264, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1190, 264, 353, 0, 0, 1);</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -30499,18 +30501,18 @@
       <c r="C197" s="4">
         <v>46</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>17</v>
+      <c r="D197" s="4">
+        <v>0</v>
+      </c>
+      <c r="E197" s="4">
+        <v>0</v>
       </c>
       <c r="F197" s="4">
         <v>2</v>
       </c>
       <c r="G197" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1191, 265, 46, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1191, 265, 46, 0, 0, 2);</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -30525,18 +30527,18 @@
       <c r="C198" s="4">
         <v>46</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>17</v>
+      <c r="D198" s="4">
+        <v>0</v>
+      </c>
+      <c r="E198" s="4">
+        <v>0</v>
       </c>
       <c r="F198" s="4">
         <v>1</v>
       </c>
       <c r="G198" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1192, 265, 46, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1192, 265, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -30551,18 +30553,18 @@
       <c r="C199" s="4">
         <v>32</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>17</v>
+      <c r="D199" s="4">
+        <v>1</v>
+      </c>
+      <c r="E199" s="4">
+        <v>3</v>
       </c>
       <c r="F199" s="4">
         <v>2</v>
       </c>
       <c r="G199" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1193, 265, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1193, 265, 32, 1, 3, 2);</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -30577,18 +30579,18 @@
       <c r="C200" s="4">
         <v>32</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>17</v>
+      <c r="D200" s="4">
+        <v>0</v>
+      </c>
+      <c r="E200" s="4">
+        <v>0</v>
       </c>
       <c r="F200" s="4">
         <v>1</v>
       </c>
       <c r="G200" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1194, 265, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1194, 265, 32, 0, 0, 1);</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -31019,18 +31021,18 @@
       <c r="C217" s="3">
         <v>354</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>17</v>
+      <c r="D217" s="3">
+        <v>2</v>
+      </c>
+      <c r="E217" s="3">
+        <v>3</v>
       </c>
       <c r="F217" s="3">
         <v>2</v>
       </c>
       <c r="G217" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1211, 270, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1211, 270, 354, 2, 3, 2);</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -31045,18 +31047,18 @@
       <c r="C218" s="3">
         <v>354</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>17</v>
+      <c r="D218" s="3">
+        <v>1</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0</v>
       </c>
       <c r="F218" s="3">
         <v>1</v>
       </c>
       <c r="G218" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1212, 270, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1212, 270, 354, 1, 0, 1);</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -31071,18 +31073,18 @@
       <c r="C219" s="3">
         <v>43</v>
       </c>
-      <c r="D219" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>17</v>
+      <c r="D219" s="3">
+        <v>1</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
       </c>
       <c r="F219" s="3">
         <v>2</v>
       </c>
       <c r="G219" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1213, 270, 43, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1213, 270, 43, 1, 0, 2);</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -31097,18 +31099,18 @@
       <c r="C220" s="3">
         <v>43</v>
       </c>
-      <c r="D220" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>17</v>
+      <c r="D220" s="3">
+        <v>0</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
       </c>
       <c r="G220" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1214, 270, 43, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1214, 270, 43, 0, 0, 1);</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -31123,18 +31125,18 @@
       <c r="C221" s="4">
         <v>36</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>17</v>
+      <c r="D221" s="4">
+        <v>3</v>
+      </c>
+      <c r="E221" s="4">
+        <v>1</v>
       </c>
       <c r="F221" s="4">
         <v>2</v>
       </c>
       <c r="G221" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1215, 271, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1215, 271, 36, 3, 1, 2);</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -31149,18 +31151,18 @@
       <c r="C222" s="4">
         <v>36</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>17</v>
+      <c r="D222" s="4">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0</v>
       </c>
       <c r="F222" s="4">
         <v>1</v>
       </c>
       <c r="G222" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1216, 271, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1216, 271, 36, 1, 0, 1);</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -31175,18 +31177,18 @@
       <c r="C223" s="4">
         <v>351</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>17</v>
+      <c r="D223" s="4">
+        <v>3</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1</v>
       </c>
       <c r="F223" s="4">
         <v>2</v>
       </c>
       <c r="G223" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1217, 271, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1217, 271, 351, 3, 1, 2);</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -31201,18 +31203,18 @@
       <c r="C224" s="4">
         <v>351</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>17</v>
+      <c r="D224" s="4">
+        <v>1</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0</v>
       </c>
       <c r="F224" s="4">
         <v>1</v>
       </c>
       <c r="G224" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1218, 271, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1218, 271, 351, 1, 0, 1);</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -31224,8 +31226,8 @@
         <f>B221+1</f>
         <v>272</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>17</v>
+      <c r="C225" s="3">
+        <v>41</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>17</v>
@@ -31238,7 +31240,7 @@
       </c>
       <c r="G225" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 272, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 272, 41, null, null, 2);</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -31250,8 +31252,8 @@
         <f>B225</f>
         <v>272</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>17</v>
+      <c r="C226" s="3">
+        <v>41</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>17</v>
@@ -31264,7 +31266,7 @@
       </c>
       <c r="G226" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 272, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 272, 41, null, null, 1);</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -31276,8 +31278,8 @@
         <f t="shared" ref="B227:B228" si="25">B225</f>
         <v>272</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>17</v>
+      <c r="C227" s="3">
+        <v>48</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>17</v>
@@ -31290,7 +31292,7 @@
       </c>
       <c r="G227" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 272, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 272, 48, null, null, 2);</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -31302,8 +31304,8 @@
         <f t="shared" si="25"/>
         <v>272</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>17</v>
+      <c r="C228" s="3">
+        <v>48</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>17</v>
@@ -31316,7 +31318,7 @@
       </c>
       <c r="G228" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 272, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 272, 48, null, null, 1);</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -31328,8 +31330,8 @@
         <f>B225+1</f>
         <v>273</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>17</v>
+      <c r="C229" s="4">
+        <v>4429</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>17</v>
@@ -31342,7 +31344,7 @@
       </c>
       <c r="G229" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 273, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 273, 4429, null, null, 2);</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -31354,8 +31356,8 @@
         <f>B229</f>
         <v>273</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>17</v>
+      <c r="C230" s="4">
+        <v>4429</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>17</v>
@@ -31368,7 +31370,7 @@
       </c>
       <c r="G230" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 273, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 273, 4429, null, null, 1);</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -31380,8 +31382,8 @@
         <f t="shared" ref="B231:B232" si="26">B229</f>
         <v>273</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>17</v>
+      <c r="C231" s="4">
+        <v>4428</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>17</v>
@@ -31394,7 +31396,7 @@
       </c>
       <c r="G231" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 273, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 273, 4428, null, null, 2);</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -31406,8 +31408,8 @@
         <f t="shared" si="26"/>
         <v>273</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>17</v>
+      <c r="C232" s="4">
+        <v>4428</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>17</v>
@@ -31420,7 +31422,7 @@
       </c>
       <c r="G232" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 273, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 273, 4428, null, null, 1);</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -31432,8 +31434,8 @@
         <f>B229+1</f>
         <v>274</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>17</v>
+      <c r="C233" s="3">
+        <v>385</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>17</v>
@@ -31446,7 +31448,7 @@
       </c>
       <c r="G233" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 274, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 274, 385, null, null, 2);</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -31458,8 +31460,8 @@
         <f>B233</f>
         <v>274</v>
       </c>
-      <c r="C234" s="3" t="s">
-        <v>17</v>
+      <c r="C234" s="3">
+        <v>385</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>17</v>
@@ -31472,7 +31474,7 @@
       </c>
       <c r="G234" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 274, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 274, 385, null, null, 1);</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -31484,8 +31486,8 @@
         <f t="shared" ref="B235:B236" si="27">B233</f>
         <v>274</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>17</v>
+      <c r="C235" s="3">
+        <v>351</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>17</v>
@@ -31498,7 +31500,7 @@
       </c>
       <c r="G235" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 274, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 274, 351, null, null, 2);</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -31510,8 +31512,8 @@
         <f t="shared" si="27"/>
         <v>274</v>
       </c>
-      <c r="C236" s="3" t="s">
-        <v>17</v>
+      <c r="C236" s="3">
+        <v>361</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>17</v>
@@ -31524,7 +31526,7 @@
       </c>
       <c r="G236" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 274, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 274, 361, null, null, 1);</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -31536,8 +31538,8 @@
         <f>B233+1</f>
         <v>275</v>
       </c>
-      <c r="C237" s="4" t="s">
-        <v>17</v>
+      <c r="C237" s="4">
+        <v>33</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>17</v>
@@ -31550,7 +31552,7 @@
       </c>
       <c r="G237" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 275, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 275, 33, null, null, 2);</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -31562,8 +31564,8 @@
         <f>B237</f>
         <v>275</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>17</v>
+      <c r="C238" s="4">
+        <v>33</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>17</v>
@@ -31576,7 +31578,7 @@
       </c>
       <c r="G238" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 275, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 275, 33, null, null, 1);</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -31588,8 +31590,8 @@
         <f t="shared" ref="B239:B240" si="28">B237</f>
         <v>275</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>17</v>
+      <c r="C239" s="4">
+        <v>353</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>17</v>
@@ -31602,7 +31604,7 @@
       </c>
       <c r="G239" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 275, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 275, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -31614,8 +31616,8 @@
         <f t="shared" si="28"/>
         <v>275</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>17</v>
+      <c r="C240" s="4">
+        <v>353</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>17</v>
@@ -31628,7 +31630,7 @@
       </c>
       <c r="G240" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 275, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 275, 353, null, null, 1);</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -31640,8 +31642,8 @@
         <f>B237+1</f>
         <v>276</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>17</v>
+      <c r="C241" s="3">
+        <v>49</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>17</v>
@@ -31654,7 +31656,7 @@
       </c>
       <c r="G241" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 276, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 276, 49, null, null, 2);</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -31666,8 +31668,8 @@
         <f>B241</f>
         <v>276</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>17</v>
+      <c r="C242" s="3">
+        <v>49</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>17</v>
@@ -31680,7 +31682,7 @@
       </c>
       <c r="G242" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 276, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 276, 49, null, null, 1);</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -31692,8 +31694,8 @@
         <f t="shared" ref="B243:B244" si="29">B241</f>
         <v>276</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>17</v>
+      <c r="C243" s="3">
+        <v>421</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>17</v>
@@ -31706,7 +31708,7 @@
       </c>
       <c r="G243" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 276, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 276, 421, null, null, 2);</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -31718,8 +31720,8 @@
         <f t="shared" si="29"/>
         <v>276</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>17</v>
+      <c r="C244" s="3">
+        <v>421</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>17</v>
@@ -31732,7 +31734,7 @@
       </c>
       <c r="G244" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 276, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 276, 421, null, null, 1);</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -31744,8 +31746,8 @@
         <f>B241+1</f>
         <v>277</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>17</v>
+      <c r="C245" s="4">
+        <v>36</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>17</v>
@@ -31758,7 +31760,7 @@
       </c>
       <c r="G245" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 277, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 277, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -31770,8 +31772,8 @@
         <f>B245</f>
         <v>277</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>17</v>
+      <c r="C246" s="4">
+        <v>36</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>17</v>
@@ -31784,7 +31786,7 @@
       </c>
       <c r="G246" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 277, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 277, 36, null, null, 1);</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -31796,8 +31798,8 @@
         <f t="shared" ref="B247:B248" si="30">B245</f>
         <v>277</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>17</v>
+      <c r="C247" s="4">
+        <v>32</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>17</v>
@@ -31810,7 +31812,7 @@
       </c>
       <c r="G247" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 277, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 277, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -31822,8 +31824,8 @@
         <f t="shared" si="30"/>
         <v>277</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>17</v>
+      <c r="C248" s="4">
+        <v>32</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>17</v>
@@ -31836,7 +31838,7 @@
       </c>
       <c r="G248" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 277, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 277, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -31848,8 +31850,8 @@
         <f>B245+1</f>
         <v>278</v>
       </c>
-      <c r="C249" s="3" t="s">
-        <v>17</v>
+      <c r="C249" s="3">
+        <v>39</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>17</v>
@@ -31862,7 +31864,7 @@
       </c>
       <c r="G249" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 278, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 278, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -31874,8 +31876,8 @@
         <f>B249</f>
         <v>278</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>17</v>
+      <c r="C250" s="3">
+        <v>39</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>17</v>
@@ -31888,7 +31890,7 @@
       </c>
       <c r="G250" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 278, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 278, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -31900,8 +31902,8 @@
         <f t="shared" ref="B251:B252" si="31">B249</f>
         <v>278</v>
       </c>
-      <c r="C251" s="3" t="s">
-        <v>17</v>
+      <c r="C251" s="3">
+        <v>34</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>17</v>
@@ -31914,7 +31916,7 @@
       </c>
       <c r="G251" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 278, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 278, 34, null, null, 2);</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -31926,8 +31928,8 @@
         <f t="shared" si="31"/>
         <v>278</v>
       </c>
-      <c r="C252" s="3" t="s">
-        <v>17</v>
+      <c r="C252" s="3">
+        <v>34</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>17</v>
@@ -31940,7 +31942,7 @@
       </c>
       <c r="G252" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 278, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 278, 34, null, null, 1);</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -31952,8 +31954,8 @@
         <f>B249+1</f>
         <v>279</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>17</v>
+      <c r="C253" s="4">
+        <v>4420</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>17</v>
@@ -31966,7 +31968,7 @@
       </c>
       <c r="G253" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 279, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 279, 4420, null, null, 2);</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -31978,8 +31980,8 @@
         <f>B253</f>
         <v>279</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>17</v>
+      <c r="C254" s="4">
+        <v>4420</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>17</v>
@@ -31992,7 +31994,7 @@
       </c>
       <c r="G254" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 279, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 279, 4420, null, null, 1);</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -32004,8 +32006,8 @@
         <f t="shared" ref="B255:B256" si="32">B253</f>
         <v>279</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>17</v>
+      <c r="C255" s="4">
+        <v>354</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>17</v>
@@ -32018,7 +32020,7 @@
       </c>
       <c r="G255" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 279, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 279, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -32030,8 +32032,8 @@
         <f t="shared" si="32"/>
         <v>279</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>17</v>
+      <c r="C256" s="4">
+        <v>354</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>17</v>
@@ -32044,7 +32046,7 @@
       </c>
       <c r="G256" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 279, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 279, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -25496,9 +25496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="F255" sqref="F255"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25494,9 +25494,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J284"/>
+  <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30405,7 +30407,7 @@
         <v>2</v>
       </c>
       <c r="G193" s="3" t="str">
-        <f t="shared" ref="G193:G256" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A193 &amp; ", " &amp; B193 &amp; ", " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ");"</f>
+        <f t="shared" ref="G193:G266" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A193 &amp; ", " &amp; B193 &amp; ", " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 264, 39, 0, 0, 2);</v>
       </c>
     </row>
@@ -30853,7 +30855,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f t="shared" ref="A211:A274" si="20">A210+1</f>
+        <f t="shared" ref="A211:A284" si="20">A210+1</f>
         <v>1205</v>
       </c>
       <c r="B211" s="3">
@@ -31227,18 +31229,18 @@
       <c r="C225" s="3">
         <v>41</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>17</v>
+      <c r="D225" s="3">
+        <v>1</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
       </c>
       <c r="F225" s="3">
         <v>2</v>
       </c>
       <c r="G225" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 272, 41, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 272, 41, 1, 0, 2);</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -31253,18 +31255,18 @@
       <c r="C226" s="3">
         <v>41</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>17</v>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
       </c>
       <c r="F226" s="3">
         <v>1</v>
       </c>
       <c r="G226" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 272, 41, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 272, 41, 0, 0, 1);</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -31273,24 +31275,24 @@
         <v>1221</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" ref="B227:B228" si="25">B225</f>
+        <f t="shared" ref="B227:B234" si="25">B226</f>
         <v>272</v>
       </c>
       <c r="C227" s="3">
         <v>48</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>17</v>
+      <c r="D227" s="3">
+        <v>1</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0</v>
       </c>
       <c r="F227" s="3">
         <v>2</v>
       </c>
       <c r="G227" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 272, 48, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 272, 48, 1, 0, 2);</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -31305,122 +31307,122 @@
       <c r="C228" s="3">
         <v>48</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>17</v>
+      <c r="D228" s="3">
+        <v>1</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
       </c>
       <c r="F228" s="3">
         <v>1</v>
       </c>
       <c r="G228" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 272, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 272, 48, 1, 0, 1);</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
+      <c r="A229" s="3">
         <f t="shared" si="20"/>
         <v>1223</v>
       </c>
-      <c r="B229" s="4">
-        <f>B225+1</f>
-        <v>273</v>
-      </c>
-      <c r="C229" s="4">
-        <v>4429</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F229" s="4">
-        <v>2</v>
-      </c>
-      <c r="G229" s="4" t="str">
+      <c r="B229" s="3">
+        <f t="shared" si="25"/>
+        <v>272</v>
+      </c>
+      <c r="C229" s="3">
+        <v>41</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F229" s="3">
+        <v>4</v>
+      </c>
+      <c r="G229" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 273, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 272, 41, 1, 1, 4);</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
+      <c r="A230" s="3">
         <f t="shared" si="20"/>
         <v>1224</v>
       </c>
-      <c r="B230" s="4">
-        <f>B229</f>
-        <v>273</v>
-      </c>
-      <c r="C230" s="4">
-        <v>4429</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F230" s="4">
-        <v>1</v>
-      </c>
-      <c r="G230" s="4" t="str">
+      <c r="B230" s="3">
+        <f t="shared" si="25"/>
+        <v>272</v>
+      </c>
+      <c r="C230" s="3">
+        <v>41</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>3</v>
+      </c>
+      <c r="G230" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 273, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 272, 41, 1, 0, 3);</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
+      <c r="A231" s="3">
         <f t="shared" si="20"/>
         <v>1225</v>
       </c>
-      <c r="B231" s="4">
-        <f t="shared" ref="B231:B232" si="26">B229</f>
-        <v>273</v>
-      </c>
-      <c r="C231" s="4">
-        <v>4428</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F231" s="4">
-        <v>2</v>
-      </c>
-      <c r="G231" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 273, 4428, null, null, 2);</v>
+      <c r="B231" s="3">
+        <f t="shared" si="25"/>
+        <v>272</v>
+      </c>
+      <c r="C231" s="3">
+        <v>48</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3">
+        <v>4</v>
+      </c>
+      <c r="G231" s="3" t="str">
+        <f t="shared" ref="G231:G232" si="26">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A231 &amp; ", " &amp; B231 &amp; ", " &amp; C231 &amp; ", " &amp; D231 &amp; ", " &amp; E231 &amp; ", " &amp; F231 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 272, 48, 1, 1, 4);</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="3">
         <f t="shared" si="20"/>
         <v>1226</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="3">
+        <f t="shared" si="25"/>
+        <v>272</v>
+      </c>
+      <c r="C232" s="3">
+        <v>48</v>
+      </c>
+      <c r="D232" s="3">
+        <v>1</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>3</v>
+      </c>
+      <c r="G232" s="3" t="str">
         <f t="shared" si="26"/>
-        <v>273</v>
-      </c>
-      <c r="C232" s="4">
-        <v>4428</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F232" s="4">
-        <v>1</v>
-      </c>
-      <c r="G232" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 273, 4428, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 272, 48, 1, 0, 3);</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -31429,24 +31431,24 @@
         <v>1227</v>
       </c>
       <c r="B233" s="3">
-        <f>B229+1</f>
-        <v>274</v>
+        <f t="shared" si="25"/>
+        <v>272</v>
       </c>
       <c r="C233" s="3">
-        <v>385</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="D233" s="3">
+        <v>4</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0</v>
       </c>
       <c r="F233" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G233" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 274, 385, null, null, 2);</v>
+        <f t="shared" ref="G233:G234" si="27">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A233 &amp; ", " &amp; B233 &amp; ", " &amp; C233 &amp; ", " &amp; D233 &amp; ", " &amp; E233 &amp; ", " &amp; F233 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 272, 41, 4, 0, 7);</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -31455,76 +31457,76 @@
         <v>1228</v>
       </c>
       <c r="B234" s="3">
-        <f>B233</f>
-        <v>274</v>
+        <f t="shared" si="25"/>
+        <v>272</v>
       </c>
       <c r="C234" s="3">
-        <v>385</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="D234" s="3">
+        <v>5</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0</v>
       </c>
       <c r="F234" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G234" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 274, 385, null, null, 1);</v>
+        <f t="shared" si="27"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 272, 48, 5, 0, 7);</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235" s="4">
         <f t="shared" si="20"/>
         <v>1229</v>
       </c>
-      <c r="B235" s="3">
-        <f t="shared" ref="B235:B236" si="27">B233</f>
-        <v>274</v>
-      </c>
-      <c r="C235" s="3">
-        <v>351</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F235" s="3">
-        <v>2</v>
-      </c>
-      <c r="G235" s="3" t="str">
+      <c r="B235" s="4">
+        <f>B225+1</f>
+        <v>273</v>
+      </c>
+      <c r="C235" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D235" s="4">
+        <v>1</v>
+      </c>
+      <c r="E235" s="4">
+        <v>3</v>
+      </c>
+      <c r="F235" s="4">
+        <v>2</v>
+      </c>
+      <c r="G235" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 274, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 273, 4429, 1, 3, 2);</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="A236" s="4">
         <f t="shared" si="20"/>
         <v>1230</v>
       </c>
-      <c r="B236" s="3">
-        <f t="shared" si="27"/>
-        <v>274</v>
-      </c>
-      <c r="C236" s="3">
-        <v>361</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F236" s="3">
-        <v>1</v>
-      </c>
-      <c r="G236" s="3" t="str">
+      <c r="B236" s="4">
+        <f>B235</f>
+        <v>273</v>
+      </c>
+      <c r="C236" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0</v>
+      </c>
+      <c r="F236" s="4">
+        <v>1</v>
+      </c>
+      <c r="G236" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 274, 361, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 273, 4429, 0, 0, 1);</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -31533,24 +31535,24 @@
         <v>1231</v>
       </c>
       <c r="B237" s="4">
-        <f>B233+1</f>
-        <v>275</v>
+        <f t="shared" ref="B237:B238" si="28">B235</f>
+        <v>273</v>
       </c>
       <c r="C237" s="4">
-        <v>33</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>17</v>
+        <v>4428</v>
+      </c>
+      <c r="D237" s="4">
+        <v>0</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0</v>
       </c>
       <c r="F237" s="4">
         <v>2</v>
       </c>
       <c r="G237" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 275, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 273, 4428, 0, 0, 2);</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -31559,76 +31561,76 @@
         <v>1232</v>
       </c>
       <c r="B238" s="4">
-        <f>B237</f>
-        <v>275</v>
+        <f t="shared" si="28"/>
+        <v>273</v>
       </c>
       <c r="C238" s="4">
-        <v>33</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>17</v>
+        <v>4428</v>
+      </c>
+      <c r="D238" s="4">
+        <v>0</v>
+      </c>
+      <c r="E238" s="4">
+        <v>0</v>
       </c>
       <c r="F238" s="4">
         <v>1</v>
       </c>
       <c r="G238" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 275, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 273, 4428, 0, 0, 1);</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
+      <c r="A239" s="3">
         <f t="shared" si="20"/>
         <v>1233</v>
       </c>
-      <c r="B239" s="4">
-        <f t="shared" ref="B239:B240" si="28">B237</f>
-        <v>275</v>
-      </c>
-      <c r="C239" s="4">
-        <v>353</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F239" s="4">
-        <v>2</v>
-      </c>
-      <c r="G239" s="4" t="str">
+      <c r="B239" s="3">
+        <f>B235+1</f>
+        <v>274</v>
+      </c>
+      <c r="C239" s="3">
+        <v>385</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>2</v>
+      </c>
+      <c r="G239" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 275, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 274, 385, 0, 0, 2);</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="4">
+      <c r="A240" s="3">
         <f t="shared" si="20"/>
         <v>1234</v>
       </c>
-      <c r="B240" s="4">
-        <f t="shared" si="28"/>
-        <v>275</v>
-      </c>
-      <c r="C240" s="4">
-        <v>353</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F240" s="4">
-        <v>1</v>
-      </c>
-      <c r="G240" s="4" t="str">
+      <c r="B240" s="3">
+        <f>B239</f>
+        <v>274</v>
+      </c>
+      <c r="C240" s="3">
+        <v>385</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0</v>
+      </c>
+      <c r="F240" s="3">
+        <v>1</v>
+      </c>
+      <c r="G240" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 275, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 274, 385, 0, 0, 1);</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -31637,24 +31639,24 @@
         <v>1235</v>
       </c>
       <c r="B241" s="3">
-        <f>B237+1</f>
-        <v>276</v>
+        <f t="shared" ref="B241:B242" si="29">B239</f>
+        <v>274</v>
       </c>
       <c r="C241" s="3">
-        <v>49</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>17</v>
+        <v>351</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0</v>
       </c>
       <c r="F241" s="3">
         <v>2</v>
       </c>
       <c r="G241" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 276, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 274, 351, 0, 0, 2);</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -31663,24 +31665,24 @@
         <v>1236</v>
       </c>
       <c r="B242" s="3">
-        <f>B241</f>
-        <v>276</v>
+        <f t="shared" si="29"/>
+        <v>274</v>
       </c>
       <c r="C242" s="3">
-        <v>49</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>17</v>
+        <v>351</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0</v>
       </c>
       <c r="F242" s="3">
         <v>1</v>
       </c>
       <c r="G242" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 276, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 274, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -31689,24 +31691,24 @@
         <v>1237</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" ref="B243:B244" si="29">B241</f>
-        <v>276</v>
+        <f>B242</f>
+        <v>274</v>
       </c>
       <c r="C243" s="3">
-        <v>421</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>17</v>
+        <v>385</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0</v>
       </c>
       <c r="F243" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G243" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 276, 421, null, null, 2);</v>
+        <f t="shared" ref="G243:G246" si="30">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A243 &amp; ", " &amp; B243 &amp; ", " &amp; C243 &amp; ", " &amp; D243 &amp; ", " &amp; E243 &amp; ", " &amp; F243 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 274, 385, 0, 0, 4);</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -31715,89 +31717,89 @@
         <v>1238</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="29"/>
-        <v>276</v>
+        <f>B243</f>
+        <v>274</v>
       </c>
       <c r="C244" s="3">
-        <v>421</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>17</v>
+        <v>385</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0</v>
       </c>
       <c r="F244" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G244" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 276, 421, null, null, 1);</v>
+        <f t="shared" si="30"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 274, 385, 0, 0, 3);</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="4">
+      <c r="A245" s="3">
         <f t="shared" si="20"/>
         <v>1239</v>
       </c>
-      <c r="B245" s="4">
-        <f>B241+1</f>
-        <v>277</v>
-      </c>
-      <c r="C245" s="4">
-        <v>36</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F245" s="4">
-        <v>2</v>
-      </c>
-      <c r="G245" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 277, 36, null, null, 2);</v>
+      <c r="B245" s="3">
+        <f t="shared" ref="B245:B246" si="31">B243</f>
+        <v>274</v>
+      </c>
+      <c r="C245" s="3">
+        <v>351</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1</v>
+      </c>
+      <c r="E245" s="3">
+        <v>3</v>
+      </c>
+      <c r="F245" s="3">
+        <v>4</v>
+      </c>
+      <c r="G245" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 274, 351, 1, 3, 4);</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
+      <c r="A246" s="3">
         <f t="shared" si="20"/>
         <v>1240</v>
       </c>
-      <c r="B246" s="4">
-        <f>B245</f>
-        <v>277</v>
-      </c>
-      <c r="C246" s="4">
-        <v>36</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F246" s="4">
-        <v>1</v>
-      </c>
-      <c r="G246" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 277, 36, null, null, 1);</v>
+      <c r="B246" s="3">
+        <f t="shared" si="31"/>
+        <v>274</v>
+      </c>
+      <c r="C246" s="3">
+        <v>351</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>3</v>
+      </c>
+      <c r="G246" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 274, 351, 0, 0, 3);</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <f t="shared" si="20"/>
+        <f>A246+1</f>
         <v>1241</v>
       </c>
       <c r="B247" s="4">
-        <f t="shared" ref="B247:B248" si="30">B245</f>
-        <v>277</v>
+        <f>B239+1</f>
+        <v>275</v>
       </c>
       <c r="C247" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>17</v>
@@ -31810,7 +31812,7 @@
       </c>
       <c r="G247" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 277, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 275, 33, null, null, 2);</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -31819,11 +31821,11 @@
         <v>1242</v>
       </c>
       <c r="B248" s="4">
-        <f t="shared" si="30"/>
-        <v>277</v>
+        <f>B247</f>
+        <v>275</v>
       </c>
       <c r="C248" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>17</v>
@@ -31836,59 +31838,59 @@
       </c>
       <c r="G248" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 277, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 275, 33, null, null, 1);</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="A249" s="4">
         <f t="shared" si="20"/>
         <v>1243</v>
       </c>
-      <c r="B249" s="3">
-        <f>B245+1</f>
-        <v>278</v>
-      </c>
-      <c r="C249" s="3">
-        <v>39</v>
-      </c>
-      <c r="D249" s="3" t="s">
+      <c r="B249" s="4">
+        <f t="shared" ref="B249:B250" si="32">B247</f>
+        <v>275</v>
+      </c>
+      <c r="C249" s="4">
+        <v>353</v>
+      </c>
+      <c r="D249" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F249" s="3">
-        <v>2</v>
-      </c>
-      <c r="G249" s="3" t="str">
+      <c r="F249" s="4">
+        <v>2</v>
+      </c>
+      <c r="G249" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 278, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 275, 353, null, null, 2);</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="A250" s="4">
         <f t="shared" si="20"/>
         <v>1244</v>
       </c>
-      <c r="B250" s="3">
-        <f>B249</f>
-        <v>278</v>
-      </c>
-      <c r="C250" s="3">
-        <v>39</v>
-      </c>
-      <c r="D250" s="3" t="s">
+      <c r="B250" s="4">
+        <f t="shared" si="32"/>
+        <v>275</v>
+      </c>
+      <c r="C250" s="4">
+        <v>353</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F250" s="3">
-        <v>1</v>
-      </c>
-      <c r="G250" s="3" t="str">
+      <c r="F250" s="4">
+        <v>1</v>
+      </c>
+      <c r="G250" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 278, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 275, 353, null, null, 1);</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -31897,11 +31899,11 @@
         <v>1245</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" ref="B251:B252" si="31">B249</f>
-        <v>278</v>
+        <f>B247+1</f>
+        <v>276</v>
       </c>
       <c r="C251" s="3">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>17</v>
@@ -31914,7 +31916,7 @@
       </c>
       <c r="G251" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 278, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 276, 49, null, null, 2);</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -31923,11 +31925,11 @@
         <v>1246</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="31"/>
-        <v>278</v>
+        <f>B251</f>
+        <v>276</v>
       </c>
       <c r="C252" s="3">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>17</v>
@@ -31940,59 +31942,59 @@
       </c>
       <c r="G252" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 278, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 276, 49, null, null, 1);</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
+      <c r="A253" s="3">
         <f t="shared" si="20"/>
         <v>1247</v>
       </c>
-      <c r="B253" s="4">
-        <f>B249+1</f>
-        <v>279</v>
-      </c>
-      <c r="C253" s="4">
-        <v>4420</v>
-      </c>
-      <c r="D253" s="4" t="s">
+      <c r="B253" s="3">
+        <f t="shared" ref="B253:B254" si="33">B251</f>
+        <v>276</v>
+      </c>
+      <c r="C253" s="3">
+        <v>421</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E253" s="4" t="s">
+      <c r="E253" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F253" s="4">
-        <v>2</v>
-      </c>
-      <c r="G253" s="4" t="str">
+      <c r="F253" s="3">
+        <v>2</v>
+      </c>
+      <c r="G253" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 279, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 276, 421, null, null, 2);</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
+      <c r="A254" s="3">
         <f t="shared" si="20"/>
         <v>1248</v>
       </c>
-      <c r="B254" s="4">
-        <f>B253</f>
-        <v>279</v>
-      </c>
-      <c r="C254" s="4">
-        <v>4420</v>
-      </c>
-      <c r="D254" s="4" t="s">
+      <c r="B254" s="3">
+        <f t="shared" si="33"/>
+        <v>276</v>
+      </c>
+      <c r="C254" s="3">
+        <v>421</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="E254" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F254" s="4">
-        <v>1</v>
-      </c>
-      <c r="G254" s="4" t="str">
+      <c r="F254" s="3">
+        <v>1</v>
+      </c>
+      <c r="G254" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 279, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 276, 421, null, null, 1);</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -32001,11 +32003,11 @@
         <v>1249</v>
       </c>
       <c r="B255" s="4">
-        <f t="shared" ref="B255:B256" si="32">B253</f>
-        <v>279</v>
+        <f>B251+1</f>
+        <v>277</v>
       </c>
       <c r="C255" s="4">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>17</v>
@@ -32018,7 +32020,7 @@
       </c>
       <c r="G255" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 279, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 277, 36, null, null, 2);</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -32027,11 +32029,11 @@
         <v>1250</v>
       </c>
       <c r="B256" s="4">
-        <f t="shared" si="32"/>
-        <v>279</v>
+        <f>B255</f>
+        <v>277</v>
       </c>
       <c r="C256" s="4">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>17</v>
@@ -32044,59 +32046,59 @@
       </c>
       <c r="G256" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 279, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 277, 36, null, null, 1);</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+      <c r="A257" s="4">
         <f t="shared" si="20"/>
         <v>1251</v>
       </c>
-      <c r="B257" s="3">
-        <f>B253+1</f>
-        <v>280</v>
-      </c>
-      <c r="C257" s="3" t="s">
+      <c r="B257" s="4">
+        <f t="shared" ref="B257:B258" si="34">B255</f>
+        <v>277</v>
+      </c>
+      <c r="C257" s="4">
+        <v>32</v>
+      </c>
+      <c r="D257" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="E257" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E257" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F257" s="3">
-        <v>2</v>
-      </c>
-      <c r="G257" s="3" t="str">
-        <f t="shared" ref="G257:G284" si="33">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A257 &amp; ", " &amp; B257 &amp; ", " &amp; C257 &amp; ", " &amp; D257 &amp; ", " &amp; E257 &amp; ", " &amp; F257 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1251, 280, null, null, null, 2);</v>
+      <c r="F257" s="4">
+        <v>2</v>
+      </c>
+      <c r="G257" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1251, 277, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="A258" s="4">
         <f t="shared" si="20"/>
         <v>1252</v>
       </c>
-      <c r="B258" s="3">
-        <f>B257</f>
-        <v>280</v>
-      </c>
-      <c r="C258" s="3" t="s">
+      <c r="B258" s="4">
+        <f t="shared" si="34"/>
+        <v>277</v>
+      </c>
+      <c r="C258" s="4">
+        <v>32</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="E258" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E258" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F258" s="3">
-        <v>1</v>
-      </c>
-      <c r="G258" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1252, 280, null, null, null, 1);</v>
+      <c r="F258" s="4">
+        <v>1</v>
+      </c>
+      <c r="G258" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1252, 277, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -32105,11 +32107,11 @@
         <v>1253</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" ref="B259:B260" si="34">B257</f>
-        <v>280</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>17</v>
+        <f>B255+1</f>
+        <v>278</v>
+      </c>
+      <c r="C259" s="3">
+        <v>39</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>17</v>
@@ -32121,8 +32123,8 @@
         <v>2</v>
       </c>
       <c r="G259" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1253, 280, null, null, null, 2);</v>
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1253, 278, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -32131,11 +32133,11 @@
         <v>1254</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" si="34"/>
-        <v>280</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>17</v>
+        <f>B259</f>
+        <v>278</v>
+      </c>
+      <c r="C260" s="3">
+        <v>39</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>17</v>
@@ -32147,60 +32149,60 @@
         <v>1</v>
       </c>
       <c r="G260" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1254, 280, null, null, null, 1);</v>
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1254, 278, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <f t="shared" si="20"/>
         <v>1255</v>
       </c>
-      <c r="B261" s="4">
-        <f>B257+1</f>
-        <v>281</v>
-      </c>
-      <c r="C261" s="4" t="s">
+      <c r="B261" s="3">
+        <f t="shared" ref="B261:B262" si="35">B259</f>
+        <v>278</v>
+      </c>
+      <c r="C261" s="3">
+        <v>34</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D261" s="4" t="s">
+      <c r="E261" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E261" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F261" s="4">
-        <v>2</v>
-      </c>
-      <c r="G261" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1255, 281, null, null, null, 2);</v>
+      <c r="F261" s="3">
+        <v>2</v>
+      </c>
+      <c r="G261" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1255, 278, 34, null, null, 2);</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <f t="shared" si="20"/>
         <v>1256</v>
       </c>
-      <c r="B262" s="4">
-        <f>B261</f>
-        <v>281</v>
-      </c>
-      <c r="C262" s="4" t="s">
+      <c r="B262" s="3">
+        <f t="shared" si="35"/>
+        <v>278</v>
+      </c>
+      <c r="C262" s="3">
+        <v>34</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D262" s="4" t="s">
+      <c r="E262" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E262" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F262" s="4">
-        <v>1</v>
-      </c>
-      <c r="G262" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1256, 281, null, null, null, 1);</v>
+      <c r="F262" s="3">
+        <v>1</v>
+      </c>
+      <c r="G262" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1256, 278, 34, null, null, 1);</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -32209,11 +32211,11 @@
         <v>1257</v>
       </c>
       <c r="B263" s="4">
-        <f t="shared" ref="B263:B264" si="35">B261</f>
-        <v>281</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>17</v>
+        <f>B259+1</f>
+        <v>279</v>
+      </c>
+      <c r="C263" s="4">
+        <v>4420</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>17</v>
@@ -32225,8 +32227,8 @@
         <v>2</v>
       </c>
       <c r="G263" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1257, 281, null, null, null, 2);</v>
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1257, 279, 4420, null, null, 2);</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -32235,11 +32237,11 @@
         <v>1258</v>
       </c>
       <c r="B264" s="4">
-        <f t="shared" si="35"/>
-        <v>281</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>17</v>
+        <f>B263</f>
+        <v>279</v>
+      </c>
+      <c r="C264" s="4">
+        <v>4420</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>17</v>
@@ -32251,60 +32253,60 @@
         <v>1</v>
       </c>
       <c r="G264" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1258, 281, null, null, null, 1);</v>
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1258, 279, 4420, null, null, 1);</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="A265" s="4">
         <f t="shared" si="20"/>
         <v>1259</v>
       </c>
-      <c r="B265" s="3">
-        <f>B261+1</f>
-        <v>282</v>
-      </c>
-      <c r="C265" s="3" t="s">
+      <c r="B265" s="4">
+        <f t="shared" ref="B265:B266" si="36">B263</f>
+        <v>279</v>
+      </c>
+      <c r="C265" s="4">
+        <v>354</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="E265" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F265" s="3">
-        <v>2</v>
-      </c>
-      <c r="G265" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1259, 282, null, null, null, 2);</v>
+      <c r="F265" s="4">
+        <v>2</v>
+      </c>
+      <c r="G265" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1259, 279, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+      <c r="A266" s="4">
         <f t="shared" si="20"/>
         <v>1260</v>
       </c>
-      <c r="B266" s="3">
-        <f>B265</f>
-        <v>282</v>
-      </c>
-      <c r="C266" s="3" t="s">
+      <c r="B266" s="4">
+        <f t="shared" si="36"/>
+        <v>279</v>
+      </c>
+      <c r="C266" s="4">
+        <v>354</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="E266" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E266" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F266" s="3">
-        <v>1</v>
-      </c>
-      <c r="G266" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1260, 282, null, null, null, 1);</v>
+      <c r="F266" s="4">
+        <v>1</v>
+      </c>
+      <c r="G266" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1260, 279, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -32313,8 +32315,8 @@
         <v>1261</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" ref="B267:B268" si="36">B265</f>
-        <v>282</v>
+        <f>B263+1</f>
+        <v>280</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>17</v>
@@ -32329,8 +32331,8 @@
         <v>2</v>
       </c>
       <c r="G267" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 282, null, null, null, 2);</v>
+        <f t="shared" ref="G267:G294" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, null, null, null, 2);</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -32339,8 +32341,8 @@
         <v>1262</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="36"/>
-        <v>282</v>
+        <f>B267</f>
+        <v>280</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>17</v>
@@ -32355,60 +32357,60 @@
         <v>1</v>
       </c>
       <c r="G268" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 282, null, null, null, 1);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 280, null, null, null, 1);</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
+      <c r="A269" s="3">
         <f t="shared" si="20"/>
         <v>1263</v>
       </c>
-      <c r="B269" s="4">
-        <f>B265+1</f>
-        <v>283</v>
-      </c>
-      <c r="C269" s="4" t="s">
+      <c r="B269" s="3">
+        <f t="shared" ref="B269:B270" si="38">B267</f>
+        <v>280</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D269" s="4" t="s">
+      <c r="D269" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E269" s="4" t="s">
+      <c r="E269" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F269" s="4">
-        <v>2</v>
-      </c>
-      <c r="G269" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 283, null, null, null, 2);</v>
+      <c r="F269" s="3">
+        <v>2</v>
+      </c>
+      <c r="G269" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 280, null, null, null, 2);</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="4">
+      <c r="A270" s="3">
         <f t="shared" si="20"/>
         <v>1264</v>
       </c>
-      <c r="B270" s="4">
-        <f>B269</f>
-        <v>283</v>
-      </c>
-      <c r="C270" s="4" t="s">
+      <c r="B270" s="3">
+        <f t="shared" si="38"/>
+        <v>280</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D270" s="4" t="s">
+      <c r="D270" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E270" s="4" t="s">
+      <c r="E270" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F270" s="4">
-        <v>1</v>
-      </c>
-      <c r="G270" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 283, null, null, null, 1);</v>
+      <c r="F270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 280, null, null, null, 1);</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -32417,8 +32419,8 @@
         <v>1265</v>
       </c>
       <c r="B271" s="4">
-        <f t="shared" ref="B271:B272" si="37">B269</f>
-        <v>283</v>
+        <f>B267+1</f>
+        <v>281</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>17</v>
@@ -32433,8 +32435,8 @@
         <v>2</v>
       </c>
       <c r="G271" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 283, null, null, null, 2);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 281, null, null, null, 2);</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -32443,8 +32445,8 @@
         <v>1266</v>
       </c>
       <c r="B272" s="4">
-        <f t="shared" si="37"/>
-        <v>283</v>
+        <f>B271</f>
+        <v>281</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>17</v>
@@ -32459,70 +32461,70 @@
         <v>1</v>
       </c>
       <c r="G272" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 283, null, null, null, 1);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 281, null, null, null, 1);</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+      <c r="A273" s="4">
         <f t="shared" si="20"/>
         <v>1267</v>
       </c>
-      <c r="B273" s="3">
-        <f>B269+1</f>
-        <v>284</v>
-      </c>
-      <c r="C273" s="3" t="s">
+      <c r="B273" s="4">
+        <f t="shared" ref="B273:B274" si="39">B271</f>
+        <v>281</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F273" s="3">
-        <v>2</v>
-      </c>
-      <c r="G273" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 284, null, null, null, 2);</v>
+      <c r="F273" s="4">
+        <v>2</v>
+      </c>
+      <c r="G273" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 281, null, null, null, 2);</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+      <c r="A274" s="4">
         <f t="shared" si="20"/>
         <v>1268</v>
       </c>
-      <c r="B274" s="3">
-        <f>B273</f>
-        <v>284</v>
-      </c>
-      <c r="C274" s="3" t="s">
+      <c r="B274" s="4">
+        <f t="shared" si="39"/>
+        <v>281</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E274" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F274" s="3">
-        <v>1</v>
-      </c>
-      <c r="G274" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 284, null, null, null, 1);</v>
+      <c r="F274" s="4">
+        <v>1</v>
+      </c>
+      <c r="G274" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 281, null, null, null, 1);</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <f t="shared" ref="A275:A284" si="38">A274+1</f>
+        <f t="shared" si="20"/>
         <v>1269</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" ref="B275:B276" si="39">B273</f>
-        <v>284</v>
+        <f>B271+1</f>
+        <v>282</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>17</v>
@@ -32537,18 +32539,18 @@
         <v>2</v>
       </c>
       <c r="G275" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 284, null, null, null, 2);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 282, null, null, null, 2);</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1270</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="39"/>
-        <v>284</v>
+        <f>B275</f>
+        <v>282</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>17</v>
@@ -32563,70 +32565,70 @@
         <v>1</v>
       </c>
       <c r="G276" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 284, null, null, null, 1);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 282, null, null, null, 1);</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="4">
-        <f t="shared" si="38"/>
+      <c r="A277" s="3">
+        <f t="shared" si="20"/>
         <v>1271</v>
       </c>
-      <c r="B277" s="4">
-        <f>B273+1</f>
-        <v>285</v>
-      </c>
-      <c r="C277" s="4" t="s">
+      <c r="B277" s="3">
+        <f t="shared" ref="B277:B278" si="40">B275</f>
+        <v>282</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="D277" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E277" s="4" t="s">
+      <c r="E277" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F277" s="4">
-        <v>2</v>
-      </c>
-      <c r="G277" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 285, null, null, null, 2);</v>
+      <c r="F277" s="3">
+        <v>2</v>
+      </c>
+      <c r="G277" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 282, null, null, null, 2);</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="4">
-        <f t="shared" si="38"/>
+      <c r="A278" s="3">
+        <f t="shared" si="20"/>
         <v>1272</v>
       </c>
-      <c r="B278" s="4">
-        <f>B277</f>
-        <v>285</v>
-      </c>
-      <c r="C278" s="4" t="s">
+      <c r="B278" s="3">
+        <f t="shared" si="40"/>
+        <v>282</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D278" s="4" t="s">
+      <c r="D278" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E278" s="4" t="s">
+      <c r="E278" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F278" s="4">
-        <v>1</v>
-      </c>
-      <c r="G278" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 285, null, null, null, 1);</v>
+      <c r="F278" s="3">
+        <v>1</v>
+      </c>
+      <c r="G278" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 282, null, null, null, 1);</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1273</v>
       </c>
       <c r="B279" s="4">
-        <f t="shared" ref="B279:B280" si="40">B277</f>
-        <v>285</v>
+        <f>B275+1</f>
+        <v>283</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>17</v>
@@ -32641,18 +32643,18 @@
         <v>2</v>
       </c>
       <c r="G279" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 285, null, null, null, 2);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 283, null, null, null, 2);</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1274</v>
       </c>
       <c r="B280" s="4">
-        <f t="shared" si="40"/>
-        <v>285</v>
+        <f>B279</f>
+        <v>283</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>17</v>
@@ -32667,70 +32669,70 @@
         <v>1</v>
       </c>
       <c r="G280" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 285, null, null, null, 1);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 283, null, null, null, 1);</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
-        <f t="shared" si="38"/>
+      <c r="A281" s="4">
+        <f t="shared" si="20"/>
         <v>1275</v>
       </c>
-      <c r="B281" s="3">
-        <f>B277+1</f>
-        <v>286</v>
-      </c>
-      <c r="C281" s="3" t="s">
+      <c r="B281" s="4">
+        <f t="shared" ref="B281:B282" si="41">B279</f>
+        <v>283</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E281" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F281" s="3">
-        <v>2</v>
-      </c>
-      <c r="G281" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 286, null, null, null, 2);</v>
+      <c r="F281" s="4">
+        <v>2</v>
+      </c>
+      <c r="G281" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 283, null, null, null, 2);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
-        <f t="shared" si="38"/>
+      <c r="A282" s="4">
+        <f t="shared" si="20"/>
         <v>1276</v>
       </c>
-      <c r="B282" s="3">
-        <f>B281</f>
-        <v>286</v>
-      </c>
-      <c r="C282" s="3" t="s">
+      <c r="B282" s="4">
+        <f t="shared" si="41"/>
+        <v>283</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E282" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F282" s="3">
-        <v>1</v>
-      </c>
-      <c r="G282" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 286, null, null, null, 1);</v>
+      <c r="F282" s="4">
+        <v>1</v>
+      </c>
+      <c r="G282" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 283, null, null, null, 1);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1277</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" ref="B283:B284" si="41">B281</f>
-        <v>286</v>
+        <f>B279+1</f>
+        <v>284</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>17</v>
@@ -32745,18 +32747,18 @@
         <v>2</v>
       </c>
       <c r="G283" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 286, null, null, null, 2);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1278</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="41"/>
-        <v>286</v>
+        <f>B283</f>
+        <v>284</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>17</v>
@@ -32771,8 +32773,268 @@
         <v>1</v>
       </c>
       <c r="G284" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 286, null, null, null, 1);</v>
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 284, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <f t="shared" ref="A285:A294" si="42">A284+1</f>
+        <v>1279</v>
+      </c>
+      <c r="B285" s="3">
+        <f t="shared" ref="B285:B286" si="43">B283</f>
+        <v>284</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="3">
+        <v>2</v>
+      </c>
+      <c r="G285" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1279, 284, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <f t="shared" si="42"/>
+        <v>1280</v>
+      </c>
+      <c r="B286" s="3">
+        <f t="shared" si="43"/>
+        <v>284</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" s="3">
+        <v>1</v>
+      </c>
+      <c r="G286" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1280, 284, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <f t="shared" si="42"/>
+        <v>1281</v>
+      </c>
+      <c r="B287" s="4">
+        <f>B283+1</f>
+        <v>285</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F287" s="4">
+        <v>2</v>
+      </c>
+      <c r="G287" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1281, 285, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <f t="shared" si="42"/>
+        <v>1282</v>
+      </c>
+      <c r="B288" s="4">
+        <f>B287</f>
+        <v>285</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F288" s="4">
+        <v>1</v>
+      </c>
+      <c r="G288" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1282, 285, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <f t="shared" si="42"/>
+        <v>1283</v>
+      </c>
+      <c r="B289" s="4">
+        <f t="shared" ref="B289:B290" si="44">B287</f>
+        <v>285</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F289" s="4">
+        <v>2</v>
+      </c>
+      <c r="G289" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1283, 285, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <f t="shared" si="42"/>
+        <v>1284</v>
+      </c>
+      <c r="B290" s="4">
+        <f t="shared" si="44"/>
+        <v>285</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F290" s="4">
+        <v>1</v>
+      </c>
+      <c r="G290" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1284, 285, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <f t="shared" si="42"/>
+        <v>1285</v>
+      </c>
+      <c r="B291" s="3">
+        <f>B287+1</f>
+        <v>286</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F291" s="3">
+        <v>2</v>
+      </c>
+      <c r="G291" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1285, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <f t="shared" si="42"/>
+        <v>1286</v>
+      </c>
+      <c r="B292" s="3">
+        <f>B291</f>
+        <v>286</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F292" s="3">
+        <v>1</v>
+      </c>
+      <c r="G292" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1286, 286, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <f t="shared" si="42"/>
+        <v>1287</v>
+      </c>
+      <c r="B293" s="3">
+        <f t="shared" ref="B293:B294" si="45">B291</f>
+        <v>286</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F293" s="3">
+        <v>2</v>
+      </c>
+      <c r="G293" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1287, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <f t="shared" si="42"/>
+        <v>1288</v>
+      </c>
+      <c r="B294" s="3">
+        <f t="shared" si="45"/>
+        <v>286</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F294" s="3">
+        <v>1</v>
+      </c>
+      <c r="G294" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1288, 286, null, null, null, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -25496,9 +25496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25496,7 +25496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31799,18 +31801,18 @@
       <c r="C247" s="4">
         <v>33</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>17</v>
+      <c r="D247" s="4">
+        <v>2</v>
+      </c>
+      <c r="E247" s="4">
+        <v>3</v>
       </c>
       <c r="F247" s="4">
         <v>2</v>
       </c>
       <c r="G247" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 275, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 275, 33, 2, 3, 2);</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -31825,18 +31827,18 @@
       <c r="C248" s="4">
         <v>33</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>17</v>
+      <c r="D248" s="4">
+        <v>0</v>
+      </c>
+      <c r="E248" s="4">
+        <v>0</v>
       </c>
       <c r="F248" s="4">
         <v>1</v>
       </c>
       <c r="G248" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 275, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 275, 33, 0, 0, 1);</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -31851,18 +31853,18 @@
       <c r="C249" s="4">
         <v>353</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>17</v>
+      <c r="D249" s="4">
+        <v>1</v>
+      </c>
+      <c r="E249" s="4">
+        <v>0</v>
       </c>
       <c r="F249" s="4">
         <v>2</v>
       </c>
       <c r="G249" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 275, 353, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 275, 353, 1, 0, 2);</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -31877,18 +31879,18 @@
       <c r="C250" s="4">
         <v>353</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>17</v>
+      <c r="D250" s="4">
+        <v>1</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0</v>
       </c>
       <c r="F250" s="4">
         <v>1</v>
       </c>
       <c r="G250" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 275, 353, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 275, 353, 1, 0, 1);</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -31903,18 +31905,18 @@
       <c r="C251" s="3">
         <v>49</v>
       </c>
-      <c r="D251" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>17</v>
+      <c r="D251" s="3">
+        <v>3</v>
+      </c>
+      <c r="E251" s="3">
+        <v>3</v>
       </c>
       <c r="F251" s="3">
         <v>2</v>
       </c>
       <c r="G251" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 276, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 276, 49, 3, 3, 2);</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -31929,18 +31931,18 @@
       <c r="C252" s="3">
         <v>49</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>17</v>
+      <c r="D252" s="3">
+        <v>2</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0</v>
       </c>
       <c r="F252" s="3">
         <v>1</v>
       </c>
       <c r="G252" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 276, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 276, 49, 2, 0, 1);</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -31955,18 +31957,18 @@
       <c r="C253" s="3">
         <v>421</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>17</v>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0</v>
       </c>
       <c r="F253" s="3">
         <v>2</v>
       </c>
       <c r="G253" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 276, 421, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 276, 421, 0, 0, 2);</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -31981,18 +31983,18 @@
       <c r="C254" s="3">
         <v>421</v>
       </c>
-      <c r="D254" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>17</v>
+      <c r="D254" s="3">
+        <v>0</v>
+      </c>
+      <c r="E254" s="3">
+        <v>0</v>
       </c>
       <c r="F254" s="3">
         <v>1</v>
       </c>
       <c r="G254" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 276, 421, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 276, 421, 0, 0, 1);</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -32007,18 +32009,18 @@
       <c r="C255" s="4">
         <v>36</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>17</v>
+      <c r="D255" s="4">
+        <v>0</v>
+      </c>
+      <c r="E255" s="4">
+        <v>0</v>
       </c>
       <c r="F255" s="4">
         <v>2</v>
       </c>
       <c r="G255" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 277, 36, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 277, 36, 0, 0, 2);</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -32033,18 +32035,18 @@
       <c r="C256" s="4">
         <v>36</v>
       </c>
-      <c r="D256" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>17</v>
+      <c r="D256" s="4">
+        <v>0</v>
+      </c>
+      <c r="E256" s="4">
+        <v>0</v>
       </c>
       <c r="F256" s="4">
         <v>1</v>
       </c>
       <c r="G256" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 277, 36, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 277, 36, 0, 0, 1);</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -32059,18 +32061,18 @@
       <c r="C257" s="4">
         <v>32</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>17</v>
+      <c r="D257" s="4">
+        <v>4</v>
+      </c>
+      <c r="E257" s="4">
+        <v>3</v>
       </c>
       <c r="F257" s="4">
         <v>2</v>
       </c>
       <c r="G257" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1251, 277, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1251, 277, 32, 4, 3, 2);</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -32085,18 +32087,18 @@
       <c r="C258" s="4">
         <v>32</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>17</v>
+      <c r="D258" s="4">
+        <v>1</v>
+      </c>
+      <c r="E258" s="4">
+        <v>0</v>
       </c>
       <c r="F258" s="4">
         <v>1</v>
       </c>
       <c r="G258" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1252, 277, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1252, 277, 32, 1, 0, 1);</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25496,9 +25496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32113,18 +32111,18 @@
       <c r="C259" s="3">
         <v>39</v>
       </c>
-      <c r="D259" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>17</v>
+      <c r="D259" s="3">
+        <v>2</v>
+      </c>
+      <c r="E259" s="3">
+        <v>3</v>
       </c>
       <c r="F259" s="3">
         <v>2</v>
       </c>
       <c r="G259" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1253, 278, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1253, 278, 39, 2, 3, 2);</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -32139,18 +32137,18 @@
       <c r="C260" s="3">
         <v>39</v>
       </c>
-      <c r="D260" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>17</v>
+      <c r="D260" s="3">
+        <v>1</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
       </c>
       <c r="F260" s="3">
         <v>1</v>
       </c>
       <c r="G260" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1254, 278, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1254, 278, 39, 1, 0, 1);</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -32165,18 +32163,18 @@
       <c r="C261" s="3">
         <v>34</v>
       </c>
-      <c r="D261" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>17</v>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0</v>
       </c>
       <c r="F261" s="3">
         <v>2</v>
       </c>
       <c r="G261" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1255, 278, 34, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1255, 278, 34, 0, 0, 2);</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -32191,18 +32189,18 @@
       <c r="C262" s="3">
         <v>34</v>
       </c>
-      <c r="D262" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>17</v>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>0</v>
       </c>
       <c r="F262" s="3">
         <v>1</v>
       </c>
       <c r="G262" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1256, 278, 34, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1256, 278, 34, 0, 0, 1);</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -32217,18 +32215,18 @@
       <c r="C263" s="4">
         <v>4420</v>
       </c>
-      <c r="D263" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>17</v>
+      <c r="D263" s="4">
+        <v>1</v>
+      </c>
+      <c r="E263" s="4">
+        <v>0</v>
       </c>
       <c r="F263" s="4">
         <v>2</v>
       </c>
       <c r="G263" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1257, 279, 4420, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1257, 279, 4420, 1, 0, 2);</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -32243,18 +32241,18 @@
       <c r="C264" s="4">
         <v>4420</v>
       </c>
-      <c r="D264" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>17</v>
+      <c r="D264" s="4">
+        <v>1</v>
+      </c>
+      <c r="E264" s="4">
+        <v>0</v>
       </c>
       <c r="F264" s="4">
         <v>1</v>
       </c>
       <c r="G264" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1258, 279, 4420, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1258, 279, 4420, 1, 0, 1);</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -32269,18 +32267,18 @@
       <c r="C265" s="4">
         <v>354</v>
       </c>
-      <c r="D265" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>17</v>
+      <c r="D265" s="4">
+        <v>2</v>
+      </c>
+      <c r="E265" s="4">
+        <v>3</v>
       </c>
       <c r="F265" s="4">
         <v>2</v>
       </c>
       <c r="G265" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1259, 279, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1259, 279, 354, 2, 3, 2);</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -32295,18 +32293,18 @@
       <c r="C266" s="4">
         <v>354</v>
       </c>
-      <c r="D266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>17</v>
+      <c r="D266" s="4">
+        <v>2</v>
+      </c>
+      <c r="E266" s="4">
+        <v>0</v>
       </c>
       <c r="F266" s="4">
         <v>1</v>
       </c>
       <c r="G266" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1260, 279, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1260, 279, 354, 2, 0, 1);</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -32318,8 +32316,8 @@
         <f>B263+1</f>
         <v>280</v>
       </c>
-      <c r="C267" s="3" t="s">
-        <v>17</v>
+      <c r="C267" s="3">
+        <v>48</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>17</v>
@@ -32332,7 +32330,7 @@
       </c>
       <c r="G267" s="3" t="str">
         <f t="shared" ref="G267:G294" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, 48, null, null, 2);</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -32344,8 +32342,8 @@
         <f>B267</f>
         <v>280</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>17</v>
+      <c r="C268" s="3">
+        <v>48</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>17</v>
@@ -32358,7 +32356,7 @@
       </c>
       <c r="G268" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 280, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 280, 48, null, null, 1);</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -32370,8 +32368,8 @@
         <f t="shared" ref="B269:B270" si="38">B267</f>
         <v>280</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>17</v>
+      <c r="C269" s="3">
+        <v>351</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>17</v>
@@ -32384,7 +32382,7 @@
       </c>
       <c r="G269" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 280, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 280, 351, null, null, 2);</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -32396,8 +32394,8 @@
         <f t="shared" si="38"/>
         <v>280</v>
       </c>
-      <c r="C270" s="3" t="s">
-        <v>17</v>
+      <c r="C270" s="3">
+        <v>351</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>17</v>
@@ -32410,7 +32408,7 @@
       </c>
       <c r="G270" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 280, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 280, 351, null, null, 1);</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -32422,8 +32420,8 @@
         <f>B267+1</f>
         <v>281</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>17</v>
+      <c r="C271" s="4">
+        <v>4429</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>17</v>
@@ -32436,7 +32434,7 @@
       </c>
       <c r="G271" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 281, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 281, 4429, null, null, 2);</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -32448,8 +32446,8 @@
         <f>B271</f>
         <v>281</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>17</v>
+      <c r="C272" s="4">
+        <v>4429</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>17</v>
@@ -32462,7 +32460,7 @@
       </c>
       <c r="G272" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 281, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 281, 4429, null, null, 1);</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -32474,8 +32472,8 @@
         <f t="shared" ref="B273:B274" si="39">B271</f>
         <v>281</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>17</v>
+      <c r="C273" s="4">
+        <v>32</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>17</v>
@@ -32488,7 +32486,7 @@
       </c>
       <c r="G273" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 281, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 281, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -32500,8 +32498,8 @@
         <f t="shared" si="39"/>
         <v>281</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>17</v>
+      <c r="C274" s="4">
+        <v>32</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>17</v>
@@ -32514,7 +32512,7 @@
       </c>
       <c r="G274" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 281, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 281, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -32526,8 +32524,8 @@
         <f>B271+1</f>
         <v>282</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>17</v>
+      <c r="C275" s="3">
+        <v>49</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>17</v>
@@ -32540,7 +32538,7 @@
       </c>
       <c r="G275" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 282, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 282, 49, null, null, 2);</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -32552,8 +32550,8 @@
         <f>B275</f>
         <v>282</v>
       </c>
-      <c r="C276" s="3" t="s">
-        <v>17</v>
+      <c r="C276" s="3">
+        <v>49</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>17</v>
@@ -32566,7 +32564,7 @@
       </c>
       <c r="G276" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 282, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 282, 49, null, null, 1);</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -32578,8 +32576,8 @@
         <f t="shared" ref="B277:B278" si="40">B275</f>
         <v>282</v>
       </c>
-      <c r="C277" s="3" t="s">
-        <v>17</v>
+      <c r="C277" s="3">
+        <v>39</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>17</v>
@@ -32592,7 +32590,7 @@
       </c>
       <c r="G277" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 282, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 282, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -32604,8 +32602,8 @@
         <f t="shared" si="40"/>
         <v>282</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>17</v>
+      <c r="C278" s="3">
+        <v>39</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>17</v>
@@ -32618,7 +32616,7 @@
       </c>
       <c r="G278" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 282, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 282, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -32630,8 +32628,8 @@
         <f>B275+1</f>
         <v>283</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>17</v>
+      <c r="C279" s="4">
+        <v>33</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>17</v>
@@ -32644,7 +32642,7 @@
       </c>
       <c r="G279" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 283, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 283, 33, null, null, 2);</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -32656,8 +32654,8 @@
         <f>B279</f>
         <v>283</v>
       </c>
-      <c r="C280" s="4" t="s">
-        <v>17</v>
+      <c r="C280" s="4">
+        <v>33</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>17</v>
@@ -32670,7 +32668,7 @@
       </c>
       <c r="G280" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 283, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 283, 33, null, null, 1);</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -32682,8 +32680,8 @@
         <f t="shared" ref="B281:B282" si="41">B279</f>
         <v>283</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>17</v>
+      <c r="C281" s="4">
+        <v>354</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>17</v>
@@ -32696,7 +32694,7 @@
       </c>
       <c r="G281" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 283, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 283, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -32708,8 +32706,8 @@
         <f t="shared" si="41"/>
         <v>283</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>17</v>
+      <c r="C282" s="4">
+        <v>354</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>17</v>
@@ -32722,7 +32720,7 @@
       </c>
       <c r="G282" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 283, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 283, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25494,7 +25494,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J294"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
@@ -30853,7 +30853,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f t="shared" ref="A211:A284" si="20">A210+1</f>
+        <f t="shared" ref="A211:A290" si="20">A210+1</f>
         <v>1205</v>
       </c>
       <c r="B211" s="3">
@@ -32319,18 +32319,18 @@
       <c r="C267" s="3">
         <v>48</v>
       </c>
-      <c r="D267" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>17</v>
+      <c r="D267" s="3">
+        <v>1</v>
+      </c>
+      <c r="E267" s="3">
+        <v>0</v>
       </c>
       <c r="F267" s="3">
         <v>2</v>
       </c>
       <c r="G267" s="3" t="str">
-        <f t="shared" ref="G267:G294" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, 48, null, null, 2);</v>
+        <f t="shared" ref="G267:G300" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, 48, 1, 0, 2);</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -32345,18 +32345,18 @@
       <c r="C268" s="3">
         <v>48</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>17</v>
+      <c r="D268" s="3">
+        <v>1</v>
+      </c>
+      <c r="E268" s="3">
+        <v>0</v>
       </c>
       <c r="F268" s="3">
         <v>1</v>
       </c>
       <c r="G268" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 280, 48, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1262, 280, 48, 1, 0, 1);</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -32365,24 +32365,24 @@
         <v>1263</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" ref="B269:B270" si="38">B267</f>
+        <f>B268</f>
         <v>280</v>
       </c>
       <c r="C269" s="3">
         <v>351</v>
       </c>
-      <c r="D269" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>17</v>
+      <c r="D269" s="3">
+        <v>1</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
       </c>
       <c r="F269" s="3">
         <v>2</v>
       </c>
       <c r="G269" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 280, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1263, 280, 351, 1, 0, 2);</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -32391,128 +32391,128 @@
         <v>1264</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="38"/>
+        <f>B269</f>
         <v>280</v>
       </c>
       <c r="C270" s="3">
         <v>351</v>
       </c>
-      <c r="D270" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>17</v>
+      <c r="D270" s="3">
+        <v>1</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
       </c>
       <c r="F270" s="3">
         <v>1</v>
       </c>
       <c r="G270" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 280, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1264, 280, 351, 1, 0, 1);</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="4">
+      <c r="A271" s="3">
         <f t="shared" si="20"/>
         <v>1265</v>
       </c>
-      <c r="B271" s="4">
-        <f>B267+1</f>
-        <v>281</v>
-      </c>
-      <c r="C271" s="4">
-        <v>4429</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F271" s="4">
-        <v>2</v>
-      </c>
-      <c r="G271" s="4" t="str">
+      <c r="B271" s="3">
+        <f>B270</f>
+        <v>280</v>
+      </c>
+      <c r="C271" s="3">
+        <v>48</v>
+      </c>
+      <c r="D271" s="3">
+        <v>1</v>
+      </c>
+      <c r="E271" s="3">
+        <v>1</v>
+      </c>
+      <c r="F271" s="3">
+        <v>4</v>
+      </c>
+      <c r="G271" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 281, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1265, 280, 48, 1, 1, 4);</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="4">
+      <c r="A272" s="3">
         <f t="shared" si="20"/>
         <v>1266</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="3">
         <f>B271</f>
-        <v>281</v>
-      </c>
-      <c r="C272" s="4">
-        <v>4429</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F272" s="4">
-        <v>1</v>
-      </c>
-      <c r="G272" s="4" t="str">
+        <v>280</v>
+      </c>
+      <c r="C272" s="3">
+        <v>48</v>
+      </c>
+      <c r="D272" s="3">
+        <v>1</v>
+      </c>
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F272" s="3">
+        <v>3</v>
+      </c>
+      <c r="G272" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 281, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1266, 280, 48, 1, 0, 3);</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="4">
+      <c r="A273" s="3">
         <f t="shared" si="20"/>
         <v>1267</v>
       </c>
-      <c r="B273" s="4">
-        <f t="shared" ref="B273:B274" si="39">B271</f>
-        <v>281</v>
-      </c>
-      <c r="C273" s="4">
-        <v>32</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F273" s="4">
-        <v>2</v>
-      </c>
-      <c r="G273" s="4" t="str">
+      <c r="B273" s="3">
+        <f>B272</f>
+        <v>280</v>
+      </c>
+      <c r="C273" s="3">
+        <v>351</v>
+      </c>
+      <c r="D273" s="3">
+        <v>1</v>
+      </c>
+      <c r="E273" s="3">
+        <v>1</v>
+      </c>
+      <c r="F273" s="3">
+        <v>4</v>
+      </c>
+      <c r="G273" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 281, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1267, 280, 351, 1, 1, 4);</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="4">
+      <c r="A274" s="3">
         <f t="shared" si="20"/>
         <v>1268</v>
       </c>
-      <c r="B274" s="4">
-        <f t="shared" si="39"/>
-        <v>281</v>
-      </c>
-      <c r="C274" s="4">
-        <v>32</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F274" s="4">
-        <v>1</v>
-      </c>
-      <c r="G274" s="4" t="str">
+      <c r="B274" s="3">
+        <f>B273</f>
+        <v>280</v>
+      </c>
+      <c r="C274" s="3">
+        <v>351</v>
+      </c>
+      <c r="D274" s="3">
+        <v>1</v>
+      </c>
+      <c r="E274" s="3">
+        <v>0</v>
+      </c>
+      <c r="F274" s="3">
+        <v>3</v>
+      </c>
+      <c r="G274" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 281, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1268, 280, 351, 1, 0, 3);</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -32521,24 +32521,24 @@
         <v>1269</v>
       </c>
       <c r="B275" s="3">
-        <f>B271+1</f>
-        <v>282</v>
+        <f>B272</f>
+        <v>280</v>
       </c>
       <c r="C275" s="3">
-        <v>49</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="D275" s="3">
+        <v>3</v>
+      </c>
+      <c r="E275" s="3">
+        <v>0</v>
       </c>
       <c r="F275" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G275" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 282, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1269, 280, 48, 3, 0, 7);</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -32548,75 +32548,75 @@
       </c>
       <c r="B276" s="3">
         <f>B275</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C276" s="3">
-        <v>49</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>17</v>
+        <v>351</v>
+      </c>
+      <c r="D276" s="3">
+        <v>5</v>
+      </c>
+      <c r="E276" s="3">
+        <v>0</v>
       </c>
       <c r="F276" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G276" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 282, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1270, 280, 351, 5, 0, 7);</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+      <c r="A277" s="4">
         <f t="shared" si="20"/>
         <v>1271</v>
       </c>
-      <c r="B277" s="3">
-        <f t="shared" ref="B277:B278" si="40">B275</f>
-        <v>282</v>
-      </c>
-      <c r="C277" s="3">
-        <v>39</v>
-      </c>
-      <c r="D277" s="3" t="s">
+      <c r="B277" s="4">
+        <f>B267+1</f>
+        <v>281</v>
+      </c>
+      <c r="C277" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D277" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E277" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F277" s="3">
-        <v>2</v>
-      </c>
-      <c r="G277" s="3" t="str">
+      <c r="F277" s="4">
+        <v>2</v>
+      </c>
+      <c r="G277" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 282, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 281, 4429, null, null, 2);</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+      <c r="A278" s="4">
         <f t="shared" si="20"/>
         <v>1272</v>
       </c>
-      <c r="B278" s="3">
-        <f t="shared" si="40"/>
-        <v>282</v>
-      </c>
-      <c r="C278" s="3">
-        <v>39</v>
-      </c>
-      <c r="D278" s="3" t="s">
+      <c r="B278" s="4">
+        <f>B277</f>
+        <v>281</v>
+      </c>
+      <c r="C278" s="4">
+        <v>4429</v>
+      </c>
+      <c r="D278" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F278" s="3">
-        <v>1</v>
-      </c>
-      <c r="G278" s="3" t="str">
+      <c r="F278" s="4">
+        <v>1</v>
+      </c>
+      <c r="G278" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 282, 39, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 281, 4429, null, null, 1);</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -32625,11 +32625,11 @@
         <v>1273</v>
       </c>
       <c r="B279" s="4">
-        <f>B275+1</f>
-        <v>283</v>
+        <f t="shared" ref="B279:B280" si="38">B277</f>
+        <v>281</v>
       </c>
       <c r="C279" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>17</v>
@@ -32642,7 +32642,7 @@
       </c>
       <c r="G279" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 283, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 281, 32, null, null, 2);</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -32651,11 +32651,11 @@
         <v>1274</v>
       </c>
       <c r="B280" s="4">
-        <f>B279</f>
-        <v>283</v>
+        <f t="shared" si="38"/>
+        <v>281</v>
       </c>
       <c r="C280" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>17</v>
@@ -32668,59 +32668,59 @@
       </c>
       <c r="G280" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 283, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 281, 32, null, null, 1);</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="4">
+      <c r="A281" s="3">
         <f t="shared" si="20"/>
         <v>1275</v>
       </c>
-      <c r="B281" s="4">
-        <f t="shared" ref="B281:B282" si="41">B279</f>
-        <v>283</v>
-      </c>
-      <c r="C281" s="4">
-        <v>354</v>
-      </c>
-      <c r="D281" s="4" t="s">
+      <c r="B281" s="3">
+        <f>B277+1</f>
+        <v>282</v>
+      </c>
+      <c r="C281" s="3">
+        <v>49</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E281" s="4" t="s">
+      <c r="E281" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F281" s="4">
-        <v>2</v>
-      </c>
-      <c r="G281" s="4" t="str">
+      <c r="F281" s="3">
+        <v>2</v>
+      </c>
+      <c r="G281" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 283, 354, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 282, 49, null, null, 2);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="4">
+      <c r="A282" s="3">
         <f t="shared" si="20"/>
         <v>1276</v>
       </c>
-      <c r="B282" s="4">
-        <f t="shared" si="41"/>
-        <v>283</v>
-      </c>
-      <c r="C282" s="4">
-        <v>354</v>
-      </c>
-      <c r="D282" s="4" t="s">
+      <c r="B282" s="3">
+        <f>B281</f>
+        <v>282</v>
+      </c>
+      <c r="C282" s="3">
+        <v>49</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E282" s="4" t="s">
+      <c r="E282" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F282" s="4">
-        <v>1</v>
-      </c>
-      <c r="G282" s="4" t="str">
+      <c r="F282" s="3">
+        <v>1</v>
+      </c>
+      <c r="G282" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 283, 354, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 282, 49, null, null, 1);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -32729,11 +32729,11 @@
         <v>1277</v>
       </c>
       <c r="B283" s="3">
-        <f>B279+1</f>
-        <v>284</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>17</v>
+        <f t="shared" ref="B283:B284" si="39">B281</f>
+        <v>282</v>
+      </c>
+      <c r="C283" s="3">
+        <v>39</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>17</v>
@@ -32746,7 +32746,7 @@
       </c>
       <c r="G283" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 284, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 282, 39, null, null, 2);</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -32755,11 +32755,11 @@
         <v>1278</v>
       </c>
       <c r="B284" s="3">
-        <f>B283</f>
-        <v>284</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>17</v>
+        <f t="shared" si="39"/>
+        <v>282</v>
+      </c>
+      <c r="C284" s="3">
+        <v>39</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>17</v>
@@ -32772,72 +32772,72 @@
       </c>
       <c r="G284" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 284, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 282, 39, null, null, 1);</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
-        <f t="shared" ref="A285:A294" si="42">A284+1</f>
+      <c r="A285" s="4">
+        <f t="shared" si="20"/>
         <v>1279</v>
       </c>
-      <c r="B285" s="3">
-        <f t="shared" ref="B285:B286" si="43">B283</f>
-        <v>284</v>
-      </c>
-      <c r="C285" s="3" t="s">
+      <c r="B285" s="4">
+        <f>B281+1</f>
+        <v>283</v>
+      </c>
+      <c r="C285" s="4">
+        <v>33</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="E285" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="F285" s="4">
+        <v>2</v>
+      </c>
+      <c r="G285" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1279, 283, 33, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <f t="shared" si="20"/>
+        <v>1280</v>
+      </c>
+      <c r="B286" s="4">
+        <f>B285</f>
+        <v>283</v>
+      </c>
+      <c r="C286" s="4">
+        <v>33</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F285" s="3">
-        <v>2</v>
-      </c>
-      <c r="G285" s="3" t="str">
+      <c r="E286" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" s="4">
+        <v>1</v>
+      </c>
+      <c r="G286" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1279, 284, null, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <f t="shared" si="42"/>
-        <v>1280</v>
-      </c>
-      <c r="B286" s="3">
-        <f t="shared" si="43"/>
-        <v>284</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F286" s="3">
-        <v>1</v>
-      </c>
-      <c r="G286" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1280, 284, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1280, 283, 33, null, null, 1);</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>1281</v>
       </c>
       <c r="B287" s="4">
-        <f>B283+1</f>
-        <v>285</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>17</v>
+        <f t="shared" ref="B287:B288" si="40">B285</f>
+        <v>283</v>
+      </c>
+      <c r="C287" s="4">
+        <v>354</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>17</v>
@@ -32850,20 +32850,20 @@
       </c>
       <c r="G287" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1281, 285, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1281, 283, 354, null, null, 2);</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>1282</v>
       </c>
       <c r="B288" s="4">
-        <f>B287</f>
-        <v>285</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>17</v>
+        <f t="shared" si="40"/>
+        <v>283</v>
+      </c>
+      <c r="C288" s="4">
+        <v>354</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>17</v>
@@ -32876,69 +32876,69 @@
       </c>
       <c r="G288" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1282, 285, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1282, 283, 354, null, null, 1);</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
-        <f t="shared" si="42"/>
+      <c r="A289" s="3">
+        <f t="shared" si="20"/>
         <v>1283</v>
       </c>
-      <c r="B289" s="4">
-        <f t="shared" ref="B289:B290" si="44">B287</f>
-        <v>285</v>
-      </c>
-      <c r="C289" s="4" t="s">
+      <c r="B289" s="3">
+        <f>B285+1</f>
+        <v>284</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D289" s="4" t="s">
+      <c r="D289" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E289" s="4" t="s">
+      <c r="E289" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F289" s="4">
-        <v>2</v>
-      </c>
-      <c r="G289" s="4" t="str">
+      <c r="F289" s="3">
+        <v>2</v>
+      </c>
+      <c r="G289" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1283, 285, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1283, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="4">
-        <f t="shared" si="42"/>
+      <c r="A290" s="3">
+        <f t="shared" si="20"/>
         <v>1284</v>
       </c>
-      <c r="B290" s="4">
-        <f t="shared" si="44"/>
-        <v>285</v>
-      </c>
-      <c r="C290" s="4" t="s">
+      <c r="B290" s="3">
+        <f>B289</f>
+        <v>284</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D290" s="4" t="s">
+      <c r="D290" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E290" s="4" t="s">
+      <c r="E290" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F290" s="4">
-        <v>1</v>
-      </c>
-      <c r="G290" s="4" t="str">
+      <c r="F290" s="3">
+        <v>1</v>
+      </c>
+      <c r="G290" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1284, 285, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1284, 284, null, null, null, 1);</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="A291:A300" si="41">A290+1</f>
         <v>1285</v>
       </c>
       <c r="B291" s="3">
-        <f>B287+1</f>
-        <v>286</v>
+        <f t="shared" ref="B291:B292" si="42">B289</f>
+        <v>284</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>17</v>
@@ -32954,17 +32954,17 @@
       </c>
       <c r="G291" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1285, 286, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1285, 284, null, null, null, 2);</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
+        <f t="shared" si="41"/>
+        <v>1286</v>
+      </c>
+      <c r="B292" s="3">
         <f t="shared" si="42"/>
-        <v>1286</v>
-      </c>
-      <c r="B292" s="3">
-        <f>B291</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>17</v>
@@ -32980,59 +32980,215 @@
       </c>
       <c r="G292" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1286, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1286, 284, null, null, null, 1);</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
-        <f t="shared" si="42"/>
+      <c r="A293" s="4">
+        <f t="shared" si="41"/>
         <v>1287</v>
       </c>
-      <c r="B293" s="3">
-        <f t="shared" ref="B293:B294" si="45">B291</f>
+      <c r="B293" s="4">
+        <f>B289+1</f>
+        <v>285</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F293" s="4">
+        <v>2</v>
+      </c>
+      <c r="G293" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1287, 285, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <f t="shared" si="41"/>
+        <v>1288</v>
+      </c>
+      <c r="B294" s="4">
+        <f>B293</f>
+        <v>285</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F294" s="4">
+        <v>1</v>
+      </c>
+      <c r="G294" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1288, 285, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <f t="shared" si="41"/>
+        <v>1289</v>
+      </c>
+      <c r="B295" s="4">
+        <f t="shared" ref="B295:B296" si="43">B293</f>
+        <v>285</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F295" s="4">
+        <v>2</v>
+      </c>
+      <c r="G295" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1289, 285, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <f t="shared" si="41"/>
+        <v>1290</v>
+      </c>
+      <c r="B296" s="4">
+        <f t="shared" si="43"/>
+        <v>285</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F296" s="4">
+        <v>1</v>
+      </c>
+      <c r="G296" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1290, 285, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <f t="shared" si="41"/>
+        <v>1291</v>
+      </c>
+      <c r="B297" s="3">
+        <f>B293+1</f>
         <v>286</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E297" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F293" s="3">
-        <v>2</v>
-      </c>
-      <c r="G293" s="3" t="str">
+      <c r="F297" s="3">
+        <v>2</v>
+      </c>
+      <c r="G297" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1287, 286, null, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
-        <f t="shared" si="42"/>
-        <v>1288</v>
-      </c>
-      <c r="B294" s="3">
-        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1291, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <f t="shared" si="41"/>
+        <v>1292</v>
+      </c>
+      <c r="B298" s="3">
+        <f>B297</f>
         <v>286</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F294" s="3">
-        <v>1</v>
-      </c>
-      <c r="G294" s="3" t="str">
+      <c r="F298" s="3">
+        <v>1</v>
+      </c>
+      <c r="G298" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1288, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1292, 286, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <f t="shared" si="41"/>
+        <v>1293</v>
+      </c>
+      <c r="B299" s="3">
+        <f t="shared" ref="B299:B300" si="44">B297</f>
+        <v>286</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" s="3">
+        <v>2</v>
+      </c>
+      <c r="G299" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1293, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <f t="shared" si="41"/>
+        <v>1294</v>
+      </c>
+      <c r="B300" s="3">
+        <f t="shared" si="44"/>
+        <v>286</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" s="3">
+        <v>1</v>
+      </c>
+      <c r="G300" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1294, 286, null, null, null, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -25494,7 +25494,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
@@ -30853,7 +30853,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f t="shared" ref="A211:A290" si="20">A210+1</f>
+        <f t="shared" ref="A211:A296" si="20">A210+1</f>
         <v>1205</v>
       </c>
       <c r="B211" s="3">
@@ -32329,7 +32329,7 @@
         <v>2</v>
       </c>
       <c r="G267" s="3" t="str">
-        <f t="shared" ref="G267:G300" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
+        <f t="shared" ref="G267:G306" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, 48, 1, 0, 2);</v>
       </c>
     </row>
@@ -32339,7 +32339,7 @@
         <v>1262</v>
       </c>
       <c r="B268" s="3">
-        <f>B267</f>
+        <f t="shared" ref="B268:B274" si="38">B267</f>
         <v>280</v>
       </c>
       <c r="C268" s="3">
@@ -32365,7 +32365,7 @@
         <v>1263</v>
       </c>
       <c r="B269" s="3">
-        <f>B268</f>
+        <f t="shared" si="38"/>
         <v>280</v>
       </c>
       <c r="C269" s="3">
@@ -32391,7 +32391,7 @@
         <v>1264</v>
       </c>
       <c r="B270" s="3">
-        <f>B269</f>
+        <f t="shared" si="38"/>
         <v>280</v>
       </c>
       <c r="C270" s="3">
@@ -32417,7 +32417,7 @@
         <v>1265</v>
       </c>
       <c r="B271" s="3">
-        <f>B270</f>
+        <f t="shared" si="38"/>
         <v>280</v>
       </c>
       <c r="C271" s="3">
@@ -32443,7 +32443,7 @@
         <v>1266</v>
       </c>
       <c r="B272" s="3">
-        <f>B271</f>
+        <f t="shared" si="38"/>
         <v>280</v>
       </c>
       <c r="C272" s="3">
@@ -32469,7 +32469,7 @@
         <v>1267</v>
       </c>
       <c r="B273" s="3">
-        <f>B272</f>
+        <f t="shared" si="38"/>
         <v>280</v>
       </c>
       <c r="C273" s="3">
@@ -32495,7 +32495,7 @@
         <v>1268</v>
       </c>
       <c r="B274" s="3">
-        <f>B273</f>
+        <f t="shared" si="38"/>
         <v>280</v>
       </c>
       <c r="C274" s="3">
@@ -32579,18 +32579,18 @@
       <c r="C277" s="4">
         <v>4429</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>17</v>
+      <c r="D277" s="4">
+        <v>3</v>
+      </c>
+      <c r="E277" s="4">
+        <v>3</v>
       </c>
       <c r="F277" s="4">
         <v>2</v>
       </c>
       <c r="G277" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 281, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1271, 281, 4429, 3, 3, 2);</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -32605,18 +32605,18 @@
       <c r="C278" s="4">
         <v>4429</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>17</v>
+      <c r="D278" s="4">
+        <v>1</v>
+      </c>
+      <c r="E278" s="4">
+        <v>0</v>
       </c>
       <c r="F278" s="4">
         <v>1</v>
       </c>
       <c r="G278" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 281, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1272, 281, 4429, 1, 0, 1);</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -32625,24 +32625,24 @@
         <v>1273</v>
       </c>
       <c r="B279" s="4">
-        <f t="shared" ref="B279:B280" si="38">B277</f>
+        <f t="shared" ref="B279:B280" si="39">B277</f>
         <v>281</v>
       </c>
       <c r="C279" s="4">
         <v>32</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>17</v>
+      <c r="D279" s="4">
+        <v>1</v>
+      </c>
+      <c r="E279" s="4">
+        <v>0</v>
       </c>
       <c r="F279" s="4">
         <v>2</v>
       </c>
       <c r="G279" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 281, 32, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1273, 281, 32, 1, 0, 2);</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -32651,24 +32651,24 @@
         <v>1274</v>
       </c>
       <c r="B280" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>281</v>
       </c>
       <c r="C280" s="4">
         <v>32</v>
       </c>
-      <c r="D280" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>17</v>
+      <c r="D280" s="4">
+        <v>1</v>
+      </c>
+      <c r="E280" s="4">
+        <v>0</v>
       </c>
       <c r="F280" s="4">
         <v>1</v>
       </c>
       <c r="G280" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 281, 32, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1274, 281, 32, 1, 0, 1);</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -32683,18 +32683,18 @@
       <c r="C281" s="3">
         <v>49</v>
       </c>
-      <c r="D281" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>17</v>
+      <c r="D281" s="3">
+        <v>1</v>
+      </c>
+      <c r="E281" s="3">
+        <v>0</v>
       </c>
       <c r="F281" s="3">
         <v>2</v>
       </c>
       <c r="G281" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 282, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1275, 282, 49, 1, 0, 2);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -32709,18 +32709,18 @@
       <c r="C282" s="3">
         <v>49</v>
       </c>
-      <c r="D282" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>17</v>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>0</v>
       </c>
       <c r="F282" s="3">
         <v>1</v>
       </c>
       <c r="G282" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 282, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1276, 282, 49, 0, 0, 1);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -32729,24 +32729,24 @@
         <v>1277</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" ref="B283:B284" si="39">B281</f>
+        <f t="shared" ref="B283:B290" si="40">B282</f>
         <v>282</v>
       </c>
       <c r="C283" s="3">
         <v>39</v>
       </c>
-      <c r="D283" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>17</v>
+      <c r="D283" s="3">
+        <v>1</v>
+      </c>
+      <c r="E283" s="3">
+        <v>0</v>
       </c>
       <c r="F283" s="3">
         <v>2</v>
       </c>
       <c r="G283" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 282, 39, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1277, 282, 39, 1, 0, 2);</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -32755,128 +32755,128 @@
         <v>1278</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>282</v>
       </c>
       <c r="C284" s="3">
         <v>39</v>
       </c>
-      <c r="D284" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>17</v>
+      <c r="D284" s="3">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>0</v>
       </c>
       <c r="F284" s="3">
         <v>1</v>
       </c>
       <c r="G284" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 282, 39, null, null, 1);</v>
+        <f t="shared" ref="G284:G287" si="41">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A284 &amp; ", " &amp; B284 &amp; ", " &amp; C284 &amp; ", " &amp; D284 &amp; ", " &amp; E284 &amp; ", " &amp; F284 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1278, 282, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="4">
+      <c r="A285" s="3">
         <f t="shared" si="20"/>
         <v>1279</v>
       </c>
-      <c r="B285" s="4">
-        <f>B281+1</f>
-        <v>283</v>
-      </c>
-      <c r="C285" s="4">
-        <v>33</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F285" s="4">
-        <v>2</v>
-      </c>
-      <c r="G285" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1279, 283, 33, null, null, 2);</v>
+      <c r="B285" s="3">
+        <f t="shared" si="40"/>
+        <v>282</v>
+      </c>
+      <c r="C285" s="3">
+        <v>49</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F285" s="3">
+        <v>4</v>
+      </c>
+      <c r="G285" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1279, 282, 49, 1, 1, 4);</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="4">
+      <c r="A286" s="3">
         <f t="shared" si="20"/>
         <v>1280</v>
       </c>
-      <c r="B286" s="4">
-        <f>B285</f>
-        <v>283</v>
-      </c>
-      <c r="C286" s="4">
-        <v>33</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F286" s="4">
-        <v>1</v>
-      </c>
-      <c r="G286" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1280, 283, 33, null, null, 1);</v>
+      <c r="B286" s="3">
+        <f t="shared" si="40"/>
+        <v>282</v>
+      </c>
+      <c r="C286" s="3">
+        <v>49</v>
+      </c>
+      <c r="D286" s="3">
+        <v>1</v>
+      </c>
+      <c r="E286" s="3">
+        <v>0</v>
+      </c>
+      <c r="F286" s="3">
+        <v>3</v>
+      </c>
+      <c r="G286" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1280, 282, 49, 1, 0, 3);</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="4">
+      <c r="A287" s="3">
         <f t="shared" si="20"/>
         <v>1281</v>
       </c>
-      <c r="B287" s="4">
-        <f t="shared" ref="B287:B288" si="40">B285</f>
-        <v>283</v>
-      </c>
-      <c r="C287" s="4">
-        <v>354</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F287" s="4">
-        <v>2</v>
-      </c>
-      <c r="G287" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1281, 283, 354, null, null, 2);</v>
+      <c r="B287" s="3">
+        <f t="shared" si="40"/>
+        <v>282</v>
+      </c>
+      <c r="C287" s="3">
+        <v>39</v>
+      </c>
+      <c r="D287" s="3">
+        <v>1</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3">
+        <v>4</v>
+      </c>
+      <c r="G287" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1281, 282, 39, 1, 1, 4);</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="4">
+      <c r="A288" s="3">
         <f t="shared" si="20"/>
         <v>1282</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="3">
         <f t="shared" si="40"/>
-        <v>283</v>
-      </c>
-      <c r="C288" s="4">
-        <v>354</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F288" s="4">
-        <v>1</v>
-      </c>
-      <c r="G288" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1282, 283, 354, null, null, 1);</v>
+        <v>282</v>
+      </c>
+      <c r="C288" s="3">
+        <v>39</v>
+      </c>
+      <c r="D288" s="3">
+        <v>1</v>
+      </c>
+      <c r="E288" s="3">
+        <v>0</v>
+      </c>
+      <c r="F288" s="3">
+        <v>3</v>
+      </c>
+      <c r="G288" s="3" t="str">
+        <f t="shared" ref="G288:G290" si="42">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A288 &amp; ", " &amp; B288 &amp; ", " &amp; C288 &amp; ", " &amp; D288 &amp; ", " &amp; E288 &amp; ", " &amp; F288 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1282, 282, 39, 1, 0, 3);</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -32885,24 +32885,24 @@
         <v>1283</v>
       </c>
       <c r="B289" s="3">
-        <f>B285+1</f>
-        <v>284</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>17</v>
+        <f t="shared" si="40"/>
+        <v>282</v>
+      </c>
+      <c r="C289" s="3">
+        <v>49</v>
+      </c>
+      <c r="D289" s="3">
+        <v>6</v>
+      </c>
+      <c r="E289" s="3">
+        <v>0</v>
       </c>
       <c r="F289" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G289" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1283, 284, null, null, null, 2);</v>
+        <f t="shared" si="42"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1283, 282, 49, 6, 0, 7);</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -32911,193 +32911,193 @@
         <v>1284</v>
       </c>
       <c r="B290" s="3">
-        <f>B289</f>
-        <v>284</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>17</v>
+        <f t="shared" si="40"/>
+        <v>282</v>
+      </c>
+      <c r="C290" s="3">
+        <v>39</v>
+      </c>
+      <c r="D290" s="3">
+        <v>5</v>
+      </c>
+      <c r="E290" s="3">
+        <v>0</v>
       </c>
       <c r="F290" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G290" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1284, 282, 39, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <f t="shared" si="20"/>
+        <v>1285</v>
+      </c>
+      <c r="B291" s="4">
+        <f>B281+1</f>
+        <v>283</v>
+      </c>
+      <c r="C291" s="4">
+        <v>33</v>
+      </c>
+      <c r="D291" s="4">
+        <v>5</v>
+      </c>
+      <c r="E291" s="4">
+        <v>3</v>
+      </c>
+      <c r="F291" s="4">
+        <v>2</v>
+      </c>
+      <c r="G291" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1284, 284, null, null, null, 1);</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
-        <f t="shared" ref="A291:A300" si="41">A290+1</f>
-        <v>1285</v>
-      </c>
-      <c r="B291" s="3">
-        <f t="shared" ref="B291:B292" si="42">B289</f>
-        <v>284</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F291" s="3">
-        <v>2</v>
-      </c>
-      <c r="G291" s="3" t="str">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1285, 283, 33, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <f t="shared" si="20"/>
+        <v>1286</v>
+      </c>
+      <c r="B292" s="4">
+        <f>B291</f>
+        <v>283</v>
+      </c>
+      <c r="C292" s="4">
+        <v>33</v>
+      </c>
+      <c r="D292" s="4">
+        <v>4</v>
+      </c>
+      <c r="E292" s="4">
+        <v>0</v>
+      </c>
+      <c r="F292" s="4">
+        <v>1</v>
+      </c>
+      <c r="G292" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1285, 284, null, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <f t="shared" si="41"/>
-        <v>1286</v>
-      </c>
-      <c r="B292" s="3">
-        <f t="shared" si="42"/>
-        <v>284</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F292" s="3">
-        <v>1</v>
-      </c>
-      <c r="G292" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1286, 284, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1286, 283, 33, 4, 0, 1);</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>1287</v>
       </c>
       <c r="B293" s="4">
-        <f>B289+1</f>
-        <v>285</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>17</v>
+        <f t="shared" ref="B293" si="43">B291</f>
+        <v>283</v>
+      </c>
+      <c r="C293" s="4">
+        <v>354</v>
+      </c>
+      <c r="D293" s="4">
+        <v>2</v>
+      </c>
+      <c r="E293" s="4">
+        <v>0</v>
       </c>
       <c r="F293" s="4">
         <v>2</v>
       </c>
       <c r="G293" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1287, 285, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1287, 283, 354, 2, 0, 2);</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <f t="shared" si="41"/>
+        <f>A293+1</f>
         <v>1288</v>
       </c>
       <c r="B294" s="4">
-        <f>B293</f>
-        <v>285</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E294" s="4" t="s">
-        <v>17</v>
+        <f>B292</f>
+        <v>283</v>
+      </c>
+      <c r="C294" s="4">
+        <v>354</v>
+      </c>
+      <c r="D294" s="4">
+        <v>0</v>
+      </c>
+      <c r="E294" s="4">
+        <v>0</v>
       </c>
       <c r="F294" s="4">
         <v>1</v>
       </c>
       <c r="G294" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1288, 285, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1288, 283, 354, 0, 0, 1);</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="4">
-        <f t="shared" si="41"/>
+      <c r="A295" s="3">
+        <f t="shared" si="20"/>
         <v>1289</v>
       </c>
-      <c r="B295" s="4">
-        <f t="shared" ref="B295:B296" si="43">B293</f>
-        <v>285</v>
-      </c>
-      <c r="C295" s="4" t="s">
+      <c r="B295" s="3">
+        <f>B291+1</f>
+        <v>284</v>
+      </c>
+      <c r="C295" s="3">
+        <v>351</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D295" s="4" t="s">
+      <c r="E295" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E295" s="4" t="s">
+      <c r="F295" s="3">
+        <v>2</v>
+      </c>
+      <c r="G295" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1289, 284, 351, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <f t="shared" si="20"/>
+        <v>1290</v>
+      </c>
+      <c r="B296" s="3">
+        <f>B295</f>
+        <v>284</v>
+      </c>
+      <c r="C296" s="3">
+        <v>351</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F295" s="4">
-        <v>2</v>
-      </c>
-      <c r="G295" s="4" t="str">
+      <c r="E296" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F296" s="3">
+        <v>1</v>
+      </c>
+      <c r="G296" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1289, 285, null, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="4">
-        <f t="shared" si="41"/>
-        <v>1290</v>
-      </c>
-      <c r="B296" s="4">
-        <f t="shared" si="43"/>
-        <v>285</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F296" s="4">
-        <v>1</v>
-      </c>
-      <c r="G296" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1290, 285, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1290, 284, 351, null, null, 1);</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A297:A306" si="44">A296+1</f>
         <v>1291</v>
       </c>
       <c r="B297" s="3">
-        <f>B293+1</f>
-        <v>286</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>17</v>
+        <f t="shared" ref="B297:B298" si="45">B295</f>
+        <v>284</v>
+      </c>
+      <c r="C297" s="3">
+        <v>4429</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>17</v>
@@ -33110,20 +33110,20 @@
       </c>
       <c r="G297" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1291, 286, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1291, 284, 4429, null, null, 2);</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1292</v>
       </c>
       <c r="B298" s="3">
-        <f>B297</f>
-        <v>286</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>17</v>
+        <f t="shared" si="45"/>
+        <v>284</v>
+      </c>
+      <c r="C298" s="3">
+        <v>4429</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>17</v>
@@ -33136,59 +33136,215 @@
       </c>
       <c r="G298" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1292, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1292, 284, 4429, null, null, 1);</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
-        <f t="shared" si="41"/>
+      <c r="A299" s="4">
+        <f t="shared" si="44"/>
         <v>1293</v>
       </c>
-      <c r="B299" s="3">
-        <f t="shared" ref="B299:B300" si="44">B297</f>
+      <c r="B299" s="4">
+        <f>B295+1</f>
+        <v>285</v>
+      </c>
+      <c r="C299" s="4">
+        <v>49</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" s="4">
+        <v>2</v>
+      </c>
+      <c r="G299" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1293, 285, 49, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <f t="shared" si="44"/>
+        <v>1294</v>
+      </c>
+      <c r="B300" s="4">
+        <f>B299</f>
+        <v>285</v>
+      </c>
+      <c r="C300" s="4">
+        <v>49</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" s="4">
+        <v>1</v>
+      </c>
+      <c r="G300" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1294, 285, 49, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <f t="shared" si="44"/>
+        <v>1295</v>
+      </c>
+      <c r="B301" s="4">
+        <f t="shared" ref="B301:B302" si="46">B299</f>
+        <v>285</v>
+      </c>
+      <c r="C301" s="4">
+        <v>33</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" s="4">
+        <v>2</v>
+      </c>
+      <c r="G301" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1295, 285, 33, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <f t="shared" si="44"/>
+        <v>1296</v>
+      </c>
+      <c r="B302" s="4">
+        <f t="shared" si="46"/>
+        <v>285</v>
+      </c>
+      <c r="C302" s="4">
+        <v>33</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" s="4">
+        <v>1</v>
+      </c>
+      <c r="G302" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1296, 285, 33, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <f t="shared" si="44"/>
+        <v>1297</v>
+      </c>
+      <c r="B303" s="3">
+        <f>B299+1</f>
         <v>286</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E303" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F299" s="3">
-        <v>2</v>
-      </c>
-      <c r="G299" s="3" t="str">
+      <c r="F303" s="3">
+        <v>2</v>
+      </c>
+      <c r="G303" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1293, 286, null, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
-        <f t="shared" si="41"/>
-        <v>1294</v>
-      </c>
-      <c r="B300" s="3">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1297, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
         <f t="shared" si="44"/>
+        <v>1298</v>
+      </c>
+      <c r="B304" s="3">
+        <f>B303</f>
         <v>286</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C304" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D304" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E304" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F300" s="3">
-        <v>1</v>
-      </c>
-      <c r="G300" s="3" t="str">
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+      <c r="G304" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1294, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1298, 286, null, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <f t="shared" si="44"/>
+        <v>1299</v>
+      </c>
+      <c r="B305" s="3">
+        <f t="shared" ref="B305:B306" si="47">B303</f>
+        <v>286</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" s="3">
+        <v>2</v>
+      </c>
+      <c r="G305" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1299, 286, null, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <f t="shared" si="44"/>
+        <v>1300</v>
+      </c>
+      <c r="B306" s="3">
+        <f t="shared" si="47"/>
+        <v>286</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" s="3">
+        <v>1</v>
+      </c>
+      <c r="G306" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1300, 286, null, null, null, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -33047,18 +33047,18 @@
       <c r="C295" s="3">
         <v>351</v>
       </c>
-      <c r="D295" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>17</v>
+      <c r="D295" s="3">
+        <v>2</v>
+      </c>
+      <c r="E295" s="3">
+        <v>3</v>
       </c>
       <c r="F295" s="3">
         <v>2</v>
       </c>
       <c r="G295" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1289, 284, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1289, 284, 351, 2, 3, 2);</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -33073,18 +33073,18 @@
       <c r="C296" s="3">
         <v>351</v>
       </c>
-      <c r="D296" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>17</v>
+      <c r="D296" s="3">
+        <v>0</v>
+      </c>
+      <c r="E296" s="3">
+        <v>0</v>
       </c>
       <c r="F296" s="3">
         <v>1</v>
       </c>
       <c r="G296" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1290, 284, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1290, 284, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -33099,18 +33099,18 @@
       <c r="C297" s="3">
         <v>4429</v>
       </c>
-      <c r="D297" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>17</v>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3">
+        <v>0</v>
       </c>
       <c r="F297" s="3">
         <v>2</v>
       </c>
       <c r="G297" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1291, 284, 4429, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1291, 284, 4429, 0, 0, 2);</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -33125,18 +33125,18 @@
       <c r="C298" s="3">
         <v>4429</v>
       </c>
-      <c r="D298" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>17</v>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3">
+        <v>0</v>
       </c>
       <c r="F298" s="3">
         <v>1</v>
       </c>
       <c r="G298" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1292, 284, 4429, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1292, 284, 4429, 0, 0, 1);</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -33151,18 +33151,18 @@
       <c r="C299" s="4">
         <v>49</v>
       </c>
-      <c r="D299" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>17</v>
+      <c r="D299" s="4">
+        <v>0</v>
+      </c>
+      <c r="E299" s="4">
+        <v>0</v>
       </c>
       <c r="F299" s="4">
         <v>2</v>
       </c>
       <c r="G299" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1293, 285, 49, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1293, 285, 49, 0, 0, 2);</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -33177,18 +33177,18 @@
       <c r="C300" s="4">
         <v>49</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>17</v>
+      <c r="D300" s="4">
+        <v>0</v>
+      </c>
+      <c r="E300" s="4">
+        <v>0</v>
       </c>
       <c r="F300" s="4">
         <v>1</v>
       </c>
       <c r="G300" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1294, 285, 49, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1294, 285, 49, 0, 0, 1);</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -33203,18 +33203,18 @@
       <c r="C301" s="4">
         <v>33</v>
       </c>
-      <c r="D301" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>17</v>
+      <c r="D301" s="4">
+        <v>2</v>
+      </c>
+      <c r="E301" s="4">
+        <v>3</v>
       </c>
       <c r="F301" s="4">
         <v>2</v>
       </c>
       <c r="G301" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1295, 285, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1295, 285, 33, 2, 3, 2);</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -33229,18 +33229,18 @@
       <c r="C302" s="4">
         <v>33</v>
       </c>
-      <c r="D302" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>17</v>
+      <c r="D302" s="4">
+        <v>1</v>
+      </c>
+      <c r="E302" s="4">
+        <v>0</v>
       </c>
       <c r="F302" s="4">
         <v>1</v>
       </c>
       <c r="G302" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1296, 285, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1296, 285, 33, 1, 0, 1);</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -33252,8 +33252,8 @@
         <f>B299+1</f>
         <v>286</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>17</v>
+      <c r="C303" s="3">
+        <v>351</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>17</v>
@@ -33266,7 +33266,7 @@
       </c>
       <c r="G303" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1297, 286, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1297, 286, 351, null, null, 2);</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -33278,8 +33278,8 @@
         <f>B303</f>
         <v>286</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>17</v>
+      <c r="C304" s="3">
+        <v>351</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>17</v>
@@ -33292,7 +33292,7 @@
       </c>
       <c r="G304" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1298, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1298, 286, 351, null, null, 1);</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -33304,8 +33304,8 @@
         <f t="shared" ref="B305:B306" si="47">B303</f>
         <v>286</v>
       </c>
-      <c r="C305" s="3" t="s">
-        <v>17</v>
+      <c r="C305" s="3">
+        <v>33</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>17</v>
@@ -33318,7 +33318,7 @@
       </c>
       <c r="G305" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1299, 286, null, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1299, 286, 33, null, null, 2);</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -33330,8 +33330,8 @@
         <f t="shared" si="47"/>
         <v>286</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>17</v>
+      <c r="C306" s="3">
+        <v>33</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>17</v>
@@ -33344,7 +33344,7 @@
       </c>
       <c r="G306" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1300, 286, null, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1300, 286, 33, null, null, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/eurocopa/eurocopa.xlsx
+++ b/Scripts/eurocopa/eurocopa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>match_number</t>
@@ -25494,7 +25491,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J306"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
@@ -26020,7 +26017,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="str">
         <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A27 &amp; ", '" &amp; B27 &amp; "', " &amp; C27 &amp; ", " &amp; D27 &amp;  ");"</f>
@@ -32329,7 +32326,7 @@
         <v>2</v>
       </c>
       <c r="G267" s="3" t="str">
-        <f t="shared" ref="G267:G306" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
+        <f t="shared" ref="G267:G310" si="37">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A267 &amp; ", " &amp; B267 &amp; ", " &amp; C267 &amp; ", " &amp; D267 &amp; ", " &amp; E267 &amp; ", " &amp; F267 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1261, 280, 48, 1, 0, 2);</v>
       </c>
     </row>
@@ -33089,7 +33086,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <f t="shared" ref="A297:A306" si="44">A296+1</f>
+        <f t="shared" ref="A297:A310" si="44">A296+1</f>
         <v>1291</v>
       </c>
       <c r="B297" s="3">
@@ -33255,18 +33252,18 @@
       <c r="C303" s="3">
         <v>351</v>
       </c>
-      <c r="D303" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>17</v>
+      <c r="D303" s="3">
+        <v>0</v>
+      </c>
+      <c r="E303" s="3">
+        <v>0</v>
       </c>
       <c r="F303" s="3">
         <v>2</v>
       </c>
       <c r="G303" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1297, 286, 351, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1297, 286, 351, 0, 0, 2);</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -33281,18 +33278,18 @@
       <c r="C304" s="3">
         <v>351</v>
       </c>
-      <c r="D304" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>17</v>
+      <c r="D304" s="3">
+        <v>0</v>
+      </c>
+      <c r="E304" s="3">
+        <v>0</v>
       </c>
       <c r="F304" s="3">
         <v>1</v>
       </c>
       <c r="G304" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1298, 286, 351, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1298, 286, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -33301,24 +33298,24 @@
         <v>1299</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" ref="B305:B306" si="47">B303</f>
+        <f t="shared" ref="B305:B310" si="47">B303</f>
         <v>286</v>
       </c>
       <c r="C305" s="3">
         <v>33</v>
       </c>
-      <c r="D305" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>17</v>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3">
+        <v>0</v>
       </c>
       <c r="F305" s="3">
         <v>2</v>
       </c>
       <c r="G305" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1299, 286, 33, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1299, 286, 33, 0, 0, 2);</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -33333,18 +33330,122 @@
       <c r="C306" s="3">
         <v>33</v>
       </c>
-      <c r="D306" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>17</v>
+      <c r="D306" s="3">
+        <v>0</v>
+      </c>
+      <c r="E306" s="3">
+        <v>0</v>
       </c>
       <c r="F306" s="3">
         <v>1</v>
       </c>
       <c r="G306" s="3" t="str">
         <f t="shared" si="37"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1300, 286, 33, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1300, 286, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <f t="shared" si="44"/>
+        <v>1301</v>
+      </c>
+      <c r="B307" s="3">
+        <f t="shared" si="47"/>
+        <v>286</v>
+      </c>
+      <c r="C307" s="3">
+        <v>351</v>
+      </c>
+      <c r="D307" s="3">
+        <v>1</v>
+      </c>
+      <c r="E307" s="3">
+        <v>3</v>
+      </c>
+      <c r="F307" s="3">
+        <v>4</v>
+      </c>
+      <c r="G307" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1301, 286, 351, 1, 3, 4);</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <f t="shared" si="44"/>
+        <v>1302</v>
+      </c>
+      <c r="B308" s="3">
+        <f t="shared" si="47"/>
+        <v>286</v>
+      </c>
+      <c r="C308" s="3">
+        <v>351</v>
+      </c>
+      <c r="D308" s="3">
+        <v>0</v>
+      </c>
+      <c r="E308" s="3">
+        <v>0</v>
+      </c>
+      <c r="F308" s="3">
+        <v>3</v>
+      </c>
+      <c r="G308" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1302, 286, 351, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <f t="shared" si="44"/>
+        <v>1303</v>
+      </c>
+      <c r="B309" s="3">
+        <f t="shared" si="47"/>
+        <v>286</v>
+      </c>
+      <c r="C309" s="3">
+        <v>33</v>
+      </c>
+      <c r="D309" s="3">
+        <v>0</v>
+      </c>
+      <c r="E309" s="3">
+        <v>0</v>
+      </c>
+      <c r="F309" s="3">
+        <v>4</v>
+      </c>
+      <c r="G309" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1303, 286, 33, 0, 0, 4);</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <f t="shared" si="44"/>
+        <v>1304</v>
+      </c>
+      <c r="B310" s="3">
+        <f t="shared" si="47"/>
+        <v>286</v>
+      </c>
+      <c r="C310" s="3">
+        <v>33</v>
+      </c>
+      <c r="D310" s="3">
+        <v>0</v>
+      </c>
+      <c r="E310" s="3">
+        <v>0</v>
+      </c>
+      <c r="F310" s="3">
+        <v>3</v>
+      </c>
+      <c r="G310" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1304, 286, 33, 0, 0, 3);</v>
       </c>
     </row>
   </sheetData>
